--- a/docs/exports/articles_3y.xlsx
+++ b/docs/exports/articles_3y.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,39 +468,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PLUGGYAPE Malware Uses Signal and WhatsApp to Target Ukrainian Defense Forces</t>
+          <t>Google plans to make Chrome for Android an agentic browser with Gemini</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/pluggyape-malware-uses-signal-and.html</t>
+          <t>https://www.bleepingcomputer.com/news/artificial-intelligence/google-plans-to-make-chrome-for-android-an-agentic-browser-with-gemini/</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -510,29 +510,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Takaichi and Lee end first day of summit on a high note with drum session - Reuters</t>
+          <t>DHS reports non-fatal shooting of man sought in immigration enforcement stop - Reuters</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQUFY3eWVKSUFQYXlxQXhwQUZGaVFvN1hiLTI1LXZTd0VveHdaNTRJbnUxOEZuNzhhUHBEZUp3WWE1OU5scUdTRTFlVTdjWkQ3eGdHdW9WbTctOVFYSFd4RkNDbU12Z2RzemppelpMckRaNE53NTMxUnd2blFyXy00V3N5d0J5cUJWWnhiMzEtR0lpS0lJMnR0emxXbXo0cDlmaC1nWnhITl9qeVg0cjRRdWZGel9kWmM?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQRW92OFhIazVsVThxY0pzOHVYOGNnWHhvY0J3dDBIOEdhYTBMN0N1T1pZZGFDVVgwdnlDVklScndsUFpLaGY1cHNBY2JMdzJWM1ZLTmtxclRPc2VIamZBdGloV1Z2SG5RLUthYWNvckdCd2pqN2lHZXhhcEdfTnlHNkcya2RiNVhnS182X0FhN094MXVXRGxIX1R1NEhCRHRRTGxLQ282SlpQaU5DU1p5aU11MTJQak4yQTAzV0VNVlA?oc=5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -542,22 +542,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gold notches record high, silver cracks $90 on Fed rate cut bets - Reuters</t>
+          <t>Toyota Industries' shares hit record as market hopes for higher buyout offer - Reuters</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPMDVHbjVCZURFTGl4X1FWMGtPSnh1NmN5NkhXdndsLWxnbWFJNTRUUUJseHV2T0VfWWhWc3pucUpUOHVRSEVWR2JKaXZwTVc5UnpZWmxOMWtXV3FqT3RIQXRzbmdORlRhMkg4UGNrUFFFdUJJaDNxTDg1UTRfSmlPNV85U0VnQ2NLNkRtTW96aUxvQjlNNEh3dkx3MW5NdGtERlRLc1Fhc3M?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxOY25vZ2dfN1I1bXZLaDZyNHBXUE1BT2ZVTkFtdl92VTdNRmp6Sm1vMTdFdHZGa3lkbTQ5YXVmZmxocE1YUy1qcU42cHYzQ001QjBraHMyZTAyQVN2UVJwcmVLTF9NNXBsWDFHeS1aR0xSVndmMWVKUHN3OTI2Z3ZnQUowVElFSS1BMW1CekxhbldORnp3cXNuMm1icW1ONV96WlZxREdRMzZjZmVWd0drVGxJUVQtX3VRYWVBZDdMaWZobkhfb2pVczBSUDAtVjA2MHhaT01DTFMyckx1M0txSVAydw?oc=5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -569,27 +569,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ready, steady gold! Safety bid adds fuel to cenbank fire - Reuters</t>
+          <t>Secure Connectivity Principles for Operational Technology (OT)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxNYURRZnRjcXc0Q1V0M0E0VUdBbWhMVm5rS2NzSXItbkR5bk5hWGx0ZXdMNV81Q0dzTkRuckJWcndEenpTZEl5SUhNc0dwS1R1TGMyUjNGWlBhM254d1FqU0NlM1NzNFRtZFhYUEY3czlxeUFVX1B1M29nVml1elViNl9odlNJTGhrN0lkd3BEWHdXLUNKeE5PZHR5dTB4Z1hjdWV5aVJReWFseUFOQTdqQ1hSYWY?oc=5</t>
+          <t>https://www.cisa.gov/resources-tools/resources/secure-connectivity-principles-operational-technology-ot</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Trump urges Iranians to keep protesting, saying 'help is on its way' - Reuters</t>
+          <t>Inside RedVDS: How a single virtual desktop provider fueled worldwide cybercriminal operations</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQNzdvSXBtajhYdGFUZ3pLMU40djlOWUdDTGJZQ3Z3UEt5aDdNZ3djam1YTEFqZFlEOHhqS2NxV2lPUzREZXdad2FQZ2Z0NWNyU3JJdGtqakd1b1F3SnZTY29RSG9oSUNIRFNtdXNYSkxLTURzTzRRdWctZ2kzaExEX2hGQ0MwdEdzQm5PVldZMEQ2VUFQSFRwSm4wWU42NWg3aUxYRzRDUkdPM2FvWXVyMnh4NGVnUWs?oc=5</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/14/inside-redvds-how-a-single-virtual-desktop-provider-fueled-worldwide-cybercriminal-operations/</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>China's trade ends 2025 with record $1.2 trillion surplus despite Trump tariff jolt - Reuters</t>
+          <t>Microsoft named a Leader in IDC MarketScape for Unified AI Governance Platforms</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOUTJBRGwwTTYzOEZ1ZGJxeDhqbHVXOWJ3ejBrY2c3ZzVDZXhIRV9IemtkRG15MERacVJQVnZxcVVTeWVqZnlkZ3pkVWJpY2RXTGxCV3EtOFhUQ29WUDBuSVdWY0M3WlBTRG1TTWlpVjNxd3JEMGxpZkd6YzR6eGxxZkhObERkc1NXSnJwT3pHQ2ZHUXhzdDNjQmxrYzJST0lQWXBZRVpvdHFIMVNlb2RUc3RLMFI1RnYybDFlWlp3c04xaC10cFlj?oc=5</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/14/microsoft-named-a-leader-in-idc-marketscape-for-unified-ai-governance-platforms/</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chipmaker Nexperia and Chinese owner Wingtech fight for control in Dutch court - Reuters</t>
+          <t>Poland says it repelled major cyberattack on power grid, blames Russia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxNUjA2QmJ6NEdoSWl0bVJwRzFMbUZidDdPZldURzl5a1dSNUgwTEZvajVsLWZMdXl5WUxNTG5hSkNkcy13ZkM5RnlRLXc2Zmp2T2d3S3JWem9VVU04UHVrcm5yMmhGQjJDUFZUa19JNzdKeGdlWUlXX0FNSmRPaEd2MUE1aUlkSTFxbXFHQ1FyRDVZY2NZWE5yYXc0NzhKa0pzZDM5MkY5Z016TmZmX2RveUNjV3dRdw?oc=5</t>
+          <t>https://therecord.media/poland-cyberattack-grid-russia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -697,145 +697,145 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Trump says he thinks China can open its markets to US goods - Reuters</t>
+          <t>'VoidLink' Malware Poses Advanced Threat to Linux Systems</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxONVBCX2drb3JScmU2TTYyMi1uVC1ZVU02S0NtNFRiSHhUZm5fOG9HaFBaN3dXNWs3V0RGUEE4amVOS2RrT1BlNWM4QjhOLVM1NzNQSERYNl9lQUFEQ0NDa0VsMEN3QlBUTFE2UFZOVF8tcjNrQjlEYjQ5c2o2SVMycEZQOFhHazJySVVzaXNHNzlyZ0ttcFpYWDhCUVgwcndYS2tV?oc=5</t>
+          <t>https://www.darkreading.com/cloud-security/voidlink-malware-advanced-threat-linux-systems</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rockwell Automation 432ES-IG3 Series A</t>
+          <t>Retail, Services Industries Under Fire in Oceania</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-01</t>
+          <t>https://www.darkreading.com/cybersecurity-analytics/retail-services-industries-oceania</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rockwell Automation FactoryTalk DataMosaix Private Cloud</t>
+          <t>Chrome 144, Firefox 147 Patch High-Severity Vulnerabilities</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-02</t>
+          <t>https://www.securityweek.com/chrome-144-firefox-147-patch-high-severity-vulnerabilities/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>YoSmart YoLink Smart Hub</t>
+          <t>Fortinet Patches Critical Vulnerabilities in FortiFone, FortiSIEM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-03</t>
+          <t>https://www.securityweek.com/fortinet-patches-critical-vulnerabilities-in-fortifone-fortisiem/</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Predator Spyware Turns Failed Attacks Into Intelligence for Future Exploits</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2026/01/13/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.securityweek.com/predator-spywares-granular-anti-analysis-features-exposed/</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -845,29 +845,29 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>January 2026 Patch Tuesday: 114 CVEs Patched Including 3 Zero-Days</t>
+          <t>RedVDS Cybercrime Service Disrupted by Microsoft and Law Enforcement</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/patch-tuesday-analysis-january-2026/</t>
+          <t>https://www.securityweek.com/redvds-cybercrime-service-disrupted-by-microsoft-and-law-enforcement/</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -877,93 +877,93 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CrowdStrike to Acquire Seraphic to Secure Work in Any Browser</t>
+          <t>ConsentFix debrief: Insights from the new OAuth phishing attack</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-seraphic/</t>
+          <t>https://www.bleepingcomputer.com/news/security/consentfix-debrief-insights-from-the-new-oauth-phishing-attack/</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Remote Code Execution With Modern AI/ML Formats and Libraries</t>
+          <t>Verizon Wireless outage puts phones in SOS mode without cell service</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/rce-vulnerabilities-in-ai-python-libraries/</t>
+          <t>https://www.bleepingcomputer.com/news/mobile/verizon-wireless-outage-puts-phones-in-sos-mode-without-cell-service/</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Threat Brief: MongoDB Vulnerability (CVE-2025-14847)</t>
+          <t>Exploit code public for critical FortiSIEM command injection flaw</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/mongobleed-cve-2025-14847/</t>
+          <t>https://www.bleepingcomputer.com/news/security/exploit-code-public-for-critical-fortisiem-command-injection-flaw/</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -973,157 +973,157 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Senior military cyber operator removed from Russia task force</t>
+          <t>South Korean giant Kyowon confirms data theft in ransomware attack</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://therecord.media/senior-military-cyber-op-removed-russia-task-force</t>
+          <t>https://www.bleepingcomputer.com/news/security/south-korean-giant-kyowon-confirms-data-theft-in-ransomware-attack/</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ukraine parliament approves resignation of security service chief in major reshuffle</t>
+          <t>Critical Node.js Vulnerability Can Cause Server Crashes via async_hooks Stack Overflow</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://therecord.media/ukraine-parliament-approves-resignation-sbu-chief</t>
+          <t>https://thehackernews.com/2026/01/critical-nodejs-vulnerability-can-cause.html</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Attackers Abuse Python, Cloudflare to Deliver AsyncRAT</t>
+          <t>Microsoft Fixes 114 Windows Flaws in January 2026 Patch, One Actively Exploited</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/attackers-abuse-python-cloudflare-deliver-asyncrat</t>
+          <t>https://thehackernews.com/2026/01/microsoft-fixes-114-windows-flaws-in.html</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Shadow#Reactor Uses Text Files to Deliver Remcos RAT</t>
+          <t>Fortinet Fixes Critical FortiSIEM Flaw Allowing Unauthenticated Remote Code Execution</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/shadow-reactor-uses-text-files-to-deliver-remcos-rat</t>
+          <t>https://thehackernews.com/2026/01/fortinet-fixes-critical-fortisiem-flaw.html</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Microsoft Starts 2026 With a Bang: A Freshly Exploited Zero-Day</t>
+          <t>Hackers Exploit c-ares DLL Side-Loading to Bypass Security and Deploy Malware</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/application-security/microsofts-starts-2026-bang-zero-day</t>
+          <t>https://thehackernews.com/2026/01/hackers-exploit-c-ares-dll-side-loading.html</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1133,29 +1133,29 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>'Most Severe AI Vulnerability to Date' Hits ServiceNow</t>
+          <t>AI Agents Are Becoming Privilege Escalation Paths</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/ai-vulnerability-servicenow</t>
+          <t>https://thehackernews.com/2026/01/ai-agents-are-becoming-privilege.html</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1165,93 +1165,93 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SAP’s January 2026 Security Updates Patch Critical Vulnerabilities</t>
+          <t>Researchers Null-Route Over 550 Kimwolf and Aisuru Botnet Command Servers</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/saps-january-2026-security-updates-patch-critical-vulnerabilities/</t>
+          <t>https://thehackernews.com/2026/01/kimwolf-botnet-infected-over-2-million.html</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Broadcom Wi-Fi Chipset Flaw Allows Hackers to Disrupt Networks</t>
+          <t>Ukraine's new defence minister vows innovation on battlefield - Reuters</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/broadcom-wi-fi-chipset-flaw-allows-hackers-to-disrupt-networks/</t>
+          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQb2daQ3g2Z2RSZTBuTVZaUlcydWVlV2x5cmdWN3Q4UVVKdkVIaF9DSnJVN0pSUVZfbWRza050YTVOLXA1c1Y1cHZxSDQyRjFadUV1SjFpcmFpaTd3eWlQSWRPUjNOTW41c3ZVTTItcXIyNWhyWG0xMlVHUW1OdHVtU2w3bVFLQXhQTTZYeVVobjVjQ3BNQjVFRTIwWUNjaW5ONG5jekpNcFEzZ1RN?oc=5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>After Goldman, JPMorgan Discloses Law Firm Data Breach</t>
+          <t>US healthcare spending soars to over $5 trillion in 2024 - Reuters</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/after-goldman-jpmorgan-discloses-law-firm-data-breach/</t>
+          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxOT21DRkZVNjY2R19RNGJrWnNzT0ptYjZzR3c0VVpOMEhLV1BSSDNZdk5jbzhGZmFUZzl6UVJsdmlLZmI1TDZzTV9Tb2hBSXQ1Rm5kdjBtNmU2RFB4a3hJNUpEWXRMZ3pqWE9pZWJ5TEt0eFJLZmtkcmhJWU1iYW1oTjJJNzd5VDZiVVBUX0Z6WmNKMEpiNk5Fei1sUGdLM3dfVDNuMg?oc=5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1261,194 +1261,194 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GoBruteforcer Botnet Targeting Crypto, Blockchain Projects</t>
+          <t>France explores sending Eutelsat terminals to Iran amid internet blackout - Reuters</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/gobruteforcer-botnet-targeting-crypto-blockchain-projects/</t>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOc3BHY0RmQVl0TnI4NFZEdGhEd3R2eHd1bk04dDFFYkdLNmJSYTdJNGx6LVVIcUVwVUwtQnhoVWJNek5oYWx3dFU2NmNTa2cwcmhzaXNyMTV6VmdpRTA4NHhiQ0NWS3VNUUEtdnJyTTBKeGJ2dGlBNnJYM21NQjhHY2VkVkNuNmEzMFJqX1hWYkZjeTB0bVk3ejNjbXN1MHVBWjhDQjdXSkJhN091VnV0WGRBaTQ4cWlOSWZTaWFNVjY2RF81d1hJ?oc=5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Microsoft Patches Exploited Windows Zero-Day, 111 Other Vulnerabilities</t>
+          <t>Tech, banks weigh on Wall Street; Trump eases Iran oil fears - Reuters</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/microsoft-patches-exploited-windows-zero-day-111-other-vulnerabilities/</t>
+          <t>https://news.google.com/rss/articles/CBMie0FVX3lxTE9PNkpWSU0yUEpxb0YwdFVSSm9oTEt6M1ZqSWpndXhHM2FBWVJsTkk2SHVNaHJXQVJ4VF85OHhVWHFuN0lpX0N3cWF5Q3BralI0UWNHNm4tWml4QXAwLU1VRmVZZWtYejBpMFdEWjdvVjdWZkRoLTNxLXM1Yw?oc=5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Adobe Patches Critical Apache Tika Bug in ColdFusion</t>
+          <t>German-Israel deal strengthens cyber defence, German minister says - Reuters</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/adobe-patches-critical-apache-tika-bug-in-coldfusion/</t>
+          <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxPM190VDRucnBsRHkyZzlOOEJfSmU2T1lRa05BWjZVcnNsQlROaENkU252WjYxUU1Cb0JPaDNRRWZaXzhaREhiVWY0LWJ4Z3drZC1JSnpfaXZRMk5vd3VtTEhYdl8zUVo2ellZN0tkVHB1V3ppd1prME0tTGlBblotLU1HTnE3Vm5sa0VlNUxPVDdVSHhmdDgzUE5PTVdsLW1oXzRnemNUQ19lVzN0ODc3alB3SXlkeUtGazMw?oc=5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CrowdStrike to Acquire Browser Security Firm Seraphic for $420 Million</t>
+          <t>Exclusive: Beijing tells Chinese firms to stop using US and Israeli cybersecurity software, sources say - Reuters</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/crowdstrike-to-acquire-browser-security-firm-seraphic-for-420-million/</t>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQZmNIRDZEN3d5ZXRyNnN5eHc2X0NlZkppN2dnSlpzeFQtTVhDVjJmeWx2aDg4QjQtM0wyRjkxY0ZuNnlOWlJNUmhRSWl4SzJMc1VjT0F1ZDBKMGNsZzJFc3ZodTd3S3dGRnBhRDlqZVdhZ1RwMVlQU1c1SkZQcXNjTGg1V0gxQTZGc004Y0tXeFpTRXZlQTNCdHJvb2tjRTNKTzVfMUdicjRWeHMxa2FhNlNDWGZxUjJBMWljYm9mYUEydGI1OC1z?oc=5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Target employees confirm leaked source code is authentic</t>
+          <t>Belgian cybersecurity startup Aikido hits unicorn status with new funding round - Reuters</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/target-employees-confirm-leaked-source-code-is-authentic/</t>
+          <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxQcjZHZjZ3NHpBajduLVg0ZU9XaWV4TGNxLVQzQmF4bktuQWwzWU9kQmltZVpRaGN6QThhYmxlOU9vckZTa2RHd3BtMkNRNkVjWmd6OUlzUjdERURJN2ZER0paa2R3Q0tIVW9qbFdQR19xcW9WbzZhMlpBd1VKQWJvVlpCdFRPeENEOTB4YzM2WFZXTHNIMkxMOXpxVjFqd2dSWklFZ3U5YlRCTVJ5VDEwdWpEN2tHdU1feFBUenpiR2drc2lq?oc=5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Convincing LinkedIn comment-reply tactic used in new phishing</t>
+          <t>PLUGGYAPE Malware Uses Signal and WhatsApp to Target Ukrainian Defense Forces</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/convincing-linkedin-comment-reply-tactic-used-in-new-phishing/</t>
+          <t>https://thehackernews.com/2026/01/pluggyape-malware-uses-signal-and.html</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1460,22 +1460,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Betterment confirms data breach after wave of crypto scam emails</t>
+          <t>Takaichi and Lee end first day of summit on a high note with drum session - Reuters</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/betterment-confirms-data-breach-after-wave-of-crypto-scam-emails/</t>
+          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQUFY3eWVKSUFQYXlxQXhwQUZGaVFvN1hiLTI1LXZTd0VveHdaNTRJbnUxOEZuNzhhUHBEZUp3WWE1OU5scUdTRTFlVTdjWkQ3eGdHdW9WbTctOVFYSFd4RkNDbU12Z2RzemppelpMckRaNE53NTMxUnd2blFyXy00V3N5d0J5cUJWWnhiMzEtR0lpS0lJMnR0emxXbXo0cDlmaC1nWnhITl9qeVg0cjRRdWZGel9kWmM?oc=5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1492,27 +1492,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Google confirms Android bug causing volume key issues</t>
+          <t>Gold notches record high, silver cracks $90 on Fed rate cut bets - Reuters</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/google/google-confirms-android-bug-causing-volume-key-issues/</t>
+          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPMDVHbjVCZURFTGl4X1FWMGtPSnh1NmN5NkhXdndsLWxnbWFJNTRUUUJseHV2T0VfWWhWc3pucUpUOHVRSEVWR2JKaXZwTVc5UnpZWmxOMWtXV3FqT3RIQXRzbmdORlRhMkg4UGNrUFFFdUJJaDNxTDg1UTRfSmlPNV85U0VnQ2NLNkRtTW96aUxvQjlNNEh3dkx3MW5NdGtERlRLc1Fhc3M?oc=5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1524,27 +1524,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Microsoft January 2026 Patch Tuesday fixes 3 zero-days, 114 flaws</t>
+          <t>Ready, steady gold! Safety bid adds fuel to cenbank fire - Reuters</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/microsoft/microsoft-january-2026-patch-tuesday-fixes-3-zero-days-114-flaws/</t>
+          <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxNYURRZnRjcXc0Q1V0M0E0VUdBbWhMVm5rS2NzSXItbkR5bk5hWGx0ZXdMNV81Q0dzTkRuckJWcndEenpTZEl5SUhNc0dwS1R1TGMyUjNGWlBhM254d1FqU0NlM1NzNFRtZFhYUEY3czlxeUFVX1B1M29nVml1elViNl9odlNJTGhrN0lkd3BEWHdXLUNKeE5PZHR5dTB4Z1hjdWV5aVJReWFseUFOQTdqQ1hSYWY?oc=5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1556,22 +1556,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>New Windows updates replace expiring Secure Boot certificates</t>
+          <t>Trump urges Iranians to keep protesting, saying 'help is on its way' - Reuters</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/microsoft-rolls-out-new-secure-boot-certificates-for-windows-devices/</t>
+          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQNzdvSXBtajhYdGFUZ3pLMU40djlOWUdDTGJZQ3Z3UEt5aDdNZ3djam1YTEFqZFlEOHhqS2NxV2lPUzREZXdad2FQZ2Z0NWNyU3JJdGtqakd1b1F3SnZTY29RSG9oSUNIRFNtdXNYSkxLTURzTzRRdWctZ2kzaExEX2hGQ0MwdEdzQm5PVldZMEQ2VUFQSFRwSm4wWU42NWg3aUxYRzRDUkdPM2FvWXVyMnh4NGVnUWs?oc=5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1588,27 +1588,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Belgian hospital AZ Monica shuts down servers after cyberattack</t>
+          <t>China's trade ends 2025 with record $1.2 trillion surplus despite Trump tariff jolt - Reuters</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/belgian-hospital-az-monica-shuts-down-servers-after-cyberattack/</t>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOUTJBRGwwTTYzOEZ1ZGJxeDhqbHVXOWJ3ejBrY2c3ZzVDZXhIRV9IemtkRG15MERacVJQVnZxcVVTeWVqZnlkZ3pkVWJpY2RXTGxCV3EtOFhUQ29WUDBuSVdWY0M3WlBTRG1TTWlpVjNxd3JEMGxpZkd6YzR6eGxxZkhObERkc1NXSnJwT3pHQ2ZHUXhzdDNjQmxrYzJST0lQWXBZRVpvdHFIMVNlb2RUc3RLMFI1RnYybDFlWlp3c04xaC10cFlj?oc=5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1620,27 +1620,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>New VoidLink malware framework targets Linux cloud servers</t>
+          <t>Chipmaker Nexperia and Chinese owner Wingtech fight for control in Dutch court - Reuters</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/new-voidlink-malware-framework-targets-linux-cloud-servers/</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxNUjA2QmJ6NEdoSWl0bVJwRzFMbUZidDdPZldURzl5a1dSNUgwTEZvajVsLWZMdXl5WUxNTG5hSkNkcy13ZkM5RnlRLXc2Zmp2T2d3S3JWem9VVU04UHVrcm5yMmhGQjJDUFZUa19JNzdKeGdlWUlXX0FNSmRPaEd2MUE1aUlkSTFxbXFHQ1FyRDVZY2NZWE5yYXc0NzhKa0pzZDM5MkY5Z016TmZmX2RveUNjV3dRdw?oc=5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1652,27 +1652,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ukraine's army targeted in new charity-themed malware campaign</t>
+          <t>Trump says he thinks China can open its markets to US goods - Reuters</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/ukraines-army-targeted-in-new-charity-themed-malware-campaign/</t>
+          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxONVBCX2drb3JScmU2TTYyMi1uVC1ZVU02S0NtNFRiSHhUZm5fOG9HaFBaN3dXNWs3V0RGUEE4amVOS2RrT1BlNWM4QjhOLVM1NzNQSERYNl9lQUFEQ0NDa0VsMEN3QlBUTFE2UFZOVF8tcjNrQjlEYjQ5c2o2SVMycEZQOFhHazJySVVzaXNHNzlyZ0ttcFpYWDhCUVgwcndYS2tV?oc=5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1689,27 +1689,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CISA Warns of Active Exploitation of Gogs Vulnerability Enabling Code Execution</t>
+          <t>CrowdStrike to Buy Seraphic Security in Bid to Boost Browser Security</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/cisa-warns-of-active-exploitation-of.html</t>
+          <t>https://www.darkreading.com/remote-workforce/crowdstrike-buy-seraphic-security-boost-browser-security</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -1721,27 +1721,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>New Malware Campaign Delivers Remcos RAT Through Multi-Stage Windows Attack</t>
+          <t>Bloomberg Index Services defers including Indian bonds in global index - Reuters</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/new-malware-campaign-delivers-remcos.html</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQR1lPWGVrdzBFTjRKWVh5cEFSVWI1c01ZTmdYTTFKRUpJWDJMdE5nRG1uaU16TEVTa3dnRHJNV296dlRoSF9oZy1RcUViSnhPWVFMTXkyZGc0Um54UEozM0dzYnk0emRJd2VlR3FuNWFUZ2xzUlNzeVJmN1Y2YndEUDZ5cTNRNjluM1NOWWRzbzhueGVKWG5NNGtJa2dza1djblc2SUdUbDV0N1lLWE1VdFVqMzBGdw?oc=5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -1753,22 +1753,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ServiceNow Patches Critical AI Platform Flaw Allowing Unauthenticated User Impersonation</t>
+          <t>Rockwell Automation 432ES-IG3 Series A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/servicenow-patches-critical-ai-platform.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-01</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1785,22 +1785,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>New Advanced Linux VoidLink Malware Targets Cloud and container Environments</t>
+          <t>Rockwell Automation FactoryTalk DataMosaix Private Cloud</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/new-advanced-linux-voidlink-malware.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-02</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1817,17 +1817,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Senior Russian official says Greenland could vote to join Russia if Trump does not hurry - Reuters</t>
+          <t>YoSmart YoLink Smart Hub</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxQWGRiQ1h1elVpU09iYzkzbkNXSkpqT1J0SDRhM1ZzZ3VHcnRFN0o3U3d5cjZiV0U5bGx5bmsyaEwtTnpqam0wYUk1SE9sbzVuUE1neVp5Z1FydFJFRmxia2ljVE1OdWtxV2lWeWotNTZrZl92Wno2cElMcG5zNk1sU0xyMjh6cjNmRHByTzIwTnZFcXppMXlpczJ4NVBhRVRsZW9sVldoR1hGcUxjdkVsMXB5bEcxV3RHaHpNRjZn?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-03</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1849,22 +1849,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Trump says inflation data means Fed can cut interest rates - Reuters</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOb1RPV1JkVVVGcXpVb3IwVXMzeHEwNmdnUU8tWktMQmVhMUc4UElTMEJmWkdoTjRrWWJzNmtJRm1vTndoRVF4SGx5R09oSXJaeDlmUEdsYnE4RU1XRHN3SWpCZEN1YTU4MGdVbWwwamoxQ1J1SzVPekdrNkZfVE5QVjR4R0pTYklPX3hDbXBMWkZYVmFwNGV2blc0RXdjT3d2UWs0aWZTaWxXZw?oc=5</t>
+          <t>https://www.cisa.gov/news-events/alerts/2026/01/13/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1881,22 +1881,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>China limits Nvidia chip purchases to special circumstances, Information reports - Reuters</t>
+          <t>January 2026 Patch Tuesday: 114 CVEs Patched Including 3 Zero-Days</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxNQU5YR3BRNnBjUndkYWJqNnFnSFlDS2xYYVFycUp5UmZoeExwaUFaeThuaXZKdmlWOS12MU9iN3RwYVcwdmUtd2xQS0lNMkpxYjBCNkZpc09pMWNPSVNCcHVLMHdKYUo2VUx4c0pkajVURmFnU1Qta0tGYkRNdkpsWXIzSHFHNk5YQWZuTTFpUEZneW82aTJZaXJybG8wa0VkWGJ3c2tpNFBrVXdYVXhQY1RFcmU3MjJoTnZqX1ZWZDh4dw?oc=5</t>
+          <t>https://www.crowdstrike.com/en-us/blog/patch-tuesday-analysis-january-2026/</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1913,22 +1913,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Tomlin steps down as Steelers' coach after 19 seasons - Reuters</t>
+          <t>CrowdStrike to Acquire Seraphic to Secure Work in Any Browser</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxNZ3N6RXJfUG5LbjhDMVhRMkxYS2l1UkdiWUF0eU5jRFQyMVpXd3FRLVllNE53WUh6NjRBNVFZU3MtaGpFR1VhdHN6S2hIbUJOS2c2X1hHdS0xWDdnTEFQd0wtaWR6RlF1S1I1UnFVbDI4WWlLdkhNUHpPVm54cWJXV1hYek10WG9ZZG5VSVdnRXRISXF1OEJV?oc=5</t>
+          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-seraphic/</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1945,22 +1945,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Trump probe of Fed chair stresses need for global diversification - Reuters</t>
+          <t>Remote Code Execution With Modern AI/ML Formats and Libraries</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNWUtZdWRtOC1FSkp4SEVuVktuMkNBLXAtSXZNOE5FX1doOTdvaFpuNjdaZHNsaVpOMFNFOTlYMC1KdTNKamh1azAxNVlJU2JXVzdrMGZQaXJwTDhqWE9VQXJXRkJSMWgxT3VMQkw0NGZFMTQ4YmNVZGFocHZfcEY3MVhGcXk0WlhtODZKRFRBM0s2QjlIRTBHajEzdEZFNFI4aGVtTVFR?oc=5</t>
+          <t>https://unit42.paloaltonetworks.com/rce-vulnerabilities-in-ai-python-libraries/</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1977,22 +1977,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Pope Leo to visit Angola as part of an Africa tour, Vatican envoy says - Reuters</t>
+          <t>Threat Brief: MongoDB Vulnerability (CVE-2025-14847)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxNRndWQmRaMzR3ZXlFbjZQbk0zV1JYSFA1Qy1FVUJSQUVCX3ExVzZnYmFFVUtFdmdpZnl3ZGNzOUFRRWJRTEpCTnloNkFNRUNVcjdBeThPcmZqYVFUbXlfNXduRC1PZkg4WURJVEVTdkRsR24zYjd2amRQZHRhN2NSaXZLLXB3UWZ2b0RiaDNBM0hkYzFuVmNYdHl6VHA0aXNqSy00dg?oc=5</t>
+          <t>https://unit42.paloaltonetworks.com/mongobleed-cve-2025-14847/</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2009,22 +2009,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Wall Street expects strong fourth-quarter earnings driven by robust US economy - Reuters</t>
+          <t>Senior military cyber operator removed from Russia task force</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxOUnc1ZC1sYk1ETFVDWUpGQkpkRnlSd0hhVXJKZmF4dlMzREhxV0NGS1VjbFpheEQtZkYyelJtT0gxbGhmb2I1eWtHYzhSaTZlUktabXNhd1N3X0ZQOTJjZXNxdVVYMlRqZVR6MHF0c1AyNEhhZ2gxc19iaTdzWWVQQkhxMFk0amw2YWZVdXUyaVFVZ19rZHp4clIyOVdIMVhxYjdRYWxsSnFDUy1wTGJwNEhYUERRZ3BJRTFzM01hYVppRmotbXpBaVZHVQ?oc=5</t>
+          <t>https://therecord.media/senior-military-cyber-op-removed-russia-task-force</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2041,22 +2041,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Polygon targets stablecoin payments with deals worth $250 million - Reuters</t>
+          <t>Ukraine parliament approves resignation of security service chief in major reshuffle</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQTXBYdG9GYnhtWGp2MlgzSm0zTGR5QUxFdFAyR2JrZHNLQ1dUaGVBOWQxa2hucUN0VWxXdmdXT1NuYkNiWG54WmloUTJBcFoyYjlLUDJwUVNjT2tBYkFpN3BMNzVDUlMtV0tET3d2cjRMREl6bXJTSm42UTZYUGNLTVFVWlZ4V0luRGdGb1NBcjhaTFlGWnZCZkdJVjBFTDctcC1pYW1SYUVLQ0NVS3c?oc=5</t>
+          <t>https://therecord.media/ukraine-parliament-approves-resignation-sbu-chief</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2073,22 +2073,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>EU to 'swiftly' propose further sanctions on Iran, von der Leyen says - Reuters</t>
+          <t>Attackers Abuse Python, Cloudflare to Deliver AsyncRAT</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxQblFzQUFWcGxwaEtsVlBPcmdMRExLaS1BekxsaWJTSU14elNKY3ZES1o3LVNPdjJwb1dGT1lGQ3ZaMm1uNDRPc05TLUlkUTRwQ19sODRsbGhSemVoM0NRMC1TVktLandoVkNJNG9wSGJQcVUyb1FpLWpWLWdaQWhFdE5kOEo1SGJLRElnNG52M0p0cTVFeGtjVkR5dGR2OXU3b2xlTg?oc=5</t>
+          <t>https://www.darkreading.com/endpoint-security/attackers-abuse-python-cloudflare-deliver-asyncrat</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2105,22 +2105,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Britain seeks 'reset' in copyright battle between AI and creators - Reuters</t>
+          <t>Shadow#Reactor Uses Text Files to Deliver Remcos RAT</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQN1RNSkNXMDF2bXVkOVV5VnIyRW5GNk9JMzljdmd1dlB2TVFTLXI3bWMzUGJYWG9JLTFRNHFaUHlqcjlRNjFhQ2c2cDhVMVdqYU91VWYtQ01JRUE0ZTgyLXFVcEowVXYzcGd3bUtLaF9Xa1RORW1CdnBuVmMtakVqbkJFNzZab0w2OUdQaFlFMi04N0NMRU16Nzdfajc3SHRFbHd1ckt0cGNZOU9FcnpoTnEzSS1tQQ?oc=5</t>
+          <t>https://www.darkreading.com/endpoint-security/shadow-reactor-uses-text-files-to-deliver-remcos-rat</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2137,22 +2137,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Bill and Hillary Clinton refuse to testify in House Epstein probe, could be held in contempt - Reuters</t>
+          <t>Microsoft Starts 2026 With a Bang: A Freshly Exploited Zero-Day</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNbHhxUGFmX3kxTGFGRkxiSGJ1ZlVqZVJQZlhWc3ZyRTU0dmdhaERIYnJJS3NJTVlJYWdURHI2VVZzYWVRcldDeHpQRlhMTHBLZ3ZLZHRUMjNIazFzVUNHTGQtbVJIZGJNVWEza3I3dExvVDZLaHR1UVkyVVhsSGlCX0MtV2NmOVRDYkdpRG9PaHgzSFNLVUd0OHN3WlhJRzVfX1E0c3g5bjducThD?oc=5</t>
+          <t>https://www.darkreading.com/application-security/microsofts-starts-2026-bang-zero-day</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2169,22 +2169,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Wall St slips on credit card proposal, rate bets boost gold - Reuters</t>
+          <t>'Most Severe AI Vulnerability to Date' Hits ServiceNow</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiigFBVV95cUxPUVoxcXJ6WjA4UUcwYlJoY1FTVFUyNzJlRVFkU0pvVFIwWDJuTk9NaXVCRFV4ZlRQRUFWQXBhZ05ycHViU09UdzgzdUJ2RE9ndjlwQVVDYXVhcHBVVXZ4V3V1NXU5SC1IVDlYVmljSmFCY0Zhei1wSDJxcWRnX0lqZ0twREl4Rl9ZNHc?oc=5</t>
+          <t>https://www.darkreading.com/remote-workforce/ai-vulnerability-servicenow</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2201,22 +2201,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>US teachers union says it is leaving X over sexualized AI images of children - Reuters</t>
+          <t>SAP’s January 2026 Security Updates Patch Critical Vulnerabilities</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPeFlRczdTUUd1bWdNbVhnVTV6TEw3WVVPWURSal9uU1oxYWdyTTd6Nzg4QldFdlk2U1pfVkdlVC1vaHNzYk5DWVhHSWw5MXlETUI4RTZKOGJsRmVNdmFjbmw4dkpfQUhyNENpVHdGRnQ5MHBLSU9jSjREa282Q3VSaEVoNm1ENlhvS3BzWTUyU2MyMndudTJpOVFoc2xkeG5DMklOUUNEZ2EtTnc3UTVEd2FkSnJRbGhhVVNMN1lPem1tcmV6eXY2Qjc5djhhODg?oc=5</t>
+          <t>https://www.securityweek.com/saps-january-2026-security-updates-patch-critical-vulnerabilities/</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2233,22 +2233,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Massive cyberattack on Polish power system in December failed, minister says - Reuters</t>
+          <t>Broadcom Wi-Fi Chipset Flaw Allows Hackers to Disrupt Networks</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxNcjE3N3FhUUJKU3VPbm5aTWpsUVFFQmhaQUJfR0h0OGNvQlZVN1BfckZpTTBZNjhzdmxka1lrWFVXa2RxWEwxRHl6ZlNoa2dmSG9ZQkp3X0tRZldjdVZUMkVlUkQwR2REcUdwcmN5R0k4eUx5UkxnUEEwa0s1aGlJS2NjRGVFaDdkV1I1X3gwYmNNbVQxYUc0Rmoxb2g1WnlleUVHcDdacjlXSUJYX0N6bG0wb0JscDlEbWQxRXJPTmtsWmt6a3o3QTlFVy1SZU1C?oc=5</t>
+          <t>https://www.securityweek.com/broadcom-wi-fi-chipset-flaw-allows-hackers-to-disrupt-networks/</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2260,27 +2260,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>After Goldman, JPMorgan Discloses Law Firm Data Breach</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2026/01/12/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.securityweek.com/after-goldman-jpmorgan-discloses-law-firm-data-breach/</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2292,27 +2292,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2 Separate Campaigns Probe Corporate LLMs for Secrets</t>
+          <t>GoBruteforcer Botnet Targeting Crypto, Blockchain Projects</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/separate-campaigns-target-exposed-llm-services</t>
+          <t>https://www.securityweek.com/gobruteforcer-botnet-targeting-crypto-blockchain-projects/</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2324,27 +2324,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Hexnode Moves into Endpoint Security With Hexnode XDR</t>
+          <t>Microsoft Patches Exploited Windows Zero-Day, 111 Other Vulnerabilities</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/hexnode-marks-its-move-into-endpoint-security-with-hexnode-xdr</t>
+          <t>https://www.securityweek.com/microsoft-patches-exploited-windows-zero-day-111-other-vulnerabilities/</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2356,27 +2356,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>FBI Flags Quishing Attacks From North Korean APT</t>
+          <t>Adobe Patches Critical Apache Tika Bug in ColdFusion</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/mobile-security/fbi-quishing-attacks-north-korean-apt</t>
+          <t>https://www.securityweek.com/adobe-patches-critical-apache-tika-bug-in-coldfusion/</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2388,27 +2388,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Multipurpose GoBruteforcer Botnet Targets 50K+ Linux Servers</t>
+          <t>CrowdStrike to Acquire Browser Security Firm Seraphic for $420 Million</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/threat-intelligence/gobruteforcer-botnet-targets-50k-plus-linux-servers</t>
+          <t>https://www.securityweek.com/crowdstrike-to-acquire-browser-security-firm-seraphic-for-420-million/</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2420,22 +2420,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GoBruteforcer Botnet Targets Crypto Project Databases by Exploiting Weak Credentials</t>
+          <t>Target employees confirm leaked source code is authentic</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/gobruteforcer-botnet-targets-crypto.html</t>
+          <t>https://www.bleepingcomputer.com/news/security/target-employees-confirm-leaked-source-code-is-authentic/</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2452,27 +2452,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>⚡ Weekly Recap: AI Automation Exploits, Telecom Espionage, Prompt Poaching &amp; More</t>
+          <t>Convincing LinkedIn comment-reply tactic used in new phishing</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/weekly-recap-ai-automation-exploits.html</t>
+          <t>https://www.bleepingcomputer.com/news/security/convincing-linkedin-comment-reply-tactic-used-in-new-phishing/</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2484,27 +2484,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>n8n Supply Chain Attack Abuses Community Nodes to Steal OAuth Tokens</t>
+          <t>Betterment confirms data breach after wave of crypto scam emails</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/n8n-supply-chain-attack-abuses.html</t>
+          <t>https://www.bleepingcomputer.com/news/security/betterment-confirms-data-breach-after-wave-of-crypto-scam-emails/</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2516,27 +2516,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MuddyWater Launches RustyWater RAT via Spear-Phishing Across Middle East Sectors</t>
+          <t>Google confirms Android bug causing volume key issues</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/muddywater-launches-rustywater-rat-via.html</t>
+          <t>https://www.bleepingcomputer.com/news/google/google-confirms-android-bug-causing-volume-key-issues/</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2548,27 +2548,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>US military says it carried out strikes across Syria targeting Islamic State - Reuters</t>
+          <t>Microsoft January 2026 Patch Tuesday fixes 3 zero-days, 114 flaws</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxNN2E5MFN1TTREVFVMQm5ZRU8tc2hCX3hqV3hhMXNWRWFhY1ZDVVE5cEJ3cGZXajkxQmxxaUMzWmg2LTBGbmE2OENaZGU4Vm9NcHM4V0N1OERtY0RSWVA2aUdTYkdpWEhER1lSLVpSSHVHZk84VENENlh4TXJERnJ4dkJVS2RlMGxjcEFQTEdTbUZuUlgzbW15UzFoX0xHbE0zdFNmZTdzUFMyYXc0cElLcnExYmlMcTY2SlBhd2diVUxjT1dHZTdMOGln?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/microsoft/microsoft-january-2026-patch-tuesday-fixes-3-zero-days-114-flaws/</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2580,27 +2580,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Russia’s Fancy Bear APT Doubles Down on Global Secrets Theft</t>
+          <t>New Windows updates replace expiring Secure Boot certificates</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/russian-apt-credentials-global-targets</t>
+          <t>https://www.bleepingcomputer.com/news/security/microsoft-rolls-out-new-secure-boot-certificates-for-windows-devices/</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2612,27 +2612,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Illicit Crypto Economy Surges Amid Increased Nation-State Activity</t>
+          <t>Belgian hospital AZ Monica shuts down servers after cyberattack</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyber-risk/illicit-crypto-economy-surges-nation-states</t>
+          <t>https://www.bleepingcomputer.com/news/security/belgian-hospital-az-monica-shuts-down-servers-after-cyberattack/</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2644,27 +2644,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Deepfake Fraud Tools Are Lagging Behind Expectations</t>
+          <t>New VoidLink malware framework targets Linux cloud servers</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/deepfake-fraud-tools-lag-expectations</t>
+          <t>https://www.bleepingcomputer.com/news/security/new-voidlink-malware-framework-targets-linux-cloud-servers/</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2676,27 +2676,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>FBI Warns North Korean Hackers Using Malicious QR Codes in Spear-Phishing</t>
+          <t>Ukraine's army targeted in new charity-themed malware campaign</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/fbi-warns-north-korean-hackers-using.html</t>
+          <t>https://www.bleepingcomputer.com/news/security/ukraines-army-targeted-in-new-charity-themed-malware-campaign/</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2708,7 +2708,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2718,17 +2718,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CISA Retires 10 Emergency Cybersecurity Directives Issued Between 2019 and 2024</t>
+          <t>CISA Warns of Active Exploitation of Gogs Vulnerability Enabling Code Execution</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/cisa-retires-10-emergency-cybersecurity.html</t>
+          <t>https://thehackernews.com/2026/01/cisa-warns-of-active-exploitation-of.html</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2750,17 +2750,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Trend Micro Apex Central RCE Flaw Scores 9.8 CVSS in On-Prem Windows Versions</t>
+          <t>New Malware Campaign Delivers Remcos RAT Through Multi-Stage Windows Attack</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/trend-micro-apex-central-rce-flaw.html</t>
+          <t>https://thehackernews.com/2026/01/new-malware-campaign-delivers-remcos.html</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2772,7 +2772,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2782,17 +2782,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Russian APT28 Runs Credential-Stealing Campaign Targeting Energy and Policy Organizations</t>
+          <t>ServiceNow Patches Critical AI Platform Flaw Allowing Unauthenticated User Impersonation</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/russian-apt28-runs-credential-stealing.html</t>
+          <t>https://thehackernews.com/2026/01/servicenow-patches-critical-ai-platform.html</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2804,7 +2804,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2814,17 +2814,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>China-Linked Hackers Exploit VMware ESXi Zero-Days to Escape Virtual Machines</t>
+          <t>New Advanced Linux VoidLink Malware Targets Cloud and container Environments</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/chinese-linked-hackers-exploit-vmware.html</t>
+          <t>https://thehackernews.com/2026/01/new-advanced-linux-voidlink-malware.html</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2836,22 +2836,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Hitachi Energy Asset Suite</t>
+          <t>Senior Russian official says Greenland could vote to join Russia if Trump does not hurry - Reuters</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-008-01</t>
+          <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxQWGRiQ1h1elVpU09iYzkzbkNXSkpqT1J0SDRhM1ZzZ3VHcnRFN0o3U3d5cjZiV0U5bGx5bmsyaEwtTnpqam0wYUk1SE9sbzVuUE1neVp5Z1FydFJFRmxia2ljVE1OdWtxV2lWeWotNTZrZl92Wno2cElMcG5zNk1sU0xyMjh6cjNmRHByTzIwTnZFcXppMXlpczJ4NVBhRVRsZW9sVldoR1hGcUxjdkVsMXB5bEcxV3RHaHpNRjZn?oc=5</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2868,27 +2868,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CrowdStrike to Acquire SGNL to Secure Every Identity in the AI Era</t>
+          <t>Trump says inflation data means Fed can cut interest rates - Reuters</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-sgnl/</t>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOb1RPV1JkVVVGcXpVb3IwVXMzeHEwNmdnUU8tWktMQmVhMUc4UElTMEJmWkdoTjRrWWJzNmtJRm1vTndoRVF4SGx5R09oSXJaeDlmUEdsYnE4RU1XRHN3SWpCZEN1YTU4MGdVbWwwamoxQ1J1SzVPekdrNkZfVE5QVjR4R0pTYklPX3hDbXBMWkZYVmFwNGV2blc0RXdjT3d2UWs0aWZTaWxXZw?oc=5</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2900,27 +2900,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Here's What Cloud Security's Future Holds for the Year Ahead</t>
+          <t>China limits Nvidia chip purchases to special circumstances, Information reports - Reuters</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/heres-cloud-security-holds-year-ahead</t>
+          <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxNQU5YR3BRNnBjUndkYWJqNnFnSFlDS2xYYVFycUp5UmZoeExwaUFaeThuaXZKdmlWOS12MU9iN3RwYVcwdmUtd2xQS0lNMkpxYjBCNkZpc09pMWNPSVNCcHVLMHdKYUo2VUx4c0pkajVURmFnU1Qta0tGYkRNdkpsWXIzSHFHNk5YQWZuTTFpUEZneW82aTJZaXJybG8wa0VkWGJ3c2tpNFBrVXdYVXhQY1RFcmU3MjJoTnZqX1ZWZDh4dw?oc=5</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>クラウド・サプライチェーン</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2932,27 +2932,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Maximum Severity HPE OneView Flaw Exploited in the Wild</t>
+          <t>Tomlin steps down as Steelers' coach after 19 seasons - Reuters</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/vulnerabilities-threats/maximum-severity-hpe-oneview-flaw-exploited</t>
+          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxNZ3N6RXJfUG5LbjhDMVhRMkxYS2l1UkdiWUF0eU5jRFQyMVpXd3FRLVllNE53WUh6NjRBNVFZU3MtaGpFR1VhdHN6S2hIbUJOS2c2X1hHdS0xWDdnTEFQd0wtaWR6RlF1S1I1UnFVbDI4WWlLdkhNUHpPVm54cWJXV1hYek10WG9ZZG5VSVdnRXRISXF1OEJV?oc=5</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2964,27 +2964,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CrowdStrike to Buy SGNL to Expand Identity Security Capabilities</t>
+          <t>Trump probe of Fed chair stresses need for global diversification - Reuters</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/crowdsrike-buy-sgnl-expand-identity-security-capabilities</t>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNWUtZdWRtOC1FSkp4SEVuVktuMkNBLXAtSXZNOE5FX1doOTdvaFpuNjdaZHNsaVpOMFNFOTlYMC1KdTNKamh1azAxNVlJU2JXVzdrMGZQaXJwTDhqWE9VQXJXRkJSMWgxT3VMQkw0NGZFMTQ4YmNVZGFocHZfcEY3MVhGcXk0WlhtODZKRFRBM0s2QjlIRTBHajEzdEZFNFI4aGVtTVFR?oc=5</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2996,27 +2996,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Coolify Discloses 11 Critical Flaws Enabling Full Server Compromise on Self-Hosted Instances</t>
+          <t>Pope Leo to visit Angola as part of an Africa tour, Vatican envoy says - Reuters</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/coolify-discloses-11-critical-flaws.html</t>
+          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxNRndWQmRaMzR3ZXlFbjZQbk0zV1JYSFA1Qy1FVUJSQUVCX3ExVzZnYmFFVUtFdmdpZnl3ZGNzOUFRRWJRTEpCTnloNkFNRUNVcjdBeThPcmZqYVFUbXlfNXduRC1PZkg4WURJVEVTdkRsR24zYjd2amRQZHRhN2NSaXZLLXB3UWZ2b0RiaDNBM0hkYzFuVmNYdHl6VHA0aXNqSy00dg?oc=5</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3028,27 +3028,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Researchers Uncover NodeCordRAT Hidden in npm Bitcoin-Themed Packages</t>
+          <t>Wall Street expects strong fourth-quarter earnings driven by robust US economy - Reuters</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/researchers-uncover-nodecordrat-hidden.html</t>
+          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxOUnc1ZC1sYk1ETFVDWUpGQkpkRnlSd0hhVXJKZmF4dlMzREhxV0NGS1VjbFpheEQtZkYyelJtT0gxbGhmb2I1eWtHYzhSaTZlUktabXNhd1N3X0ZQOTJjZXNxdVVYMlRqZVR6MHF0c1AyNEhhZ2gxc19iaTdzWWVQQkhxMFk0amw2YWZVdXUyaVFVZ19rZHp4clIyOVdIMVhxYjdRYWxsSnFDUy1wTGJwNEhYUERRZ3BJRTFzM01hYVppRmotbXpBaVZHVQ?oc=5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3060,27 +3060,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cisco Patches ISE Security Vulnerability After Public PoC Exploit Release</t>
+          <t>Polygon targets stablecoin payments with deals worth $250 million - Reuters</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/cisco-patches-ise-security.html</t>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQTXBYdG9GYnhtWGp2MlgzSm0zTGR5QUxFdFAyR2JrZHNLQ1dUaGVBOWQxa2hucUN0VWxXdmdXT1NuYkNiWG54WmloUTJBcFoyYjlLUDJwUVNjT2tBYkFpN3BMNzVDUlMtV0tET3d2cjRMREl6bXJTSm42UTZYUGNLTVFVWlZ4V0luRGdGb1NBcjhaTFlGWnZCZkdJVjBFTDctcC1pYW1SYUVLQ0NVS3c?oc=5</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3092,27 +3092,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>The State of Trusted Open Source</t>
+          <t>EU to 'swiftly' propose further sanctions on Iran, von der Leyen says - Reuters</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/the-state-of-trusted-open-source.html</t>
+          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxQblFzQUFWcGxwaEtsVlBPcmdMRExLaS1BekxsaWJTSU14elNKY3ZES1o3LVNPdjJwb1dGT1lGQ3ZaMm1uNDRPc05TLUlkUTRwQ19sODRsbGhSemVoM0NRMC1TVktLandoVkNJNG9wSGJQcVUyb1FpLWpWLWdaQWhFdE5kOEo1SGJLRElnNG52M0p0cTVFeGtjVkR5dGR2OXU3b2xlTg?oc=5</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3124,27 +3124,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ThreatsDay Bulletin: RustFS Flaw, Iranian Ops, WebUI RCE, Cloud Leaks, and 12 More Stories</t>
+          <t>Britain seeks 'reset' in copyright battle between AI and creators - Reuters</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/threatsday-bulletin-rustfs-flaw-iranian.html</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQN1RNSkNXMDF2bXVkOVV5VnIyRW5GNk9JMzljdmd1dlB2TVFTLXI3bWMzUGJYWG9JLTFRNHFaUHlqcjlRNjFhQ2c2cDhVMVdqYU91VWYtQ01JRUE0ZTgyLXFVcEowVXYzcGd3bUtLaF9Xa1RORW1CdnBuVmMtakVqbkJFNzZab0w2OUdQaFlFMi04N0NMRU16Nzdfajc3SHRFbHd1ckt0cGNZOU9FcnpoTnEzSS1tQQ?oc=5</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3156,27 +3156,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>China-Linked UAT-7290 Targets Telecoms with Linux Malware and ORB Nodes</t>
+          <t>Bill and Hillary Clinton refuse to testify in House Epstein probe, could be held in contempt - Reuters</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/china-linked-uat-7290-targets-telecoms.html</t>
+          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNbHhxUGFmX3kxTGFGRkxiSGJ1ZlVqZVJQZlhWc3ZyRTU0dmdhaERIYnJJS3NJTVlJYWdURHI2VVZzYWVRcldDeHpQRlhMTHBLZ3ZLZHRUMjNIazFzVUNHTGQtbVJIZGJNVWEza3I3dExvVDZLaHR1UVkyVVhsSGlCX0MtV2NmOVRDYkdpRG9PaHgzSFNLVUd0OHN3WlhJRzVfX1E0c3g5bjducThD?oc=5</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3188,22 +3188,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>WhatsApp Worm Spreads Astaroth Banking Trojan Across Brazil via Contact Auto-Messaging</t>
+          <t>Wall St slips on credit card proposal, rate bets boost gold - Reuters</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/whatsapp-worm-spreads-astaroth-banking.html</t>
+          <t>https://news.google.com/rss/articles/CBMiigFBVV95cUxPUVoxcXJ6WjA4UUcwYlJoY1FTVFUyNzJlRVFkU0pvVFIwWDJuTk9NaXVCRFV4ZlRQRUFWQXBhZ05ycHViU09UdzgzdUJ2RE9ndjlwQVVDYXVhcHBVVXZ4V3V1NXU5SC1IVDlYVmljSmFCY0Zhei1wSDJxcWRnX0lqZ0twREl4Rl9ZNHc?oc=5</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3220,7 +3220,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3230,17 +3230,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CrowdStrike to buy identity security startup SGNL for $740 million to tackle AI threats - Reuters</t>
+          <t>US teachers union says it is leaving X over sexualized AI images of children - Reuters</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxPWlhETmluVjRhN2hIZzFjdFdKcTkwUGJXeGJKeGxnekxmR1dYaE1SNEJwWGJzWFVWanl6bkRYcWlkQzBYNVJFY0pWWDh4bE4wcGw5Vk5IWDZEcklwS1o1VkE4aDVHOG9sd1QxaUNObDJFWVVUTnJVWXpibkNTM0FmRWhTQ3hHS0lFaFlBUVdvb2Y4aTNGbTkxbFVmXzJWZlVRczloTE8xR2M3M1NfeU1fcnVCOTlzbmY5R0lVOTVYaFM?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPeFlRczdTUUd1bWdNbVhnVTV6TEw3WVVPWURSal9uU1oxYWdyTTd6Nzg4QldFdlk2U1pfVkdlVC1vaHNzYk5DWVhHSWw5MXlETUI4RTZKOGJsRmVNdmFjbmw4dkpfQUhyNENpVHdGRnQ5MHBLSU9jSjREa282Q3VSaEVoNm1ENlhvS3BzWTUyU2MyMndudTJpOVFoc2xkeG5DMklOUUNEZ2EtTnc3UTVEd2FkSnJRbGhhVVNMN1lPem1tcmV6eXY2Qjc5djhhODg?oc=5</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3252,27 +3252,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CISA Adds Two Known Exploited Vulnerabilities to Catalog</t>
+          <t>Massive cyberattack on Polish power system in December failed, minister says - Reuters</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2026/01/07/cisa-adds-two-known-exploited-vulnerabilities-catalog</t>
+          <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxNcjE3N3FhUUJKU3VPbm5aTWpsUVFFQmhaQUJfR0h0OGNvQlZVN1BfckZpTTBZNjhzdmxka1lrWFVXa2RxWEwxRHl6ZlNoa2dmSG9ZQkp3X0tRZldjdVZUMkVlUkQwR2REcUdwcmN5R0k4eUx5UkxnUEEwa0s1aGlJS2NjRGVFaDdkV1I1X3gwYmNNbVQxYUc0Rmoxb2g1WnlleUVHcDdacjlXSUJYX0N6bG0wb0JscDlEbWQxRXJPTmtsWmt6a3o3QTlFVy1SZU1C?oc=5</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3284,22 +3284,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Explore the latest Microsoft Incident Response proactive services for enhanced resilience</t>
+          <t>US federal prosecutors open inquiry into US Fed chair Powell, NYT reports - Reuters</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2026/01/07/explore-the-latest-microsoft-incident-response-proactive-services-for-enhanced-resilience/</t>
+          <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxPZnBOOG80WVFRYXN3ZkktVHc5VmpvejVYLUtMam1uemVkWDRBTnpBZ0dUUWxnVUdxeE5TVXEwOTB4SktMY3FseHQ0VzZLRTYtaW9QaHNINnRWS0ZBckN0b2ptLUp3cmtUWWY2ZnBiQmg5cGRHQ094WFVNNWVuN0tCYkgwS3N4VFhEQ3NnOXFILUVhUU9mbVZzdXZJYzIwZVBfMmdhdDVaUjBha2hSVENOZFpYSXBEaW42?oc=5</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3309,34 +3309,34 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Lack of MFA Is Common Thread in Vast Cloud Credential Heist</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/lack-mfa-common-thread-vast-cloud-credential-heist</t>
+          <t>https://www.cisa.gov/news-events/alerts/2026/01/12/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3348,7 +3348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3358,17 +3358,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DDoSia Powers Affiliate-Driven Hacktivist Attacks</t>
+          <t>2 Separate Campaigns Probe Corporate LLMs for Secrets</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/ddosia-powers-volunteer-driven-hacktivist-attacks</t>
+          <t>https://www.darkreading.com/endpoint-security/separate-campaigns-target-exposed-llm-services</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3380,7 +3380,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3390,17 +3390,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Cyberattacks Likely Part of Military Operation in Venezuela</t>
+          <t>Hexnode Moves into Endpoint Security With Hexnode XDR</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cybersecurity-operations/cyberattacks-part-military-operation-venezuela</t>
+          <t>https://www.darkreading.com/endpoint-security/hexnode-marks-its-move-into-endpoint-security-with-hexnode-xdr</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3412,7 +3412,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3422,17 +3422,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Phishers Exploit Office 365 Users Who Let Their Guard Down</t>
+          <t>FBI Flags Quishing Attacks From North Korean APT</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/phishers-exploit-office-365-users-guard-down</t>
+          <t>https://www.darkreading.com/mobile-security/fbi-quishing-attacks-north-korean-apt</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3444,7 +3444,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Attackers Exploit Zero-Day in End-of-Life D-Link Routers</t>
+          <t>Multipurpose GoBruteforcer Botnet Targets 50K+ Linux Servers</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/attackers-exploit-zero-day-end-of-life-d-link-routers</t>
+          <t>https://www.darkreading.com/threat-intelligence/gobruteforcer-botnet-targets-50k-plus-linux-servers</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3476,27 +3476,27 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Columbia Weather Systems MicroServer</t>
+          <t>GoBruteforcer Botnet Targets Crypto Project Databases by Exploiting Weak Credentials</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-006-01</t>
+          <t>https://thehackernews.com/2026/01/gobruteforcer-botnet-targets-crypto.html</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3508,27 +3508,27 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>How CrowdStrike&amp;rsquo;s Malware Analysis Agent Detects Malware at Machine Speed</t>
+          <t>⚡ Weekly Recap: AI Automation Exploits, Telecom Espionage, Prompt Poaching &amp; More</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/how-crowdstrike-detects-malware-at-machine-speed/</t>
+          <t>https://thehackernews.com/2026/01/weekly-recap-ai-automation-exploits.html</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3540,27 +3540,27 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Phishing actors exploit complex routing and misconfigurations to spoof domains</t>
+          <t>n8n Supply Chain Attack Abuses Community Nodes to Steal OAuth Tokens</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2026/01/06/phishing-actors-exploit-complex-routing-and-misconfigurations-to-spoof-domains/</t>
+          <t>https://thehackernews.com/2026/01/n8n-supply-chain-attack-abuses.html</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3572,27 +3572,27 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ClickFix Campaign Serves Up Fake Blue Screen of Death</t>
+          <t>MuddyWater Launches RustyWater RAT via Spear-Phishing Across Middle East Sectors</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/clickfix-campaign-fake-blue-screen-of-death</t>
+          <t>https://thehackernews.com/2026/01/muddywater-launches-rustywater-rat-via.html</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3604,22 +3604,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Advisor360 Gets a Handle on Shadow AI via Automation</t>
+          <t>US military says it carried out strikes across Syria targeting Islamic State - Reuters</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/advisor360-gets-handle-on-shadow-ai-via-automation</t>
+          <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxNN2E5MFN1TTREVFVMQm5ZRU8tc2hCX3hqV3hhMXNWRWFhY1ZDVVE5cEJ3cGZXajkxQmxxaUMzWmg2LTBGbmE2OENaZGU4Vm9NcHM4V0N1OERtY0RSWVA2aUdTYkdpWEhER1lSLVpSSHVHZk84VENENlh4TXJERnJ4dkJVS2RlMGxjcEFQTEdTbUZuUlgzbW15UzFoX0xHbE0zdFNmZTdzUFMyYXc0cElLcnExYmlMcTY2SlBhd2diVUxjT1dHZTdMOGln?oc=5</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3636,7 +3636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3646,17 +3646,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Startup Trends Shaking Up Browsers, SOC Automation, AppSec</t>
+          <t>Russia’s Fancy Bear APT Doubles Down on Global Secrets Theft</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/startup-trends-shaking-up-browsers-soc-automation-appsec</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/russian-apt-credentials-global-targets</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3668,27 +3668,27 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>VVS Discord Stealer Using Pyarmor for Obfuscation and Detection Evasion</t>
+          <t>Illicit Crypto Economy Surges Amid Increased Nation-State Activity</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/vvs-stealer/</t>
+          <t>https://www.darkreading.com/cyber-risk/illicit-crypto-economy-surges-nation-states</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3700,27 +3700,27 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CISA Releases Two Industrial Control Systems Advisories</t>
+          <t>Deepfake Fraud Tools Are Lagging Behind Expectations</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/30/cisa-releases-two-industrial-control-systems-advisories</t>
+          <t>https://www.darkreading.com/remote-workforce/deepfake-fraud-tools-lag-expectations</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3732,27 +3732,27 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>WHILL Model C2 Electric Wheelchairs and Model F Power Chairs</t>
+          <t>FBI Warns North Korean Hackers Using Malicious QR Codes in Spear-Phishing</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-medical-advisories/icsma-25-364-01</t>
+          <t>https://thehackernews.com/2026/01/fbi-warns-north-korean-hackers-using.html</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3764,27 +3764,27 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>CISA Retires 10 Emergency Cybersecurity Directives Issued Between 2019 and 2024</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/29/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://thehackernews.com/2026/01/cisa-retires-10-emergency-cybersecurity.html</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3796,27 +3796,27 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Streamline Security Operations with Falcon for IT&amp;rsquo;s Turnkey Automations</t>
+          <t>Trend Micro Apex Central RCE Flaw Scores 9.8 CVSS in On-Prem Windows Versions</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/streamline-security-operations-falcon-for-it-automations/</t>
+          <t>https://thehackernews.com/2026/01/trend-micro-apex-central-rce-flaw.html</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3828,27 +3828,27 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>A power outage can turn dangerous fast. Here’s how to prepare - AP News</t>
+          <t>Russian APT28 Runs Credential-Stealing Campaign Targeting Energy and Policy Organizations</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOYWEwWVN1SmpIaWxleEJ5QkZYcnNhczJ0UHo5NEgwYnlXOGZFNURlTTU2MWkyMkpiWXlPLWJtdjItekppdW9iZnVKQ05OZEtaQ0ppTUJ4LTNkc2Fta3lXYlFPY2gzVWNhQ2U4dGtCcWZ6YlFlblNXMk9jUjJ3WThXaWNVVDlGUDJ0S2hTeFBySG50ajlOOTlCUnRONlJGdnlvelZESlA3cEdEUQ?oc=5</t>
+          <t>https://thehackernews.com/2026/01/russian-apt28-runs-credential-stealing.html</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3860,27 +3860,27 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CISA Releases One Industrial Control Systems Advisory</t>
+          <t>China-Linked Hackers Exploit VMware ESXi Zero-Days to Escape Virtual Machines</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/23/cisa-releases-one-industrial-control-systems-advisory</t>
+          <t>https://thehackernews.com/2026/01/chinese-linked-hackers-exploit-vmware.html</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3892,7 +3892,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3902,17 +3902,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>NIST and CISA Release Draft Interagency Report on Protecting Tokens and Assertions from Tampering Theft and Misuse for Public Comment</t>
+          <t>Hitachi Energy Asset Suite</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/nist-and-cisa-release-draft-interagency-report-protecting-tokens-and-assertions-tampering-theft-and</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-008-01</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3924,27 +3924,27 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>CrowdStrike to Acquire SGNL to Secure Every Identity in the AI Era</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-sgnl/</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3956,27 +3956,27 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Here's What Cloud Security's Future Holds for the Year Ahead</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.darkreading.com/cloud-security/heres-cloud-security-holds-year-ahead</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>クラウド・サプライチェーン</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3988,27 +3988,27 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CISA and Partners Release Update to Malware Analysis Report BRICKSTORM Backdoor</t>
+          <t>Maximum Severity HPE OneView Flaw Exploited in the Wild</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-and-partners-release-update-malware-analysis-report-brickstorm-backdoor</t>
+          <t>https://www.darkreading.com/vulnerabilities-threats/maximum-severity-hpe-oneview-flaw-exploited</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4020,27 +4020,27 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Inside CrowdStrike&amp;rsquo;s Science-Backed Approach to Building Expert SOC Agents</t>
+          <t>CrowdStrike to Buy SGNL to Expand Identity Security Capabilities</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/inside-crowdstrikes-science-backed-approach-to-building-soc-agents/</t>
+          <t>https://www.darkreading.com/endpoint-security/crowdsrike-buy-sgnl-expand-identity-security-capabilities</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4052,27 +4052,27 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CISA Releases Nine Industrial Control Systems Advisories</t>
+          <t>Coolify Discloses 11 Critical Flaws Enabling Full Server Compromise on Self-Hosted Instances</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/18/cisa-releases-nine-industrial-control-systems-advisories</t>
+          <t>https://thehackernews.com/2026/01/coolify-discloses-11-critical-flaws.html</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4084,27 +4084,27 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Mitsubishi Electric Iconics Digital Solutions and Mitsubishi Electrics Products</t>
+          <t>Researchers Uncover NodeCordRAT Hidden in npm Bitcoin-Themed Packages</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-04</t>
+          <t>https://thehackernews.com/2026/01/researchers-uncover-nodecordrat-hidden.html</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4116,27 +4116,27 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Axis Communications Camera Station Pro, Camera Station, and Device Manager</t>
+          <t>Cisco Patches ISE Security Vulnerability After Public PoC Exploit Release</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-08</t>
+          <t>https://thehackernews.com/2026/01/cisco-patches-ise-security.html</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4148,27 +4148,27 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Rockwell Automation Micro820, Micro850, Micro870</t>
+          <t>The State of Trusted Open Source</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-07</t>
+          <t>https://thehackernews.com/2026/01/the-state-of-trusted-open-source.html</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4180,27 +4180,27 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>National Instruments LabView</t>
+          <t>ThreatsDay Bulletin: RustFS Flaw, Iranian Ops, WebUI RCE, Cloud Leaks, and 12 More Stories</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-03</t>
+          <t>https://thehackernews.com/2026/01/threatsday-bulletin-rustfs-flaw-iranian.html</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4212,27 +4212,27 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Advantech WebAccess/SCADA</t>
+          <t>China-Linked UAT-7290 Targets Telecoms with Linux Malware and ORB Nodes</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-06</t>
+          <t>https://thehackernews.com/2026/01/china-linked-uat-7290-targets-telecoms.html</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4244,27 +4244,27 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Siemens Interniche IP-Stack</t>
+          <t>WhatsApp Worm Spreads Astaroth Banking Trojan Across Brazil via Contact Auto-Messaging</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-05</t>
+          <t>https://thehackernews.com/2026/01/whatsapp-worm-spreads-astaroth-banking.html</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4276,27 +4276,27 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Inductive Automation Ignition</t>
+          <t>CrowdStrike to buy identity security startup SGNL for $740 million to tackle AI threats - Reuters</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-01</t>
+          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxPWlhETmluVjRhN2hIZzFjdFdKcTkwUGJXeGJKeGxnekxmR1dYaE1SNEJwWGJzWFVWanl6bkRYcWlkQzBYNVJFY0pWWDh4bE4wcGw5Vk5IWDZEcklwS1o1VkE4aDVHOG9sd1QxaUNObDJFWVVUTnJVWXpibkNTM0FmRWhTQ3hHS0lFaFlBUVdvb2Y4aTNGbTkxbFVmXzJWZlVRczloTE8xR2M3M1NfeU1fcnVCOTlzbmY5R0lVOTVYaFM?oc=5</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4308,7 +4308,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4318,17 +4318,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Schneider Electric EcoStruxure Foxboro DCS Advisor</t>
+          <t>CISA Adds Two Known Exploited Vulnerabilities to Catalog</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-02</t>
+          <t>https://www.cisa.gov/news-events/alerts/2026/01/07/cisa-adds-two-known-exploited-vulnerabilities-catalog</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4340,27 +4340,27 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>CISA Adds Three Known Exploited Vulnerabilities to Catalog</t>
+          <t>Explore the latest Microsoft Incident Response proactive services for enhanced resilience</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/17/cisa-adds-three-known-exploited-vulnerabilities-catalog</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/07/explore-the-latest-microsoft-incident-response-proactive-services-for-enhanced-resilience/</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4372,22 +4372,22 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Access Fabric: A modern approach to identity and network access</t>
+          <t>Lack of MFA Is Common Thread in Vast Cloud Credential Heist</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2025/12/17/access-fabric-a-modern-approach-to-identity-and-network-access/</t>
+          <t>https://www.darkreading.com/cloud-security/lack-mfa-common-thread-vast-cloud-credential-heist</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4404,22 +4404,22 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Mitsubishi Electric GT Designer3</t>
+          <t>DDoSia Powers Affiliate-Driven Hacktivist Attacks</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-04</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/ddosia-powers-volunteer-driven-hacktivist-attacks</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4436,27 +4436,27 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Hitachi Energy AFS, AFR and AFF Series</t>
+          <t>Cyberattacks Likely Part of Military Operation in Venezuela</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-03</t>
+          <t>https://www.darkreading.com/cybersecurity-operations/cyberattacks-part-military-operation-venezuela</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4468,27 +4468,27 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Johnson Controls PowerG, IQPanel and IQHub</t>
+          <t>Phishers Exploit Office 365 Users Who Let Their Guard Down</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-02</t>
+          <t>https://www.darkreading.com/cloud-security/phishers-exploit-office-365-users-guard-down</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4500,22 +4500,22 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Attackers Exploit Zero-Day in End-of-Life D-Link Routers</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/16/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/attackers-exploit-zero-day-end-of-life-d-link-routers</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4532,27 +4532,27 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Microsoft named an overall leader in KuppingerCole Leadership Compass for Generative AI Defense</t>
+          <t>Columbia Weather Systems MicroServer</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/blog/microsoft-security-blog/microsoft-named-an-overall-leader-in-kuppingercole-leadership-compass-for-genera/4478093</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-006-01</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4564,27 +4564,27 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Defending against the CVE-2025-55182 (React2Shell) vulnerability in React Server Components</t>
+          <t>How CrowdStrike&amp;rsquo;s Malware Analysis Agent Detects Malware at Machine Speed</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2025/12/15/defending-against-the-cve-2025-55182-react2shell-vulnerability-in-react-server-components/</t>
+          <t>https://www.crowdstrike.com/en-us/blog/how-crowdstrike-detects-malware-at-machine-speed/</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4596,22 +4596,22 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Exploitation of Critical Vulnerability in React Server Components (Updated December 12)</t>
+          <t>Phishing actors exploit complex routing and misconfigurations to spoof domains</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/cve-2025-55182-react-and-cve-2025-66478-next/</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/06/phishing-actors-exploit-complex-routing-and-misconfigurations-to-spoof-domains/</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4628,27 +4628,27 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Hamas-Affiliated Ashen Lepus Targets Middle Eastern Diplomatic Entities With New AshTag Malware Suite</t>
+          <t>ClickFix Campaign Serves Up Fake Blue Screen of Death</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/hamas-affiliate-ashen-lepus-uses-new-malware-suite-ashtag/</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/clickfix-campaign-fake-blue-screen-of-death</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4660,27 +4660,27 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Imposter for hire: How fake people can gain very real access</t>
+          <t>Advisor360 Gets a Handle on Shadow AI via Automation</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2025/12/11/imposter-for-hire-how-fake-people-can-gain-very-real-access/</t>
+          <t>https://www.darkreading.com/remote-workforce/advisor360-gets-handle-on-shadow-ai-via-automation</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4692,27 +4692,27 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>01flip: Multi-Platform Ransomware Written in Rust</t>
+          <t>Startup Trends Shaking Up Browsers, SOC Automation, AppSec</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/new-ransomware-01flip-written-in-rust/</t>
+          <t>https://www.darkreading.com/endpoint-security/startup-trends-shaking-up-browsers-soc-automation-appsec</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ランサムウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4724,27 +4724,27 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>From awareness to action: Building a security-first culture for the agentic AI era</t>
+          <t>VVS Discord Stealer Using Pyarmor for Obfuscation and Detection Evasion</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/microsoft-cloud/blog/2025/12/10/from-awareness-to-action-building-a-security-first-culture-for-the-agentic-ai-era/</t>
+          <t>https://unit42.paloaltonetworks.com/vvs-stealer/</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4756,27 +4756,27 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Further Hardening Android GPUs</t>
+          <t>CISA Releases Two Industrial Control Systems Advisories</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/12/further-hardening-android-gpus.html</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/30/cisa-releases-two-industrial-control-systems-advisories</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4788,27 +4788,27 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Android expands pilot for in-call scam protection for financial apps</t>
+          <t>WHILL Model C2 Electric Wheelchairs and Model F Power Chairs</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/12/android-expands-pilot-in-call-scam-protection-financial-apps.html</t>
+          <t>https://www.cisa.gov/news-events/ics-medical-advisories/icsma-25-364-01</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4820,27 +4820,27 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>The Golden Scale: 'Tis the Season for Unwanted Gifts</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/new-shinysp1d3r-ransomware/</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/29/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4852,27 +4852,27 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"Shai-Hulud" Worm Compromises npm Ecosystem in Supply Chain Attack (Updated November 26)</t>
+          <t>Streamline Security Operations with Falcon for IT&amp;rsquo;s Turnkey Automations</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/npm-supply-chain-attack/</t>
+          <t>https://www.crowdstrike.com/en-us/blog/streamline-security-operations-falcon-for-it-automations/</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>クラウド・サプライチェーン</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4884,27 +4884,27 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>AP News</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Android Quick Share Support for AirDrop: A Secure Approach to Cross-Platform File Sharing</t>
+          <t>A power outage can turn dangerous fast. Here’s how to prepare - AP News</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/11/android-quick-share-support-for-airdrop-security.html</t>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOYWEwWVN1SmpIaWxleEJ5QkZYcnNhczJ0UHo5NEgwYnlXOGZFNURlTTU2MWkyMkpiWXlPLWJtdjItekppdW9iZnVKQ05OZEtaQ0ppTUJ4LTNkc2Fta3lXYlFPY2gzVWNhQ2U4dGtCcWZ6YlFlblNXMk9jUjJ3WThXaWNVVDlGUDJ0S2hTeFBySG50ajlOOTlCUnRONlJGdnlvelZESlA3cEdEUQ?oc=5</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4916,27 +4916,27 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Rust in Android: move fast and fix things</t>
+          <t>CISA Releases One Industrial Control Systems Advisory</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/11/rust-in-android-move-fast-fix-things.html</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/23/cisa-releases-one-industrial-control-systems-advisory</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4948,27 +4948,27 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>How Android provides the most effective protection to keep you safe from mobile scams</t>
+          <t>NIST and CISA Release Draft Interagency Report on Protecting Tokens and Assertions from Tampering Theft and Misuse for Public Comment</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/10/how-android-protects-you-from-scams.html</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/nist-and-cisa-release-draft-interagency-report-protecting-tokens-and-assertions-tampering-theft-and</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4980,27 +4980,27 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Microsoft: Russia, China increasingly using AI to escalate cyberattacks on the US - AP News</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxOREVSR1U5TUI4M1dZcE91Uk1FUlRPVm1YSk1tMXZqZXVTNUV0aF8yOFB3YnhiSWdiallOUndHai1BSzBqMEFzb3U4MVBvbnFsbS10MUhKQVJYQ1JZajAtODkxbzBEN2Z1a0FTUnZOekkyXy1jRjU4MzlYTkh5cFFKUndUZnN1bTJIVFpVTUxLWHZJNTZHT0ZkeGVmSElmQkI4QXBhd0JpZzJrenU3TGc?oc=5</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5012,27 +5012,27 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Accelerating adoption of AI for cybersecurity at DEF CON 33</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/09/accelerating-adoption-of-ai-for.html</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5044,22 +5044,22 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>How Pixel and Android are bringing a new level of trust to your images with C2PA Content Credentials</t>
+          <t>CISA and Partners Release Update to Malware Analysis Report BRICKSTORM Backdoor</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/09/pixel-android-trusted-images-c2pa-content-credentials.html</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-and-partners-release-update-malware-analysis-report-brickstorm-backdoor</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5076,27 +5076,27 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Android’s pKVM Becomes First Globally Certified Software to Achieve Prestigious SESIP Level 5 Security Certification</t>
+          <t>Inside CrowdStrike&amp;rsquo;s Science-Backed Approach to Building Expert SOC Agents</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/08/Android-pKVM-Certified-SESIP-Level-5.html</t>
+          <t>https://www.crowdstrike.com/en-us/blog/inside-crowdstrikes-science-backed-approach-to-building-soc-agents/</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5108,27 +5108,27 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Army secretary directs West Point to rescind appointment of Biden-era cybersecurity director - AP News</t>
+          <t>CISA Releases Nine Industrial Control Systems Advisories</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxNdVB0N2dnVF9IeEtXcFRjc0hXZEZad2pudUNuSGRacEJMSDJLOUdLNDFuODBVbUpfc1RDay04cHpPdHQ1M3JQTGRvLUo4NEdHUDFBZDRVdjdxZ0ZpNXFyNXZLOHhiZVhOX1o1VnNlRE1XbWhFc1VNWlBaem5LSUpFR2d6WURMbWhodGdfZEx1NDFQV05wRUZrWWlqTEI0czA?oc=5</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/18/cisa-releases-nine-industrial-control-systems-advisories</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5140,27 +5140,27 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Introducing OSS Rebuild: Open Source, Rebuilt to Last</t>
+          <t>Mitsubishi Electric Iconics Digital Solutions and Mitsubishi Electrics Products</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/07/introducing-oss-rebuild-open-source.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-04</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5172,27 +5172,27 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>The Czech Republic bans DeepSeek in state administration over cybersecurity concerns - AP News</t>
+          <t>Axis Communications Camera Station Pro, Camera Station, and Device Manager</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxPZHhUOFhYS0FhbHVLVEhLd213ODdQdU56eG0yQkw3N3lqRzMxWTNnLVdHZF9URFAzazNRUFVTeFVfanIxU2FFOFhuZEdSLW43dWZqQnBfOGZnQ0xpTThTeW84RE9wZ0UtUjZSNElZMFV6cF9PWFB0WFI0OVRmN0hUVmhMTHg2SnZKZHhCMA?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-08</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5204,27 +5204,27 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Advancing Protection in Chrome on Android</t>
+          <t>Rockwell Automation Micro820, Micro850, Micro870</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/07/advancing-protection-in-chrome-on.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-07</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5236,27 +5236,27 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Iranian-backed hackers go to work after US strikes - AP News</t>
+          <t>National Instruments LabView</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPX1RpNnA2Q1RHUS1RUXhINGkwTmhrZnN1QWxlREQ1WXBkblFEVnZqVVppRzhHeGxiWGFUM2ZXc2JVUW1JMkQzcFJDTGMydlRRS2Z5Vnd4YU9HY1JGWU01bVZfMjk1dzBBTG1yeGhDOHduc2lEdjBjcTNZQ3NGaDkwaVYxUHVmMmM1anNFXzlOR3YxSG0zR3hF?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-03</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5268,27 +5268,27 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Dutch government says pro-Russian hackers target municipalities linked to this week's NATO summit - AP News</t>
+          <t>Advantech WebAccess/SCADA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQNS1FNE9zWXZEbl9qUjBIdmhLWWFsZS1iRXQ2bnZPZlhSZUJNMm1pZ1VTcnM2Y1gycjZveTNyRk9RYVRETWd5WlVpNzA0VGJOZmN4SnlacURmNXY5WXBxejJNWmhtRHl1ZEdZTDZab2lrWDV3aVBBVkRXZ1RIV00ydVlaWWJlNnV1blgtUWJWc3NmTG1yT1I0c05tTHZtYk5kanQzX3dsVFVIYS01T0E?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-06</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5300,27 +5300,27 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Mitigating prompt injection attacks with a layered defense strategy</t>
+          <t>Siemens Interniche IP-Stack</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/06/mitigating-prompt-injection-attacks.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-05</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5332,27 +5332,27 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>What’s New in Android Security and Privacy in 2025</t>
+          <t>Inductive Automation Ignition</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/05/whats-new-in-android-security-privacy-2025.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-01</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5364,27 +5364,27 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>New security requirements adopted by HTTPS certificate industry</t>
+          <t>Schneider Electric EcoStruxure Foxboro DCS Advisor</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/03/new-security-requirements-adopted-by.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-02</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5396,27 +5396,27 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Google to buy cybersecurity firm Wiz for $32 billion in the biggest deal in company’s history - AP News</t>
+          <t>CISA Adds Three Known Exploited Vulnerabilities to Catalog</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxQVENFcGdMVURrVk9GZFVXN0NmOXZfZlZMVW9GTlRkX3dERklXeFEzcndndDAtZjN1dmRNZGZ6NFdCdTd4Ym43TS1kZ25NdkZrR21QUlpWbnlLVjRUSGNZZXJhczdWd0NtRmhMT2dXSExyaFdjeWZVOHVxSDd2V3ZPRURHS0oya1QzNmtRWU5GZ202Sktv?oc=5</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/17/cisa-adds-three-known-exploited-vulnerabilities-catalog</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5428,27 +5428,27 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Announcing OSV-Scanner V2: Vulnerability scanner and remediation tool for open source</t>
+          <t>Access Fabric: A modern approach to identity and network access</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/03/announcing-osv-scanner-v2-vulnerability.html</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2025/12/17/access-fabric-a-modern-approach-to-identity-and-network-access/</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5460,27 +5460,27 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Trump administration halts funding for two cybersecurity efforts, including one for elections - AP News</t>
+          <t>Mitsubishi Electric GT Designer3</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxQeXJVUGp0Y1F2U196TVZmMjJ6QlZ5MzRRVU83N19yaXR5eC1GemYyUlcxWjYtYTNoOGw5dGNkRG5BM3cwTGtTSWx3ZkFhY0lnRzZWLXdtY0FobjZOZG1tM0RUWng2MEVqY3dIOXdrRmoxNk9CeTVPX1phdkszUVNHMXNXVmdBQzZ4QURFVy01dWRtNHdLaHFEY1E2NmNtWWIwdFE?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-04</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5492,27 +5492,27 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>US cybersecurity agency's future role in elections remains murky under the Trump administration - AP News</t>
+          <t>Hitachi Energy AFS, AFR and AFF Series</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPMnRHWXk2WkZpWVRaZ2h5U3h0cWR1WlF6a3RnSGdBWE5pcTRITWxhbE51anlTZm00WlBsVW9xenlQMzQyd3VqM3Jjdm04LVhrakpzLW5HSlRuTFBjV2ZNSTU0b3ZUUERFX3o1Q0lodzI4XzNjdVhKNEVIUGduZ1NFNHVwYVIyTEp1VUg5cmhEZkQ4Zk40NkN6Rmc5eUFnTmZQVWdPbnJkYTJRQQ?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-03</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5524,27 +5524,27 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Delta sues cybersecurity firm CrowdStrike over tech outage that canceled flights - AP News</t>
+          <t>Johnson Controls PowerG, IQPanel and IQHub</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxOWWhiMEtqTE91UDVReXk4cndIVW82MzZOb3o3ZnVqZG9fT29vSnJfeXU1cjZFMk9aSkY5b3lIcmw3LTRHZThZenE1SEtLV2F2dW9JbU5KdnBNTklQZS0yS0NyVU9lZW1YWHpiSXA3Y2NkVTB2QlZEOEJhckNJY3R4VFBUcDVSZzcwNEprbWwwS21CeVF3aHJlWkVaci1TbFRtMm5V?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-02</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5556,27 +5556,27 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Cybersecurity head says there's no chance a foreign adversary can change US election results - AP News</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxPdV9seHI5VHlIQ1R5TTVkdXo2OFdJZmZRcHZRZ29GQm1QYTljdGJSbmRwcDQ1RmxkSF9XZEsyaFZ5ZHNqRTJvMmRwblQxNkFLc2xiaTAtS2hLeDFLV2tpaExYVHNRSGlRRjBGTXVzbHFMS2haSTNZak9INXBqODJQd1hIUlAxLXZ4Y3dWaDJmV1JLMFpCekxkUVBWR192TUVmVVdKSGhaY0JOUHhSWnc?oc=5</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/16/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5588,27 +5588,27 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Cisco cuts thousands of jobs, 7% of workforce, as it shifts focus to AI, cybersecurity - AP News</t>
+          <t>Microsoft named an overall leader in KuppingerCole Leadership Compass for Generative AI Defense</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxOcXN6clV0d2xaeDQ1aTNpdFhRaFNldVVzQ25LZHI3UGlMVUMxYmxLcklpbmFpRlRraHd3TDkwRW5YODM0SUlJOTNQM0dTTVFoZ0U3Zk90UnFESVl0dklxTWFuTEhoajZHRTVTeHhoMnNiVUx4VGlwOVBaMDR1Nm1GcW5OQUJzbk1uTkVOeG56aVpuWER4a3kzYw?oc=5</t>
+          <t>https://techcommunity.microsoft.com/blog/microsoft-security-blog/microsoft-named-an-overall-leader-in-kuppingercole-leadership-compass-for-genera/4478093</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5620,27 +5620,27 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>How a faulty CrowdStrike update crashed computers around the world - AP News</t>
+          <t>Defending against the CVE-2025-55182 (React2Shell) vulnerability in React Server Components</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQaDY4QjM5OFlLTzk2aW82YUN6eWh6Z1hlbjB4S3RiLThsX1cxZkE4Z19ia3c2SmEyb0RZamlrU3dDaXhIeVpFYWFseF9vV0pQbkRLOWM5eDFXdE9HOWgyU2ljczI4MG5vclpsS3l4QWpCWkpqOENuWXd0cUZLTVgtaWptWUhNeVZCd3VaREZNV3diVUF0a3FpZ193ZkprTUdWUGYyZTRn?oc=5</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2025/12/15/defending-against-the-cve-2025-55182-react2shell-vulnerability-in-react-server-components/</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5652,27 +5652,27 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Multiple threats to election systems prompt US cybersecurity agency to boost cooperation with states - AP News</t>
+          <t>Exploitation of Critical Vulnerability in React Server Components (Updated December 12)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNSkk1Wm1OWDVaRFlNQ2FINkNzWGVHMkJXSW1qX0FlUTJucDJyTXQ2RWx6WHZjLXdfX1pZSmRsVXhFZFBjNm5iTHVYTVdQX2ZvbC1ZUlZTU0Fid1B2SnRQYzRJZ3JnVkUzbGJNZlBnLWtwLTNSNV92Y2pEd3VsU3dDS0dPaWZScjM5Z1c4Um9icDdrZEhfOU54ZDNtU1JJSGxjYU5VQ2ln?oc=5</t>
+          <t>https://unit42.paloaltonetworks.com/cve-2025-55182-react-and-cve-2025-66478-next/</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5684,22 +5684,22 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Cyberattack on Pennsylvania courts didn’t appear to compromise data, officials say - AP News</t>
+          <t>Hamas-Affiliated Ashen Lepus Targets Middle Eastern Diplomatic Entities With New AshTag Malware Suite</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxOc2l0X3V5WFhxZUR5YWdoVUZzdThqQWhfNjRKNzlNcXhFMXRoX1VzQk9TTnBuR1lOaVBSN1g4Y1BmNHRjTVVHb3VkaWg5OWpkdnRxeW5aQ0puVndMMDdXMk41RG1sa0xvZzhuekRtZnEyTG51VzZRWi1MSlVfSDRfdENhSXNvM3ZPQS1oWlA2UDBta0xhWDJwdE5NQ04xREJnVllXdTVpLTc2NUF3dHZZYWJqbw?oc=5</t>
+          <t>https://unit42.paloaltonetworks.com/hamas-affiliate-ashen-lepus-uses-new-malware-suite-ashtag/</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5716,30 +5716,1118 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Microsoft Security Blog</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Imposter for hire: How fake people can gain very real access</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/en-us/security/blog/2025/12/11/imposter-for-hire-how-fake-people-can-gain-very-real-access/</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Palo Alto Unit 42</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>01flip: Multi-Platform Ransomware Written in Rust</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://unit42.paloaltonetworks.com/new-ransomware-01flip-written-in-rust/</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>ランサムウェア</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Microsoft Security Blog</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>From awareness to action: Building a security-first culture for the agentic AI era</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/en-us/microsoft-cloud/blog/2025/12/10/from-awareness-to-action-building-a-security-first-culture-for-the-agentic-ai-era/</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Further Hardening Android GPUs</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/12/further-hardening-android-gpus.html</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Android expands pilot for in-call scam protection for financial apps</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/12/android-expands-pilot-in-call-scam-protection-financial-apps.html</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Palo Alto Unit 42</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>The Golden Scale: 'Tis the Season for Unwanted Gifts</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://unit42.paloaltonetworks.com/new-shinysp1d3r-ransomware/</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Palo Alto Unit 42</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>"Shai-Hulud" Worm Compromises npm Ecosystem in Supply Chain Attack (Updated November 26)</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://unit42.paloaltonetworks.com/npm-supply-chain-attack/</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>クラウド・サプライチェーン</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Android Quick Share Support for AirDrop: A Secure Approach to Cross-Platform File Sharing</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/11/android-quick-share-support-for-airdrop-security.html</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Rust in Android: move fast and fix things</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/11/rust-in-android-move-fast-fix-things.html</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>How Android provides the most effective protection to keep you safe from mobile scams</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/10/how-android-protects-you-from-scams.html</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Microsoft: Russia, China increasingly using AI to escalate cyberattacks on the US - AP News</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxOREVSR1U5TUI4M1dZcE91Uk1FUlRPVm1YSk1tMXZqZXVTNUV0aF8yOFB3YnhiSWdiallOUndHai1BSzBqMEFzb3U4MVBvbnFsbS10MUhKQVJYQ1JZajAtODkxbzBEN2Z1a0FTUnZOekkyXy1jRjU4MzlYTkh5cFFKUndUZnN1bTJIVFpVTUxLWHZJNTZHT0ZkeGVmSElmQkI4QXBhd0JpZzJrenU3TGc?oc=5</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Accelerating adoption of AI for cybersecurity at DEF CON 33</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/09/accelerating-adoption-of-ai-for.html</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>How Pixel and Android are bringing a new level of trust to your images with C2PA Content Credentials</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/09/pixel-android-trusted-images-c2pa-content-credentials.html</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Android’s pKVM Becomes First Globally Certified Software to Achieve Prestigious SESIP Level 5 Security Certification</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/08/Android-pKVM-Certified-SESIP-Level-5.html</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>フィッシング</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Army secretary directs West Point to rescind appointment of Biden-era cybersecurity director - AP News</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxNdVB0N2dnVF9IeEtXcFRjc0hXZEZad2pudUNuSGRacEJMSDJLOUdLNDFuODBVbUpfc1RDay04cHpPdHQ1M3JQTGRvLUo4NEdHUDFBZDRVdjdxZ0ZpNXFyNXZLOHhiZVhOX1o1VnNlRE1XbWhFc1VNWlBaem5LSUpFR2d6WURMbWhodGdfZEx1NDFQV05wRUZrWWlqTEI0czA?oc=5</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Introducing OSS Rebuild: Open Source, Rebuilt to Last</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/07/introducing-oss-rebuild-open-source.html</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>脆弱性・CVE</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>The Czech Republic bans DeepSeek in state administration over cybersecurity concerns - AP News</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxPZHhUOFhYS0FhbHVLVEhLd213ODdQdU56eG0yQkw3N3lqRzMxWTNnLVdHZF9URFAzazNRUFVTeFVfanIxU2FFOFhuZEdSLW43dWZqQnBfOGZnQ0xpTThTeW84RE9wZ0UtUjZSNElZMFV6cF9PWFB0WFI0OVRmN0hUVmhMTHg2SnZKZHhCMA?oc=5</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Advancing Protection in Chrome on Android</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/07/advancing-protection-in-chrome-on.html</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Iranian-backed hackers go to work after US strikes - AP News</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPX1RpNnA2Q1RHUS1RUXhINGkwTmhrZnN1QWxlREQ1WXBkblFEVnZqVVppRzhHeGxiWGFUM2ZXc2JVUW1JMkQzcFJDTGMydlRRS2Z5Vnd4YU9HY1JGWU01bVZfMjk1dzBBTG1yeGhDOHduc2lEdjBjcTNZQ3NGaDkwaVYxUHVmMmM1anNFXzlOR3YxSG0zR3hF?oc=5</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Dutch government says pro-Russian hackers target municipalities linked to this week's NATO summit - AP News</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQNS1FNE9zWXZEbl9qUjBIdmhLWWFsZS1iRXQ2bnZPZlhSZUJNMm1pZ1VTcnM2Y1gycjZveTNyRk9RYVRETWd5WlVpNzA0VGJOZmN4SnlacURmNXY5WXBxejJNWmhtRHl1ZEdZTDZab2lrWDV3aVBBVkRXZ1RIV00ydVlaWWJlNnV1blgtUWJWc3NmTG1yT1I0c05tTHZtYk5kanQzX3dsVFVIYS01T0E?oc=5</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>APT・国家系</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Mitigating prompt injection attacks with a layered defense strategy</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/06/mitigating-prompt-injection-attacks.html</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>What’s New in Android Security and Privacy in 2025</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/05/whats-new-in-android-security-privacy-2025.html</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>New security requirements adopted by HTTPS certificate industry</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/03/new-security-requirements-adopted-by.html</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Google to buy cybersecurity firm Wiz for $32 billion in the biggest deal in company’s history - AP News</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxQVENFcGdMVURrVk9GZFVXN0NmOXZfZlZMVW9GTlRkX3dERklXeFEzcndndDAtZjN1dmRNZGZ6NFdCdTd4Ym43TS1kZ25NdkZrR21QUlpWbnlLVjRUSGNZZXJhczdWd0NtRmhMT2dXSExyaFdjeWZVOHVxSDd2V3ZPRURHS0oya1QzNmtRWU5GZ202Sktv?oc=5</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Announcing OSV-Scanner V2: Vulnerability scanner and remediation tool for open source</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/03/announcing-osv-scanner-v2-vulnerability.html</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>脆弱性・CVE</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Trump administration halts funding for two cybersecurity efforts, including one for elections - AP News</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxQeXJVUGp0Y1F2U196TVZmMjJ6QlZ5MzRRVU83N19yaXR5eC1GemYyUlcxWjYtYTNoOGw5dGNkRG5BM3cwTGtTSWx3ZkFhY0lnRzZWLXdtY0FobjZOZG1tM0RUWng2MEVqY3dIOXdrRmoxNk9CeTVPX1phdkszUVNHMXNXVmdBQzZ4QURFVy01dWRtNHdLaHFEY1E2NmNtWWIwdFE?oc=5</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>US cyber agency puts election security staffers who worked with the states on leave - AP News</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQSjZEWnc5TmtXcVVUMVhmZTl3UjRHUmE1ZG16d0JoaEpEdEpJdGQxY2dPZ0pQQ2Zwc0dKZzAwem5SVG53eENzMHlPX0JTY0xiWVNwUWNPZ3R2ZVQ1dlM5ZzBQYVlJMmpvM3hMSU5LUXJYeXpEOFBkVllLN1RRVURkejM0My1pRjlJejhaRkd6bThUa2xMeHBOY3JQQkhwZ25VVFhWNXkxbVAtUVlE?oc=5</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2026-01-15T06:44:44Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>US cybersecurity agency's future role in elections remains murky under the Trump administration - AP News</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPMnRHWXk2WkZpWVRaZ2h5U3h0cWR1WlF6a3RnSGdBWE5pcTRITWxhbE51anlTZm00WlBsVW9xenlQMzQyd3VqM3Jjdm04LVhrakpzLW5HSlRuTFBjV2ZNSTU0b3ZUUERFX3o1Q0lodzI4XzNjdVhKNEVIUGduZ1NFNHVwYVIyTEp1VUg5cmhEZkQ4Zk40NkN6Rmc5eUFnTmZQVWdPbnJkYTJRQQ?oc=5</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Delta sues cybersecurity firm CrowdStrike over tech outage that canceled flights - AP News</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxOWWhiMEtqTE91UDVReXk4cndIVW82MzZOb3o3ZnVqZG9fT29vSnJfeXU1cjZFMk9aSkY5b3lIcmw3LTRHZThZenE1SEtLV2F2dW9JbU5KdnBNTklQZS0yS0NyVU9lZW1YWHpiSXA3Y2NkVTB2QlZEOEJhckNJY3R4VFBUcDVSZzcwNEprbWwwS21CeVF3aHJlWkVaci1TbFRtMm5V?oc=5</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Cybersecurity head says there's no chance a foreign adversary can change US election results - AP News</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxPdV9seHI5VHlIQ1R5TTVkdXo2OFdJZmZRcHZRZ29GQm1QYTljdGJSbmRwcDQ1RmxkSF9XZEsyaFZ5ZHNqRTJvMmRwblQxNkFLc2xiaTAtS2hLeDFLV2tpaExYVHNRSGlRRjBGTXVzbHFMS2haSTNZak9INXBqODJQd1hIUlAxLXZ4Y3dWaDJmV1JLMFpCekxkUVBWR192TUVmVVdKSGhaY0JOUHhSWnc?oc=5</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Cisco cuts thousands of jobs, 7% of workforce, as it shifts focus to AI, cybersecurity - AP News</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxOcXN6clV0d2xaeDQ1aTNpdFhRaFNldVVzQ25LZHI3UGlMVUMxYmxLcklpbmFpRlRraHd3TDkwRW5YODM0SUlJOTNQM0dTTVFoZ0U3Zk90UnFESVl0dklxTWFuTEhoajZHRTVTeHhoMnNiVUx4VGlwOVBaMDR1Nm1GcW5OQUJzbk1uTkVOeG56aVpuWER4a3kzYw?oc=5</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>脆弱性・CVE</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>How a faulty CrowdStrike update crashed computers around the world - AP News</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQaDY4QjM5OFlLTzk2aW82YUN6eWh6Z1hlbjB4S3RiLThsX1cxZkE4Z19ia3c2SmEyb0RZamlrU3dDaXhIeVpFYWFseF9vV0pQbkRLOWM5eDFXdE9HOWgyU2ljczI4MG5vclpsS3l4QWpCWkpqOENuWXd0cUZLTVgtaWptWUhNeVZCd3VaREZNV3diVUF0a3FpZ193ZkprTUdWUGYyZTRn?oc=5</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Multiple threats to election systems prompt US cybersecurity agency to boost cooperation with states - AP News</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNSkk1Wm1OWDVaRFlNQ2FINkNzWGVHMkJXSW1qX0FlUTJucDJyTXQ2RWx6WHZjLXdfX1pZSmRsVXhFZFBjNm5iTHVYTVdQX2ZvbC1ZUlZTU0Fid1B2SnRQYzRJZ3JnVkUzbGJNZlBnLWtwLTNSNV92Y2pEd3VsU3dDS0dPaWZScjM5Z1c4Um9icDdrZEhfOU54ZDNtU1JJSGxjYU5VQ2ln?oc=5</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Cyberattack on Pennsylvania courts didn’t appear to compromise data, officials say - AP News</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxOc2l0X3V5WFhxZUR5YWdoVUZzdThqQWhfNjRKNzlNcXhFMXRoX1VzQk9TTnBuR1lOaVBSN1g4Y1BmNHRjTVVHb3VkaWg5OWpkdnRxeW5aQ0puVndMMDdXMk41RG1sa0xvZzhuekRtZnEyTG51VzZRWi1MSlVfSDRfdENhSXNvM3ZPQS1oWlA2UDBta0xhWDJwdE5NQ04xREJnVllXdTVpLTc2NUF3dHZZYWJqbw?oc=5</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
           <t>2023-12-08</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>AP News</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>Top White House cyber aide says recent Iran hack on water system is call to tighten cybersecurity - AP News</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="D200" t="inlineStr">
         <is>
           <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxOUERwUzRFam9qUXg4N29iT0xPVFNGNFQ0dE5aeXY1S01rSVE2YkdlWnZNLXl5THFtOUlXbVRVWF9ldFZqOHBBaktMTUV2QmVOck9mdkpMOEdyMGRMbUYwcmFQVHNhSkVGclpiMEZncU5zbUU1OWxFajVtXy14YmdLNms1dEViMHFTSkxfSkRkN01NejZWMXgxWk55R0dtZFB2YVN5cW5vdzRPZGJnemI0?oc=5</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>防御・検知・対応</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>2026-01-14T07:52:14Z</t>
         </is>

--- a/docs/exports/articles_3y.xlsx
+++ b/docs/exports/articles_3y.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,39 +468,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Google plans to make Chrome for Android an agentic browser with Gemini</t>
+          <t>Cisco Patches Zero-Day RCE Exploited by China-Linked APT in Secure Email Gateways</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/artificial-intelligence/google-plans-to-make-chrome-for-android-an-agentic-browser-with-gemini/</t>
+          <t>https://thehackernews.com/2026/01/cisco-patches-zero-day-rce-exploited-by.html</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -510,22 +510,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DHS reports non-fatal shooting of man sought in immigration enforcement stop - Reuters</t>
+          <t>Gold slips as upbeat US data boosts dollar, dims rate-cut bets - Reuters</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQRW92OFhIazVsVThxY0pzOHVYOGNnWHhvY0J3dDBIOEdhYTBMN0N1T1pZZGFDVVgwdnlDVklScndsUFpLaGY1cHNBY2JMdzJWM1ZLTmtxclRPc2VIamZBdGloV1Z2SG5RLUthYWNvckdCd2pqN2lHZXhhcEdfTnlHNkcya2RiNVhnS182X0FhN094MXVXRGxIX1R1NEhCRHRRTGxLQ282SlpQaU5DU1p5aU11MTJQak4yQTAzV0VNVlA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxNX09JejJvMFRiV05vNWNHOWJmekhtM29PbHd4aTZGckVuR2F6TEh2cU5UNG9GWmtLX3J2Q3JBZkFONzlKVkMxZlVxYWRXaEFFNUs3WjhpUllvU0FDQlA4NTJBd2ZjSHB0SGt0eW0tX2VoLUVhV0tWei1xUTZQWF94LU1rWnVNV2N5Qk5OSGJCaE14U3RfUzM3blg5VnBfdmFUZGFmQzY2ZUFHQQ?oc=5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -537,17 +537,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Toyota Industries' shares hit record as market hopes for higher buyout offer - Reuters</t>
+          <t>AVEVA Process Optimization</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxOY25vZ2dfN1I1bXZLaDZyNHBXUE1BT2ZVTkFtdl92VTdNRmp6Sm1vMTdFdHZGa3lkbTQ5YXVmZmxocE1YUy1qcU42cHYzQ001QjBraHMyZTAyQVN2UVJwcmVLTF9NNXBsWDFHeS1aR0xSVndmMWVKUHN3OTI2Z3ZnQUowVElFSS1BMW1CekxhbldORnp3cXNuMm1icW1ONV96WlZxREdRMzZjZmVWd0drVGxJUVQtX3VRYWVBZDdMaWZobkhfb2pVczBSUDAtVjA2MHhaT01DTFMyckx1M0txSVAydw?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,125 +557,125 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Secure Connectivity Principles for Operational Technology (OT)</t>
+          <t>NSA, Cyber Command nominee defends record during Senate hearing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/resources-tools/resources/secure-connectivity-principles-operational-technology-ot</t>
+          <t>https://therecord.media/nsa-cyber-command-nom-joshua-rudd-senate-hearing</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Inside RedVDS: How a single virtual desktop provider fueled worldwide cybercriminal operations</t>
+          <t>Chinese hackers targeting ‘high value’ North American critical infrastructure, Cisco says</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2026/01/14/inside-redvds-how-a-single-virtual-desktop-provider-fueled-worldwide-cybercriminal-operations/</t>
+          <t>https://therecord.media/china-hackers-apt-cisco-talos</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Microsoft named a Leader in IDC MarketScape for Unified AI Governance Platforms</t>
+          <t>Anchorage police department takes servers offline after cyberattack on service provider</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2026/01/14/microsoft-named-a-leader-in-idc-marketscape-for-unified-ai-governance-platforms/</t>
+          <t>https://therecord.media/anchorage-police-takes-servers-offline-after-third-party-attack</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Poland says it repelled major cyberattack on power grid, blames Russia</t>
+          <t>Winter Olympics Could Share Podium With Cyberattackers</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://therecord.media/poland-cyberattack-grid-russia</t>
+          <t>https://www.darkreading.com/remote-workforce/winter-olympics-podium-cyberattackers</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,14 +685,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -702,12 +702,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>'VoidLink' Malware Poses Advanced Threat to Linux Systems</t>
+          <t>Predator Spyware Sample Indicates 'Vendor-Controlled' C2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/voidlink-malware-advanced-threat-linux-systems</t>
+          <t>https://www.darkreading.com/mobile-security/predator-spyware-sample-vendor-controlled-c2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -717,46 +717,46 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Retail, Services Industries Under Fire in Oceania</t>
+          <t>ICS Patch Tuesday: Vulnerabilities Fixed by Siemens, Schneider, Aveva, Phoenix Contact</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cybersecurity-analytics/retail-services-industries-oceania</t>
+          <t>https://www.securityweek.com/ics-patch-tuesday-vulnerabilities-fixed-by-siemens-schneider-aveva-phoenix-contact/</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -766,29 +766,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Chrome 144, Firefox 147 Patch High-Severity Vulnerabilities</t>
+          <t>VoidLink Linux Malware Framework Targets Cloud Environments</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/chrome-144-firefox-147-patch-high-severity-vulnerabilities/</t>
+          <t>https://www.securityweek.com/voidlink-linux-malware-framework-targets-cloud-environments/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fortinet Patches Critical Vulnerabilities in FortiFone, FortiSIEM</t>
+          <t>Depthfirst Raises $40 Million for Vulnerability Management</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/fortinet-patches-critical-vulnerabilities-in-fortifone-fortisiem/</t>
+          <t>https://www.securityweek.com/depthfirst-raises-40-million-for-vulnerability-management/</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -813,14 +813,14 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -830,61 +830,61 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Predator Spyware Turns Failed Attacks Into Intelligence for Future Exploits</t>
+          <t>New ‘StackWarp’ Attack Threatens Confidential VMs on AMD Processors</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/predator-spywares-granular-anti-analysis-features-exposed/</t>
+          <t>https://www.securityweek.com/new-stackwarp-attack-threatens-confidential-vms-on-amd-processors/</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RedVDS Cybercrime Service Disrupted by Microsoft and Law Enforcement</t>
+          <t>Microsoft disrupts massive RedVDS cybercrime virtual desktop service</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/redvds-cybercrime-service-disrupted-by-microsoft-and-law-enforcement/</t>
+          <t>https://www.bleepingcomputer.com/news/security/microsoft-seizes-servers-disrupts-massive-redvds-cybercrime-platform/</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -894,29 +894,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ConsentFix debrief: Insights from the new OAuth phishing attack</t>
+          <t>Palo Alto Networks warns of DoS bug letting hackers disable firewalls</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/consentfix-debrief-insights-from-the-new-oauth-phishing-attack/</t>
+          <t>https://www.bleepingcomputer.com/news/security/palo-alto-networks-warns-of-dos-bug-letting-hackers-disable-firewalls/</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -926,29 +926,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Verizon Wireless outage puts phones in SOS mode without cell service</t>
+          <t>Critical flaw lets hackers track, eavesdrop via Bluetooth audio devices</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/mobile/verizon-wireless-outage-puts-phones-in-sos-mode-without-cell-service/</t>
+          <t>https://www.bleepingcomputer.com/news/security/critical-whisperpair-flaw-lets-hackers-track-eavesdrop-via-bluetooth-audio-devices/</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -958,12 +958,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Exploit code public for critical FortiSIEM command injection flaw</t>
+          <t>Hackers exploit Modular DS WordPress plugin flaw for admin access</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/exploit-code-public-for-critical-fortisiem-command-injection-flaw/</t>
+          <t>https://www.bleepingcomputer.com/news/security/hackers-exploit-modular-ds-wordpress-plugin-flaw-for-admin-access/</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -973,14 +973,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -990,61 +990,61 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>South Korean giant Kyowon confirms data theft in ransomware attack</t>
+          <t>Grubhub confirms hackers stole data in recent security breach</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/south-korean-giant-kyowon-confirms-data-theft-in-ransomware-attack/</t>
+          <t>https://www.bleepingcomputer.com/news/security/grubhub-confirms-hackers-stole-data-in-recent-security-breach/</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ランサムウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Critical Node.js Vulnerability Can Cause Server Crashes via async_hooks Stack Overflow</t>
+          <t>Gootloader now uses 1,000-part ZIP archives for stealthy delivery</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/critical-nodejs-vulnerability-can-cause.html</t>
+          <t>https://www.bleepingcomputer.com/news/security/gootloader-now-uses-1-000-part-zip-archives-for-stealthy-delivery/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1054,29 +1054,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Microsoft Fixes 114 Windows Flaws in January 2026 Patch, One Actively Exploited</t>
+          <t>Palo Alto Fixes GlobalProtect DoS Flaw That Can Crash Firewalls Without Login</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/microsoft-fixes-114-windows-flaws-in.html</t>
+          <t>https://thehackernews.com/2026/01/palo-alto-fixes-globalprotect-dos-flaw.html</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1086,29 +1086,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fortinet Fixes Critical FortiSIEM Flaw Allowing Unauthenticated Remote Code Execution</t>
+          <t>4 Outdated Habits Destroying Your SOC's MTTR in 2026</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/fortinet-fixes-critical-fortisiem-flaw.html</t>
+          <t>https://thehackernews.com/2026/01/4-outdated-habits-destroying-your-socs.html</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1118,12 +1118,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Hackers Exploit c-ares DLL Side-Loading to Bypass Security and Deploy Malware</t>
+          <t>ThreatsDay Bulletin: AI Voice Cloning Exploit, Wi-Fi Kill Switch, PLC Vulns, and 14 More Stories</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/hackers-exploit-c-ares-dll-side-loading.html</t>
+          <t>https://thehackernews.com/2026/01/threatsday-bulletin-ai-voice-cloning.html</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1150,29 +1150,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AI Agents Are Becoming Privilege Escalation Paths</t>
+          <t>Researchers Reveal Reprompt Attack Allowing Single-Click Data Exfiltration From Microsoft Copilot</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/ai-agents-are-becoming-privilege.html</t>
+          <t>https://thehackernews.com/2026/01/researchers-reveal-reprompt-attack.html</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1182,61 +1182,61 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Researchers Null-Route Over 550 Kimwolf and Aisuru Botnet Command Servers</t>
+          <t>Critical WordPress Modular DS Plugin Flaw Actively Exploited to Gain Admin Access</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/kimwolf-botnet-infected-over-2-million.html</t>
+          <t>https://thehackernews.com/2026/01/critical-wordpress-modular-ds-plugin.html</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ukraine's new defence minister vows innovation on battlefield - Reuters</t>
+          <t>AWS CodeBuild Misconfiguration Exposed GitHub Repos to Potential Supply Chain Attacks</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQb2daQ3g2Z2RSZTBuTVZaUlcydWVlV2x5cmdWN3Q4UVVKdkVIaF9DSnJVN0pSUVZfbWRza050YTVOLXA1c1Y1cHZxSDQyRjFadUV1SjFpcmFpaTd3eWlQSWRPUjNOTW41c3ZVTTItcXIyNWhyWG0xMlVHUW1OdHVtU2w3bVFLQXhQTTZYeVVobjVjQ3BNQjVFRTIwWUNjaW5ONG5jekpNcFEzZ1RN?oc=5</t>
+          <t>https://thehackernews.com/2026/01/aws-codebuild-misconfiguration-exposed.html</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1246,29 +1246,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>US healthcare spending soars to over $5 trillion in 2024 - Reuters</t>
+          <t>Publishers seek to join lawsuit against Google over AI training - Reuters</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxOT21DRkZVNjY2R19RNGJrWnNzT0ptYjZzR3c0VVpOMEhLV1BSSDNZdk5jbzhGZmFUZzl6UVJsdmlLZmI1TDZzTV9Tb2hBSXQ1Rm5kdjBtNmU2RFB4a3hJNUpEWXRMZ3pqWE9pZWJ5TEt0eFJLZmtkcmhJWU1iYW1oTjJJNzd5VDZiVVBUX0Z6WmNKMEpiNk5Fei1sUGdLM3dfVDNuMg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxQcF8xWVJraGVlSEhaY2FUZy1uYmppQ3RHQ1JUTDdQNTBfRDAxWEkxcWwzdHU3S240aXJFWDdyN0ZveTdNLWllME5Laks4S2VRWWs5c1pROHBuVzY2TmFiVUFOeG1IZV8tOWdRV1NLeUYyV0hoTDdFNmVFc2I2TTdFSmJVRC1IUkN4aE9HaFI4eDRNSTVoSm83b09NbEU2TlFta3p1ckxMbWpjdG9Fb0o0am4xRQ?oc=5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1278,29 +1278,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>France explores sending Eutelsat terminals to Iran amid internet blackout - Reuters</t>
+          <t>China central bank to cut sector-specific rates to boost economy - Reuters</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOc3BHY0RmQVl0TnI4NFZEdGhEd3R2eHd1bk04dDFFYkdLNmJSYTdJNGx6LVVIcUVwVUwtQnhoVWJNek5oYWx3dFU2NmNTa2cwcmhzaXNyMTV6VmdpRTA4NHhiQ0NWS3VNUUEtdnJyTTBKeGJ2dGlBNnJYM21NQjhHY2VkVkNuNmEzMFJqX1hWYkZjeTB0bVk3ejNjbXN1MHVBWjhDQjdXSkJhN091VnV0WGRBaTQ4cWlOSWZTaWFNVjY2RF81d1hJ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPUG4tdDNwMjJzTXJ5WWJzZnFsSWNNYnpuV2hESU9zYThNbVFGUkkwd25RYklpaG4wQ1RmT0x5aG5HN2VwM0VJalcyZ2N0MlRSTlVCazZaV3U2b1FxUWFyZmdKRDJVUm1sUEszRG5yMXBac2dTMVF5RW1sd0pwV3U0b3NDMHk5aDgxUWs4c3hDQ2F0RjNYcUpQY1k5OUJjOFpuZnpLV3VpOTk?oc=5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1310,29 +1310,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tech, banks weigh on Wall Street; Trump eases Iran oil fears - Reuters</t>
+          <t>India, EU close in on trade pact as US trade talks drag on - Reuters</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMie0FVX3lxTE9PNkpWSU0yUEpxb0YwdFVSSm9oTEt6M1ZqSWpndXhHM2FBWVJsTkk2SHVNaHJXQVJ4VF85OHhVWHFuN0lpX0N3cWF5Q3BralI0UWNHNm4tWml4QXAwLU1VRmVZZWtYejBpMFdEWjdvVjdWZkRoLTNxLXM1Yw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxQWEtNWk5PZE9jRVh3Wmh5WE1pTEVJZFQzeUF1T3g5MGloem10OVgyVk5JNWpKWmdwUXpRVjk3RGFENWtjeXR5c1JERTgzaGpUWGRidmxKbDVhOEMwTzVEc2RCUFFNdnQ0cU5hc0JoeU1CeFlsQWhwUU1rZUdod0c4Z0FXMUhxQmZXVHQwaGtTTnlGc3QzQ2VUNWhtVm1KbkxH?oc=5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1342,29 +1342,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>German-Israel deal strengthens cyber defence, German minister says - Reuters</t>
+          <t>Ericsson plans to shed 1,600 jobs in Sweden - Reuters</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxPM190VDRucnBsRHkyZzlOOEJfSmU2T1lRa05BWjZVcnNsQlROaENkU252WjYxUU1Cb0JPaDNRRWZaXzhaREhiVWY0LWJ4Z3drZC1JSnpfaXZRMk5vd3VtTEhYdl8zUVo2ellZN0tkVHB1V3ppd1prME0tTGlBblotLU1HTnE3Vm5sa0VlNUxPVDdVSHhmdDgzUE5PTVdsLW1oXzRnemNUQ19lVzN0ODc3alB3SXlkeUtGazMw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxQQnpSUWJUMUlIWHRPMVkxSDFoWXFYNEFjRGdDeml5N1laa0NfVVFTVVZhQlV0Rk9LYkp0ckRGaTZ1WUlRUTdwR0lVRm9NR1E2TTFFc216cWtZX29WUm5vOHU0NWhFbHlldEg4dlNrX3p6XzR3UjZkbFYzSXdpUXNIMXRBNmhJOXVBU09CNGU3b1dkMWs?oc=5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1374,29 +1374,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Exclusive: Beijing tells Chinese firms to stop using US and Israeli cybersecurity software, sources say - Reuters</t>
+          <t>European corporates expected to deliver worst earnings growth in past seven quarters - Reuters</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQZmNIRDZEN3d5ZXRyNnN5eHc2X0NlZkppN2dnSlpzeFQtTVhDVjJmeWx2aDg4QjQtM0wyRjkxY0ZuNnlOWlJNUmhRSWl4SzJMc1VjT0F1ZDBKMGNsZzJFc3ZodTd3S3dGRnBhRDlqZVdhZ1RwMVlQU1c1SkZQcXNjTGg1V0gxQTZGc004Y0tXeFpTRXZlQTNCdHJvb2tjRTNKTzVfMUdicjRWeHMxa2FhNlNDWGZxUjJBMWljYm9mYUEydGI1OC1z?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxNbkRoRlU4MS11OW9uV01LZGk3dTRDODNlRUcyRTNrTlZIV0ljUHFUZW5xeHFUMkFxT0xYbFNJd21FQ09MeEwxVG9HYTZYcWxSN0Z4REMtNE05bENhNVpKZC1tLUFtQWp3bnUtalJuc1BPVDZkR1o3RTBIRzNSN2VsM1lZNU52WGMycHdva1NrWHNpWEJkWFR3OS16Um11YkU1OUppa3RyNVQ1cXpLMU9ROG5JNzFfNGNFdnAwN0dDUU4?oc=5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Belgian cybersecurity startup Aikido hits unicorn status with new funding round - Reuters</t>
+          <t>Prince Harry to give evidence in lawsuit against Daily Mail next week - Reuters</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxQcjZHZjZ3NHpBajduLVg0ZU9XaWV4TGNxLVQzQmF4bktuQWwzWU9kQmltZVpRaGN6QThhYmxlOU9vckZTa2RHd3BtMkNRNkVjWmd6OUlzUjdERURJN2ZER0paa2R3Q0tIVW9qbFdQR19xcW9WbzZhMlpBd1VKQWJvVlpCdFRPeENEOTB4YzM2WFZXTHNIMkxMOXpxVjFqd2dSWklFZ3U5YlRCTVJ5VDEwdWpEN2tHdU1feFBUenpiR2drc2lq?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQa3FaTF9TZ3VpRWdlQTBlNEdSWHk4eEJIaVJjbXhWVVlVWFdwdEpabU04STZFZ3c4aWRfWTRkZE5yNVYzN2JnNUtsTU11RVZ5M1pMTmhIRXYxSWZPbjdESlhNQTRQYnBidE5rX1JrbFAtRmxlTzY4empPa3dPQnFmWlpUaXVuZDFVbHJmb3hGOUk1M2hhY1Q1Tk9sLWptb2V1eTN1X1Ric0ZGaGltY25BV2xjenJEU0k?oc=5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1421,46 +1421,46 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PLUGGYAPE Malware Uses Signal and WhatsApp to Target Ukrainian Defense Forces</t>
+          <t>Reasons to believe Russia behind cyberattack on Polish power system, PM says - Reuters</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/pluggyape-malware-uses-signal-and.html</t>
+          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxOcW9jMzFETHlZcG0xaFdIOGF4bEt4ZG9SbzJpaUJfN09jYU92eXFZakhsQk96STVRenpycFlXTzBXbFFMdW40MXphaDV3dmpzeDVzdmQ4NTBuLVhpY3RGU19pa2M4UnhBazkwVkM2elpkNGRMN3NwWHFyV1dhRDMwcW40cG9jVndkOWFXdUNobUdsczMtMk5oOFZqTTBmZmdlLXpxTnhtNkV5Q01kZlhqdQ?oc=5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Takaichi and Lee end first day of summit on a high note with drum session - Reuters</t>
+          <t>Chips don't lie - Reuters</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQUFY3eWVKSUFQYXlxQXhwQUZGaVFvN1hiLTI1LXZTd0VveHdaNTRJbnUxOEZuNzhhUHBEZUp3WWE1OU5scUdTRTFlVTdjWkQ3eGdHdW9WbTctOVFYSFd4RkNDbU12Z2RzemppelpMckRaNE53NTMxUnd2blFyXy00V3N5d0J5cUJWWnhiMzEtR0lpS0lJMnR0emxXbXo0cDlmaC1nWnhITl9qeVg0cjRRdWZGel9kWmM?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMihgFBVV95cUxORGhodG9STUJtOWIwa3Q5R0pDOUlub0ZwcUs5bEdOWEw5b3JxakdZdDVQem92cFBORFFwNjVFS29aLTh4X2FvNTA4Mm0xNnAzY2hKeUZoMjNJN1ZnS3RGWUZUQnRldjNQUGJ1VXdmTFk1UzBwNFRDLXRIZjRuclZ4cVpmOXBadw?oc=5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1485,14 +1485,14 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1502,29 +1502,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Gold notches record high, silver cracks $90 on Fed rate cut bets - Reuters</t>
+          <t>Verizon offers $20 credit to customers affected by massive wireless outage - Reuters</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPMDVHbjVCZURFTGl4X1FWMGtPSnh1NmN5NkhXdndsLWxnbWFJNTRUUUJseHV2T0VfWWhWc3pucUpUOHVRSEVWR2JKaXZwTVc5UnpZWmxOMWtXV3FqT3RIQXRzbmdORlRhMkg4UGNrUFFFdUJJaDNxTDg1UTRfSmlPNV85U0VnQ2NLNkRtTW96aUxvQjlNNEh3dkx3MW5NdGtERlRLc1Fhc3M?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxQVGZZX1R6RV9hTlhHSlBfQzVHYk82VkJDM1V4SU8zRnBRT1FQMEp5dXdPcHNIbV9ZOUxkSzFjcFZlNzAxMTVra0d6V19EcktjUEpBandndEprVXZqbjV5UV9XdENXRGhsb3RIbkVOY1UtUlNZV09MVldlclZSQXcweG1aSDUwYVZGLXNzNTBtbUxEMk1sU2ZIT29tOVh6MURaSlB5VDZTT09Vc1pPQTJxdHpyOGh3aFBPbHJRZGJRVUZHcW1fajIwNQ?oc=5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1534,44 +1534,44 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ready, steady gold! Safety bid adds fuel to cenbank fire - Reuters</t>
+          <t>Chinese-linked hackers target US entities with Venezuelan-themed malware - Reuters</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxNYURRZnRjcXc0Q1V0M0E0VUdBbWhMVm5rS2NzSXItbkR5bk5hWGx0ZXdMNV81Q0dzTkRuckJWcndEenpTZEl5SUhNc0dwS1R1TGMyUjNGWlBhM254d1FqU0NlM1NzNFRtZFhYUEY3czlxeUFVX1B1M29nVml1elViNl9odlNJTGhrN0lkd3BEWHdXLUNKeE5PZHR5dTB4Z1hjdWV5aVJReWFseUFOQTdqQ1hSYWY?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxQQjdVckxSNzFhYjI5XzUwcUVCdHROSXdoQUtDZVdlMjZfWkZLdC10WVYzeVUyQTEzb1dTZ1ZvTFptMTZydzhKWFdxd3Q1MzVwNXZjTGxfbEtneE1WLTJSRWk2SUV3bWFoOV9MT056U3N0ZzNsejFxcW9VbGpyQWlsSGU1a24tYkZ5X3lwT3p5dnV0dVY5bEdYUkZ0Z3hqZ3ZQdXo1dC1lN2hCTlJlSjhEQUtBVk50eDd4SjVOXzgxeW9KMldVRk5GbGJGQQ?oc=5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Trump urges Iranians to keep protesting, saying 'help is on its way' - Reuters</t>
+          <t>Google plans to make Chrome for Android an agentic browser with Gemini</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQNzdvSXBtajhYdGFUZ3pLMU40djlOWUdDTGJZQ3Z3UEt5aDdNZ3djam1YTEFqZFlEOHhqS2NxV2lPUzREZXdad2FQZ2Z0NWNyU3JJdGtqakd1b1F3SnZTY29RSG9oSUNIRFNtdXNYSkxLTURzTzRRdWctZ2kzaExEX2hGQ0MwdEdzQm5PVldZMEQ2VUFQSFRwSm4wWU42NWg3aUxYRzRDUkdPM2FvWXVyMnh4NGVnUWs?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/artificial-intelligence/google-plans-to-make-chrome-for-android-an-agentic-browser-with-gemini/</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1581,14 +1581,14 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1598,29 +1598,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>China's trade ends 2025 with record $1.2 trillion surplus despite Trump tariff jolt - Reuters</t>
+          <t>DHS reports non-fatal shooting of man sought in immigration enforcement stop - Reuters</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOUTJBRGwwTTYzOEZ1ZGJxeDhqbHVXOWJ3ejBrY2c3ZzVDZXhIRV9IemtkRG15MERacVJQVnZxcVVTeWVqZnlkZ3pkVWJpY2RXTGxCV3EtOFhUQ29WUDBuSVdWY0M3WlBTRG1TTWlpVjNxd3JEMGxpZkd6YzR6eGxxZkhObERkc1NXSnJwT3pHQ2ZHUXhzdDNjQmxrYzJST0lQWXBZRVpvdHFIMVNlb2RUc3RLMFI1RnYybDFlWlp3c04xaC10cFlj?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQRW92OFhIazVsVThxY0pzOHVYOGNnWHhvY0J3dDBIOEdhYTBMN0N1T1pZZGFDVVgwdnlDVklScndsUFpLaGY1cHNBY2JMdzJWM1ZLTmtxclRPc2VIamZBdGloV1Z2SG5RLUthYWNvckdCd2pqN2lHZXhhcEdfTnlHNkcya2RiNVhnS182X0FhN094MXVXRGxIX1R1NEhCRHRRTGxLQ282SlpQaU5DU1p5aU11MTJQak4yQTAzV0VNVlA?oc=5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1630,12 +1630,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Chipmaker Nexperia and Chinese owner Wingtech fight for control in Dutch court - Reuters</t>
+          <t>Toyota Industries' shares hit record as market hopes for higher buyout offer - Reuters</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxNUjA2QmJ6NEdoSWl0bVJwRzFMbUZidDdPZldURzl5a1dSNUgwTEZvajVsLWZMdXl5WUxNTG5hSkNkcy13ZkM5RnlRLXc2Zmp2T2d3S3JWem9VVU04UHVrcm5yMmhGQjJDUFZUa19JNzdKeGdlWUlXX0FNSmRPaEd2MUE1aUlkSTFxbXFHQ1FyRDVZY2NZWE5yYXc0NzhKa0pzZDM5MkY5Z016TmZmX2RveUNjV3dRdw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxOY25vZ2dfN1I1bXZLaDZyNHBXUE1BT2ZVTkFtdl92VTdNRmp6Sm1vMTdFdHZGa3lkbTQ5YXVmZmxocE1YUy1qcU42cHYzQ001QjBraHMyZTAyQVN2UVJwcmVLTF9NNXBsWDFHeS1aR0xSVndmMWVKUHN3OTI2Z3ZnQUowVElFSS1BMW1CekxhbldORnp3cXNuMm1icW1ONV96WlZxREdRMzZjZmVWd0drVGxJUVQtX3VRYWVBZDdMaWZobkhfb2pVczBSUDAtVjA2MHhaT01DTFMyckx1M0txSVAydw?oc=5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -1657,49 +1657,49 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Trump says he thinks China can open its markets to US goods - Reuters</t>
+          <t>Festo Firmware</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxONVBCX2drb3JScmU2TTYyMi1uVC1ZVU02S0NtNFRiSHhUZm5fOG9HaFBaN3dXNWs3V0RGUEE4amVOS2RrT1BlNWM4QjhOLVM1NzNQSERYNl9lQUFEQ0NDa0VsMEN3QlBUTFE2UFZOVF8tcjNrQjlEYjQ5c2o2SVMycEZQOFhHazJySVVzaXNHNzlyZ0ttcFpYWDhCUVgwcndYS2tV?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-02</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CrowdStrike to Buy Seraphic Security in Bid to Boost Browser Security</t>
+          <t>Schneider Electric EcoStruxure Power Build Rapsody</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/crowdstrike-buy-seraphic-security-boost-browser-security</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-10</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1709,46 +1709,46 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bloomberg Index Services defers including Indian bonds in global index - Reuters</t>
+          <t>Siemens Industrial Edge Devices</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQR1lPWGVrdzBFTjRKWVh5cEFSVWI1c01ZTmdYTTFKRUpJWDJMdE5nRG1uaU16TEVTa3dnRHJNV296dlRoSF9oZy1RcUViSnhPWVFMTXkyZGc0Um54UEozM0dzYnk0emRJd2VlR3FuNWFUZ2xzUlNzeVJmN1Y2YndEUDZ5cTNRNjluM1NOWWRzbzhueGVKWG5NNGtJa2dza1djblc2SUdUbDV0N1lLWE1VdFVqMzBGdw?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-08</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1758,29 +1758,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Rockwell Automation 432ES-IG3 Series A</t>
+          <t>Siemens SINEC Security Monitor</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-01</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-06</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1790,29 +1790,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rockwell Automation FactoryTalk DataMosaix Private Cloud</t>
+          <t>Siemens RUGGEDCOM APE1808 Devices</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-02</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-07</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1822,29 +1822,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>YoSmart YoLink Smart Hub</t>
+          <t>Siemens Industrial Edge Device Kit</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-03</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-09</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1854,76 +1854,76 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Siemens SIMATIC and SIPLUS products</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2026/01/13/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-04</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>January 2026 Patch Tuesday: 114 CVEs Patched Including 3 Zero-Days</t>
+          <t>Siemens TeleControl Server Basic</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/patch-tuesday-analysis-january-2026/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-03</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CrowdStrike to Acquire Seraphic to Secure Work in Any Browser</t>
+          <t>Siemens RUGGEDCOM ROS</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-seraphic/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-05</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1933,110 +1933,110 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Remote Code Execution With Modern AI/ML Formats and Libraries</t>
+          <t>Secure Connectivity Principles for Operational Technology (OT)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/rce-vulnerabilities-in-ai-python-libraries/</t>
+          <t>https://www.cisa.gov/resources-tools/resources/secure-connectivity-principles-operational-technology-ot</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Threat Brief: MongoDB Vulnerability (CVE-2025-14847)</t>
+          <t>Inside RedVDS: How a single virtual desktop provider fueled worldwide cybercriminal operations</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/mongobleed-cve-2025-14847/</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/14/inside-redvds-how-a-single-virtual-desktop-provider-fueled-worldwide-cybercriminal-operations/</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Senior military cyber operator removed from Russia task force</t>
+          <t>Microsoft named a Leader in IDC MarketScape for Unified AI Governance Platforms</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://therecord.media/senior-military-cyber-op-removed-russia-task-force</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/14/microsoft-named-a-leader-in-idc-marketscape-for-unified-ai-governance-platforms/</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2046,29 +2046,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ukraine parliament approves resignation of security service chief in major reshuffle</t>
+          <t>Poland says it repelled major cyberattack on power grid, blames Russia</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://therecord.media/ukraine-parliament-approves-resignation-sbu-chief</t>
+          <t>https://therecord.media/poland-cyberattack-grid-russia</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2078,12 +2078,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Attackers Abuse Python, Cloudflare to Deliver AsyncRAT</t>
+          <t>'VoidLink' Malware Poses Advanced Threat to Linux Systems</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/attackers-abuse-python-cloudflare-deliver-asyncrat</t>
+          <t>https://www.darkreading.com/cloud-security/voidlink-malware-advanced-threat-linux-systems</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2093,14 +2093,14 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2110,44 +2110,44 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Shadow#Reactor Uses Text Files to Deliver Remcos RAT</t>
+          <t>Retail, Services Industries Under Fire in Oceania</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/shadow-reactor-uses-text-files-to-deliver-remcos-rat</t>
+          <t>https://www.darkreading.com/cybersecurity-analytics/retail-services-industries-oceania</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Microsoft Starts 2026 With a Bang: A Freshly Exploited Zero-Day</t>
+          <t>Chrome 144, Firefox 147 Patch High-Severity Vulnerabilities</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/application-security/microsofts-starts-2026-bang-zero-day</t>
+          <t>https://www.securityweek.com/chrome-144-firefox-147-patch-high-severity-vulnerabilities/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2157,29 +2157,29 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>'Most Severe AI Vulnerability to Date' Hits ServiceNow</t>
+          <t>Fortinet Patches Critical Vulnerabilities in FortiFone, FortiSIEM</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/ai-vulnerability-servicenow</t>
+          <t>https://www.securityweek.com/fortinet-patches-critical-vulnerabilities-in-fortifone-fortisiem/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2189,14 +2189,14 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2206,12 +2206,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SAP’s January 2026 Security Updates Patch Critical Vulnerabilities</t>
+          <t>Predator Spyware Turns Failed Attacks Into Intelligence for Future Exploits</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/saps-january-2026-security-updates-patch-critical-vulnerabilities/</t>
+          <t>https://www.securityweek.com/predator-spywares-granular-anti-analysis-features-exposed/</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2221,14 +2221,14 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2238,108 +2238,108 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Broadcom Wi-Fi Chipset Flaw Allows Hackers to Disrupt Networks</t>
+          <t>RedVDS Cybercrime Service Disrupted by Microsoft and Law Enforcement</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/broadcom-wi-fi-chipset-flaw-allows-hackers-to-disrupt-networks/</t>
+          <t>https://www.securityweek.com/redvds-cybercrime-service-disrupted-by-microsoft-and-law-enforcement/</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>After Goldman, JPMorgan Discloses Law Firm Data Breach</t>
+          <t>ConsentFix debrief: Insights from the new OAuth phishing attack</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/after-goldman-jpmorgan-discloses-law-firm-data-breach/</t>
+          <t>https://www.bleepingcomputer.com/news/security/consentfix-debrief-insights-from-the-new-oauth-phishing-attack/</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GoBruteforcer Botnet Targeting Crypto, Blockchain Projects</t>
+          <t>Verizon Wireless outage puts phones in SOS mode without cell service</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/gobruteforcer-botnet-targeting-crypto-blockchain-projects/</t>
+          <t>https://www.bleepingcomputer.com/news/mobile/verizon-wireless-outage-puts-phones-in-sos-mode-without-cell-service/</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Microsoft Patches Exploited Windows Zero-Day, 111 Other Vulnerabilities</t>
+          <t>Exploit code public for critical FortiSIEM command injection flaw</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/microsoft-patches-exploited-windows-zero-day-111-other-vulnerabilities/</t>
+          <t>https://www.bleepingcomputer.com/news/security/exploit-code-public-for-critical-fortisiem-command-injection-flaw/</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2349,93 +2349,93 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Adobe Patches Critical Apache Tika Bug in ColdFusion</t>
+          <t>South Korean giant Kyowon confirms data theft in ransomware attack</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/adobe-patches-critical-apache-tika-bug-in-coldfusion/</t>
+          <t>https://www.bleepingcomputer.com/news/security/south-korean-giant-kyowon-confirms-data-theft-in-ransomware-attack/</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CrowdStrike to Acquire Browser Security Firm Seraphic for $420 Million</t>
+          <t>Critical Node.js Vulnerability Can Cause Server Crashes via async_hooks Stack Overflow</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/crowdstrike-to-acquire-browser-security-firm-seraphic-for-420-million/</t>
+          <t>https://thehackernews.com/2026/01/critical-nodejs-vulnerability-can-cause.html</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Target employees confirm leaked source code is authentic</t>
+          <t>Microsoft Fixes 114 Windows Flaws in January 2026 Patch, One Actively Exploited</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/target-employees-confirm-leaked-source-code-is-authentic/</t>
+          <t>https://thehackernews.com/2026/01/microsoft-fixes-114-windows-flaws-in.html</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2445,366 +2445,366 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Convincing LinkedIn comment-reply tactic used in new phishing</t>
+          <t>Fortinet Fixes Critical FortiSIEM Flaw Allowing Unauthenticated Remote Code Execution</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/convincing-linkedin-comment-reply-tactic-used-in-new-phishing/</t>
+          <t>https://thehackernews.com/2026/01/fortinet-fixes-critical-fortisiem-flaw.html</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Betterment confirms data breach after wave of crypto scam emails</t>
+          <t>Hackers Exploit c-ares DLL Side-Loading to Bypass Security and Deploy Malware</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/betterment-confirms-data-breach-after-wave-of-crypto-scam-emails/</t>
+          <t>https://thehackernews.com/2026/01/hackers-exploit-c-ares-dll-side-loading.html</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Google confirms Android bug causing volume key issues</t>
+          <t>AI Agents Are Becoming Privilege Escalation Paths</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/google/google-confirms-android-bug-causing-volume-key-issues/</t>
+          <t>https://thehackernews.com/2026/01/ai-agents-are-becoming-privilege.html</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Microsoft January 2026 Patch Tuesday fixes 3 zero-days, 114 flaws</t>
+          <t>Researchers Null-Route Over 550 Kimwolf and Aisuru Botnet Command Servers</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/microsoft/microsoft-january-2026-patch-tuesday-fixes-3-zero-days-114-flaws/</t>
+          <t>https://thehackernews.com/2026/01/kimwolf-botnet-infected-over-2-million.html</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>New Windows updates replace expiring Secure Boot certificates</t>
+          <t>Ukraine's new defence minister vows innovation on battlefield - Reuters</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/microsoft-rolls-out-new-secure-boot-certificates-for-windows-devices/</t>
+          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQb2daQ3g2Z2RSZTBuTVZaUlcydWVlV2x5cmdWN3Q4UVVKdkVIaF9DSnJVN0pSUVZfbWRza050YTVOLXA1c1Y1cHZxSDQyRjFadUV1SjFpcmFpaTd3eWlQSWRPUjNOTW41c3ZVTTItcXIyNWhyWG0xMlVHUW1OdHVtU2w3bVFLQXhQTTZYeVVobjVjQ3BNQjVFRTIwWUNjaW5ONG5jekpNcFEzZ1RN?oc=5</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Belgian hospital AZ Monica shuts down servers after cyberattack</t>
+          <t>US healthcare spending soars to over $5 trillion in 2024 - Reuters</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/belgian-hospital-az-monica-shuts-down-servers-after-cyberattack/</t>
+          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxOT21DRkZVNjY2R19RNGJrWnNzT0ptYjZzR3c0VVpOMEhLV1BSSDNZdk5jbzhGZmFUZzl6UVJsdmlLZmI1TDZzTV9Tb2hBSXQ1Rm5kdjBtNmU2RFB4a3hJNUpEWXRMZ3pqWE9pZWJ5TEt0eFJLZmtkcmhJWU1iYW1oTjJJNzd5VDZiVVBUX0Z6WmNKMEpiNk5Fei1sUGdLM3dfVDNuMg?oc=5</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>New VoidLink malware framework targets Linux cloud servers</t>
+          <t>France explores sending Eutelsat terminals to Iran amid internet blackout - Reuters</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/new-voidlink-malware-framework-targets-linux-cloud-servers/</t>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOc3BHY0RmQVl0TnI4NFZEdGhEd3R2eHd1bk04dDFFYkdLNmJSYTdJNGx6LVVIcUVwVUwtQnhoVWJNek5oYWx3dFU2NmNTa2cwcmhzaXNyMTV6VmdpRTA4NHhiQ0NWS3VNUUEtdnJyTTBKeGJ2dGlBNnJYM21NQjhHY2VkVkNuNmEzMFJqX1hWYkZjeTB0bVk3ejNjbXN1MHVBWjhDQjdXSkJhN091VnV0WGRBaTQ4cWlOSWZTaWFNVjY2RF81d1hJ?oc=5</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ukraine's army targeted in new charity-themed malware campaign</t>
+          <t>Tech, banks weigh on Wall Street; Trump eases Iran oil fears - Reuters</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/ukraines-army-targeted-in-new-charity-themed-malware-campaign/</t>
+          <t>https://news.google.com/rss/articles/CBMie0FVX3lxTE9PNkpWSU0yUEpxb0YwdFVSSm9oTEt6M1ZqSWpndXhHM2FBWVJsTkk2SHVNaHJXQVJ4VF85OHhVWHFuN0lpX0N3cWF5Q3BralI0UWNHNm4tWml4QXAwLU1VRmVZZWtYejBpMFdEWjdvVjdWZkRoLTNxLXM1Yw?oc=5</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CISA Warns of Active Exploitation of Gogs Vulnerability Enabling Code Execution</t>
+          <t>German-Israel deal strengthens cyber defence, German minister says - Reuters</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/cisa-warns-of-active-exploitation-of.html</t>
+          <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxPM190VDRucnBsRHkyZzlOOEJfSmU2T1lRa05BWjZVcnNsQlROaENkU252WjYxUU1Cb0JPaDNRRWZaXzhaREhiVWY0LWJ4Z3drZC1JSnpfaXZRMk5vd3VtTEhYdl8zUVo2ellZN0tkVHB1V3ppd1prME0tTGlBblotLU1HTnE3Vm5sa0VlNUxPVDdVSHhmdDgzUE5PTVdsLW1oXzRnemNUQ19lVzN0ODc3alB3SXlkeUtGazMw?oc=5</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>New Malware Campaign Delivers Remcos RAT Through Multi-Stage Windows Attack</t>
+          <t>Exclusive: Beijing tells Chinese firms to stop using US and Israeli cybersecurity software, sources say - Reuters</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/new-malware-campaign-delivers-remcos.html</t>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQZmNIRDZEN3d5ZXRyNnN5eHc2X0NlZkppN2dnSlpzeFQtTVhDVjJmeWx2aDg4QjQtM0wyRjkxY0ZuNnlOWlJNUmhRSWl4SzJMc1VjT0F1ZDBKMGNsZzJFc3ZodTd3S3dGRnBhRDlqZVdhZ1RwMVlQU1c1SkZQcXNjTGg1V0gxQTZGc004Y0tXeFpTRXZlQTNCdHJvb2tjRTNKTzVfMUdicjRWeHMxa2FhNlNDWGZxUjJBMWljYm9mYUEydGI1OC1z?oc=5</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ServiceNow Patches Critical AI Platform Flaw Allowing Unauthenticated User Impersonation</t>
+          <t>Belgian cybersecurity startup Aikido hits unicorn status with new funding round - Reuters</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/servicenow-patches-critical-ai-platform.html</t>
+          <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxQcjZHZjZ3NHpBajduLVg0ZU9XaWV4TGNxLVQzQmF4bktuQWwzWU9kQmltZVpRaGN6QThhYmxlOU9vckZTa2RHd3BtMkNRNkVjWmd6OUlzUjdERURJN2ZER0paa2R3Q0tIVW9qbFdQR19xcW9WbzZhMlpBd1VKQWJvVlpCdFRPeENEOTB4YzM2WFZXTHNIMkxMOXpxVjFqd2dSWklFZ3U5YlRCTVJ5VDEwdWpEN2tHdU1feFBUenpiR2drc2lq?oc=5</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2814,17 +2814,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>New Advanced Linux VoidLink Malware Targets Cloud and container Environments</t>
+          <t>PLUGGYAPE Malware Uses Signal and WhatsApp to Target Ukrainian Defense Forces</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/new-advanced-linux-voidlink-malware.html</t>
+          <t>https://thehackernews.com/2026/01/pluggyape-malware-uses-signal-and.html</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2846,17 +2846,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Senior Russian official says Greenland could vote to join Russia if Trump does not hurry - Reuters</t>
+          <t>Takaichi and Lee end first day of summit on a high note with drum session - Reuters</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxQWGRiQ1h1elVpU09iYzkzbkNXSkpqT1J0SDRhM1ZzZ3VHcnRFN0o3U3d5cjZiV0U5bGx5bmsyaEwtTnpqam0wYUk1SE9sbzVuUE1neVp5Z1FydFJFRmxia2ljVE1OdWtxV2lWeWotNTZrZl92Wno2cElMcG5zNk1sU0xyMjh6cjNmRHByTzIwTnZFcXppMXlpczJ4NVBhRVRsZW9sVldoR1hGcUxjdkVsMXB5bEcxV3RHaHpNRjZn?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQUFY3eWVKSUFQYXlxQXhwQUZGaVFvN1hiLTI1LXZTd0VveHdaNTRJbnUxOEZuNzhhUHBEZUp3WWE1OU5scUdTRTFlVTdjWkQ3eGdHdW9WbTctOVFYSFd4RkNDbU12Z2RzemppelpMckRaNE53NTMxUnd2blFyXy00V3N5d0J5cUJWWnhiMzEtR0lpS0lJMnR0emxXbXo0cDlmaC1nWnhITl9qeVg0cjRRdWZGel9kWmM?oc=5</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2868,7 +2868,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Trump says inflation data means Fed can cut interest rates - Reuters</t>
+          <t>Gold notches record high, silver cracks $90 on Fed rate cut bets - Reuters</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOb1RPV1JkVVVGcXpVb3IwVXMzeHEwNmdnUU8tWktMQmVhMUc4UElTMEJmWkdoTjRrWWJzNmtJRm1vTndoRVF4SGx5R09oSXJaeDlmUEdsYnE4RU1XRHN3SWpCZEN1YTU4MGdVbWwwamoxQ1J1SzVPekdrNkZfVE5QVjR4R0pTYklPX3hDbXBMWkZYVmFwNGV2blc0RXdjT3d2UWs0aWZTaWxXZw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPMDVHbjVCZURFTGl4X1FWMGtPSnh1NmN5NkhXdndsLWxnbWFJNTRUUUJseHV2T0VfWWhWc3pucUpUOHVRSEVWR2JKaXZwTVc5UnpZWmxOMWtXV3FqT3RIQXRzbmdORlRhMkg4UGNrUFFFdUJJaDNxTDg1UTRfSmlPNV85U0VnQ2NLNkRtTW96aUxvQjlNNEh3dkx3MW5NdGtERlRLc1Fhc3M?oc=5</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2900,7 +2900,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2910,12 +2910,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>China limits Nvidia chip purchases to special circumstances, Information reports - Reuters</t>
+          <t>Ready, steady gold! Safety bid adds fuel to cenbank fire - Reuters</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxNQU5YR3BRNnBjUndkYWJqNnFnSFlDS2xYYVFycUp5UmZoeExwaUFaeThuaXZKdmlWOS12MU9iN3RwYVcwdmUtd2xQS0lNMkpxYjBCNkZpc09pMWNPSVNCcHVLMHdKYUo2VUx4c0pkajVURmFnU1Qta0tGYkRNdkpsWXIzSHFHNk5YQWZuTTFpUEZneW82aTJZaXJybG8wa0VkWGJ3c2tpNFBrVXdYVXhQY1RFcmU3MjJoTnZqX1ZWZDh4dw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxNYURRZnRjcXc0Q1V0M0E0VUdBbWhMVm5rS2NzSXItbkR5bk5hWGx0ZXdMNV81Q0dzTkRuckJWcndEenpTZEl5SUhNc0dwS1R1TGMyUjNGWlBhM254d1FqU0NlM1NzNFRtZFhYUEY3czlxeUFVX1B1M29nVml1elViNl9odlNJTGhrN0lkd3BEWHdXLUNKeE5PZHR5dTB4Z1hjdWV5aVJReWFseUFOQTdqQ1hSYWY?oc=5</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2932,7 +2932,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2942,17 +2942,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Tomlin steps down as Steelers' coach after 19 seasons - Reuters</t>
+          <t>Trump urges Iranians to keep protesting, saying 'help is on its way' - Reuters</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxNZ3N6RXJfUG5LbjhDMVhRMkxYS2l1UkdiWUF0eU5jRFQyMVpXd3FRLVllNE53WUh6NjRBNVFZU3MtaGpFR1VhdHN6S2hIbUJOS2c2X1hHdS0xWDdnTEFQd0wtaWR6RlF1S1I1UnFVbDI4WWlLdkhNUHpPVm54cWJXV1hYek10WG9ZZG5VSVdnRXRISXF1OEJV?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQNzdvSXBtajhYdGFUZ3pLMU40djlOWUdDTGJZQ3Z3UEt5aDdNZ3djam1YTEFqZFlEOHhqS2NxV2lPUzREZXdad2FQZ2Z0NWNyU3JJdGtqakd1b1F3SnZTY29RSG9oSUNIRFNtdXNYSkxLTURzTzRRdWctZ2kzaExEX2hGQ0MwdEdzQm5PVldZMEQ2VUFQSFRwSm4wWU42NWg3aUxYRzRDUkdPM2FvWXVyMnh4NGVnUWs?oc=5</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2964,7 +2964,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2974,17 +2974,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Trump probe of Fed chair stresses need for global diversification - Reuters</t>
+          <t>China's trade ends 2025 with record $1.2 trillion surplus despite Trump tariff jolt - Reuters</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNWUtZdWRtOC1FSkp4SEVuVktuMkNBLXAtSXZNOE5FX1doOTdvaFpuNjdaZHNsaVpOMFNFOTlYMC1KdTNKamh1azAxNVlJU2JXVzdrMGZQaXJwTDhqWE9VQXJXRkJSMWgxT3VMQkw0NGZFMTQ4YmNVZGFocHZfcEY3MVhGcXk0WlhtODZKRFRBM0s2QjlIRTBHajEzdEZFNFI4aGVtTVFR?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOUTJBRGwwTTYzOEZ1ZGJxeDhqbHVXOWJ3ejBrY2c3ZzVDZXhIRV9IemtkRG15MERacVJQVnZxcVVTeWVqZnlkZ3pkVWJpY2RXTGxCV3EtOFhUQ29WUDBuSVdWY0M3WlBTRG1TTWlpVjNxd3JEMGxpZkd6YzR6eGxxZkhObERkc1NXSnJwT3pHQ2ZHUXhzdDNjQmxrYzJST0lQWXBZRVpvdHFIMVNlb2RUc3RLMFI1RnYybDFlWlp3c04xaC10cFlj?oc=5</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3006,12 +3006,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Pope Leo to visit Angola as part of an Africa tour, Vatican envoy says - Reuters</t>
+          <t>Chipmaker Nexperia and Chinese owner Wingtech fight for control in Dutch court - Reuters</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxNRndWQmRaMzR3ZXlFbjZQbk0zV1JYSFA1Qy1FVUJSQUVCX3ExVzZnYmFFVUtFdmdpZnl3ZGNzOUFRRWJRTEpCTnloNkFNRUNVcjdBeThPcmZqYVFUbXlfNXduRC1PZkg4WURJVEVTdkRsR24zYjd2amRQZHRhN2NSaXZLLXB3UWZ2b0RiaDNBM0hkYzFuVmNYdHl6VHA0aXNqSy00dg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxNUjA2QmJ6NEdoSWl0bVJwRzFMbUZidDdPZldURzl5a1dSNUgwTEZvajVsLWZMdXl5WUxNTG5hSkNkcy13ZkM5RnlRLXc2Zmp2T2d3S3JWem9VVU04UHVrcm5yMmhGQjJDUFZUa19JNzdKeGdlWUlXX0FNSmRPaEd2MUE1aUlkSTFxbXFHQ1FyRDVZY2NZWE5yYXc0NzhKa0pzZDM5MkY5Z016TmZmX2RveUNjV3dRdw?oc=5</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3038,12 +3038,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Wall Street expects strong fourth-quarter earnings driven by robust US economy - Reuters</t>
+          <t>Trump says he thinks China can open its markets to US goods - Reuters</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxOUnc1ZC1sYk1ETFVDWUpGQkpkRnlSd0hhVXJKZmF4dlMzREhxV0NGS1VjbFpheEQtZkYyelJtT0gxbGhmb2I1eWtHYzhSaTZlUktabXNhd1N3X0ZQOTJjZXNxdVVYMlRqZVR6MHF0c1AyNEhhZ2gxc19iaTdzWWVQQkhxMFk0amw2YWZVdXUyaVFVZ19rZHp4clIyOVdIMVhxYjdRYWxsSnFDUy1wTGJwNEhYUERRZ3BJRTFzM01hYVppRmotbXpBaVZHVQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxONVBCX2drb3JScmU2TTYyMi1uVC1ZVU02S0NtNFRiSHhUZm5fOG9HaFBaN3dXNWs3V0RGUEE4amVOS2RrT1BlNWM4QjhOLVM1NzNQSERYNl9lQUFEQ0NDa0VsMEN3QlBUTFE2UFZOVF8tcjNrQjlEYjQ5c2o2SVMycEZQOFhHazJySVVzaXNHNzlyZ0ttcFpYWDhCUVgwcndYS2tV?oc=5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3065,17 +3065,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Polygon targets stablecoin payments with deals worth $250 million - Reuters</t>
+          <t>CrowdStrike to Buy Seraphic Security in Bid to Boost Browser Security</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQTXBYdG9GYnhtWGp2MlgzSm0zTGR5QUxFdFAyR2JrZHNLQ1dUaGVBOWQxa2hucUN0VWxXdmdXT1NuYkNiWG54WmloUTJBcFoyYjlLUDJwUVNjT2tBYkFpN3BMNzVDUlMtV0tET3d2cjRMREl6bXJTSm42UTZYUGNLTVFVWlZ4V0luRGdGb1NBcjhaTFlGWnZCZkdJVjBFTDctcC1pYW1SYUVLQ0NVS3c?oc=5</t>
+          <t>https://www.darkreading.com/remote-workforce/crowdstrike-buy-seraphic-security-boost-browser-security</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -3102,22 +3102,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EU to 'swiftly' propose further sanctions on Iran, von der Leyen says - Reuters</t>
+          <t>Bloomberg Index Services defers including Indian bonds in global index - Reuters</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxQblFzQUFWcGxwaEtsVlBPcmdMRExLaS1BekxsaWJTSU14elNKY3ZES1o3LVNPdjJwb1dGT1lGQ3ZaMm1uNDRPc05TLUlkUTRwQ19sODRsbGhSemVoM0NRMC1TVktLandoVkNJNG9wSGJQcVUyb1FpLWpWLWdaQWhFdE5kOEo1SGJLRElnNG52M0p0cTVFeGtjVkR5dGR2OXU3b2xlTg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQR1lPWGVrdzBFTjRKWVh5cEFSVWI1c01ZTmdYTTFKRUpJWDJMdE5nRG1uaU16TEVTa3dnRHJNV296dlRoSF9oZy1RcUViSnhPWVFMTXkyZGc0Um54UEozM0dzYnk0emRJd2VlR3FuNWFUZ2xzUlNzeVJmN1Y2YndEUDZ5cTNRNjluM1NOWWRzbzhueGVKWG5NNGtJa2dza1djblc2SUdUbDV0N1lLWE1VdFVqMzBGdw?oc=5</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -3129,17 +3129,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Britain seeks 'reset' in copyright battle between AI and creators - Reuters</t>
+          <t>Rockwell Automation 432ES-IG3 Series A</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQN1RNSkNXMDF2bXVkOVV5VnIyRW5GNk9JMzljdmd1dlB2TVFTLXI3bWMzUGJYWG9JLTFRNHFaUHlqcjlRNjFhQ2c2cDhVMVdqYU91VWYtQ01JRUE0ZTgyLXFVcEowVXYzcGd3bUtLaF9Xa1RORW1CdnBuVmMtakVqbkJFNzZab0w2OUdQaFlFMi04N0NMRU16Nzdfajc3SHRFbHd1ckt0cGNZOU9FcnpoTnEzSS1tQQ?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-01</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3161,17 +3161,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Bill and Hillary Clinton refuse to testify in House Epstein probe, could be held in contempt - Reuters</t>
+          <t>Rockwell Automation FactoryTalk DataMosaix Private Cloud</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNbHhxUGFmX3kxTGFGRkxiSGJ1ZlVqZVJQZlhWc3ZyRTU0dmdhaERIYnJJS3NJTVlJYWdURHI2VVZzYWVRcldDeHpQRlhMTHBLZ3ZLZHRUMjNIazFzVUNHTGQtbVJIZGJNVWEza3I3dExvVDZLaHR1UVkyVVhsSGlCX0MtV2NmOVRDYkdpRG9PaHgzSFNLVUd0OHN3WlhJRzVfX1E0c3g5bjducThD?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-02</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3193,22 +3193,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Wall St slips on credit card proposal, rate bets boost gold - Reuters</t>
+          <t>YoSmart YoLink Smart Hub</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiigFBVV95cUxPUVoxcXJ6WjA4UUcwYlJoY1FTVFUyNzJlRVFkU0pvVFIwWDJuTk9NaXVCRFV4ZlRQRUFWQXBhZ05ycHViU09UdzgzdUJ2RE9ndjlwQVVDYXVhcHBVVXZ4V3V1NXU5SC1IVDlYVmljSmFCY0Zhei1wSDJxcWRnX0lqZ0twREl4Rl9ZNHc?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-03</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3225,22 +3225,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>US teachers union says it is leaving X over sexualized AI images of children - Reuters</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPeFlRczdTUUd1bWdNbVhnVTV6TEw3WVVPWURSal9uU1oxYWdyTTd6Nzg4QldFdlk2U1pfVkdlVC1vaHNzYk5DWVhHSWw5MXlETUI4RTZKOGJsRmVNdmFjbmw4dkpfQUhyNENpVHdGRnQ5MHBLSU9jSjREa282Q3VSaEVoNm1ENlhvS3BzWTUyU2MyMndudTJpOVFoc2xkeG5DMklOUUNEZ2EtTnc3UTVEd2FkSnJRbGhhVVNMN1lPem1tcmV6eXY2Qjc5djhhODg?oc=5</t>
+          <t>https://www.cisa.gov/news-events/alerts/2026/01/13/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3257,22 +3257,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Massive cyberattack on Polish power system in December failed, minister says - Reuters</t>
+          <t>January 2026 Patch Tuesday: 114 CVEs Patched Including 3 Zero-Days</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxNcjE3N3FhUUJKU3VPbm5aTWpsUVFFQmhaQUJfR0h0OGNvQlZVN1BfckZpTTBZNjhzdmxka1lrWFVXa2RxWEwxRHl6ZlNoa2dmSG9ZQkp3X0tRZldjdVZUMkVlUkQwR2REcUdwcmN5R0k4eUx5UkxnUEEwa0s1aGlJS2NjRGVFaDdkV1I1X3gwYmNNbVQxYUc0Rmoxb2g1WnlleUVHcDdacjlXSUJYX0N6bG0wb0JscDlEbWQxRXJPTmtsWmt6a3o3QTlFVy1SZU1C?oc=5</t>
+          <t>https://www.crowdstrike.com/en-us/blog/patch-tuesday-analysis-january-2026/</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3284,22 +3284,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>US federal prosecutors open inquiry into US Fed chair Powell, NYT reports - Reuters</t>
+          <t>CrowdStrike to Acquire Seraphic to Secure Work in Any Browser</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxPZnBOOG80WVFRYXN3ZkktVHc5VmpvejVYLUtMam1uemVkWDRBTnpBZ0dUUWxnVUdxeE5TVXEwOTB4SktMY3FseHQ0VzZLRTYtaW9QaHNINnRWS0ZBckN0b2ptLUp3cmtUWWY2ZnBiQmg5cGRHQ094WFVNNWVuN0tCYkgwS3N4VFhEQ3NnOXFILUVhUU9mbVZzdXZJYzIwZVBfMmdhdDVaUjBha2hSVENOZFpYSXBEaW42?oc=5</t>
+          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-seraphic/</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3309,29 +3309,29 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-14T07:52:14Z</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Remote Code Execution With Modern AI/ML Formats and Libraries</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2026/01/12/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://unit42.paloaltonetworks.com/rce-vulnerabilities-in-ai-python-libraries/</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3348,27 +3348,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2 Separate Campaigns Probe Corporate LLMs for Secrets</t>
+          <t>Threat Brief: MongoDB Vulnerability (CVE-2025-14847)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/separate-campaigns-target-exposed-llm-services</t>
+          <t>https://unit42.paloaltonetworks.com/mongobleed-cve-2025-14847/</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3380,27 +3380,27 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Hexnode Moves into Endpoint Security With Hexnode XDR</t>
+          <t>Senior military cyber operator removed from Russia task force</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/hexnode-marks-its-move-into-endpoint-security-with-hexnode-xdr</t>
+          <t>https://therecord.media/senior-military-cyber-op-removed-russia-task-force</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3412,27 +3412,27 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>FBI Flags Quishing Attacks From North Korean APT</t>
+          <t>Ukraine parliament approves resignation of security service chief in major reshuffle</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/mobile-security/fbi-quishing-attacks-north-korean-apt</t>
+          <t>https://therecord.media/ukraine-parliament-approves-resignation-sbu-chief</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3444,7 +3444,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3454,17 +3454,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Multipurpose GoBruteforcer Botnet Targets 50K+ Linux Servers</t>
+          <t>Attackers Abuse Python, Cloudflare to Deliver AsyncRAT</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/threat-intelligence/gobruteforcer-botnet-targets-50k-plus-linux-servers</t>
+          <t>https://www.darkreading.com/endpoint-security/attackers-abuse-python-cloudflare-deliver-asyncrat</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3476,27 +3476,27 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>GoBruteforcer Botnet Targets Crypto Project Databases by Exploiting Weak Credentials</t>
+          <t>Shadow#Reactor Uses Text Files to Deliver Remcos RAT</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/gobruteforcer-botnet-targets-crypto.html</t>
+          <t>https://www.darkreading.com/endpoint-security/shadow-reactor-uses-text-files-to-deliver-remcos-rat</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3508,22 +3508,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>⚡ Weekly Recap: AI Automation Exploits, Telecom Espionage, Prompt Poaching &amp; More</t>
+          <t>Microsoft Starts 2026 With a Bang: A Freshly Exploited Zero-Day</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/weekly-recap-ai-automation-exploits.html</t>
+          <t>https://www.darkreading.com/application-security/microsofts-starts-2026-bang-zero-day</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3540,27 +3540,27 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>n8n Supply Chain Attack Abuses Community Nodes to Steal OAuth Tokens</t>
+          <t>'Most Severe AI Vulnerability to Date' Hits ServiceNow</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/n8n-supply-chain-attack-abuses.html</t>
+          <t>https://www.darkreading.com/remote-workforce/ai-vulnerability-servicenow</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3572,27 +3572,27 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>MuddyWater Launches RustyWater RAT via Spear-Phishing Across Middle East Sectors</t>
+          <t>SAP’s January 2026 Security Updates Patch Critical Vulnerabilities</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/muddywater-launches-rustywater-rat-via.html</t>
+          <t>https://www.securityweek.com/saps-january-2026-security-updates-patch-critical-vulnerabilities/</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3604,27 +3604,27 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>US military says it carried out strikes across Syria targeting Islamic State - Reuters</t>
+          <t>Broadcom Wi-Fi Chipset Flaw Allows Hackers to Disrupt Networks</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxNN2E5MFN1TTREVFVMQm5ZRU8tc2hCX3hqV3hhMXNWRWFhY1ZDVVE5cEJ3cGZXajkxQmxxaUMzWmg2LTBGbmE2OENaZGU4Vm9NcHM4V0N1OERtY0RSWVA2aUdTYkdpWEhER1lSLVpSSHVHZk84VENENlh4TXJERnJ4dkJVS2RlMGxjcEFQTEdTbUZuUlgzbW15UzFoX0xHbE0zdFNmZTdzUFMyYXc0cElLcnExYmlMcTY2SlBhd2diVUxjT1dHZTdMOGln?oc=5</t>
+          <t>https://www.securityweek.com/broadcom-wi-fi-chipset-flaw-allows-hackers-to-disrupt-networks/</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3636,27 +3636,27 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Russia’s Fancy Bear APT Doubles Down on Global Secrets Theft</t>
+          <t>After Goldman, JPMorgan Discloses Law Firm Data Breach</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/russian-apt-credentials-global-targets</t>
+          <t>https://www.securityweek.com/after-goldman-jpmorgan-discloses-law-firm-data-breach/</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3668,27 +3668,27 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Illicit Crypto Economy Surges Amid Increased Nation-State Activity</t>
+          <t>GoBruteforcer Botnet Targeting Crypto, Blockchain Projects</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyber-risk/illicit-crypto-economy-surges-nation-states</t>
+          <t>https://www.securityweek.com/gobruteforcer-botnet-targeting-crypto-blockchain-projects/</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3700,27 +3700,27 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Deepfake Fraud Tools Are Lagging Behind Expectations</t>
+          <t>Microsoft Patches Exploited Windows Zero-Day, 111 Other Vulnerabilities</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/deepfake-fraud-tools-lag-expectations</t>
+          <t>https://www.securityweek.com/microsoft-patches-exploited-windows-zero-day-111-other-vulnerabilities/</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3732,27 +3732,27 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>FBI Warns North Korean Hackers Using Malicious QR Codes in Spear-Phishing</t>
+          <t>Adobe Patches Critical Apache Tika Bug in ColdFusion</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/fbi-warns-north-korean-hackers-using.html</t>
+          <t>https://www.securityweek.com/adobe-patches-critical-apache-tika-bug-in-coldfusion/</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3764,22 +3764,22 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CISA Retires 10 Emergency Cybersecurity Directives Issued Between 2019 and 2024</t>
+          <t>CrowdStrike to Acquire Browser Security Firm Seraphic for $420 Million</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/cisa-retires-10-emergency-cybersecurity.html</t>
+          <t>https://www.securityweek.com/crowdstrike-to-acquire-browser-security-firm-seraphic-for-420-million/</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3796,22 +3796,22 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Trend Micro Apex Central RCE Flaw Scores 9.8 CVSS in On-Prem Windows Versions</t>
+          <t>Target employees confirm leaked source code is authentic</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/trend-micro-apex-central-rce-flaw.html</t>
+          <t>https://www.bleepingcomputer.com/news/security/target-employees-confirm-leaked-source-code-is-authentic/</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3828,27 +3828,27 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Russian APT28 Runs Credential-Stealing Campaign Targeting Energy and Policy Organizations</t>
+          <t>Convincing LinkedIn comment-reply tactic used in new phishing</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/russian-apt28-runs-credential-stealing.html</t>
+          <t>https://www.bleepingcomputer.com/news/security/convincing-linkedin-comment-reply-tactic-used-in-new-phishing/</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3860,27 +3860,27 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>China-Linked Hackers Exploit VMware ESXi Zero-Days to Escape Virtual Machines</t>
+          <t>Betterment confirms data breach after wave of crypto scam emails</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/chinese-linked-hackers-exploit-vmware.html</t>
+          <t>https://www.bleepingcomputer.com/news/security/betterment-confirms-data-breach-after-wave-of-crypto-scam-emails/</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3892,27 +3892,27 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Hitachi Energy Asset Suite</t>
+          <t>Google confirms Android bug causing volume key issues</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-008-01</t>
+          <t>https://www.bleepingcomputer.com/news/google/google-confirms-android-bug-causing-volume-key-issues/</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3924,27 +3924,27 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CrowdStrike to Acquire SGNL to Secure Every Identity in the AI Era</t>
+          <t>Microsoft January 2026 Patch Tuesday fixes 3 zero-days, 114 flaws</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-sgnl/</t>
+          <t>https://www.bleepingcomputer.com/news/microsoft/microsoft-january-2026-patch-tuesday-fixes-3-zero-days-114-flaws/</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3956,27 +3956,27 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Here's What Cloud Security's Future Holds for the Year Ahead</t>
+          <t>New Windows updates replace expiring Secure Boot certificates</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/heres-cloud-security-holds-year-ahead</t>
+          <t>https://www.bleepingcomputer.com/news/security/microsoft-rolls-out-new-secure-boot-certificates-for-windows-devices/</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>クラウド・サプライチェーン</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3988,27 +3988,27 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Maximum Severity HPE OneView Flaw Exploited in the Wild</t>
+          <t>Belgian hospital AZ Monica shuts down servers after cyberattack</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/vulnerabilities-threats/maximum-severity-hpe-oneview-flaw-exploited</t>
+          <t>https://www.bleepingcomputer.com/news/security/belgian-hospital-az-monica-shuts-down-servers-after-cyberattack/</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4020,27 +4020,27 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CrowdStrike to Buy SGNL to Expand Identity Security Capabilities</t>
+          <t>New VoidLink malware framework targets Linux cloud servers</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/crowdsrike-buy-sgnl-expand-identity-security-capabilities</t>
+          <t>https://www.bleepingcomputer.com/news/security/new-voidlink-malware-framework-targets-linux-cloud-servers/</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4052,27 +4052,27 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Coolify Discloses 11 Critical Flaws Enabling Full Server Compromise on Self-Hosted Instances</t>
+          <t>Ukraine's army targeted in new charity-themed malware campaign</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/coolify-discloses-11-critical-flaws.html</t>
+          <t>https://www.bleepingcomputer.com/news/security/ukraines-army-targeted-in-new-charity-themed-malware-campaign/</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4084,7 +4084,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4094,17 +4094,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Researchers Uncover NodeCordRAT Hidden in npm Bitcoin-Themed Packages</t>
+          <t>CISA Warns of Active Exploitation of Gogs Vulnerability Enabling Code Execution</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/researchers-uncover-nodecordrat-hidden.html</t>
+          <t>https://thehackernews.com/2026/01/cisa-warns-of-active-exploitation-of.html</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4116,7 +4116,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4126,17 +4126,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Cisco Patches ISE Security Vulnerability After Public PoC Exploit Release</t>
+          <t>New Malware Campaign Delivers Remcos RAT Through Multi-Stage Windows Attack</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/cisco-patches-ise-security.html</t>
+          <t>https://thehackernews.com/2026/01/new-malware-campaign-delivers-remcos.html</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4148,7 +4148,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4158,12 +4158,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>The State of Trusted Open Source</t>
+          <t>ServiceNow Patches Critical AI Platform Flaw Allowing Unauthenticated User Impersonation</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/the-state-of-trusted-open-source.html</t>
+          <t>https://thehackernews.com/2026/01/servicenow-patches-critical-ai-platform.html</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4180,7 +4180,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4190,17 +4190,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ThreatsDay Bulletin: RustFS Flaw, Iranian Ops, WebUI RCE, Cloud Leaks, and 12 More Stories</t>
+          <t>New Advanced Linux VoidLink Malware Targets Cloud and container Environments</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/threatsday-bulletin-rustfs-flaw-iranian.html</t>
+          <t>https://thehackernews.com/2026/01/new-advanced-linux-voidlink-malware.html</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4212,27 +4212,27 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>China-Linked UAT-7290 Targets Telecoms with Linux Malware and ORB Nodes</t>
+          <t>Senior Russian official says Greenland could vote to join Russia if Trump does not hurry - Reuters</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/china-linked-uat-7290-targets-telecoms.html</t>
+          <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxQWGRiQ1h1elVpU09iYzkzbkNXSkpqT1J0SDRhM1ZzZ3VHcnRFN0o3U3d5cjZiV0U5bGx5bmsyaEwtTnpqam0wYUk1SE9sbzVuUE1neVp5Z1FydFJFRmxia2ljVE1OdWtxV2lWeWotNTZrZl92Wno2cElMcG5zNk1sU0xyMjh6cjNmRHByTzIwTnZFcXppMXlpczJ4NVBhRVRsZW9sVldoR1hGcUxjdkVsMXB5bEcxV3RHaHpNRjZn?oc=5</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4244,22 +4244,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>WhatsApp Worm Spreads Astaroth Banking Trojan Across Brazil via Contact Auto-Messaging</t>
+          <t>Trump says inflation data means Fed can cut interest rates - Reuters</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/whatsapp-worm-spreads-astaroth-banking.html</t>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOb1RPV1JkVVVGcXpVb3IwVXMzeHEwNmdnUU8tWktMQmVhMUc4UElTMEJmWkdoTjRrWWJzNmtJRm1vTndoRVF4SGx5R09oSXJaeDlmUEdsYnE4RU1XRHN3SWpCZEN1YTU4MGdVbWwwamoxQ1J1SzVPekdrNkZfVE5QVjR4R0pTYklPX3hDbXBMWkZYVmFwNGV2blc0RXdjT3d2UWs0aWZTaWxXZw?oc=5</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4276,7 +4276,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4286,17 +4286,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CrowdStrike to buy identity security startup SGNL for $740 million to tackle AI threats - Reuters</t>
+          <t>China limits Nvidia chip purchases to special circumstances, Information reports - Reuters</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxPWlhETmluVjRhN2hIZzFjdFdKcTkwUGJXeGJKeGxnekxmR1dYaE1SNEJwWGJzWFVWanl6bkRYcWlkQzBYNVJFY0pWWDh4bE4wcGw5Vk5IWDZEcklwS1o1VkE4aDVHOG9sd1QxaUNObDJFWVVUTnJVWXpibkNTM0FmRWhTQ3hHS0lFaFlBUVdvb2Y4aTNGbTkxbFVmXzJWZlVRczloTE8xR2M3M1NfeU1fcnVCOTlzbmY5R0lVOTVYaFM?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxNQU5YR3BRNnBjUndkYWJqNnFnSFlDS2xYYVFycUp5UmZoeExwaUFaeThuaXZKdmlWOS12MU9iN3RwYVcwdmUtd2xQS0lNMkpxYjBCNkZpc09pMWNPSVNCcHVLMHdKYUo2VUx4c0pkajVURmFnU1Qta0tGYkRNdkpsWXIzSHFHNk5YQWZuTTFpUEZneW82aTJZaXJybG8wa0VkWGJ3c2tpNFBrVXdYVXhQY1RFcmU3MjJoTnZqX1ZWZDh4dw?oc=5</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4308,27 +4308,27 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>CISA Adds Two Known Exploited Vulnerabilities to Catalog</t>
+          <t>Tomlin steps down as Steelers' coach after 19 seasons - Reuters</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2026/01/07/cisa-adds-two-known-exploited-vulnerabilities-catalog</t>
+          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxNZ3N6RXJfUG5LbjhDMVhRMkxYS2l1UkdiWUF0eU5jRFQyMVpXd3FRLVllNE53WUh6NjRBNVFZU3MtaGpFR1VhdHN6S2hIbUJOS2c2X1hHdS0xWDdnTEFQd0wtaWR6RlF1S1I1UnFVbDI4WWlLdkhNUHpPVm54cWJXV1hYek10WG9ZZG5VSVdnRXRISXF1OEJV?oc=5</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4340,22 +4340,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Explore the latest Microsoft Incident Response proactive services for enhanced resilience</t>
+          <t>Trump probe of Fed chair stresses need for global diversification - Reuters</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2026/01/07/explore-the-latest-microsoft-incident-response-proactive-services-for-enhanced-resilience/</t>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNWUtZdWRtOC1FSkp4SEVuVktuMkNBLXAtSXZNOE5FX1doOTdvaFpuNjdaZHNsaVpOMFNFOTlYMC1KdTNKamh1azAxNVlJU2JXVzdrMGZQaXJwTDhqWE9VQXJXRkJSMWgxT3VMQkw0NGZFMTQ4YmNVZGFocHZfcEY3MVhGcXk0WlhtODZKRFRBM0s2QjlIRTBHajEzdEZFNFI4aGVtTVFR?oc=5</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4372,27 +4372,27 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Lack of MFA Is Common Thread in Vast Cloud Credential Heist</t>
+          <t>Pope Leo to visit Angola as part of an Africa tour, Vatican envoy says - Reuters</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/lack-mfa-common-thread-vast-cloud-credential-heist</t>
+          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxNRndWQmRaMzR3ZXlFbjZQbk0zV1JYSFA1Qy1FVUJSQUVCX3ExVzZnYmFFVUtFdmdpZnl3ZGNzOUFRRWJRTEpCTnloNkFNRUNVcjdBeThPcmZqYVFUbXlfNXduRC1PZkg4WURJVEVTdkRsR24zYjd2amRQZHRhN2NSaXZLLXB3UWZ2b0RiaDNBM0hkYzFuVmNYdHl6VHA0aXNqSy00dg?oc=5</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4404,22 +4404,22 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>DDoSia Powers Affiliate-Driven Hacktivist Attacks</t>
+          <t>Wall Street expects strong fourth-quarter earnings driven by robust US economy - Reuters</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/ddosia-powers-volunteer-driven-hacktivist-attacks</t>
+          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxOUnc1ZC1sYk1ETFVDWUpGQkpkRnlSd0hhVXJKZmF4dlMzREhxV0NGS1VjbFpheEQtZkYyelJtT0gxbGhmb2I1eWtHYzhSaTZlUktabXNhd1N3X0ZQOTJjZXNxdVVYMlRqZVR6MHF0c1AyNEhhZ2gxc19iaTdzWWVQQkhxMFk0amw2YWZVdXUyaVFVZ19rZHp4clIyOVdIMVhxYjdRYWxsSnFDUy1wTGJwNEhYUERRZ3BJRTFzM01hYVppRmotbXpBaVZHVQ?oc=5</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4436,27 +4436,27 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Cyberattacks Likely Part of Military Operation in Venezuela</t>
+          <t>Polygon targets stablecoin payments with deals worth $250 million - Reuters</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cybersecurity-operations/cyberattacks-part-military-operation-venezuela</t>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQTXBYdG9GYnhtWGp2MlgzSm0zTGR5QUxFdFAyR2JrZHNLQ1dUaGVBOWQxa2hucUN0VWxXdmdXT1NuYkNiWG54WmloUTJBcFoyYjlLUDJwUVNjT2tBYkFpN3BMNzVDUlMtV0tET3d2cjRMREl6bXJTSm42UTZYUGNLTVFVWlZ4V0luRGdGb1NBcjhaTFlGWnZCZkdJVjBFTDctcC1pYW1SYUVLQ0NVS3c?oc=5</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4468,27 +4468,27 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Phishers Exploit Office 365 Users Who Let Their Guard Down</t>
+          <t>EU to 'swiftly' propose further sanctions on Iran, von der Leyen says - Reuters</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/phishers-exploit-office-365-users-guard-down</t>
+          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxQblFzQUFWcGxwaEtsVlBPcmdMRExLaS1BekxsaWJTSU14elNKY3ZES1o3LVNPdjJwb1dGT1lGQ3ZaMm1uNDRPc05TLUlkUTRwQ19sODRsbGhSemVoM0NRMC1TVktLandoVkNJNG9wSGJQcVUyb1FpLWpWLWdaQWhFdE5kOEo1SGJLRElnNG52M0p0cTVFeGtjVkR5dGR2OXU3b2xlTg?oc=5</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4500,27 +4500,27 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Attackers Exploit Zero-Day in End-of-Life D-Link Routers</t>
+          <t>Britain seeks 'reset' in copyright battle between AI and creators - Reuters</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/attackers-exploit-zero-day-end-of-life-d-link-routers</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQN1RNSkNXMDF2bXVkOVV5VnIyRW5GNk9JMzljdmd1dlB2TVFTLXI3bWMzUGJYWG9JLTFRNHFaUHlqcjlRNjFhQ2c2cDhVMVdqYU91VWYtQ01JRUE0ZTgyLXFVcEowVXYzcGd3bUtLaF9Xa1RORW1CdnBuVmMtakVqbkJFNzZab0w2OUdQaFlFMi04N0NMRU16Nzdfajc3SHRFbHd1ckt0cGNZOU9FcnpoTnEzSS1tQQ?oc=5</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4532,22 +4532,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Columbia Weather Systems MicroServer</t>
+          <t>Bill and Hillary Clinton refuse to testify in House Epstein probe, could be held in contempt - Reuters</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-006-01</t>
+          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNbHhxUGFmX3kxTGFGRkxiSGJ1ZlVqZVJQZlhWc3ZyRTU0dmdhaERIYnJJS3NJTVlJYWdURHI2VVZzYWVRcldDeHpQRlhMTHBLZ3ZLZHRUMjNIazFzVUNHTGQtbVJIZGJNVWEza3I3dExvVDZLaHR1UVkyVVhsSGlCX0MtV2NmOVRDYkdpRG9PaHgzSFNLVUd0OHN3WlhJRzVfX1E0c3g5bjducThD?oc=5</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4564,22 +4564,22 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>How CrowdStrike&amp;rsquo;s Malware Analysis Agent Detects Malware at Machine Speed</t>
+          <t>Wall St slips on credit card proposal, rate bets boost gold - Reuters</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/how-crowdstrike-detects-malware-at-machine-speed/</t>
+          <t>https://news.google.com/rss/articles/CBMiigFBVV95cUxPUVoxcXJ6WjA4UUcwYlJoY1FTVFUyNzJlRVFkU0pvVFIwWDJuTk9NaXVCRFV4ZlRQRUFWQXBhZ05ycHViU09UdzgzdUJ2RE9ndjlwQVVDYXVhcHBVVXZ4V3V1NXU5SC1IVDlYVmljSmFCY0Zhei1wSDJxcWRnX0lqZ0twREl4Rl9ZNHc?oc=5</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4596,27 +4596,27 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Phishing actors exploit complex routing and misconfigurations to spoof domains</t>
+          <t>US teachers union says it is leaving X over sexualized AI images of children - Reuters</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2026/01/06/phishing-actors-exploit-complex-routing-and-misconfigurations-to-spoof-domains/</t>
+          <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPeFlRczdTUUd1bWdNbVhnVTV6TEw3WVVPWURSal9uU1oxYWdyTTd6Nzg4QldFdlk2U1pfVkdlVC1vaHNzYk5DWVhHSWw5MXlETUI4RTZKOGJsRmVNdmFjbmw4dkpfQUhyNENpVHdGRnQ5MHBLSU9jSjREa282Q3VSaEVoNm1ENlhvS3BzWTUyU2MyMndudTJpOVFoc2xkeG5DMklOUUNEZ2EtTnc3UTVEd2FkSnJRbGhhVVNMN1lPem1tcmV6eXY2Qjc5djhhODg?oc=5</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4628,27 +4628,27 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>ClickFix Campaign Serves Up Fake Blue Screen of Death</t>
+          <t>Massive cyberattack on Polish power system in December failed, minister says - Reuters</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/clickfix-campaign-fake-blue-screen-of-death</t>
+          <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxNcjE3N3FhUUJKU3VPbm5aTWpsUVFFQmhaQUJfR0h0OGNvQlZVN1BfckZpTTBZNjhzdmxka1lrWFVXa2RxWEwxRHl6ZlNoa2dmSG9ZQkp3X0tRZldjdVZUMkVlUkQwR2REcUdwcmN5R0k4eUx5UkxnUEEwa0s1aGlJS2NjRGVFaDdkV1I1X3gwYmNNbVQxYUc0Rmoxb2g1WnlleUVHcDdacjlXSUJYX0N6bG0wb0JscDlEbWQxRXJPTmtsWmt6a3o3QTlFVy1SZU1C?oc=5</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4660,59 +4660,59 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Advisor360 Gets a Handle on Shadow AI via Automation</t>
+          <t>US federal prosecutors open inquiry into US Fed chair Powell, NYT reports - Reuters</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/advisor360-gets-handle-on-shadow-ai-via-automation</t>
+          <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxPZnBOOG80WVFRYXN3ZkktVHc5VmpvejVYLUtMam1uemVkWDRBTnpBZ0dUUWxnVUdxeE5TVXEwOTB4SktMY3FseHQ0VzZLRTYtaW9QaHNINnRWS0ZBckN0b2ptLUp3cmtUWWY2ZnBiQmg5cGRHQ094WFVNNWVuN0tCYkgwS3N4VFhEQ3NnOXFILUVhUU9mbVZzdXZJYzIwZVBfMmdhdDVaUjBha2hSVENOZFpYSXBEaW42?oc=5</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Startup Trends Shaking Up Browsers, SOC Automation, AppSec</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/startup-trends-shaking-up-browsers-soc-automation-appsec</t>
+          <t>https://www.cisa.gov/news-events/alerts/2026/01/12/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4724,22 +4724,22 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>VVS Discord Stealer Using Pyarmor for Obfuscation and Detection Evasion</t>
+          <t>2 Separate Campaigns Probe Corporate LLMs for Secrets</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/vvs-stealer/</t>
+          <t>https://www.darkreading.com/endpoint-security/separate-campaigns-target-exposed-llm-services</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4756,27 +4756,27 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>CISA Releases Two Industrial Control Systems Advisories</t>
+          <t>Hexnode Moves into Endpoint Security With Hexnode XDR</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/30/cisa-releases-two-industrial-control-systems-advisories</t>
+          <t>https://www.darkreading.com/endpoint-security/hexnode-marks-its-move-into-endpoint-security-with-hexnode-xdr</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4788,27 +4788,27 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>WHILL Model C2 Electric Wheelchairs and Model F Power Chairs</t>
+          <t>FBI Flags Quishing Attacks From North Korean APT</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-medical-advisories/icsma-25-364-01</t>
+          <t>https://www.darkreading.com/mobile-security/fbi-quishing-attacks-north-korean-apt</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4820,22 +4820,22 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Multipurpose GoBruteforcer Botnet Targets 50K+ Linux Servers</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/29/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.darkreading.com/threat-intelligence/gobruteforcer-botnet-targets-50k-plus-linux-servers</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4852,27 +4852,27 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Streamline Security Operations with Falcon for IT&amp;rsquo;s Turnkey Automations</t>
+          <t>GoBruteforcer Botnet Targets Crypto Project Databases by Exploiting Weak Credentials</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/streamline-security-operations-falcon-for-it-automations/</t>
+          <t>https://thehackernews.com/2026/01/gobruteforcer-botnet-targets-crypto.html</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4884,27 +4884,27 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>A power outage can turn dangerous fast. Here’s how to prepare - AP News</t>
+          <t>⚡ Weekly Recap: AI Automation Exploits, Telecom Espionage, Prompt Poaching &amp; More</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOYWEwWVN1SmpIaWxleEJ5QkZYcnNhczJ0UHo5NEgwYnlXOGZFNURlTTU2MWkyMkpiWXlPLWJtdjItekppdW9iZnVKQ05OZEtaQ0ppTUJ4LTNkc2Fta3lXYlFPY2gzVWNhQ2U4dGtCcWZ6YlFlblNXMk9jUjJ3WThXaWNVVDlGUDJ0S2hTeFBySG50ajlOOTlCUnRONlJGdnlvelZESlA3cEdEUQ?oc=5</t>
+          <t>https://thehackernews.com/2026/01/weekly-recap-ai-automation-exploits.html</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4916,27 +4916,27 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>CISA Releases One Industrial Control Systems Advisory</t>
+          <t>n8n Supply Chain Attack Abuses Community Nodes to Steal OAuth Tokens</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/23/cisa-releases-one-industrial-control-systems-advisory</t>
+          <t>https://thehackernews.com/2026/01/n8n-supply-chain-attack-abuses.html</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4948,27 +4948,27 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>NIST and CISA Release Draft Interagency Report on Protecting Tokens and Assertions from Tampering Theft and Misuse for Public Comment</t>
+          <t>MuddyWater Launches RustyWater RAT via Spear-Phishing Across Middle East Sectors</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/nist-and-cisa-release-draft-interagency-report-protecting-tokens-and-assertions-tampering-theft-and</t>
+          <t>https://thehackernews.com/2026/01/muddywater-launches-rustywater-rat-via.html</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4980,27 +4980,27 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>US military says it carried out strikes across Syria targeting Islamic State - Reuters</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxNN2E5MFN1TTREVFVMQm5ZRU8tc2hCX3hqV3hhMXNWRWFhY1ZDVVE5cEJ3cGZXajkxQmxxaUMzWmg2LTBGbmE2OENaZGU4Vm9NcHM4V0N1OERtY0RSWVA2aUdTYkdpWEhER1lSLVpSSHVHZk84VENENlh4TXJERnJ4dkJVS2RlMGxjcEFQTEdTbUZuUlgzbW15UzFoX0xHbE0zdFNmZTdzUFMyYXc0cElLcnExYmlMcTY2SlBhd2diVUxjT1dHZTdMOGln?oc=5</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5012,27 +5012,27 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Russia’s Fancy Bear APT Doubles Down on Global Secrets Theft</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/russian-apt-credentials-global-targets</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5044,27 +5044,27 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>CISA and Partners Release Update to Malware Analysis Report BRICKSTORM Backdoor</t>
+          <t>Illicit Crypto Economy Surges Amid Increased Nation-State Activity</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-and-partners-release-update-malware-analysis-report-brickstorm-backdoor</t>
+          <t>https://www.darkreading.com/cyber-risk/illicit-crypto-economy-surges-nation-states</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5076,27 +5076,27 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Inside CrowdStrike&amp;rsquo;s Science-Backed Approach to Building Expert SOC Agents</t>
+          <t>Deepfake Fraud Tools Are Lagging Behind Expectations</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/inside-crowdstrikes-science-backed-approach-to-building-soc-agents/</t>
+          <t>https://www.darkreading.com/remote-workforce/deepfake-fraud-tools-lag-expectations</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5108,27 +5108,27 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>CISA Releases Nine Industrial Control Systems Advisories</t>
+          <t>FBI Warns North Korean Hackers Using Malicious QR Codes in Spear-Phishing</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/18/cisa-releases-nine-industrial-control-systems-advisories</t>
+          <t>https://thehackernews.com/2026/01/fbi-warns-north-korean-hackers-using.html</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5140,27 +5140,27 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Mitsubishi Electric Iconics Digital Solutions and Mitsubishi Electrics Products</t>
+          <t>CISA Retires 10 Emergency Cybersecurity Directives Issued Between 2019 and 2024</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-04</t>
+          <t>https://thehackernews.com/2026/01/cisa-retires-10-emergency-cybersecurity.html</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5172,27 +5172,27 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Axis Communications Camera Station Pro, Camera Station, and Device Manager</t>
+          <t>Trend Micro Apex Central RCE Flaw Scores 9.8 CVSS in On-Prem Windows Versions</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-08</t>
+          <t>https://thehackernews.com/2026/01/trend-micro-apex-central-rce-flaw.html</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5204,27 +5204,27 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Rockwell Automation Micro820, Micro850, Micro870</t>
+          <t>Russian APT28 Runs Credential-Stealing Campaign Targeting Energy and Policy Organizations</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-07</t>
+          <t>https://thehackernews.com/2026/01/russian-apt28-runs-credential-stealing.html</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5236,27 +5236,27 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>National Instruments LabView</t>
+          <t>China-Linked Hackers Exploit VMware ESXi Zero-Days to Escape Virtual Machines</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-03</t>
+          <t>https://thehackernews.com/2026/01/chinese-linked-hackers-exploit-vmware.html</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5268,7 +5268,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5278,12 +5278,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Advantech WebAccess/SCADA</t>
+          <t>Hitachi Energy Asset Suite</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-06</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-008-01</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5300,27 +5300,27 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Siemens Interniche IP-Stack</t>
+          <t>CrowdStrike to Acquire SGNL to Secure Every Identity in the AI Era</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-05</t>
+          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-sgnl/</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5332,27 +5332,27 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Inductive Automation Ignition</t>
+          <t>Here's What Cloud Security's Future Holds for the Year Ahead</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-01</t>
+          <t>https://www.darkreading.com/cloud-security/heres-cloud-security-holds-year-ahead</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>クラウド・サプライチェーン</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5364,27 +5364,27 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Schneider Electric EcoStruxure Foxboro DCS Advisor</t>
+          <t>Maximum Severity HPE OneView Flaw Exploited in the Wild</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-02</t>
+          <t>https://www.darkreading.com/vulnerabilities-threats/maximum-severity-hpe-oneview-flaw-exploited</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5396,27 +5396,27 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>CISA Adds Three Known Exploited Vulnerabilities to Catalog</t>
+          <t>CrowdStrike to Buy SGNL to Expand Identity Security Capabilities</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/17/cisa-adds-three-known-exploited-vulnerabilities-catalog</t>
+          <t>https://www.darkreading.com/endpoint-security/crowdsrike-buy-sgnl-expand-identity-security-capabilities</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5428,27 +5428,27 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Access Fabric: A modern approach to identity and network access</t>
+          <t>Coolify Discloses 11 Critical Flaws Enabling Full Server Compromise on Self-Hosted Instances</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2025/12/17/access-fabric-a-modern-approach-to-identity-and-network-access/</t>
+          <t>https://thehackernews.com/2026/01/coolify-discloses-11-critical-flaws.html</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5460,27 +5460,27 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Mitsubishi Electric GT Designer3</t>
+          <t>Researchers Uncover NodeCordRAT Hidden in npm Bitcoin-Themed Packages</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-04</t>
+          <t>https://thehackernews.com/2026/01/researchers-uncover-nodecordrat-hidden.html</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5492,27 +5492,27 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Hitachi Energy AFS, AFR and AFF Series</t>
+          <t>Cisco Patches ISE Security Vulnerability After Public PoC Exploit Release</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-03</t>
+          <t>https://thehackernews.com/2026/01/cisco-patches-ise-security.html</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5524,27 +5524,27 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Johnson Controls PowerG, IQPanel and IQHub</t>
+          <t>The State of Trusted Open Source</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-02</t>
+          <t>https://thehackernews.com/2026/01/the-state-of-trusted-open-source.html</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5556,22 +5556,22 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>ThreatsDay Bulletin: RustFS Flaw, Iranian Ops, WebUI RCE, Cloud Leaks, and 12 More Stories</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/16/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://thehackernews.com/2026/01/threatsday-bulletin-rustfs-flaw-iranian.html</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5588,22 +5588,22 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Microsoft named an overall leader in KuppingerCole Leadership Compass for Generative AI Defense</t>
+          <t>China-Linked UAT-7290 Targets Telecoms with Linux Malware and ORB Nodes</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/blog/microsoft-security-blog/microsoft-named-an-overall-leader-in-kuppingercole-leadership-compass-for-genera/4478093</t>
+          <t>https://thehackernews.com/2026/01/china-linked-uat-7290-targets-telecoms.html</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5620,27 +5620,27 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Defending against the CVE-2025-55182 (React2Shell) vulnerability in React Server Components</t>
+          <t>WhatsApp Worm Spreads Astaroth Banking Trojan Across Brazil via Contact Auto-Messaging</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2025/12/15/defending-against-the-cve-2025-55182-react2shell-vulnerability-in-react-server-components/</t>
+          <t>https://thehackernews.com/2026/01/whatsapp-worm-spreads-astaroth-banking.html</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5652,27 +5652,27 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Exploitation of Critical Vulnerability in React Server Components (Updated December 12)</t>
+          <t>CrowdStrike to buy identity security startup SGNL for $740 million to tackle AI threats - Reuters</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/cve-2025-55182-react-and-cve-2025-66478-next/</t>
+          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxPWlhETmluVjRhN2hIZzFjdFdKcTkwUGJXeGJKeGxnekxmR1dYaE1SNEJwWGJzWFVWanl6bkRYcWlkQzBYNVJFY0pWWDh4bE4wcGw5Vk5IWDZEcklwS1o1VkE4aDVHOG9sd1QxaUNObDJFWVVUTnJVWXpibkNTM0FmRWhTQ3hHS0lFaFlBUVdvb2Y4aTNGbTkxbFVmXzJWZlVRczloTE8xR2M3M1NfeU1fcnVCOTlzbmY5R0lVOTVYaFM?oc=5</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5684,27 +5684,27 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Hamas-Affiliated Ashen Lepus Targets Middle Eastern Diplomatic Entities With New AshTag Malware Suite</t>
+          <t>CISA Adds Two Known Exploited Vulnerabilities to Catalog</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/hamas-affiliate-ashen-lepus-uses-new-malware-suite-ashtag/</t>
+          <t>https://www.cisa.gov/news-events/alerts/2026/01/07/cisa-adds-two-known-exploited-vulnerabilities-catalog</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5726,12 +5726,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Imposter for hire: How fake people can gain very real access</t>
+          <t>Explore the latest Microsoft Incident Response proactive services for enhanced resilience</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2025/12/11/imposter-for-hire-how-fake-people-can-gain-very-real-access/</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/07/explore-the-latest-microsoft-incident-response-proactive-services-for-enhanced-resilience/</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5748,27 +5748,27 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>01flip: Multi-Platform Ransomware Written in Rust</t>
+          <t>Lack of MFA Is Common Thread in Vast Cloud Credential Heist</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/new-ransomware-01flip-written-in-rust/</t>
+          <t>https://www.darkreading.com/cloud-security/lack-mfa-common-thread-vast-cloud-credential-heist</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ランサムウェア</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -5780,27 +5780,27 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>From awareness to action: Building a security-first culture for the agentic AI era</t>
+          <t>DDoSia Powers Affiliate-Driven Hacktivist Attacks</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/microsoft-cloud/blog/2025/12/10/from-awareness-to-action-building-a-security-first-culture-for-the-agentic-ai-era/</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/ddosia-powers-volunteer-driven-hacktivist-attacks</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5812,27 +5812,27 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Further Hardening Android GPUs</t>
+          <t>Cyberattacks Likely Part of Military Operation in Venezuela</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/12/further-hardening-android-gpus.html</t>
+          <t>https://www.darkreading.com/cybersecurity-operations/cyberattacks-part-military-operation-venezuela</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5844,27 +5844,27 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Android expands pilot for in-call scam protection for financial apps</t>
+          <t>Phishers Exploit Office 365 Users Who Let Their Guard Down</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/12/android-expands-pilot-in-call-scam-protection-financial-apps.html</t>
+          <t>https://www.darkreading.com/cloud-security/phishers-exploit-office-365-users-guard-down</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -5876,27 +5876,27 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>The Golden Scale: 'Tis the Season for Unwanted Gifts</t>
+          <t>Attackers Exploit Zero-Day in End-of-Life D-Link Routers</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/new-shinysp1d3r-ransomware/</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/attackers-exploit-zero-day-end-of-life-d-link-routers</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -5908,27 +5908,27 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>"Shai-Hulud" Worm Compromises npm Ecosystem in Supply Chain Attack (Updated November 26)</t>
+          <t>Columbia Weather Systems MicroServer</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/npm-supply-chain-attack/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-006-01</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>クラウド・サプライチェーン</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -5940,27 +5940,27 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Android Quick Share Support for AirDrop: A Secure Approach to Cross-Platform File Sharing</t>
+          <t>How CrowdStrike&amp;rsquo;s Malware Analysis Agent Detects Malware at Machine Speed</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/11/android-quick-share-support-for-airdrop-security.html</t>
+          <t>https://www.crowdstrike.com/en-us/blog/how-crowdstrike-detects-malware-at-machine-speed/</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -5972,27 +5972,27 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Rust in Android: move fast and fix things</t>
+          <t>Phishing actors exploit complex routing and misconfigurations to spoof domains</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/11/rust-in-android-move-fast-fix-things.html</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/06/phishing-actors-exploit-complex-routing-and-misconfigurations-to-spoof-domains/</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6004,27 +6004,27 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>How Android provides the most effective protection to keep you safe from mobile scams</t>
+          <t>ClickFix Campaign Serves Up Fake Blue Screen of Death</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/10/how-android-protects-you-from-scams.html</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/clickfix-campaign-fake-blue-screen-of-death</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6036,27 +6036,27 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Microsoft: Russia, China increasingly using AI to escalate cyberattacks on the US - AP News</t>
+          <t>Advisor360 Gets a Handle on Shadow AI via Automation</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxOREVSR1U5TUI4M1dZcE91Uk1FUlRPVm1YSk1tMXZqZXVTNUV0aF8yOFB3YnhiSWdiallOUndHai1BSzBqMEFzb3U4MVBvbnFsbS10MUhKQVJYQ1JZajAtODkxbzBEN2Z1a0FTUnZOekkyXy1jRjU4MzlYTkh5cFFKUndUZnN1bTJIVFpVTUxLWHZJNTZHT0ZkeGVmSElmQkI4QXBhd0JpZzJrenU3TGc?oc=5</t>
+          <t>https://www.darkreading.com/remote-workforce/advisor360-gets-handle-on-shadow-ai-via-automation</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6068,27 +6068,27 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Accelerating adoption of AI for cybersecurity at DEF CON 33</t>
+          <t>Startup Trends Shaking Up Browsers, SOC Automation, AppSec</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/09/accelerating-adoption-of-ai-for.html</t>
+          <t>https://www.darkreading.com/endpoint-security/startup-trends-shaking-up-browsers-soc-automation-appsec</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6100,22 +6100,22 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>How Pixel and Android are bringing a new level of trust to your images with C2PA Content Credentials</t>
+          <t>VVS Discord Stealer Using Pyarmor for Obfuscation and Detection Evasion</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/09/pixel-android-trusted-images-c2pa-content-credentials.html</t>
+          <t>https://unit42.paloaltonetworks.com/vvs-stealer/</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6132,27 +6132,27 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Android’s pKVM Becomes First Globally Certified Software to Achieve Prestigious SESIP Level 5 Security Certification</t>
+          <t>CISA Releases Two Industrial Control Systems Advisories</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/08/Android-pKVM-Certified-SESIP-Level-5.html</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/30/cisa-releases-two-industrial-control-systems-advisories</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6164,27 +6164,27 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Army secretary directs West Point to rescind appointment of Biden-era cybersecurity director - AP News</t>
+          <t>WHILL Model C2 Electric Wheelchairs and Model F Power Chairs</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxNdVB0N2dnVF9IeEtXcFRjc0hXZEZad2pudUNuSGRacEJMSDJLOUdLNDFuODBVbUpfc1RDay04cHpPdHQ1M3JQTGRvLUo4NEdHUDFBZDRVdjdxZ0ZpNXFyNXZLOHhiZVhOX1o1VnNlRE1XbWhFc1VNWlBaem5LSUpFR2d6WURMbWhodGdfZEx1NDFQV05wRUZrWWlqTEI0czA?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-medical-advisories/icsma-25-364-01</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6196,22 +6196,22 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Introducing OSS Rebuild: Open Source, Rebuilt to Last</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/07/introducing-oss-rebuild-open-source.html</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/29/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -6228,22 +6228,22 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>The Czech Republic bans DeepSeek in state administration over cybersecurity concerns - AP News</t>
+          <t>Streamline Security Operations with Falcon for IT&amp;rsquo;s Turnkey Automations</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxPZHhUOFhYS0FhbHVLVEhLd213ODdQdU56eG0yQkw3N3lqRzMxWTNnLVdHZF9URFAzazNRUFVTeFVfanIxU2FFOFhuZEdSLW43dWZqQnBfOGZnQ0xpTThTeW84RE9wZ0UtUjZSNElZMFV6cF9PWFB0WFI0OVRmN0hUVmhMTHg2SnZKZHhCMA?oc=5</t>
+          <t>https://www.crowdstrike.com/en-us/blog/streamline-security-operations-falcon-for-it-automations/</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6260,27 +6260,27 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>AP News</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Advancing Protection in Chrome on Android</t>
+          <t>A power outage can turn dangerous fast. Here’s how to prepare - AP News</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/07/advancing-protection-in-chrome-on.html</t>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOYWEwWVN1SmpIaWxleEJ5QkZYcnNhczJ0UHo5NEgwYnlXOGZFNURlTTU2MWkyMkpiWXlPLWJtdjItekppdW9iZnVKQ05OZEtaQ0ppTUJ4LTNkc2Fta3lXYlFPY2gzVWNhQ2U4dGtCcWZ6YlFlblNXMk9jUjJ3WThXaWNVVDlGUDJ0S2hTeFBySG50ajlOOTlCUnRONlJGdnlvelZESlA3cEdEUQ?oc=5</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6292,27 +6292,27 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Iranian-backed hackers go to work after US strikes - AP News</t>
+          <t>CISA Releases One Industrial Control Systems Advisory</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPX1RpNnA2Q1RHUS1RUXhINGkwTmhrZnN1QWxlREQ1WXBkblFEVnZqVVppRzhHeGxiWGFUM2ZXc2JVUW1JMkQzcFJDTGMydlRRS2Z5Vnd4YU9HY1JGWU01bVZfMjk1dzBBTG1yeGhDOHduc2lEdjBjcTNZQ3NGaDkwaVYxUHVmMmM1anNFXzlOR3YxSG0zR3hF?oc=5</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/23/cisa-releases-one-industrial-control-systems-advisory</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6324,27 +6324,27 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Dutch government says pro-Russian hackers target municipalities linked to this week's NATO summit - AP News</t>
+          <t>NIST and CISA Release Draft Interagency Report on Protecting Tokens and Assertions from Tampering Theft and Misuse for Public Comment</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQNS1FNE9zWXZEbl9qUjBIdmhLWWFsZS1iRXQ2bnZPZlhSZUJNMm1pZ1VTcnM2Y1gycjZveTNyRk9RYVRETWd5WlVpNzA0VGJOZmN4SnlacURmNXY5WXBxejJNWmhtRHl1ZEdZTDZab2lrWDV3aVBBVkRXZ1RIV00ydVlaWWJlNnV1blgtUWJWc3NmTG1yT1I0c05tTHZtYk5kanQzX3dsVFVIYS01T0E?oc=5</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/nist-and-cisa-release-draft-interagency-report-protecting-tokens-and-assertions-tampering-theft-and</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6356,27 +6356,27 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Mitigating prompt injection attacks with a layered defense strategy</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/06/mitigating-prompt-injection-attacks.html</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6388,27 +6388,27 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>What’s New in Android Security and Privacy in 2025</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/05/whats-new-in-android-security-privacy-2025.html</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6420,27 +6420,27 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>New security requirements adopted by HTTPS certificate industry</t>
+          <t>CISA and Partners Release Update to Malware Analysis Report BRICKSTORM Backdoor</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/03/new-security-requirements-adopted-by.html</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-and-partners-release-update-malware-analysis-report-brickstorm-backdoor</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6452,22 +6452,22 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Google to buy cybersecurity firm Wiz for $32 billion in the biggest deal in company’s history - AP News</t>
+          <t>Inside CrowdStrike&amp;rsquo;s Science-Backed Approach to Building Expert SOC Agents</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxQVENFcGdMVURrVk9GZFVXN0NmOXZfZlZMVW9GTlRkX3dERklXeFEzcndndDAtZjN1dmRNZGZ6NFdCdTd4Ym43TS1kZ25NdkZrR21QUlpWbnlLVjRUSGNZZXJhczdWd0NtRmhMT2dXSExyaFdjeWZVOHVxSDd2V3ZPRURHS0oya1QzNmtRWU5GZ202Sktv?oc=5</t>
+          <t>https://www.crowdstrike.com/en-us/blog/inside-crowdstrikes-science-backed-approach-to-building-soc-agents/</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -6484,27 +6484,27 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Announcing OSV-Scanner V2: Vulnerability scanner and remediation tool for open source</t>
+          <t>CISA Releases Nine Industrial Control Systems Advisories</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/03/announcing-osv-scanner-v2-vulnerability.html</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/18/cisa-releases-nine-industrial-control-systems-advisories</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6516,27 +6516,27 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Trump administration halts funding for two cybersecurity efforts, including one for elections - AP News</t>
+          <t>Mitsubishi Electric Iconics Digital Solutions and Mitsubishi Electrics Products</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxQeXJVUGp0Y1F2U196TVZmMjJ6QlZ5MzRRVU83N19yaXR5eC1GemYyUlcxWjYtYTNoOGw5dGNkRG5BM3cwTGtTSWx3ZkFhY0lnRzZWLXdtY0FobjZOZG1tM0RUWng2MEVqY3dIOXdrRmoxNk9CeTVPX1phdkszUVNHMXNXVmdBQzZ4QURFVy01dWRtNHdLaHFEY1E2NmNtWWIwdFE?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-04</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6548,22 +6548,22 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>US cyber agency puts election security staffers who worked with the states on leave - AP News</t>
+          <t>Axis Communications Camera Station Pro, Camera Station, and Device Manager</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQSjZEWnc5TmtXcVVUMVhmZTl3UjRHUmE1ZG16d0JoaEpEdEpJdGQxY2dPZ0pQQ2Zwc0dKZzAwem5SVG53eENzMHlPX0JTY0xiWVNwUWNPZ3R2ZVQ1dlM5ZzBQYVlJMmpvM3hMSU5LUXJYeXpEOFBkVllLN1RRVURkejM0My1pRjlJejhaRkd6bThUa2xMeHBOY3JQQkhwZ25VVFhWNXkxbVAtUVlE?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-08</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -6573,34 +6573,34 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-14T07:52:14Z</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>US cybersecurity agency's future role in elections remains murky under the Trump administration - AP News</t>
+          <t>Rockwell Automation Micro820, Micro850, Micro870</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPMnRHWXk2WkZpWVRaZ2h5U3h0cWR1WlF6a3RnSGdBWE5pcTRITWxhbE51anlTZm00WlBsVW9xenlQMzQyd3VqM3Jjdm04LVhrakpzLW5HSlRuTFBjV2ZNSTU0b3ZUUERFX3o1Q0lodzI4XzNjdVhKNEVIUGduZ1NFNHVwYVIyTEp1VUg5cmhEZkQ4Zk40NkN6Rmc5eUFnTmZQVWdPbnJkYTJRQQ?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-07</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6612,27 +6612,27 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Delta sues cybersecurity firm CrowdStrike over tech outage that canceled flights - AP News</t>
+          <t>National Instruments LabView</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxOWWhiMEtqTE91UDVReXk4cndIVW82MzZOb3o3ZnVqZG9fT29vSnJfeXU1cjZFMk9aSkY5b3lIcmw3LTRHZThZenE1SEtLV2F2dW9JbU5KdnBNTklQZS0yS0NyVU9lZW1YWHpiSXA3Y2NkVTB2QlZEOEJhckNJY3R4VFBUcDVSZzcwNEprbWwwS21CeVF3aHJlWkVaci1TbFRtMm5V?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-03</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -6644,22 +6644,22 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Cybersecurity head says there's no chance a foreign adversary can change US election results - AP News</t>
+          <t>Advantech WebAccess/SCADA</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxPdV9seHI5VHlIQ1R5TTVkdXo2OFdJZmZRcHZRZ29GQm1QYTljdGJSbmRwcDQ1RmxkSF9XZEsyaFZ5ZHNqRTJvMmRwblQxNkFLc2xiaTAtS2hLeDFLV2tpaExYVHNRSGlRRjBGTXVzbHFMS2haSTNZak9INXBqODJQd1hIUlAxLXZ4Y3dWaDJmV1JLMFpCekxkUVBWR192TUVmVVdKSGhaY0JOUHhSWnc?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-06</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6676,27 +6676,27 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Cisco cuts thousands of jobs, 7% of workforce, as it shifts focus to AI, cybersecurity - AP News</t>
+          <t>Siemens Interniche IP-Stack</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxOcXN6clV0d2xaeDQ1aTNpdFhRaFNldVVzQ25LZHI3UGlMVUMxYmxLcklpbmFpRlRraHd3TDkwRW5YODM0SUlJOTNQM0dTTVFoZ0U3Zk90UnFESVl0dklxTWFuTEhoajZHRTVTeHhoMnNiVUx4VGlwOVBaMDR1Nm1GcW5OQUJzbk1uTkVOeG56aVpuWER4a3kzYw?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-05</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -6708,22 +6708,22 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>How a faulty CrowdStrike update crashed computers around the world - AP News</t>
+          <t>Inductive Automation Ignition</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQaDY4QjM5OFlLTzk2aW82YUN6eWh6Z1hlbjB4S3RiLThsX1cxZkE4Z19ia3c2SmEyb0RZamlrU3dDaXhIeVpFYWFseF9vV0pQbkRLOWM5eDFXdE9HOWgyU2ljczI4MG5vclpsS3l4QWpCWkpqOENuWXd0cUZLTVgtaWptWUhNeVZCd3VaREZNV3diVUF0a3FpZ193ZkprTUdWUGYyZTRn?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-01</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6740,27 +6740,27 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Multiple threats to election systems prompt US cybersecurity agency to boost cooperation with states - AP News</t>
+          <t>Schneider Electric EcoStruxure Foxboro DCS Advisor</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNSkk1Wm1OWDVaRFlNQ2FINkNzWGVHMkJXSW1qX0FlUTJucDJyTXQ2RWx6WHZjLXdfX1pZSmRsVXhFZFBjNm5iTHVYTVdQX2ZvbC1ZUlZTU0Fid1B2SnRQYzRJZ3JnVkUzbGJNZlBnLWtwLTNSNV92Y2pEd3VsU3dDS0dPaWZScjM5Z1c4Um9icDdrZEhfOU54ZDNtU1JJSGxjYU5VQ2ln?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-02</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -6772,27 +6772,27 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Cyberattack on Pennsylvania courts didn’t appear to compromise data, officials say - AP News</t>
+          <t>CISA Adds Three Known Exploited Vulnerabilities to Catalog</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxOc2l0X3V5WFhxZUR5YWdoVUZzdThqQWhfNjRKNzlNcXhFMXRoX1VzQk9TTnBuR1lOaVBSN1g4Y1BmNHRjTVVHb3VkaWg5OWpkdnRxeW5aQ0puVndMMDdXMk41RG1sa0xvZzhuekRtZnEyTG51VzZRWi1MSlVfSDRfdENhSXNvM3ZPQS1oWlA2UDBta0xhWDJwdE5NQ04xREJnVllXdTVpLTc2NUF3dHZZYWJqbw?oc=5</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/17/cisa-adds-three-known-exploited-vulnerabilities-catalog</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -6804,32 +6804,1472 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Microsoft Security Blog</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Access Fabric: A modern approach to identity and network access</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/en-us/security/blog/2025/12/17/access-fabric-a-modern-approach-to-identity-and-network-access/</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>ID・認証</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>CISA</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Mitsubishi Electric GT Designer3</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-04</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>CISA</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Hitachi Energy AFS, AFR and AFF Series</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-03</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>CISA</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Johnson Controls PowerG, IQPanel and IQHub</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-02</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>CISA</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/16/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>脆弱性・CVE</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Microsoft Security Blog</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Microsoft named an overall leader in KuppingerCole Leadership Compass for Generative AI Defense</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/blog/microsoft-security-blog/microsoft-named-an-overall-leader-in-kuppingercole-leadership-compass-for-genera/4478093</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Microsoft Security Blog</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Defending against the CVE-2025-55182 (React2Shell) vulnerability in React Server Components</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/en-us/security/blog/2025/12/15/defending-against-the-cve-2025-55182-react2shell-vulnerability-in-react-server-components/</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>脆弱性・CVE</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Palo Alto Unit 42</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Exploitation of Critical Vulnerability in React Server Components (Updated December 12)</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://unit42.paloaltonetworks.com/cve-2025-55182-react-and-cve-2025-66478-next/</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>脆弱性・CVE</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Palo Alto Unit 42</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Hamas-Affiliated Ashen Lepus Targets Middle Eastern Diplomatic Entities With New AshTag Malware Suite</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://unit42.paloaltonetworks.com/hamas-affiliate-ashen-lepus-uses-new-malware-suite-ashtag/</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Microsoft Security Blog</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Imposter for hire: How fake people can gain very real access</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/en-us/security/blog/2025/12/11/imposter-for-hire-how-fake-people-can-gain-very-real-access/</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Palo Alto Unit 42</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>01flip: Multi-Platform Ransomware Written in Rust</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>https://unit42.paloaltonetworks.com/new-ransomware-01flip-written-in-rust/</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>ランサムウェア</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Microsoft Security Blog</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>From awareness to action: Building a security-first culture for the agentic AI era</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/en-us/microsoft-cloud/blog/2025/12/10/from-awareness-to-action-building-a-security-first-culture-for-the-agentic-ai-era/</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Further Hardening Android GPUs</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/12/further-hardening-android-gpus.html</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Android expands pilot for in-call scam protection for financial apps</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/12/android-expands-pilot-in-call-scam-protection-financial-apps.html</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Palo Alto Unit 42</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>The Golden Scale: 'Tis the Season for Unwanted Gifts</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>https://unit42.paloaltonetworks.com/new-shinysp1d3r-ransomware/</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Palo Alto Unit 42</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>"Shai-Hulud" Worm Compromises npm Ecosystem in Supply Chain Attack (Updated November 26)</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>https://unit42.paloaltonetworks.com/npm-supply-chain-attack/</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>クラウド・サプライチェーン</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Android Quick Share Support for AirDrop: A Secure Approach to Cross-Platform File Sharing</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/11/android-quick-share-support-for-airdrop-security.html</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Rust in Android: move fast and fix things</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/11/rust-in-android-move-fast-fix-things.html</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>How Android provides the most effective protection to keep you safe from mobile scams</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/10/how-android-protects-you-from-scams.html</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Microsoft: Russia, China increasingly using AI to escalate cyberattacks on the US - AP News</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxOREVSR1U5TUI4M1dZcE91Uk1FUlRPVm1YSk1tMXZqZXVTNUV0aF8yOFB3YnhiSWdiallOUndHai1BSzBqMEFzb3U4MVBvbnFsbS10MUhKQVJYQ1JZajAtODkxbzBEN2Z1a0FTUnZOekkyXy1jRjU4MzlYTkh5cFFKUndUZnN1bTJIVFpVTUxLWHZJNTZHT0ZkeGVmSElmQkI4QXBhd0JpZzJrenU3TGc?oc=5</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Accelerating adoption of AI for cybersecurity at DEF CON 33</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/09/accelerating-adoption-of-ai-for.html</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>How Pixel and Android are bringing a new level of trust to your images with C2PA Content Credentials</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/09/pixel-android-trusted-images-c2pa-content-credentials.html</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Android’s pKVM Becomes First Globally Certified Software to Achieve Prestigious SESIP Level 5 Security Certification</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/08/Android-pKVM-Certified-SESIP-Level-5.html</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>フィッシング</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Army secretary directs West Point to rescind appointment of Biden-era cybersecurity director - AP News</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxNdVB0N2dnVF9IeEtXcFRjc0hXZEZad2pudUNuSGRacEJMSDJLOUdLNDFuODBVbUpfc1RDay04cHpPdHQ1M3JQTGRvLUo4NEdHUDFBZDRVdjdxZ0ZpNXFyNXZLOHhiZVhOX1o1VnNlRE1XbWhFc1VNWlBaem5LSUpFR2d6WURMbWhodGdfZEx1NDFQV05wRUZrWWlqTEI0czA?oc=5</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Introducing OSS Rebuild: Open Source, Rebuilt to Last</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/07/introducing-oss-rebuild-open-source.html</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>脆弱性・CVE</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>The Czech Republic bans DeepSeek in state administration over cybersecurity concerns - AP News</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxPZHhUOFhYS0FhbHVLVEhLd213ODdQdU56eG0yQkw3N3lqRzMxWTNnLVdHZF9URFAzazNRUFVTeFVfanIxU2FFOFhuZEdSLW43dWZqQnBfOGZnQ0xpTThTeW84RE9wZ0UtUjZSNElZMFV6cF9PWFB0WFI0OVRmN0hUVmhMTHg2SnZKZHhCMA?oc=5</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Advancing Protection in Chrome on Android</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/07/advancing-protection-in-chrome-on.html</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Iranian-backed hackers go to work after US strikes - AP News</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPX1RpNnA2Q1RHUS1RUXhINGkwTmhrZnN1QWxlREQ1WXBkblFEVnZqVVppRzhHeGxiWGFUM2ZXc2JVUW1JMkQzcFJDTGMydlRRS2Z5Vnd4YU9HY1JGWU01bVZfMjk1dzBBTG1yeGhDOHduc2lEdjBjcTNZQ3NGaDkwaVYxUHVmMmM1anNFXzlOR3YxSG0zR3hF?oc=5</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Dutch government says pro-Russian hackers target municipalities linked to this week's NATO summit - AP News</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQNS1FNE9zWXZEbl9qUjBIdmhLWWFsZS1iRXQ2bnZPZlhSZUJNMm1pZ1VTcnM2Y1gycjZveTNyRk9RYVRETWd5WlVpNzA0VGJOZmN4SnlacURmNXY5WXBxejJNWmhtRHl1ZEdZTDZab2lrWDV3aVBBVkRXZ1RIV00ydVlaWWJlNnV1blgtUWJWc3NmTG1yT1I0c05tTHZtYk5kanQzX3dsVFVIYS01T0E?oc=5</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>APT・国家系</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Mitigating prompt injection attacks with a layered defense strategy</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/06/mitigating-prompt-injection-attacks.html</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>What’s New in Android Security and Privacy in 2025</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/05/whats-new-in-android-security-privacy-2025.html</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>New security requirements adopted by HTTPS certificate industry</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/03/new-security-requirements-adopted-by.html</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Google to buy cybersecurity firm Wiz for $32 billion in the biggest deal in company’s history - AP News</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxQVENFcGdMVURrVk9GZFVXN0NmOXZfZlZMVW9GTlRkX3dERklXeFEzcndndDAtZjN1dmRNZGZ6NFdCdTd4Ym43TS1kZ25NdkZrR21QUlpWbnlLVjRUSGNZZXJhczdWd0NtRmhMT2dXSExyaFdjeWZVOHVxSDd2V3ZPRURHS0oya1QzNmtRWU5GZ202Sktv?oc=5</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Announcing OSV-Scanner V2: Vulnerability scanner and remediation tool for open source</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/03/announcing-osv-scanner-v2-vulnerability.html</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>脆弱性・CVE</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Trump administration halts funding for two cybersecurity efforts, including one for elections - AP News</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxQeXJVUGp0Y1F2U196TVZmMjJ6QlZ5MzRRVU83N19yaXR5eC1GemYyUlcxWjYtYTNoOGw5dGNkRG5BM3cwTGtTSWx3ZkFhY0lnRzZWLXdtY0FobjZOZG1tM0RUWng2MEVqY3dIOXdrRmoxNk9CeTVPX1phdkszUVNHMXNXVmdBQzZ4QURFVy01dWRtNHdLaHFEY1E2NmNtWWIwdFE?oc=5</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>US cyber agency puts election security staffers who worked with the states on leave - AP News</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQSjZEWnc5TmtXcVVUMVhmZTl3UjRHUmE1ZG16d0JoaEpEdEpJdGQxY2dPZ0pQQ2Zwc0dKZzAwem5SVG53eENzMHlPX0JTY0xiWVNwUWNPZ3R2ZVQ1dlM5ZzBQYVlJMmpvM3hMSU5LUXJYeXpEOFBkVllLN1RRVURkejM0My1pRjlJejhaRkd6bThUa2xMeHBOY3JQQkhwZ25VVFhWNXkxbVAtUVlE?oc=5</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2026-01-15T06:44:44Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>US cybersecurity agency's future role in elections remains murky under the Trump administration - AP News</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPMnRHWXk2WkZpWVRaZ2h5U3h0cWR1WlF6a3RnSGdBWE5pcTRITWxhbE51anlTZm00WlBsVW9xenlQMzQyd3VqM3Jjdm04LVhrakpzLW5HSlRuTFBjV2ZNSTU0b3ZUUERFX3o1Q0lodzI4XzNjdVhKNEVIUGduZ1NFNHVwYVIyTEp1VUg5cmhEZkQ4Zk40NkN6Rmc5eUFnTmZQVWdPbnJkYTJRQQ?oc=5</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Delta sues cybersecurity firm CrowdStrike over tech outage that canceled flights - AP News</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxOWWhiMEtqTE91UDVReXk4cndIVW82MzZOb3o3ZnVqZG9fT29vSnJfeXU1cjZFMk9aSkY5b3lIcmw3LTRHZThZenE1SEtLV2F2dW9JbU5KdnBNTklQZS0yS0NyVU9lZW1YWHpiSXA3Y2NkVTB2QlZEOEJhckNJY3R4VFBUcDVSZzcwNEprbWwwS21CeVF3aHJlWkVaci1TbFRtMm5V?oc=5</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Cybersecurity head says there's no chance a foreign adversary can change US election results - AP News</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxPdV9seHI5VHlIQ1R5TTVkdXo2OFdJZmZRcHZRZ29GQm1QYTljdGJSbmRwcDQ1RmxkSF9XZEsyaFZ5ZHNqRTJvMmRwblQxNkFLc2xiaTAtS2hLeDFLV2tpaExYVHNRSGlRRjBGTXVzbHFMS2haSTNZak9INXBqODJQd1hIUlAxLXZ4Y3dWaDJmV1JLMFpCekxkUVBWR192TUVmVVdKSGhaY0JOUHhSWnc?oc=5</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Cisco cuts thousands of jobs, 7% of workforce, as it shifts focus to AI, cybersecurity - AP News</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxOcXN6clV0d2xaeDQ1aTNpdFhRaFNldVVzQ25LZHI3UGlMVUMxYmxLcklpbmFpRlRraHd3TDkwRW5YODM0SUlJOTNQM0dTTVFoZ0U3Zk90UnFESVl0dklxTWFuTEhoajZHRTVTeHhoMnNiVUx4VGlwOVBaMDR1Nm1GcW5OQUJzbk1uTkVOeG56aVpuWER4a3kzYw?oc=5</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>脆弱性・CVE</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>How a faulty CrowdStrike update crashed computers around the world - AP News</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQaDY4QjM5OFlLTzk2aW82YUN6eWh6Z1hlbjB4S3RiLThsX1cxZkE4Z19ia3c2SmEyb0RZamlrU3dDaXhIeVpFYWFseF9vV0pQbkRLOWM5eDFXdE9HOWgyU2ljczI4MG5vclpsS3l4QWpCWkpqOENuWXd0cUZLTVgtaWptWUhNeVZCd3VaREZNV3diVUF0a3FpZ193ZkprTUdWUGYyZTRn?oc=5</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Multiple threats to election systems prompt US cybersecurity agency to boost cooperation with states - AP News</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNSkk1Wm1OWDVaRFlNQ2FINkNzWGVHMkJXSW1qX0FlUTJucDJyTXQ2RWx6WHZjLXdfX1pZSmRsVXhFZFBjNm5iTHVYTVdQX2ZvbC1ZUlZTU0Fid1B2SnRQYzRJZ3JnVkUzbGJNZlBnLWtwLTNSNV92Y2pEd3VsU3dDS0dPaWZScjM5Z1c4Um9icDdrZEhfOU54ZDNtU1JJSGxjYU5VQ2ln?oc=5</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Cyberattack on Pennsylvania courts didn’t appear to compromise data, officials say - AP News</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxOc2l0X3V5WFhxZUR5YWdoVUZzdThqQWhfNjRKNzlNcXhFMXRoX1VzQk9TTnBuR1lOaVBSN1g4Y1BmNHRjTVVHb3VkaWg5OWpkdnRxeW5aQ0puVndMMDdXMk41RG1sa0xvZzhuekRtZnEyTG51VzZRWi1MSlVfSDRfdENhSXNvM3ZPQS1oWlA2UDBta0xhWDJwdE5NQ04xREJnVllXdTVpLTc2NUF3dHZZYWJqbw?oc=5</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>States and Congress wrestle with cybersecurity after Iran attacks small town water utilities - AP News</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMingFBVV95cUxNaTluS0tuTW1ZZDJzWW1xUEJQTGZ6eW44em9hYVR5WFotT0NNbkRyLTVlZ0JwUklCc0FMVWtHWVktVVlGdVRDUUdDUVFIXzczMVBCVWFsZ2RPaUpOSE1QMUwxWXBNMk1VZ2VKTHVVU3I1X2hIdHNPNFh4VjM0OEZoVENnYVBoRW9LOHhkTnpTN29scmlTb3A1R1c4Y0plQQ?oc=5</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2026-01-16T06:45:11Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
           <t>2023-12-08</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>AP News</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>Top White House cyber aide says recent Iran hack on water system is call to tighten cybersecurity - AP News</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="D244" t="inlineStr">
         <is>
           <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxOUERwUzRFam9qUXg4N29iT0xPVFNGNFQ0dE5aeXY1S01rSVE2YkdlWnZNLXl5THFtOUlXbVRVWF9ldFZqOHBBaktMTUV2QmVOck9mdkpMOEdyMGRMbUYwcmFQVHNhSkVGclpiMEZncU5zbUU1OWxFajVtXy14YmdLNms1dEViMHFTSkxfSkRkN01NejZWMXgxWk55R0dtZFB2YVN5cW5vdzRPZGJnemI0?oc=5</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="E244" t="inlineStr">
         <is>
           <t>防御・検知・対応</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>2026-01-14T07:52:14Z</t>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Here are the countries that have bans on TikTok - AP News</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNVHY1cFpobU4wMkdQdXVMejZKbHpTUjZiekdUdnBHMVp3QXJXVG9kWUV0NTlVQXV5anBUOWtud0xNeHl1SWcxOFJrOGluakVSbDN5bDlrSFplSjFScVRHVjhUTW1DQ3FISEhpc0VyVE9MTUN6MF81NVRLeUxnYlNZMFpvbGdpeDhvcUZfbzBTNnIzUlN4QnVuM0JHR0d6YWh2U0hxdDlPRlFITmtP?oc=5</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>

--- a/docs/exports/articles_3y.xlsx
+++ b/docs/exports/articles_3y.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F245"/>
+  <dimension ref="A1:F279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,39 +468,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cisco Patches Zero-Day RCE Exploited by China-Linked APT in Secure Email Gateways</t>
+          <t>Anatomy of an Attack: The Payroll Pirates and the Power of Social Engineering</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/cisco-patches-zero-day-rce-exploited-by.html</t>
+          <t>https://unit42.paloaltonetworks.com/social-engineering-payroll-pirates/</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -510,61 +510,61 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gold slips as upbeat US data boosts dollar, dims rate-cut bets - Reuters</t>
+          <t>Judge urges US grant visa to college student deported due to 'mistake' - Reuters</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxNX09JejJvMFRiV05vNWNHOWJmekhtM29PbHd4aTZGckVuR2F6TEh2cU5UNG9GWmtLX3J2Q3JBZkFONzlKVkMxZlVxYWRXaEFFNUs3WjhpUllvU0FDQlA4NTJBd2ZjSHB0SGt0eW0tX2VoLUVhV0tWei1xUTZQWF94LU1rWnVNV2N5Qk5OSGJCaE14U3RfUzM3blg5VnBfdmFUZGFmQzY2ZUFHQQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQcXd1c2dMMndkQ3RqdzRfT2RkV0RGdC11bklpdEg2SXhTSmZ2bTNTUENUWGpWMTRuRmc2bHhGc1B6VXU2ZFBtaEpoU0VUSnlzR1hvZDhoalNjblRSaHJwcHl5cW04a2pIX3l3NE1KZ1dNTW5JcDdjNDdoMTBCYVZLaUlwWnZsODlyVGw2UWxORnM2RzhxNmRObDFHdVBzVjBCVGd5RkhBVzBqdjFEUjV1SnFYemlHdw?oc=5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AVEVA Process Optimization</t>
+          <t>US Justice Department probing Minnesota Governor Walz, other officials, source says - Reuters</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-01</t>
+          <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxQcWsxYlVBX1ZDVnAwOE9KSkJtLTd5c21OY19aN2JNQUFmdE45OTMxMHl6SExhOTBkSTJ0YXdLWUhCVWsyWmIyZXJfWW45T1cxdU5NNG1KRjByQzBWcnhtTXVGYVByNEN1RkxMeC02eEZ3SzYzUVZLQ3dOUjh4T2dQdjd4VTNjY2p0Z3BBMWo0aWZreHBBbzFocFhQdHBmaTFORzZiaVBJSWJxUzFrSWVlUzZxRmRtY1A1Zm84?oc=5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -574,29 +574,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NSA, Cyber Command nominee defends record during Senate hearing</t>
+          <t>Canadian investment regulator confirms hackers hit 750,000 investors</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://therecord.media/nsa-cyber-command-nom-joshua-rudd-senate-hearing</t>
+          <t>https://therecord.media/canada-ciro-investing-regulator-confirms-data-breach</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -606,61 +606,61 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chinese hackers targeting ‘high value’ North American critical infrastructure, Cisco says</t>
+          <t>Jordanian initial access broker pleads guilty to helping target 50 companies</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://therecord.media/china-hackers-apt-cisco-talos</t>
+          <t>https://therecord.media/guilty-plea-initial-access-broker-r1z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Anchorage police department takes servers offline after cyberattack on service provider</t>
+          <t>AI System Reduces Attack Reconstruction Time From Weeks to Hours</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://therecord.media/anchorage-police-takes-servers-offline-after-third-party-attack</t>
+          <t>https://www.darkreading.com/cybersecurity-operations/ai-system-attack-reconstruction-weeks-hours</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -670,29 +670,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Winter Olympics Could Share Podium With Cyberattackers</t>
+          <t>CISOs Rise to Prominence: Security Leaders Join the Executive Suite</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/winter-olympics-podium-cyberattackers</t>
+          <t>https://www.darkreading.com/cybersecurity-operations/cisos-rise-to-prominence-security-leaders-join-the-executive-suite</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -702,29 +702,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Predator Spyware Sample Indicates 'Vendor-Controlled' C2</t>
+          <t>More Problems for Fortinet: Critical FortiSIEM Flaw Exploited</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/mobile-security/predator-spyware-sample-vendor-controlled-c2</t>
+          <t>https://www.darkreading.com/vulnerabilities-threats/fortinet-critical-fortisiem-flaw-exploited</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -734,29 +734,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ICS Patch Tuesday: Vulnerabilities Fixed by Siemens, Schneider, Aveva, Phoenix Contact</t>
+          <t>Former CISA Director Jen Easterly Appointed CEO of RSAC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/ics-patch-tuesday-vulnerabilities-fixed-by-siemens-schneider-aveva-phoenix-contact/</t>
+          <t>https://www.securityweek.com/former-cisa-director-jen-easterly-appointed-ceo-of-rsac/</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -766,29 +766,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>VoidLink Linux Malware Framework Targets Cloud Environments</t>
+          <t>Cisco Patches Vulnerability Exploited by Chinese Hackers</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/voidlink-linux-malware-framework-targets-cloud-environments/</t>
+          <t>https://www.securityweek.com/cisco-patches-vulnerability-exploited-by-chinese-hackers/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -798,29 +798,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Depthfirst Raises $40 Million for Vulnerability Management</t>
+          <t>Cybersecurity Firms React to China’s Reported Software Ban</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/depthfirst-raises-40-million-for-vulnerability-management/</t>
+          <t>https://www.securityweek.com/cybersecurity-firms-react-to-chinas-reported-software-ban/</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>New ‘StackWarp’ Attack Threatens Confidential VMs on AMD Processors</t>
+          <t>WhisperPair Attack Leaves Millions of Audio Accessories Open to Hijacking</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/new-stackwarp-attack-threatens-confidential-vms-on-amd-processors/</t>
+          <t>https://www.securityweek.com/whisperpair-attack-leaves-millions-of-bluetooth-accessories-open-to-hijacking/</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -845,93 +845,93 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Microsoft disrupts massive RedVDS cybercrime virtual desktop service</t>
+          <t>Cyber Insights 2026: Social Engineering</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/microsoft-seizes-servers-disrupts-massive-redvds-cybercrime-platform/</t>
+          <t>https://www.securityweek.com/cyber-insights-2026-social-engineering/</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Palo Alto Networks warns of DoS bug letting hackers disable firewalls</t>
+          <t>Monnai Raises $12 Million for Identity and Risk Data Infrastructure</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/palo-alto-networks-warns-of-dos-bug-letting-hackers-disable-firewalls/</t>
+          <t>https://www.securityweek.com/monnai-raises-12-million-for-identity-and-risk-data-infrastructure/</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Critical flaw lets hackers track, eavesdrop via Bluetooth audio devices</t>
+          <t>In Other News: FortiSIEM Flaw Exploited, Sean Plankey Renominated, Russia’s Polish Grid Attack</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/critical-whisperpair-flaw-lets-hackers-track-eavesdrop-via-bluetooth-audio-devices/</t>
+          <t>https://www.securityweek.com/in-other-news-fortisiem-flaw-exploited-sean-plankey-renominated-russias-polish-grid-attack/</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -941,14 +941,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -958,12 +958,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hackers exploit Modular DS WordPress plugin flaw for admin access</t>
+          <t>Cisco finally fixes AsyncOS zero-day exploited since November</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/hackers-exploit-modular-ds-wordpress-plugin-flaw-for-admin-access/</t>
+          <t>https://www.bleepingcomputer.com/news/security/cisco-finally-fixes-asyncos-zero-day-exploited-since-november/</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -973,14 +973,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -990,29 +990,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Grubhub confirms hackers stole data in recent security breach</t>
+          <t>Hackers now exploiting critical Fortinet FortiSIEM flaw in attacks</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/grubhub-confirms-hackers-stole-data-in-recent-security-breach/</t>
+          <t>https://www.bleepingcomputer.com/news/security/hackers-now-exploiting-critical-fortinet-fortisiem-vulnerability-in-attacks/</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1022,61 +1022,61 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Gootloader now uses 1,000-part ZIP archives for stealthy delivery</t>
+          <t>China-linked hackers exploited Sitecore zero-day for initial access</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/gootloader-now-uses-1-000-part-zip-archives-for-stealthy-delivery/</t>
+          <t>https://www.bleepingcomputer.com/news/security/china-linked-hackers-exploited-sitecore-zero-day-for-initial-access/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Palo Alto Fixes GlobalProtect DoS Flaw That Can Crash Firewalls Without Login</t>
+          <t>StealC hackers hacked as researchers hijack malware control panels</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/palo-alto-fixes-globalprotect-dos-flaw.html</t>
+          <t>https://www.bleepingcomputer.com/news/security/stealc-hackers-hacked-as-researchers-hijack-malware-control-panels/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1086,29 +1086,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4 Outdated Habits Destroying Your SOC's MTTR in 2026</t>
+          <t>China-Linked APT Exploited Sitecore Zero-Day in Critical Infrastructure Intrusions</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/4-outdated-habits-destroying-your-socs.html</t>
+          <t>https://thehackernews.com/2026/01/china-linked-apt-exploits-sitecore-zero.html</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1118,29 +1118,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ThreatsDay Bulletin: AI Voice Cloning Exploit, Wi-Fi Kill Switch, PLC Vulns, and 14 More Stories</t>
+          <t>LOTUSLITE Backdoor Targets U.S. Policy Entities Using Venezuela-Themed Spear Phishing</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/threatsday-bulletin-ai-voice-cloning.html</t>
+          <t>https://thehackernews.com/2026/01/lotuslite-backdoor-targets-us-policy.html</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1150,93 +1150,93 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Researchers Reveal Reprompt Attack Allowing Single-Click Data Exfiltration From Microsoft Copilot</t>
+          <t>GootLoader Malware Uses 500–1,000 Concatenated ZIP Archives to Evade Detection</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/researchers-reveal-reprompt-attack.html</t>
+          <t>https://thehackernews.com/2026/01/gootloader-malware-uses-5001000.html</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ランサムウェア</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Critical WordPress Modular DS Plugin Flaw Actively Exploited to Gain Admin Access</t>
+          <t>What happens next in EU-Mercosur trade deal saga? - Reuters</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/critical-wordpress-modular-ds-plugin.html</t>
+          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxNVkNXYlhnUEdQdnRfaEhGTjJHQTJuUzJLX2szUVJYM2hPa0FBS2s2QmNCUDFPc2hfcEttLVZNT3pKVTlNbGw5NndYNVZCZXJCeHR6NndPM2tDaUdtaERXeG5jNDFIUXAzeWdodzdacTFGc0gwcXNVYTh2alB5SlVIMnpwaHhjS0pFWE41ZFJqSUNfNTIxOUFQNlRGZG9nV1h5dVMxMk5uS1RBTXpJbU8teg?oc=5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AWS CodeBuild Misconfiguration Exposed GitHub Repos to Potential Supply Chain Attacks</t>
+          <t>Oil prices settle up as US begins holiday weekend - Reuters</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/aws-codebuild-misconfiguration-exposed.html</t>
+          <t>https://news.google.com/rss/articles/CBMilgFBVV95cUxOYjhteG9RcGN1dktWSmJ6WmhDeXhkVWRKUjNGV1dLanN6cFdaM3c0dFhkWmZMOHJUVFJQRmJZclpsVUtUVER0cGt3Y3ctd2w2anN3cFZuQm43WkEweXBNbGpZUElOX3o3TUJnc2NmX010LWFlcGQzR2ZlNFVpbDVMQ3F4N0JiU0w3XzJ2YnczOVJ1MDFqWVE?oc=5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Publishers seek to join lawsuit against Google over AI training - Reuters</t>
+          <t>Israel sees spike in PTSD and suicide among troops as war persists - Reuters</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxQcF8xWVJraGVlSEhaY2FUZy1uYmppQ3RHQ1JUTDdQNTBfRDAxWEkxcWwzdHU3S240aXJFWDdyN0ZveTdNLWllME5Laks4S2VRWWs5c1pROHBuVzY2TmFiVUFOeG1IZV8tOWdRV1NLeUYyV0hoTDdFNmVFc2I2TTdFSmJVRC1IUkN4aE9HaFI4eDRNSTVoSm83b09NbEU2TlFta3p1ckxMbWpjdG9Fb0o0am4xRQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxQcDZkR3FOUGZVQ2ZaY1htLVpBTWlTV2lyTDJ2MnVpRVUxYkcwTVhZNzh5VU85ck1RR3EtN1ZtUGM4ck5idzFxUTVGQXNNOEZiZzNPM1BBT1FFNFQtMkVrd2hGWjFZYUZTdTJPbkxzMWpiLUwtT1B5bl9iWFJLdjBqWTB4dDllQ0hpMkU5Q3BVYXRZelM5QzNJTjFqYjBaWmRLVzVEWmZoNkVwcE1lVThv?oc=5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1261,14 +1261,14 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1278,29 +1278,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>China central bank to cut sector-specific rates to boost economy - Reuters</t>
+          <t>US judge allows Dominion offshore wind project to restart, another legal setback for Trump - Reuters</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPUG4tdDNwMjJzTXJ5WWJzZnFsSWNNYnpuV2hESU9zYThNbVFGUkkwd25RYklpaG4wQ1RmT0x5aG5HN2VwM0VJalcyZ2N0MlRSTlVCazZaV3U2b1FxUWFyZmdKRDJVUm1sUEszRG5yMXBac2dTMVF5RW1sd0pwV3U0b3NDMHk5aDgxUWs4c3hDQ2F0RjNYcUpQY1k5OUJjOFpuZnpLV3VpOTk?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxNcnBVMHZFSjdhbHlJZEdEMzB4enhmODgxOE9vMmVoY2kwREV3c0I2ak9SUGU1MDhVNkdpQ2FBeV9yVUNVYkZXdi1tcVQ1OUZDcFNOZERaUzlYbC1vYURBNERVRDBDd1BneXZaLWdLSFpvWXpIV29DckczQTRXOUhXSF9CQnFQVVB6WHdFUWhEdm1Tbk5tVDRKWTFSLVVJMkxIaW8yOUs0dmdGUmFuTUJXME5CVzczX0dPR2l2cmNmU0F2Y2F3czRnVDc2RQ?oc=5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1310,29 +1310,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>India, EU close in on trade pact as US trade talks drag on - Reuters</t>
+          <t>Exclusive: Shell, Mitsubishi exploring sale options for their stakes in LNG Canada, sources say - Reuters</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxQWEtNWk5PZE9jRVh3Wmh5WE1pTEVJZFQzeUF1T3g5MGloem10OVgyVk5JNWpKWmdwUXpRVjk3RGFENWtjeXR5c1JERTgzaGpUWGRidmxKbDVhOEMwTzVEc2RCUFFNdnQ0cU5hc0JoeU1CeFlsQWhwUU1rZUdod0c4Z0FXMUhxQmZXVHQwaGtTTnlGc3QzQ2VUNWhtVm1KbkxH?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxQc1l2Q09jWkIzMFlWekJzb09aSUIyQkxWVW9VZy1xeWdqSWozNU5kUlI5M0w3LWtkTk55a3FubDMzbS0wYVVpWl9Ud2FWR1VTc1JJd19WNGc1cVBQdUdwY0dPb3dzQ1o4YmVzMFB1d09tR0VvbGpyRlBuTHpSeVZpSmlPNm40dlNZa0J6bEllNnBTQy1ERURhS25ad1JucEV0NTZwSE5KZTNLRjlFaXA1YVhfWDlHMmwtcEpEelg5NTRkSl9taWc?oc=5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1342,29 +1342,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ericsson plans to shed 1,600 jobs in Sweden - Reuters</t>
+          <t>Munich Security Conference scraps invitation to Iranian minister - Reuters</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxQQnpSUWJUMUlIWHRPMVkxSDFoWXFYNEFjRGdDeml5N1laa0NfVVFTVVZhQlV0Rk9LYkp0ckRGaTZ1WUlRUTdwR0lVRm9NR1E2TTFFc216cWtZX29WUm5vOHU0NWhFbHlldEg4dlNrX3p6XzR3UjZkbFYzSXdpUXNIMXRBNmhJOXVBU09CNGU3b1dkMWs?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxPQWhBUWVKRmNfUzhJdjYtUzEtckM0ZXBrRm9pR2p3ZWxjdWZZMUYwSEdfd2xxeVRQS3ViX0ttTEI3T25rTUlzaHdmOUNwbllRMXBEUWxUZ2JneVJGQUNIX0VxZC12TGF4ZW5henNTOU9SY3F5eHBvV0xIOEpLb09XR2ZzbVdCXzlsMjVDS1ZOekttOElLclJ6aHNnN2tmVW9pZ1JrNDlR?oc=5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1374,29 +1374,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>European corporates expected to deliver worst earnings growth in past seven quarters - Reuters</t>
+          <t>US says Canada will regret decision to allow Chinese EVs into their market - Reuters</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxNbkRoRlU4MS11OW9uV01LZGk3dTRDODNlRUcyRTNrTlZIV0ljUHFUZW5xeHFUMkFxT0xYbFNJd21FQ09MeEwxVG9HYTZYcWxSN0Z4REMtNE05bENhNVpKZC1tLUFtQWp3bnUtalJuc1BPVDZkR1o3RTBIRzNSN2VsM1lZNU52WGMycHdva1NrWHNpWEJkWFR3OS16Um11YkU1OUppa3RyNVQ1cXpLMU9ROG5JNzFfNGNFdnAwN0dDUU4?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxPTGxiTkRkODRwSjFnOXdjenFTRW5VMTk2QWZfTHgteHBsbGdBRi16Qy1mOTFhY2p4MGdmRVVMT3FDaEoteG5VZW9odFFKQmp2NUt2a0VFaGhzVWFwai1scjZrdC1NMjFReVo4a0ROU3JSemZBUi1iVjdUcERUaXpKUEcycm5IU2lpd1FtSEswNEFIOVhWWk5BLUJDcXBBWk5IamVLOFAxSEhuSlhxcWJtWWs1UEpvTlNxbUNrb19FUUVlRFBDOEhPRDNvV3o?oc=5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1406,29 +1406,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Prince Harry to give evidence in lawsuit against Daily Mail next week - Reuters</t>
+          <t>Amid ICE raids, some Home Depot investors want to know how law enforcement uses its surveillance data - Reuters</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQa3FaTF9TZ3VpRWdlQTBlNEdSWHk4eEJIaVJjbXhWVVlVWFdwdEpabU04STZFZ3c4aWRfWTRkZE5yNVYzN2JnNUtsTU11RVZ5M1pMTmhIRXYxSWZPbjdESlhNQTRQYnBidE5rX1JrbFAtRmxlTzY4empPa3dPQnFmWlpUaXVuZDFVbHJmb3hGOUk1M2hhY1Q1Tk9sLWptb2V1eTN1X1Ric0ZGaGltY25BV2xjenJEU0k?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxOYWlKSV9qWXJRV0dNckNaYlJISGN3anM5MURUdlVWd1BrRXhURDVfZ0dvX1IxTFBVc3hZTDNOSzRBZWZ6Z0xRYjF2a2FlX3pIVEVfWFhfZkxqMTQ1TW1HWk52MXFhbkE1UGdiMExYd1k1dnBhSFFXSXFyV2dQYUp6clRCWTdDMExaOEgwTl9jWER6ckhnTTBVSVZiWHhyalhpQmNRaGZUOFFQdm8tRlF4eGI0UjhFT04yTTMyMnhLVGlubUh3ZURmUlA1VUVzN3FsV3haQ2dfUHV2SVdjalAxZzc4UFdiSFE5ZWZB?oc=5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1438,49 +1438,49 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Reasons to believe Russia behind cyberattack on Polish power system, PM says - Reuters</t>
+          <t>Indra signs $1.1 billion deal to manage London transport ticketing and control systems - Reuters</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxOcW9jMzFETHlZcG0xaFdIOGF4bEt4ZG9SbzJpaUJfN09jYU92eXFZakhsQk96STVRenpycFlXTzBXbFFMdW40MXphaDV3dmpzeDVzdmQ4NTBuLVhpY3RGU19pa2M4UnhBazkwVkM2elpkNGRMN3NwWHFyV1dhRDMwcW40cG9jVndkOWFXdUNobUdsczMtMk5oOFZqTTBmZmdlLXpxTnhtNkV5Q01kZlhqdQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxNZTEwMWtRSnllZUp0dnVwQk9qeHpNdlRiNGs0OFpaOEVqam14OHlqcTJSM2JYT1FwXzJMaG5kV3FCLU1ubXVJS0VOSG1Pei1ERzN3TDZHUGZqakpRNVM3X0xlUFg2Wi04ZEswaWE3MEVQSzNCVnBXRFpJSjAzMFFTOGlkVXI5ZWlkelo5Q3hlc0s0c1BpV3JNeDdEZHQ3ZU4tR2M4YUt5Ml9qNk5ZUktjZ2pfVUtjRVZ1TUVLbmZjVQ?oc=5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Chips don't lie - Reuters</t>
+          <t>Cisco Patches Zero-Day RCE Exploited by China-Linked APT in Secure Email Gateways</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMihgFBVV95cUxORGhodG9STUJtOWIwa3Q5R0pDOUlub0ZwcUs5bEdOWEw5b3JxakdZdDVQem92cFBORFFwNjVFS29aLTh4X2FvNTA4Mm0xNnAzY2hKeUZoMjNJN1ZnS3RGWUZUQnRldjNQUGJ1VXdmTFk1UzBwNFRDLXRIZjRuclZ4cVpmOXBadw?oc=5</t>
+          <t>https://thehackernews.com/2026/01/cisco-patches-zero-day-rce-exploited-by.html</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1502,17 +1502,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Verizon offers $20 credit to customers affected by massive wireless outage - Reuters</t>
+          <t>Gold slips as upbeat US data boosts dollar, dims rate-cut bets - Reuters</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxQVGZZX1R6RV9hTlhHSlBfQzVHYk82VkJDM1V4SU8zRnBRT1FQMEp5dXdPcHNIbV9ZOUxkSzFjcFZlNzAxMTVra0d6V19EcktjUEpBandndEprVXZqbjV5UV9XdENXRGhsb3RIbkVOY1UtUlNZV09MVldlclZSQXcweG1aSDUwYVZGLXNzNTBtbUxEMk1sU2ZIT29tOVh6MURaSlB5VDZTT09Vc1pPQTJxdHpyOGh3aFBPbHJRZGJRVUZHcW1fajIwNQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxNX09JejJvMFRiV05vNWNHOWJmekhtM29PbHd4aTZGckVuR2F6TEh2cU5UNG9GWmtLX3J2Q3JBZkFONzlKVkMxZlVxYWRXaEFFNUs3WjhpUllvU0FDQlA4NTJBd2ZjSHB0SGt0eW0tX2VoLUVhV0tWei1xUTZQWF94LU1rWnVNV2N5Qk5OSGJCaE14U3RfUzM3blg5VnBfdmFUZGFmQzY2ZUFHQQ?oc=5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1534,22 +1534,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Chinese-linked hackers target US entities with Venezuelan-themed malware - Reuters</t>
+          <t>Musk's xAI curbs Grok image editing after California, Europe air concerns - Reuters</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxQQjdVckxSNzFhYjI5XzUwcUVCdHROSXdoQUtDZVdlMjZfWkZLdC10WVYzeVUyQTEzb1dTZ1ZvTFptMTZydzhKWFdxd3Q1MzVwNXZjTGxfbEtneE1WLTJSRWk2SUV3bWFoOV9MT056U3N0ZzNsejFxcW9VbGpyQWlsSGU1a24tYkZ5X3lwT3p5dnV0dVY5bEdYUkZ0Z3hqZ3ZQdXo1dC1lN2hCTlJlSjhEQUtBVk50eDd4SjVOXzgxeW9KMldVRk5GbGJGQQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxPWDVMZ01tS3R3YUVNWDFNT3RGaFhsbU01TFNYQ1pyNWlwNHE2Ul9JTnRUYllDR0dlZ0tZbkhhal9iUU9Wcm5PMUhPX1RPaWh6Tnd5bW1tazBocXZHVlhVZEY4LUNpQ3lqT2EtUUxVZnVHbkhPR1ByV0tONnNqYjdhRlhRNWVQc3haLTlzS1BBM3F0WEVFQkZKR21SejNzTGR3V3V5RFA4YlNQLVZDZEdKVQ?oc=5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
@@ -1561,27 +1561,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Google plans to make Chrome for Android an agentic browser with Gemini</t>
+          <t>AVEVA Process Optimization</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/artificial-intelligence/google-plans-to-make-chrome-for-android-an-agentic-browser-with-gemini/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-01</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -1593,27 +1593,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DHS reports non-fatal shooting of man sought in immigration enforcement stop - Reuters</t>
+          <t>NSA, Cyber Command nominee defends record during Senate hearing</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQRW92OFhIazVsVThxY0pzOHVYOGNnWHhvY0J3dDBIOEdhYTBMN0N1T1pZZGFDVVgwdnlDVklScndsUFpLaGY1cHNBY2JMdzJWM1ZLTmtxclRPc2VIamZBdGloV1Z2SG5RLUthYWNvckdCd2pqN2lHZXhhcEdfTnlHNkcya2RiNVhnS182X0FhN094MXVXRGxIX1R1NEhCRHRRTGxLQ282SlpQaU5DU1p5aU11MTJQak4yQTAzV0VNVlA?oc=5</t>
+          <t>https://therecord.media/nsa-cyber-command-nom-joshua-rudd-senate-hearing</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -1625,54 +1625,54 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Toyota Industries' shares hit record as market hopes for higher buyout offer - Reuters</t>
+          <t>Chinese hackers targeting ‘high value’ North American critical infrastructure, Cisco says</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxOY25vZ2dfN1I1bXZLaDZyNHBXUE1BT2ZVTkFtdl92VTdNRmp6Sm1vMTdFdHZGa3lkbTQ5YXVmZmxocE1YUy1qcU42cHYzQ001QjBraHMyZTAyQVN2UVJwcmVLTF9NNXBsWDFHeS1aR0xSVndmMWVKUHN3OTI2Z3ZnQUowVElFSS1BMW1CekxhbldORnp3cXNuMm1icW1ONV96WlZxREdRMzZjZmVWd0drVGxJUVQtX3VRYWVBZDdMaWZobkhfb2pVczBSUDAtVjA2MHhaT01DTFMyckx1M0txSVAydw?oc=5</t>
+          <t>https://therecord.media/china-hackers-apt-cisco-talos</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Festo Firmware</t>
+          <t>Anchorage police department takes servers offline after cyberattack on service provider</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-02</t>
+          <t>https://therecord.media/anchorage-police-takes-servers-offline-after-third-party-attack</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1684,27 +1684,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Schneider Electric EcoStruxure Power Build Rapsody</t>
+          <t>Winter Olympics Could Share Podium With Cyberattackers</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-10</t>
+          <t>https://www.darkreading.com/remote-workforce/winter-olympics-podium-cyberattackers</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1716,27 +1716,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Siemens Industrial Edge Devices</t>
+          <t>Predator Spyware Sample Indicates 'Vendor-Controlled' C2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-08</t>
+          <t>https://www.darkreading.com/mobile-security/predator-spyware-sample-vendor-controlled-c2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1748,27 +1748,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Siemens SINEC Security Monitor</t>
+          <t>ICS Patch Tuesday: Vulnerabilities Fixed by Siemens, Schneider, Aveva, Phoenix Contact</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-06</t>
+          <t>https://www.securityweek.com/ics-patch-tuesday-vulnerabilities-fixed-by-siemens-schneider-aveva-phoenix-contact/</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1780,27 +1780,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Siemens RUGGEDCOM APE1808 Devices</t>
+          <t>VoidLink Linux Malware Framework Targets Cloud Environments</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-07</t>
+          <t>https://www.securityweek.com/voidlink-linux-malware-framework-targets-cloud-environments/</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1812,27 +1812,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Siemens Industrial Edge Device Kit</t>
+          <t>Depthfirst Raises $40 Million for Vulnerability Management</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-09</t>
+          <t>https://www.securityweek.com/depthfirst-raises-40-million-for-vulnerability-management/</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1844,27 +1844,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Siemens SIMATIC and SIPLUS products</t>
+          <t>New ‘StackWarp’ Attack Threatens Confidential VMs on AMD Processors</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-04</t>
+          <t>https://www.securityweek.com/new-stackwarp-attack-threatens-confidential-vms-on-amd-processors/</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1876,22 +1876,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Siemens TeleControl Server Basic</t>
+          <t>Microsoft disrupts massive RedVDS cybercrime virtual desktop service</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-03</t>
+          <t>https://www.bleepingcomputer.com/news/security/microsoft-seizes-servers-disrupts-massive-redvds-cybercrime-platform/</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1908,22 +1908,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Siemens RUGGEDCOM ROS</t>
+          <t>Palo Alto Networks warns of DoS bug letting hackers disable firewalls</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-05</t>
+          <t>https://www.bleepingcomputer.com/news/security/palo-alto-networks-warns-of-dos-bug-letting-hackers-disable-firewalls/</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1940,118 +1940,118 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Secure Connectivity Principles for Operational Technology (OT)</t>
+          <t>Critical flaw lets hackers track, eavesdrop via Bluetooth audio devices</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/resources-tools/resources/secure-connectivity-principles-operational-technology-ot</t>
+          <t>https://www.bleepingcomputer.com/news/security/critical-whisperpair-flaw-lets-hackers-track-eavesdrop-via-bluetooth-audio-devices/</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Inside RedVDS: How a single virtual desktop provider fueled worldwide cybercriminal operations</t>
+          <t>Hackers exploit Modular DS WordPress plugin flaw for admin access</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2026/01/14/inside-redvds-how-a-single-virtual-desktop-provider-fueled-worldwide-cybercriminal-operations/</t>
+          <t>https://www.bleepingcomputer.com/news/security/hackers-exploit-modular-ds-wordpress-plugin-flaw-for-admin-access/</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Microsoft named a Leader in IDC MarketScape for Unified AI Governance Platforms</t>
+          <t>Grubhub confirms hackers stole data in recent security breach</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2026/01/14/microsoft-named-a-leader-in-idc-marketscape-for-unified-ai-governance-platforms/</t>
+          <t>https://www.bleepingcomputer.com/news/security/grubhub-confirms-hackers-stole-data-in-recent-security-breach/</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Poland says it repelled major cyberattack on power grid, blames Russia</t>
+          <t>Gootloader now uses 1,000-part ZIP archives for stealthy delivery</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://therecord.media/poland-cyberattack-grid-russia</t>
+          <t>https://www.bleepingcomputer.com/news/security/gootloader-now-uses-1-000-part-zip-archives-for-stealthy-delivery/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2061,61 +2061,61 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>'VoidLink' Malware Poses Advanced Threat to Linux Systems</t>
+          <t>Palo Alto Fixes GlobalProtect DoS Flaw That Can Crash Firewalls Without Login</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/voidlink-malware-advanced-threat-linux-systems</t>
+          <t>https://thehackernews.com/2026/01/palo-alto-fixes-globalprotect-dos-flaw.html</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Retail, Services Industries Under Fire in Oceania</t>
+          <t>4 Outdated Habits Destroying Your SOC's MTTR in 2026</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cybersecurity-analytics/retail-services-industries-oceania</t>
+          <t>https://thehackernews.com/2026/01/4-outdated-habits-destroying-your-socs.html</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2125,29 +2125,29 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Chrome 144, Firefox 147 Patch High-Severity Vulnerabilities</t>
+          <t>ThreatsDay Bulletin: AI Voice Cloning Exploit, Wi-Fi Kill Switch, PLC Vulns, and 14 More Stories</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/chrome-144-firefox-147-patch-high-severity-vulnerabilities/</t>
+          <t>https://thehackernews.com/2026/01/threatsday-bulletin-ai-voice-cloning.html</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2157,61 +2157,61 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Fortinet Patches Critical Vulnerabilities in FortiFone, FortiSIEM</t>
+          <t>Researchers Reveal Reprompt Attack Allowing Single-Click Data Exfiltration From Microsoft Copilot</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/fortinet-patches-critical-vulnerabilities-in-fortifone-fortisiem/</t>
+          <t>https://thehackernews.com/2026/01/researchers-reveal-reprompt-attack.html</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Predator Spyware Turns Failed Attacks Into Intelligence for Future Exploits</t>
+          <t>Critical WordPress Modular DS Plugin Flaw Actively Exploited to Gain Admin Access</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/predator-spywares-granular-anti-analysis-features-exposed/</t>
+          <t>https://thehackernews.com/2026/01/critical-wordpress-modular-ds-plugin.html</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2221,349 +2221,349 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>RedVDS Cybercrime Service Disrupted by Microsoft and Law Enforcement</t>
+          <t>AWS CodeBuild Misconfiguration Exposed GitHub Repos to Potential Supply Chain Attacks</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/redvds-cybercrime-service-disrupted-by-microsoft-and-law-enforcement/</t>
+          <t>https://thehackernews.com/2026/01/aws-codebuild-misconfiguration-exposed.html</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ConsentFix debrief: Insights from the new OAuth phishing attack</t>
+          <t>Publishers seek to join lawsuit against Google over AI training - Reuters</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/consentfix-debrief-insights-from-the-new-oauth-phishing-attack/</t>
+          <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxQcF8xWVJraGVlSEhaY2FUZy1uYmppQ3RHQ1JUTDdQNTBfRDAxWEkxcWwzdHU3S240aXJFWDdyN0ZveTdNLWllME5Laks4S2VRWWs5c1pROHBuVzY2TmFiVUFOeG1IZV8tOWdRV1NLeUYyV0hoTDdFNmVFc2I2TTdFSmJVRC1IUkN4aE9HaFI4eDRNSTVoSm83b09NbEU2TlFta3p1ckxMbWpjdG9Fb0o0am4xRQ?oc=5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Verizon Wireless outage puts phones in SOS mode without cell service</t>
+          <t>China central bank to cut sector-specific rates to boost economy - Reuters</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/mobile/verizon-wireless-outage-puts-phones-in-sos-mode-without-cell-service/</t>
+          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPUG4tdDNwMjJzTXJ5WWJzZnFsSWNNYnpuV2hESU9zYThNbVFGUkkwd25RYklpaG4wQ1RmT0x5aG5HN2VwM0VJalcyZ2N0MlRSTlVCazZaV3U2b1FxUWFyZmdKRDJVUm1sUEszRG5yMXBac2dTMVF5RW1sd0pwV3U0b3NDMHk5aDgxUWs4c3hDQ2F0RjNYcUpQY1k5OUJjOFpuZnpLV3VpOTk?oc=5</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Exploit code public for critical FortiSIEM command injection flaw</t>
+          <t>India, EU close in on trade pact as US trade talks drag on - Reuters</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/exploit-code-public-for-critical-fortisiem-command-injection-flaw/</t>
+          <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxQWEtNWk5PZE9jRVh3Wmh5WE1pTEVJZFQzeUF1T3g5MGloem10OVgyVk5JNWpKWmdwUXpRVjk3RGFENWtjeXR5c1JERTgzaGpUWGRidmxKbDVhOEMwTzVEc2RCUFFNdnQ0cU5hc0JoeU1CeFlsQWhwUU1rZUdod0c4Z0FXMUhxQmZXVHQwaGtTTnlGc3QzQ2VUNWhtVm1KbkxH?oc=5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>South Korean giant Kyowon confirms data theft in ransomware attack</t>
+          <t>Ericsson plans to shed 1,600 jobs in Sweden - Reuters</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/south-korean-giant-kyowon-confirms-data-theft-in-ransomware-attack/</t>
+          <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxQQnpSUWJUMUlIWHRPMVkxSDFoWXFYNEFjRGdDeml5N1laa0NfVVFTVVZhQlV0Rk9LYkp0ckRGaTZ1WUlRUTdwR0lVRm9NR1E2TTFFc216cWtZX29WUm5vOHU0NWhFbHlldEg4dlNrX3p6XzR3UjZkbFYzSXdpUXNIMXRBNmhJOXVBU09CNGU3b1dkMWs?oc=5</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ランサムウェア</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Critical Node.js Vulnerability Can Cause Server Crashes via async_hooks Stack Overflow</t>
+          <t>European corporates expected to deliver worst earnings growth in past seven quarters - Reuters</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/critical-nodejs-vulnerability-can-cause.html</t>
+          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxNbkRoRlU4MS11OW9uV01LZGk3dTRDODNlRUcyRTNrTlZIV0ljUHFUZW5xeHFUMkFxT0xYbFNJd21FQ09MeEwxVG9HYTZYcWxSN0Z4REMtNE05bENhNVpKZC1tLUFtQWp3bnUtalJuc1BPVDZkR1o3RTBIRzNSN2VsM1lZNU52WGMycHdva1NrWHNpWEJkWFR3OS16Um11YkU1OUppa3RyNVQ1cXpLMU9ROG5JNzFfNGNFdnAwN0dDUU4?oc=5</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Microsoft Fixes 114 Windows Flaws in January 2026 Patch, One Actively Exploited</t>
+          <t>Prince Harry to give evidence in lawsuit against Daily Mail next week - Reuters</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/microsoft-fixes-114-windows-flaws-in.html</t>
+          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQa3FaTF9TZ3VpRWdlQTBlNEdSWHk4eEJIaVJjbXhWVVlVWFdwdEpabU04STZFZ3c4aWRfWTRkZE5yNVYzN2JnNUtsTU11RVZ5M1pMTmhIRXYxSWZPbjdESlhNQTRQYnBidE5rX1JrbFAtRmxlTzY4empPa3dPQnFmWlpUaXVuZDFVbHJmb3hGOUk1M2hhY1Q1Tk9sLWptb2V1eTN1X1Ric0ZGaGltY25BV2xjenJEU0k?oc=5</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Fortinet Fixes Critical FortiSIEM Flaw Allowing Unauthenticated Remote Code Execution</t>
+          <t>Reasons to believe Russia behind cyberattack on Polish power system, PM says - Reuters</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/fortinet-fixes-critical-fortisiem-flaw.html</t>
+          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxOcW9jMzFETHlZcG0xaFdIOGF4bEt4ZG9SbzJpaUJfN09jYU92eXFZakhsQk96STVRenpycFlXTzBXbFFMdW40MXphaDV3dmpzeDVzdmQ4NTBuLVhpY3RGU19pa2M4UnhBazkwVkM2elpkNGRMN3NwWHFyV1dhRDMwcW40cG9jVndkOWFXdUNobUdsczMtMk5oOFZqTTBmZmdlLXpxTnhtNkV5Q01kZlhqdQ?oc=5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Hackers Exploit c-ares DLL Side-Loading to Bypass Security and Deploy Malware</t>
+          <t>Chips don't lie - Reuters</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/hackers-exploit-c-ares-dll-side-loading.html</t>
+          <t>https://news.google.com/rss/articles/CBMihgFBVV95cUxORGhodG9STUJtOWIwa3Q5R0pDOUlub0ZwcUs5bEdOWEw5b3JxakdZdDVQem92cFBORFFwNjVFS29aLTh4X2FvNTA4Mm0xNnAzY2hKeUZoMjNJN1ZnS3RGWUZUQnRldjNQUGJ1VXdmTFk1UzBwNFRDLXRIZjRuclZ4cVpmOXBadw?oc=5</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>AI Agents Are Becoming Privilege Escalation Paths</t>
+          <t>Verizon offers $20 credit to customers affected by massive wireless outage - Reuters</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/ai-agents-are-becoming-privilege.html</t>
+          <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxQVGZZX1R6RV9hTlhHSlBfQzVHYk82VkJDM1V4SU8zRnBRT1FQMEp5dXdPcHNIbV9ZOUxkSzFjcFZlNzAxMTVra0d6V19EcktjUEpBandndEprVXZqbjV5UV9XdENXRGhsb3RIbkVOY1UtUlNZV09MVldlclZSQXcweG1aSDUwYVZGLXNzNTBtbUxEMk1sU2ZIT29tOVh6MURaSlB5VDZTT09Vc1pPQTJxdHpyOGh3aFBPbHJRZGJRVUZHcW1fajIwNQ?oc=5</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Researchers Null-Route Over 550 Kimwolf and Aisuru Botnet Command Servers</t>
+          <t>Chinese-linked hackers target US entities with Venezuelan-themed malware - Reuters</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/kimwolf-botnet-infected-over-2-million.html</t>
+          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxQQjdVckxSNzFhYjI5XzUwcUVCdHROSXdoQUtDZVdlMjZfWkZLdC10WVYzeVUyQTEzb1dTZ1ZvTFptMTZydzhKWFdxd3Q1MzVwNXZjTGxfbEtneE1WLTJSRWk2SUV3bWFoOV9MT056U3N0ZzNsejFxcW9VbGpyQWlsSGU1a24tYkZ5X3lwT3p5dnV0dVY5bEdYUkZ0Z3hqZ3ZQdXo1dC1lN2hCTlJlSjhEQUtBVk50eDd4SjVOXzgxeW9KMldVRk5GbGJGQQ?oc=5</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2573,34 +2573,34 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ukraine's new defence minister vows innovation on battlefield - Reuters</t>
+          <t>Google plans to make Chrome for Android an agentic browser with Gemini</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQb2daQ3g2Z2RSZTBuTVZaUlcydWVlV2x5cmdWN3Q4UVVKdkVIaF9DSnJVN0pSUVZfbWRza050YTVOLXA1c1Y1cHZxSDQyRjFadUV1SjFpcmFpaTd3eWlQSWRPUjNOTW41c3ZVTTItcXIyNWhyWG0xMlVHUW1OdHVtU2w3bVFLQXhQTTZYeVVobjVjQ3BNQjVFRTIwWUNjaW5ONG5jekpNcFEzZ1RN?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/artificial-intelligence/google-plans-to-make-chrome-for-android-an-agentic-browser-with-gemini/</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2612,7 +2612,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2622,17 +2622,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>US healthcare spending soars to over $5 trillion in 2024 - Reuters</t>
+          <t>DHS reports non-fatal shooting of man sought in immigration enforcement stop - Reuters</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxOT21DRkZVNjY2R19RNGJrWnNzT0ptYjZzR3c0VVpOMEhLV1BSSDNZdk5jbzhGZmFUZzl6UVJsdmlLZmI1TDZzTV9Tb2hBSXQ1Rm5kdjBtNmU2RFB4a3hJNUpEWXRMZ3pqWE9pZWJ5TEt0eFJLZmtkcmhJWU1iYW1oTjJJNzd5VDZiVVBUX0Z6WmNKMEpiNk5Fei1sUGdLM3dfVDNuMg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQRW92OFhIazVsVThxY0pzOHVYOGNnWHhvY0J3dDBIOEdhYTBMN0N1T1pZZGFDVVgwdnlDVklScndsUFpLaGY1cHNBY2JMdzJWM1ZLTmtxclRPc2VIamZBdGloV1Z2SG5RLUthYWNvckdCd2pqN2lHZXhhcEdfTnlHNkcya2RiNVhnS182X0FhN094MXVXRGxIX1R1NEhCRHRRTGxLQ282SlpQaU5DU1p5aU11MTJQak4yQTAzV0VNVlA?oc=5</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2654,17 +2654,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>France explores sending Eutelsat terminals to Iran amid internet blackout - Reuters</t>
+          <t>Toyota Industries' shares hit record as market hopes for higher buyout offer - Reuters</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOc3BHY0RmQVl0TnI4NFZEdGhEd3R2eHd1bk04dDFFYkdLNmJSYTdJNGx6LVVIcUVwVUwtQnhoVWJNek5oYWx3dFU2NmNTa2cwcmhzaXNyMTV6VmdpRTA4NHhiQ0NWS3VNUUEtdnJyTTBKeGJ2dGlBNnJYM21NQjhHY2VkVkNuNmEzMFJqX1hWYkZjeTB0bVk3ejNjbXN1MHVBWjhDQjdXSkJhN091VnV0WGRBaTQ4cWlOSWZTaWFNVjY2RF81d1hJ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxOY25vZ2dfN1I1bXZLaDZyNHBXUE1BT2ZVTkFtdl92VTdNRmp6Sm1vMTdFdHZGa3lkbTQ5YXVmZmxocE1YUy1qcU42cHYzQ001QjBraHMyZTAyQVN2UVJwcmVLTF9NNXBsWDFHeS1aR0xSVndmMWVKUHN3OTI2Z3ZnQUowVElFSS1BMW1CekxhbldORnp3cXNuMm1icW1ONV96WlZxREdRMzZjZmVWd0drVGxJUVQtX3VRYWVBZDdMaWZobkhfb2pVczBSUDAtVjA2MHhaT01DTFMyckx1M0txSVAydw?oc=5</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2681,17 +2681,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Tech, banks weigh on Wall Street; Trump eases Iran oil fears - Reuters</t>
+          <t>Festo Firmware</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMie0FVX3lxTE9PNkpWSU0yUEpxb0YwdFVSSm9oTEt6M1ZqSWpndXhHM2FBWVJsTkk2SHVNaHJXQVJ4VF85OHhVWHFuN0lpX0N3cWF5Q3BralI0UWNHNm4tWml4QXAwLU1VRmVZZWtYejBpMFdEWjdvVjdWZkRoLTNxLXM1Yw?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-02</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -2713,27 +2713,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>German-Israel deal strengthens cyber defence, German minister says - Reuters</t>
+          <t>Schneider Electric EcoStruxure Power Build Rapsody</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxPM190VDRucnBsRHkyZzlOOEJfSmU2T1lRa05BWjZVcnNsQlROaENkU252WjYxUU1Cb0JPaDNRRWZaXzhaREhiVWY0LWJ4Z3drZC1JSnpfaXZRMk5vd3VtTEhYdl8zUVo2ellZN0tkVHB1V3ppd1prME0tTGlBblotLU1HTnE3Vm5sa0VlNUxPVDdVSHhmdDgzUE5PTVdsLW1oXzRnemNUQ19lVzN0ODc3alB3SXlkeUtGazMw?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-10</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -2745,27 +2745,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Exclusive: Beijing tells Chinese firms to stop using US and Israeli cybersecurity software, sources say - Reuters</t>
+          <t>Siemens Industrial Edge Devices</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQZmNIRDZEN3d5ZXRyNnN5eHc2X0NlZkppN2dnSlpzeFQtTVhDVjJmeWx2aDg4QjQtM0wyRjkxY0ZuNnlOWlJNUmhRSWl4SzJMc1VjT0F1ZDBKMGNsZzJFc3ZodTd3S3dGRnBhRDlqZVdhZ1RwMVlQU1c1SkZQcXNjTGg1V0gxQTZGc004Y0tXeFpTRXZlQTNCdHJvb2tjRTNKTzVfMUdicjRWeHMxa2FhNlNDWGZxUjJBMWljYm9mYUEydGI1OC1z?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-08</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -2777,27 +2777,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Belgian cybersecurity startup Aikido hits unicorn status with new funding round - Reuters</t>
+          <t>Siemens SINEC Security Monitor</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxQcjZHZjZ3NHpBajduLVg0ZU9XaWV4TGNxLVQzQmF4bktuQWwzWU9kQmltZVpRaGN6QThhYmxlOU9vckZTa2RHd3BtMkNRNkVjWmd6OUlzUjdERURJN2ZER0paa2R3Q0tIVW9qbFdQR19xcW9WbzZhMlpBd1VKQWJvVlpCdFRPeENEOTB4YzM2WFZXTHNIMkxMOXpxVjFqd2dSWklFZ3U5YlRCTVJ5VDEwdWpEN2tHdU1feFBUenpiR2drc2lq?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-06</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -2809,27 +2809,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PLUGGYAPE Malware Uses Signal and WhatsApp to Target Ukrainian Defense Forces</t>
+          <t>Siemens RUGGEDCOM APE1808 Devices</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/pluggyape-malware-uses-signal-and.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-07</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -2841,17 +2841,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Takaichi and Lee end first day of summit on a high note with drum session - Reuters</t>
+          <t>Siemens Industrial Edge Device Kit</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQUFY3eWVKSUFQYXlxQXhwQUZGaVFvN1hiLTI1LXZTd0VveHdaNTRJbnUxOEZuNzhhUHBEZUp3WWE1OU5scUdTRTFlVTdjWkQ3eGdHdW9WbTctOVFYSFd4RkNDbU12Z2RzemppelpMckRaNE53NTMxUnd2blFyXy00V3N5d0J5cUJWWnhiMzEtR0lpS0lJMnR0emxXbXo0cDlmaC1nWnhITl9qeVg0cjRRdWZGel9kWmM?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-09</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -2873,27 +2873,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Gold notches record high, silver cracks $90 on Fed rate cut bets - Reuters</t>
+          <t>Siemens SIMATIC and SIPLUS products</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPMDVHbjVCZURFTGl4X1FWMGtPSnh1NmN5NkhXdndsLWxnbWFJNTRUUUJseHV2T0VfWWhWc3pucUpUOHVRSEVWR2JKaXZwTVc5UnpZWmxOMWtXV3FqT3RIQXRzbmdORlRhMkg4UGNrUFFFdUJJaDNxTDg1UTRfSmlPNV85U0VnQ2NLNkRtTW96aUxvQjlNNEh3dkx3MW5NdGtERlRLc1Fhc3M?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-04</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -2905,17 +2905,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Ready, steady gold! Safety bid adds fuel to cenbank fire - Reuters</t>
+          <t>Siemens TeleControl Server Basic</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxNYURRZnRjcXc0Q1V0M0E0VUdBbWhMVm5rS2NzSXItbkR5bk5hWGx0ZXdMNV81Q0dzTkRuckJWcndEenpTZEl5SUhNc0dwS1R1TGMyUjNGWlBhM254d1FqU0NlM1NzNFRtZFhYUEY3czlxeUFVX1B1M29nVml1elViNl9odlNJTGhrN0lkd3BEWHdXLUNKeE5PZHR5dTB4Z1hjdWV5aVJReWFseUFOQTdqQ1hSYWY?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-03</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -2937,17 +2937,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Trump urges Iranians to keep protesting, saying 'help is on its way' - Reuters</t>
+          <t>Siemens RUGGEDCOM ROS</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQNzdvSXBtajhYdGFUZ3pLMU40djlOWUdDTGJZQ3Z3UEt5aDdNZ3djam1YTEFqZFlEOHhqS2NxV2lPUzREZXdad2FQZ2Z0NWNyU3JJdGtqakd1b1F3SnZTY29RSG9oSUNIRFNtdXNYSkxLTURzTzRRdWctZ2kzaExEX2hGQ0MwdEdzQm5PVldZMEQ2VUFQSFRwSm4wWU42NWg3aUxYRzRDUkdPM2FvWXVyMnh4NGVnUWs?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-05</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -2969,27 +2969,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>China's trade ends 2025 with record $1.2 trillion surplus despite Trump tariff jolt - Reuters</t>
+          <t>Secure Connectivity Principles for Operational Technology (OT)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOUTJBRGwwTTYzOEZ1ZGJxeDhqbHVXOWJ3ejBrY2c3ZzVDZXhIRV9IemtkRG15MERacVJQVnZxcVVTeWVqZnlkZ3pkVWJpY2RXTGxCV3EtOFhUQ29WUDBuSVdWY0M3WlBTRG1TTWlpVjNxd3JEMGxpZkd6YzR6eGxxZkhObERkc1NXSnJwT3pHQ2ZHUXhzdDNjQmxrYzJST0lQWXBZRVpvdHFIMVNlb2RUc3RLMFI1RnYybDFlWlp3c04xaC10cFlj?oc=5</t>
+          <t>https://www.cisa.gov/resources-tools/resources/secure-connectivity-principles-operational-technology-ot</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -3001,27 +3001,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Chipmaker Nexperia and Chinese owner Wingtech fight for control in Dutch court - Reuters</t>
+          <t>Inside RedVDS: How a single virtual desktop provider fueled worldwide cybercriminal operations</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxNUjA2QmJ6NEdoSWl0bVJwRzFMbUZidDdPZldURzl5a1dSNUgwTEZvajVsLWZMdXl5WUxNTG5hSkNkcy13ZkM5RnlRLXc2Zmp2T2d3S3JWem9VVU04UHVrcm5yMmhGQjJDUFZUa19JNzdKeGdlWUlXX0FNSmRPaEd2MUE1aUlkSTFxbXFHQ1FyRDVZY2NZWE5yYXc0NzhKa0pzZDM5MkY5Z016TmZmX2RveUNjV3dRdw?oc=5</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/14/inside-redvds-how-a-single-virtual-desktop-provider-fueled-worldwide-cybercriminal-operations/</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -3033,54 +3033,54 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Trump says he thinks China can open its markets to US goods - Reuters</t>
+          <t>Microsoft named a Leader in IDC MarketScape for Unified AI Governance Platforms</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxONVBCX2drb3JScmU2TTYyMi1uVC1ZVU02S0NtNFRiSHhUZm5fOG9HaFBaN3dXNWs3V0RGUEE4amVOS2RrT1BlNWM4QjhOLVM1NzNQSERYNl9lQUFEQ0NDa0VsMEN3QlBUTFE2UFZOVF8tcjNrQjlEYjQ5c2o2SVMycEZQOFhHazJySVVzaXNHNzlyZ0ttcFpYWDhCUVgwcndYS2tV?oc=5</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/14/microsoft-named-a-leader-in-idc-marketscape-for-unified-ai-governance-platforms/</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CrowdStrike to Buy Seraphic Security in Bid to Boost Browser Security</t>
+          <t>Poland says it repelled major cyberattack on power grid, blames Russia</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/crowdstrike-buy-seraphic-security-boost-browser-security</t>
+          <t>https://therecord.media/poland-cyberattack-grid-russia</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3092,27 +3092,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Bloomberg Index Services defers including Indian bonds in global index - Reuters</t>
+          <t>'VoidLink' Malware Poses Advanced Threat to Linux Systems</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQR1lPWGVrdzBFTjRKWVh5cEFSVWI1c01ZTmdYTTFKRUpJWDJMdE5nRG1uaU16TEVTa3dnRHJNV296dlRoSF9oZy1RcUViSnhPWVFMTXkyZGc0Um54UEozM0dzYnk0emRJd2VlR3FuNWFUZ2xzUlNzeVJmN1Y2YndEUDZ5cTNRNjluM1NOWWRzbzhueGVKWG5NNGtJa2dza1djblc2SUdUbDV0N1lLWE1VdFVqMzBGdw?oc=5</t>
+          <t>https://www.darkreading.com/cloud-security/voidlink-malware-advanced-threat-linux-systems</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3124,118 +3124,118 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Rockwell Automation 432ES-IG3 Series A</t>
+          <t>Retail, Services Industries Under Fire in Oceania</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-01</t>
+          <t>https://www.darkreading.com/cybersecurity-analytics/retail-services-industries-oceania</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Rockwell Automation FactoryTalk DataMosaix Private Cloud</t>
+          <t>Chrome 144, Firefox 147 Patch High-Severity Vulnerabilities</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-02</t>
+          <t>https://www.securityweek.com/chrome-144-firefox-147-patch-high-severity-vulnerabilities/</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>YoSmart YoLink Smart Hub</t>
+          <t>Fortinet Patches Critical Vulnerabilities in FortiFone, FortiSIEM</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-03</t>
+          <t>https://www.securityweek.com/fortinet-patches-critical-vulnerabilities-in-fortifone-fortisiem/</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Predator Spyware Turns Failed Attacks Into Intelligence for Future Exploits</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2026/01/13/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.securityweek.com/predator-spywares-granular-anti-analysis-features-exposed/</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3245,29 +3245,29 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>January 2026 Patch Tuesday: 114 CVEs Patched Including 3 Zero-Days</t>
+          <t>RedVDS Cybercrime Service Disrupted by Microsoft and Law Enforcement</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/patch-tuesday-analysis-january-2026/</t>
+          <t>https://www.securityweek.com/redvds-cybercrime-service-disrupted-by-microsoft-and-law-enforcement/</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3277,93 +3277,93 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CrowdStrike to Acquire Seraphic to Secure Work in Any Browser</t>
+          <t>ConsentFix debrief: Insights from the new OAuth phishing attack</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-seraphic/</t>
+          <t>https://www.bleepingcomputer.com/news/security/consentfix-debrief-insights-from-the-new-oauth-phishing-attack/</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Remote Code Execution With Modern AI/ML Formats and Libraries</t>
+          <t>Verizon Wireless outage puts phones in SOS mode without cell service</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/rce-vulnerabilities-in-ai-python-libraries/</t>
+          <t>https://www.bleepingcomputer.com/news/mobile/verizon-wireless-outage-puts-phones-in-sos-mode-without-cell-service/</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Threat Brief: MongoDB Vulnerability (CVE-2025-14847)</t>
+          <t>Exploit code public for critical FortiSIEM command injection flaw</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/mongobleed-cve-2025-14847/</t>
+          <t>https://www.bleepingcomputer.com/news/security/exploit-code-public-for-critical-fortisiem-command-injection-flaw/</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3373,157 +3373,157 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Senior military cyber operator removed from Russia task force</t>
+          <t>South Korean giant Kyowon confirms data theft in ransomware attack</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://therecord.media/senior-military-cyber-op-removed-russia-task-force</t>
+          <t>https://www.bleepingcomputer.com/news/security/south-korean-giant-kyowon-confirms-data-theft-in-ransomware-attack/</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ukraine parliament approves resignation of security service chief in major reshuffle</t>
+          <t>Critical Node.js Vulnerability Can Cause Server Crashes via async_hooks Stack Overflow</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://therecord.media/ukraine-parliament-approves-resignation-sbu-chief</t>
+          <t>https://thehackernews.com/2026/01/critical-nodejs-vulnerability-can-cause.html</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Attackers Abuse Python, Cloudflare to Deliver AsyncRAT</t>
+          <t>Microsoft Fixes 114 Windows Flaws in January 2026 Patch, One Actively Exploited</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/attackers-abuse-python-cloudflare-deliver-asyncrat</t>
+          <t>https://thehackernews.com/2026/01/microsoft-fixes-114-windows-flaws-in.html</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Shadow#Reactor Uses Text Files to Deliver Remcos RAT</t>
+          <t>Fortinet Fixes Critical FortiSIEM Flaw Allowing Unauthenticated Remote Code Execution</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/shadow-reactor-uses-text-files-to-deliver-remcos-rat</t>
+          <t>https://thehackernews.com/2026/01/fortinet-fixes-critical-fortisiem-flaw.html</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Microsoft Starts 2026 With a Bang: A Freshly Exploited Zero-Day</t>
+          <t>Hackers Exploit c-ares DLL Side-Loading to Bypass Security and Deploy Malware</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/application-security/microsofts-starts-2026-bang-zero-day</t>
+          <t>https://thehackernews.com/2026/01/hackers-exploit-c-ares-dll-side-loading.html</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3533,29 +3533,29 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>'Most Severe AI Vulnerability to Date' Hits ServiceNow</t>
+          <t>AI Agents Are Becoming Privilege Escalation Paths</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/ai-vulnerability-servicenow</t>
+          <t>https://thehackernews.com/2026/01/ai-agents-are-becoming-privilege.html</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3565,93 +3565,93 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SAP’s January 2026 Security Updates Patch Critical Vulnerabilities</t>
+          <t>Researchers Null-Route Over 550 Kimwolf and Aisuru Botnet Command Servers</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/saps-january-2026-security-updates-patch-critical-vulnerabilities/</t>
+          <t>https://thehackernews.com/2026/01/kimwolf-botnet-infected-over-2-million.html</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Broadcom Wi-Fi Chipset Flaw Allows Hackers to Disrupt Networks</t>
+          <t>Ukraine's new defence minister vows innovation on battlefield - Reuters</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/broadcom-wi-fi-chipset-flaw-allows-hackers-to-disrupt-networks/</t>
+          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQb2daQ3g2Z2RSZTBuTVZaUlcydWVlV2x5cmdWN3Q4UVVKdkVIaF9DSnJVN0pSUVZfbWRza050YTVOLXA1c1Y1cHZxSDQyRjFadUV1SjFpcmFpaTd3eWlQSWRPUjNOTW41c3ZVTTItcXIyNWhyWG0xMlVHUW1OdHVtU2w3bVFLQXhQTTZYeVVobjVjQ3BNQjVFRTIwWUNjaW5ONG5jekpNcFEzZ1RN?oc=5</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>After Goldman, JPMorgan Discloses Law Firm Data Breach</t>
+          <t>US healthcare spending soars to over $5 trillion in 2024 - Reuters</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/after-goldman-jpmorgan-discloses-law-firm-data-breach/</t>
+          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxOT21DRkZVNjY2R19RNGJrWnNzT0ptYjZzR3c0VVpOMEhLV1BSSDNZdk5jbzhGZmFUZzl6UVJsdmlLZmI1TDZzTV9Tb2hBSXQ1Rm5kdjBtNmU2RFB4a3hJNUpEWXRMZ3pqWE9pZWJ5TEt0eFJLZmtkcmhJWU1iYW1oTjJJNzd5VDZiVVBUX0Z6WmNKMEpiNk5Fei1sUGdLM3dfVDNuMg?oc=5</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3661,194 +3661,194 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>GoBruteforcer Botnet Targeting Crypto, Blockchain Projects</t>
+          <t>France explores sending Eutelsat terminals to Iran amid internet blackout - Reuters</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/gobruteforcer-botnet-targeting-crypto-blockchain-projects/</t>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOc3BHY0RmQVl0TnI4NFZEdGhEd3R2eHd1bk04dDFFYkdLNmJSYTdJNGx6LVVIcUVwVUwtQnhoVWJNek5oYWx3dFU2NmNTa2cwcmhzaXNyMTV6VmdpRTA4NHhiQ0NWS3VNUUEtdnJyTTBKeGJ2dGlBNnJYM21NQjhHY2VkVkNuNmEzMFJqX1hWYkZjeTB0bVk3ejNjbXN1MHVBWjhDQjdXSkJhN091VnV0WGRBaTQ4cWlOSWZTaWFNVjY2RF81d1hJ?oc=5</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Microsoft Patches Exploited Windows Zero-Day, 111 Other Vulnerabilities</t>
+          <t>Tech, banks weigh on Wall Street; Trump eases Iran oil fears - Reuters</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/microsoft-patches-exploited-windows-zero-day-111-other-vulnerabilities/</t>
+          <t>https://news.google.com/rss/articles/CBMie0FVX3lxTE9PNkpWSU0yUEpxb0YwdFVSSm9oTEt6M1ZqSWpndXhHM2FBWVJsTkk2SHVNaHJXQVJ4VF85OHhVWHFuN0lpX0N3cWF5Q3BralI0UWNHNm4tWml4QXAwLU1VRmVZZWtYejBpMFdEWjdvVjdWZkRoLTNxLXM1Yw?oc=5</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Adobe Patches Critical Apache Tika Bug in ColdFusion</t>
+          <t>German-Israel deal strengthens cyber defence, German minister says - Reuters</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/adobe-patches-critical-apache-tika-bug-in-coldfusion/</t>
+          <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxPM190VDRucnBsRHkyZzlOOEJfSmU2T1lRa05BWjZVcnNsQlROaENkU252WjYxUU1Cb0JPaDNRRWZaXzhaREhiVWY0LWJ4Z3drZC1JSnpfaXZRMk5vd3VtTEhYdl8zUVo2ellZN0tkVHB1V3ppd1prME0tTGlBblotLU1HTnE3Vm5sa0VlNUxPVDdVSHhmdDgzUE5PTVdsLW1oXzRnemNUQ19lVzN0ODc3alB3SXlkeUtGazMw?oc=5</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CrowdStrike to Acquire Browser Security Firm Seraphic for $420 Million</t>
+          <t>Exclusive: Beijing tells Chinese firms to stop using US and Israeli cybersecurity software, sources say - Reuters</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/crowdstrike-to-acquire-browser-security-firm-seraphic-for-420-million/</t>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQZmNIRDZEN3d5ZXRyNnN5eHc2X0NlZkppN2dnSlpzeFQtTVhDVjJmeWx2aDg4QjQtM0wyRjkxY0ZuNnlOWlJNUmhRSWl4SzJMc1VjT0F1ZDBKMGNsZzJFc3ZodTd3S3dGRnBhRDlqZVdhZ1RwMVlQU1c1SkZQcXNjTGg1V0gxQTZGc004Y0tXeFpTRXZlQTNCdHJvb2tjRTNKTzVfMUdicjRWeHMxa2FhNlNDWGZxUjJBMWljYm9mYUEydGI1OC1z?oc=5</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Target employees confirm leaked source code is authentic</t>
+          <t>Belgian cybersecurity startup Aikido hits unicorn status with new funding round - Reuters</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/target-employees-confirm-leaked-source-code-is-authentic/</t>
+          <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxQcjZHZjZ3NHpBajduLVg0ZU9XaWV4TGNxLVQzQmF4bktuQWwzWU9kQmltZVpRaGN6QThhYmxlOU9vckZTa2RHd3BtMkNRNkVjWmd6OUlzUjdERURJN2ZER0paa2R3Q0tIVW9qbFdQR19xcW9WbzZhMlpBd1VKQWJvVlpCdFRPeENEOTB4YzM2WFZXTHNIMkxMOXpxVjFqd2dSWklFZ3U5YlRCTVJ5VDEwdWpEN2tHdU1feFBUenpiR2drc2lq?oc=5</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Convincing LinkedIn comment-reply tactic used in new phishing</t>
+          <t>PLUGGYAPE Malware Uses Signal and WhatsApp to Target Ukrainian Defense Forces</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/convincing-linkedin-comment-reply-tactic-used-in-new-phishing/</t>
+          <t>https://thehackernews.com/2026/01/pluggyape-malware-uses-signal-and.html</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3860,22 +3860,22 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Betterment confirms data breach after wave of crypto scam emails</t>
+          <t>Takaichi and Lee end first day of summit on a high note with drum session - Reuters</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/betterment-confirms-data-breach-after-wave-of-crypto-scam-emails/</t>
+          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQUFY3eWVKSUFQYXlxQXhwQUZGaVFvN1hiLTI1LXZTd0VveHdaNTRJbnUxOEZuNzhhUHBEZUp3WWE1OU5scUdTRTFlVTdjWkQ3eGdHdW9WbTctOVFYSFd4RkNDbU12Z2RzemppelpMckRaNE53NTMxUnd2blFyXy00V3N5d0J5cUJWWnhiMzEtR0lpS0lJMnR0emxXbXo0cDlmaC1nWnhITl9qeVg0cjRRdWZGel9kWmM?oc=5</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3892,27 +3892,27 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Google confirms Android bug causing volume key issues</t>
+          <t>Gold notches record high, silver cracks $90 on Fed rate cut bets - Reuters</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/google/google-confirms-android-bug-causing-volume-key-issues/</t>
+          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPMDVHbjVCZURFTGl4X1FWMGtPSnh1NmN5NkhXdndsLWxnbWFJNTRUUUJseHV2T0VfWWhWc3pucUpUOHVRSEVWR2JKaXZwTVc5UnpZWmxOMWtXV3FqT3RIQXRzbmdORlRhMkg4UGNrUFFFdUJJaDNxTDg1UTRfSmlPNV85U0VnQ2NLNkRtTW96aUxvQjlNNEh3dkx3MW5NdGtERlRLc1Fhc3M?oc=5</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3924,27 +3924,27 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Microsoft January 2026 Patch Tuesday fixes 3 zero-days, 114 flaws</t>
+          <t>Ready, steady gold! Safety bid adds fuel to cenbank fire - Reuters</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/microsoft/microsoft-january-2026-patch-tuesday-fixes-3-zero-days-114-flaws/</t>
+          <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxNYURRZnRjcXc0Q1V0M0E0VUdBbWhMVm5rS2NzSXItbkR5bk5hWGx0ZXdMNV81Q0dzTkRuckJWcndEenpTZEl5SUhNc0dwS1R1TGMyUjNGWlBhM254d1FqU0NlM1NzNFRtZFhYUEY3czlxeUFVX1B1M29nVml1elViNl9odlNJTGhrN0lkd3BEWHdXLUNKeE5PZHR5dTB4Z1hjdWV5aVJReWFseUFOQTdqQ1hSYWY?oc=5</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3956,22 +3956,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>New Windows updates replace expiring Secure Boot certificates</t>
+          <t>Trump urges Iranians to keep protesting, saying 'help is on its way' - Reuters</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/microsoft-rolls-out-new-secure-boot-certificates-for-windows-devices/</t>
+          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQNzdvSXBtajhYdGFUZ3pLMU40djlOWUdDTGJZQ3Z3UEt5aDdNZ3djam1YTEFqZFlEOHhqS2NxV2lPUzREZXdad2FQZ2Z0NWNyU3JJdGtqakd1b1F3SnZTY29RSG9oSUNIRFNtdXNYSkxLTURzTzRRdWctZ2kzaExEX2hGQ0MwdEdzQm5PVldZMEQ2VUFQSFRwSm4wWU42NWg3aUxYRzRDUkdPM2FvWXVyMnh4NGVnUWs?oc=5</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3988,27 +3988,27 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Belgian hospital AZ Monica shuts down servers after cyberattack</t>
+          <t>China's trade ends 2025 with record $1.2 trillion surplus despite Trump tariff jolt - Reuters</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/belgian-hospital-az-monica-shuts-down-servers-after-cyberattack/</t>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOUTJBRGwwTTYzOEZ1ZGJxeDhqbHVXOWJ3ejBrY2c3ZzVDZXhIRV9IemtkRG15MERacVJQVnZxcVVTeWVqZnlkZ3pkVWJpY2RXTGxCV3EtOFhUQ29WUDBuSVdWY0M3WlBTRG1TTWlpVjNxd3JEMGxpZkd6YzR6eGxxZkhObERkc1NXSnJwT3pHQ2ZHUXhzdDNjQmxrYzJST0lQWXBZRVpvdHFIMVNlb2RUc3RLMFI1RnYybDFlWlp3c04xaC10cFlj?oc=5</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4020,27 +4020,27 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>New VoidLink malware framework targets Linux cloud servers</t>
+          <t>Chipmaker Nexperia and Chinese owner Wingtech fight for control in Dutch court - Reuters</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/new-voidlink-malware-framework-targets-linux-cloud-servers/</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxNUjA2QmJ6NEdoSWl0bVJwRzFMbUZidDdPZldURzl5a1dSNUgwTEZvajVsLWZMdXl5WUxNTG5hSkNkcy13ZkM5RnlRLXc2Zmp2T2d3S3JWem9VVU04UHVrcm5yMmhGQjJDUFZUa19JNzdKeGdlWUlXX0FNSmRPaEd2MUE1aUlkSTFxbXFHQ1FyRDVZY2NZWE5yYXc0NzhKa0pzZDM5MkY5Z016TmZmX2RveUNjV3dRdw?oc=5</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4052,27 +4052,27 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ukraine's army targeted in new charity-themed malware campaign</t>
+          <t>Trump says he thinks China can open its markets to US goods - Reuters</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/ukraines-army-targeted-in-new-charity-themed-malware-campaign/</t>
+          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxONVBCX2drb3JScmU2TTYyMi1uVC1ZVU02S0NtNFRiSHhUZm5fOG9HaFBaN3dXNWs3V0RGUEE4amVOS2RrT1BlNWM4QjhOLVM1NzNQSERYNl9lQUFEQ0NDa0VsMEN3QlBUTFE2UFZOVF8tcjNrQjlEYjQ5c2o2SVMycEZQOFhHazJySVVzaXNHNzlyZ0ttcFpYWDhCUVgwcndYS2tV?oc=5</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4089,27 +4089,27 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CISA Warns of Active Exploitation of Gogs Vulnerability Enabling Code Execution</t>
+          <t>CrowdStrike to Buy Seraphic Security in Bid to Boost Browser Security</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/cisa-warns-of-active-exploitation-of.html</t>
+          <t>https://www.darkreading.com/remote-workforce/crowdstrike-buy-seraphic-security-boost-browser-security</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -4121,27 +4121,27 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>New Malware Campaign Delivers Remcos RAT Through Multi-Stage Windows Attack</t>
+          <t>Bloomberg Index Services defers including Indian bonds in global index - Reuters</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/new-malware-campaign-delivers-remcos.html</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQR1lPWGVrdzBFTjRKWVh5cEFSVWI1c01ZTmdYTTFKRUpJWDJMdE5nRG1uaU16TEVTa3dnRHJNV296dlRoSF9oZy1RcUViSnhPWVFMTXkyZGc0Um54UEozM0dzYnk0emRJd2VlR3FuNWFUZ2xzUlNzeVJmN1Y2YndEUDZ5cTNRNjluM1NOWWRzbzhueGVKWG5NNGtJa2dza1djblc2SUdUbDV0N1lLWE1VdFVqMzBGdw?oc=5</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -4153,22 +4153,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ServiceNow Patches Critical AI Platform Flaw Allowing Unauthenticated User Impersonation</t>
+          <t>Rockwell Automation 432ES-IG3 Series A</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/servicenow-patches-critical-ai-platform.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-01</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4185,22 +4185,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>New Advanced Linux VoidLink Malware Targets Cloud and container Environments</t>
+          <t>Rockwell Automation FactoryTalk DataMosaix Private Cloud</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/new-advanced-linux-voidlink-malware.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-02</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4217,17 +4217,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Senior Russian official says Greenland could vote to join Russia if Trump does not hurry - Reuters</t>
+          <t>YoSmart YoLink Smart Hub</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxQWGRiQ1h1elVpU09iYzkzbkNXSkpqT1J0SDRhM1ZzZ3VHcnRFN0o3U3d5cjZiV0U5bGx5bmsyaEwtTnpqam0wYUk1SE9sbzVuUE1neVp5Z1FydFJFRmxia2ljVE1OdWtxV2lWeWotNTZrZl92Wno2cElMcG5zNk1sU0xyMjh6cjNmRHByTzIwTnZFcXppMXlpczJ4NVBhRVRsZW9sVldoR1hGcUxjdkVsMXB5bEcxV3RHaHpNRjZn?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-03</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4249,22 +4249,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Trump says inflation data means Fed can cut interest rates - Reuters</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOb1RPV1JkVVVGcXpVb3IwVXMzeHEwNmdnUU8tWktMQmVhMUc4UElTMEJmWkdoTjRrWWJzNmtJRm1vTndoRVF4SGx5R09oSXJaeDlmUEdsYnE4RU1XRHN3SWpCZEN1YTU4MGdVbWwwamoxQ1J1SzVPekdrNkZfVE5QVjR4R0pTYklPX3hDbXBMWkZYVmFwNGV2blc0RXdjT3d2UWs0aWZTaWxXZw?oc=5</t>
+          <t>https://www.cisa.gov/news-events/alerts/2026/01/13/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4281,22 +4281,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>China limits Nvidia chip purchases to special circumstances, Information reports - Reuters</t>
+          <t>January 2026 Patch Tuesday: 114 CVEs Patched Including 3 Zero-Days</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxNQU5YR3BRNnBjUndkYWJqNnFnSFlDS2xYYVFycUp5UmZoeExwaUFaeThuaXZKdmlWOS12MU9iN3RwYVcwdmUtd2xQS0lNMkpxYjBCNkZpc09pMWNPSVNCcHVLMHdKYUo2VUx4c0pkajVURmFnU1Qta0tGYkRNdkpsWXIzSHFHNk5YQWZuTTFpUEZneW82aTJZaXJybG8wa0VkWGJ3c2tpNFBrVXdYVXhQY1RFcmU3MjJoTnZqX1ZWZDh4dw?oc=5</t>
+          <t>https://www.crowdstrike.com/en-us/blog/patch-tuesday-analysis-january-2026/</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4313,22 +4313,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Tomlin steps down as Steelers' coach after 19 seasons - Reuters</t>
+          <t>CrowdStrike to Acquire Seraphic to Secure Work in Any Browser</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxNZ3N6RXJfUG5LbjhDMVhRMkxYS2l1UkdiWUF0eU5jRFQyMVpXd3FRLVllNE53WUh6NjRBNVFZU3MtaGpFR1VhdHN6S2hIbUJOS2c2X1hHdS0xWDdnTEFQd0wtaWR6RlF1S1I1UnFVbDI4WWlLdkhNUHpPVm54cWJXV1hYek10WG9ZZG5VSVdnRXRISXF1OEJV?oc=5</t>
+          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-seraphic/</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4345,22 +4345,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Trump probe of Fed chair stresses need for global diversification - Reuters</t>
+          <t>Remote Code Execution With Modern AI/ML Formats and Libraries</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNWUtZdWRtOC1FSkp4SEVuVktuMkNBLXAtSXZNOE5FX1doOTdvaFpuNjdaZHNsaVpOMFNFOTlYMC1KdTNKamh1azAxNVlJU2JXVzdrMGZQaXJwTDhqWE9VQXJXRkJSMWgxT3VMQkw0NGZFMTQ4YmNVZGFocHZfcEY3MVhGcXk0WlhtODZKRFRBM0s2QjlIRTBHajEzdEZFNFI4aGVtTVFR?oc=5</t>
+          <t>https://unit42.paloaltonetworks.com/rce-vulnerabilities-in-ai-python-libraries/</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4377,22 +4377,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Pope Leo to visit Angola as part of an Africa tour, Vatican envoy says - Reuters</t>
+          <t>Threat Brief: MongoDB Vulnerability (CVE-2025-14847)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxNRndWQmRaMzR3ZXlFbjZQbk0zV1JYSFA1Qy1FVUJSQUVCX3ExVzZnYmFFVUtFdmdpZnl3ZGNzOUFRRWJRTEpCTnloNkFNRUNVcjdBeThPcmZqYVFUbXlfNXduRC1PZkg4WURJVEVTdkRsR24zYjd2amRQZHRhN2NSaXZLLXB3UWZ2b0RiaDNBM0hkYzFuVmNYdHl6VHA0aXNqSy00dg?oc=5</t>
+          <t>https://unit42.paloaltonetworks.com/mongobleed-cve-2025-14847/</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4409,22 +4409,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Wall Street expects strong fourth-quarter earnings driven by robust US economy - Reuters</t>
+          <t>Senior military cyber operator removed from Russia task force</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxOUnc1ZC1sYk1ETFVDWUpGQkpkRnlSd0hhVXJKZmF4dlMzREhxV0NGS1VjbFpheEQtZkYyelJtT0gxbGhmb2I1eWtHYzhSaTZlUktabXNhd1N3X0ZQOTJjZXNxdVVYMlRqZVR6MHF0c1AyNEhhZ2gxc19iaTdzWWVQQkhxMFk0amw2YWZVdXUyaVFVZ19rZHp4clIyOVdIMVhxYjdRYWxsSnFDUy1wTGJwNEhYUERRZ3BJRTFzM01hYVppRmotbXpBaVZHVQ?oc=5</t>
+          <t>https://therecord.media/senior-military-cyber-op-removed-russia-task-force</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4441,22 +4441,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Polygon targets stablecoin payments with deals worth $250 million - Reuters</t>
+          <t>Ukraine parliament approves resignation of security service chief in major reshuffle</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQTXBYdG9GYnhtWGp2MlgzSm0zTGR5QUxFdFAyR2JrZHNLQ1dUaGVBOWQxa2hucUN0VWxXdmdXT1NuYkNiWG54WmloUTJBcFoyYjlLUDJwUVNjT2tBYkFpN3BMNzVDUlMtV0tET3d2cjRMREl6bXJTSm42UTZYUGNLTVFVWlZ4V0luRGdGb1NBcjhaTFlGWnZCZkdJVjBFTDctcC1pYW1SYUVLQ0NVS3c?oc=5</t>
+          <t>https://therecord.media/ukraine-parliament-approves-resignation-sbu-chief</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4473,22 +4473,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>EU to 'swiftly' propose further sanctions on Iran, von der Leyen says - Reuters</t>
+          <t>Attackers Abuse Python, Cloudflare to Deliver AsyncRAT</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxQblFzQUFWcGxwaEtsVlBPcmdMRExLaS1BekxsaWJTSU14elNKY3ZES1o3LVNPdjJwb1dGT1lGQ3ZaMm1uNDRPc05TLUlkUTRwQ19sODRsbGhSemVoM0NRMC1TVktLandoVkNJNG9wSGJQcVUyb1FpLWpWLWdaQWhFdE5kOEo1SGJLRElnNG52M0p0cTVFeGtjVkR5dGR2OXU3b2xlTg?oc=5</t>
+          <t>https://www.darkreading.com/endpoint-security/attackers-abuse-python-cloudflare-deliver-asyncrat</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4505,22 +4505,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Britain seeks 'reset' in copyright battle between AI and creators - Reuters</t>
+          <t>Shadow#Reactor Uses Text Files to Deliver Remcos RAT</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQN1RNSkNXMDF2bXVkOVV5VnIyRW5GNk9JMzljdmd1dlB2TVFTLXI3bWMzUGJYWG9JLTFRNHFaUHlqcjlRNjFhQ2c2cDhVMVdqYU91VWYtQ01JRUE0ZTgyLXFVcEowVXYzcGd3bUtLaF9Xa1RORW1CdnBuVmMtakVqbkJFNzZab0w2OUdQaFlFMi04N0NMRU16Nzdfajc3SHRFbHd1ckt0cGNZOU9FcnpoTnEzSS1tQQ?oc=5</t>
+          <t>https://www.darkreading.com/endpoint-security/shadow-reactor-uses-text-files-to-deliver-remcos-rat</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4537,22 +4537,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Bill and Hillary Clinton refuse to testify in House Epstein probe, could be held in contempt - Reuters</t>
+          <t>Microsoft Starts 2026 With a Bang: A Freshly Exploited Zero-Day</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNbHhxUGFmX3kxTGFGRkxiSGJ1ZlVqZVJQZlhWc3ZyRTU0dmdhaERIYnJJS3NJTVlJYWdURHI2VVZzYWVRcldDeHpQRlhMTHBLZ3ZLZHRUMjNIazFzVUNHTGQtbVJIZGJNVWEza3I3dExvVDZLaHR1UVkyVVhsSGlCX0MtV2NmOVRDYkdpRG9PaHgzSFNLVUd0OHN3WlhJRzVfX1E0c3g5bjducThD?oc=5</t>
+          <t>https://www.darkreading.com/application-security/microsofts-starts-2026-bang-zero-day</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4569,22 +4569,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Wall St slips on credit card proposal, rate bets boost gold - Reuters</t>
+          <t>'Most Severe AI Vulnerability to Date' Hits ServiceNow</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiigFBVV95cUxPUVoxcXJ6WjA4UUcwYlJoY1FTVFUyNzJlRVFkU0pvVFIwWDJuTk9NaXVCRFV4ZlRQRUFWQXBhZ05ycHViU09UdzgzdUJ2RE9ndjlwQVVDYXVhcHBVVXZ4V3V1NXU5SC1IVDlYVmljSmFCY0Zhei1wSDJxcWRnX0lqZ0twREl4Rl9ZNHc?oc=5</t>
+          <t>https://www.darkreading.com/remote-workforce/ai-vulnerability-servicenow</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4601,22 +4601,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>US teachers union says it is leaving X over sexualized AI images of children - Reuters</t>
+          <t>SAP’s January 2026 Security Updates Patch Critical Vulnerabilities</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPeFlRczdTUUd1bWdNbVhnVTV6TEw3WVVPWURSal9uU1oxYWdyTTd6Nzg4QldFdlk2U1pfVkdlVC1vaHNzYk5DWVhHSWw5MXlETUI4RTZKOGJsRmVNdmFjbmw4dkpfQUhyNENpVHdGRnQ5MHBLSU9jSjREa282Q3VSaEVoNm1ENlhvS3BzWTUyU2MyMndudTJpOVFoc2xkeG5DMklOUUNEZ2EtTnc3UTVEd2FkSnJRbGhhVVNMN1lPem1tcmV6eXY2Qjc5djhhODg?oc=5</t>
+          <t>https://www.securityweek.com/saps-january-2026-security-updates-patch-critical-vulnerabilities/</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4633,22 +4633,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Massive cyberattack on Polish power system in December failed, minister says - Reuters</t>
+          <t>Broadcom Wi-Fi Chipset Flaw Allows Hackers to Disrupt Networks</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxNcjE3N3FhUUJKU3VPbm5aTWpsUVFFQmhaQUJfR0h0OGNvQlZVN1BfckZpTTBZNjhzdmxka1lrWFVXa2RxWEwxRHl6ZlNoa2dmSG9ZQkp3X0tRZldjdVZUMkVlUkQwR2REcUdwcmN5R0k4eUx5UkxnUEEwa0s1aGlJS2NjRGVFaDdkV1I1X3gwYmNNbVQxYUc0Rmoxb2g1WnlleUVHcDdacjlXSUJYX0N6bG0wb0JscDlEbWQxRXJPTmtsWmt6a3o3QTlFVy1SZU1C?oc=5</t>
+          <t>https://www.securityweek.com/broadcom-wi-fi-chipset-flaw-allows-hackers-to-disrupt-networks/</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4660,22 +4660,22 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>US federal prosecutors open inquiry into US Fed chair Powell, NYT reports - Reuters</t>
+          <t>After Goldman, JPMorgan Discloses Law Firm Data Breach</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxPZnBOOG80WVFRYXN3ZkktVHc5VmpvejVYLUtMam1uemVkWDRBTnpBZ0dUUWxnVUdxeE5TVXEwOTB4SktMY3FseHQ0VzZLRTYtaW9QaHNINnRWS0ZBckN0b2ptLUp3cmtUWWY2ZnBiQmg5cGRHQ094WFVNNWVuN0tCYkgwS3N4VFhEQ3NnOXFILUVhUU9mbVZzdXZJYzIwZVBfMmdhdDVaUjBha2hSVENOZFpYSXBEaW42?oc=5</t>
+          <t>https://www.securityweek.com/after-goldman-jpmorgan-discloses-law-firm-data-breach/</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4685,29 +4685,29 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-14T07:52:14Z</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>GoBruteforcer Botnet Targeting Crypto, Blockchain Projects</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2026/01/12/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.securityweek.com/gobruteforcer-botnet-targeting-crypto-blockchain-projects/</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4724,27 +4724,27 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2 Separate Campaigns Probe Corporate LLMs for Secrets</t>
+          <t>Microsoft Patches Exploited Windows Zero-Day, 111 Other Vulnerabilities</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/separate-campaigns-target-exposed-llm-services</t>
+          <t>https://www.securityweek.com/microsoft-patches-exploited-windows-zero-day-111-other-vulnerabilities/</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4756,27 +4756,27 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Hexnode Moves into Endpoint Security With Hexnode XDR</t>
+          <t>Adobe Patches Critical Apache Tika Bug in ColdFusion</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/hexnode-marks-its-move-into-endpoint-security-with-hexnode-xdr</t>
+          <t>https://www.securityweek.com/adobe-patches-critical-apache-tika-bug-in-coldfusion/</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4788,27 +4788,27 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>FBI Flags Quishing Attacks From North Korean APT</t>
+          <t>CrowdStrike to Acquire Browser Security Firm Seraphic for $420 Million</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/mobile-security/fbi-quishing-attacks-north-korean-apt</t>
+          <t>https://www.securityweek.com/crowdstrike-to-acquire-browser-security-firm-seraphic-for-420-million/</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4820,22 +4820,22 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Multipurpose GoBruteforcer Botnet Targets 50K+ Linux Servers</t>
+          <t>Target employees confirm leaked source code is authentic</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/threat-intelligence/gobruteforcer-botnet-targets-50k-plus-linux-servers</t>
+          <t>https://www.bleepingcomputer.com/news/security/target-employees-confirm-leaked-source-code-is-authentic/</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4852,27 +4852,27 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>GoBruteforcer Botnet Targets Crypto Project Databases by Exploiting Weak Credentials</t>
+          <t>Convincing LinkedIn comment-reply tactic used in new phishing</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/gobruteforcer-botnet-targets-crypto.html</t>
+          <t>https://www.bleepingcomputer.com/news/security/convincing-linkedin-comment-reply-tactic-used-in-new-phishing/</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4884,27 +4884,27 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>⚡ Weekly Recap: AI Automation Exploits, Telecom Espionage, Prompt Poaching &amp; More</t>
+          <t>Betterment confirms data breach after wave of crypto scam emails</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/weekly-recap-ai-automation-exploits.html</t>
+          <t>https://www.bleepingcomputer.com/news/security/betterment-confirms-data-breach-after-wave-of-crypto-scam-emails/</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4916,27 +4916,27 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>n8n Supply Chain Attack Abuses Community Nodes to Steal OAuth Tokens</t>
+          <t>Google confirms Android bug causing volume key issues</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/n8n-supply-chain-attack-abuses.html</t>
+          <t>https://www.bleepingcomputer.com/news/google/google-confirms-android-bug-causing-volume-key-issues/</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4948,27 +4948,27 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>MuddyWater Launches RustyWater RAT via Spear-Phishing Across Middle East Sectors</t>
+          <t>Microsoft January 2026 Patch Tuesday fixes 3 zero-days, 114 flaws</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/muddywater-launches-rustywater-rat-via.html</t>
+          <t>https://www.bleepingcomputer.com/news/microsoft/microsoft-january-2026-patch-tuesday-fixes-3-zero-days-114-flaws/</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4980,27 +4980,27 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>US military says it carried out strikes across Syria targeting Islamic State - Reuters</t>
+          <t>New Windows updates replace expiring Secure Boot certificates</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxNN2E5MFN1TTREVFVMQm5ZRU8tc2hCX3hqV3hhMXNWRWFhY1ZDVVE5cEJ3cGZXajkxQmxxaUMzWmg2LTBGbmE2OENaZGU4Vm9NcHM4V0N1OERtY0RSWVA2aUdTYkdpWEhER1lSLVpSSHVHZk84VENENlh4TXJERnJ4dkJVS2RlMGxjcEFQTEdTbUZuUlgzbW15UzFoX0xHbE0zdFNmZTdzUFMyYXc0cElLcnExYmlMcTY2SlBhd2diVUxjT1dHZTdMOGln?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/microsoft-rolls-out-new-secure-boot-certificates-for-windows-devices/</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5012,27 +5012,27 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Russia’s Fancy Bear APT Doubles Down on Global Secrets Theft</t>
+          <t>Belgian hospital AZ Monica shuts down servers after cyberattack</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/russian-apt-credentials-global-targets</t>
+          <t>https://www.bleepingcomputer.com/news/security/belgian-hospital-az-monica-shuts-down-servers-after-cyberattack/</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5044,27 +5044,27 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Illicit Crypto Economy Surges Amid Increased Nation-State Activity</t>
+          <t>New VoidLink malware framework targets Linux cloud servers</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyber-risk/illicit-crypto-economy-surges-nation-states</t>
+          <t>https://www.bleepingcomputer.com/news/security/new-voidlink-malware-framework-targets-linux-cloud-servers/</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5076,27 +5076,27 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Deepfake Fraud Tools Are Lagging Behind Expectations</t>
+          <t>Ukraine's army targeted in new charity-themed malware campaign</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/deepfake-fraud-tools-lag-expectations</t>
+          <t>https://www.bleepingcomputer.com/news/security/ukraines-army-targeted-in-new-charity-themed-malware-campaign/</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5108,7 +5108,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5118,17 +5118,17 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>FBI Warns North Korean Hackers Using Malicious QR Codes in Spear-Phishing</t>
+          <t>CISA Warns of Active Exploitation of Gogs Vulnerability Enabling Code Execution</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/fbi-warns-north-korean-hackers-using.html</t>
+          <t>https://thehackernews.com/2026/01/cisa-warns-of-active-exploitation-of.html</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5140,7 +5140,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5150,17 +5150,17 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>CISA Retires 10 Emergency Cybersecurity Directives Issued Between 2019 and 2024</t>
+          <t>New Malware Campaign Delivers Remcos RAT Through Multi-Stage Windows Attack</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/cisa-retires-10-emergency-cybersecurity.html</t>
+          <t>https://thehackernews.com/2026/01/new-malware-campaign-delivers-remcos.html</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5172,7 +5172,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5182,12 +5182,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Trend Micro Apex Central RCE Flaw Scores 9.8 CVSS in On-Prem Windows Versions</t>
+          <t>ServiceNow Patches Critical AI Platform Flaw Allowing Unauthenticated User Impersonation</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/trend-micro-apex-central-rce-flaw.html</t>
+          <t>https://thehackernews.com/2026/01/servicenow-patches-critical-ai-platform.html</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5204,7 +5204,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5214,17 +5214,17 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Russian APT28 Runs Credential-Stealing Campaign Targeting Energy and Policy Organizations</t>
+          <t>New Advanced Linux VoidLink Malware Targets Cloud and container Environments</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/russian-apt28-runs-credential-stealing.html</t>
+          <t>https://thehackernews.com/2026/01/new-advanced-linux-voidlink-malware.html</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5236,27 +5236,27 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>China-Linked Hackers Exploit VMware ESXi Zero-Days to Escape Virtual Machines</t>
+          <t>Senior Russian official says Greenland could vote to join Russia if Trump does not hurry - Reuters</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/chinese-linked-hackers-exploit-vmware.html</t>
+          <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxQWGRiQ1h1elVpU09iYzkzbkNXSkpqT1J0SDRhM1ZzZ3VHcnRFN0o3U3d5cjZiV0U5bGx5bmsyaEwtTnpqam0wYUk1SE9sbzVuUE1neVp5Z1FydFJFRmxia2ljVE1OdWtxV2lWeWotNTZrZl92Wno2cElMcG5zNk1sU0xyMjh6cjNmRHByTzIwTnZFcXppMXlpczJ4NVBhRVRsZW9sVldoR1hGcUxjdkVsMXB5bEcxV3RHaHpNRjZn?oc=5</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5268,27 +5268,27 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Hitachi Energy Asset Suite</t>
+          <t>Trump says inflation data means Fed can cut interest rates - Reuters</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-008-01</t>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOb1RPV1JkVVVGcXpVb3IwVXMzeHEwNmdnUU8tWktMQmVhMUc4UElTMEJmWkdoTjRrWWJzNmtJRm1vTndoRVF4SGx5R09oSXJaeDlmUEdsYnE4RU1XRHN3SWpCZEN1YTU4MGdVbWwwamoxQ1J1SzVPekdrNkZfVE5QVjR4R0pTYklPX3hDbXBMWkZYVmFwNGV2blc0RXdjT3d2UWs0aWZTaWxXZw?oc=5</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5300,27 +5300,27 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>CrowdStrike to Acquire SGNL to Secure Every Identity in the AI Era</t>
+          <t>China limits Nvidia chip purchases to special circumstances, Information reports - Reuters</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-sgnl/</t>
+          <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxNQU5YR3BRNnBjUndkYWJqNnFnSFlDS2xYYVFycUp5UmZoeExwaUFaeThuaXZKdmlWOS12MU9iN3RwYVcwdmUtd2xQS0lNMkpxYjBCNkZpc09pMWNPSVNCcHVLMHdKYUo2VUx4c0pkajVURmFnU1Qta0tGYkRNdkpsWXIzSHFHNk5YQWZuTTFpUEZneW82aTJZaXJybG8wa0VkWGJ3c2tpNFBrVXdYVXhQY1RFcmU3MjJoTnZqX1ZWZDh4dw?oc=5</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5332,27 +5332,27 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Here's What Cloud Security's Future Holds for the Year Ahead</t>
+          <t>Tomlin steps down as Steelers' coach after 19 seasons - Reuters</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/heres-cloud-security-holds-year-ahead</t>
+          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxNZ3N6RXJfUG5LbjhDMVhRMkxYS2l1UkdiWUF0eU5jRFQyMVpXd3FRLVllNE53WUh6NjRBNVFZU3MtaGpFR1VhdHN6S2hIbUJOS2c2X1hHdS0xWDdnTEFQd0wtaWR6RlF1S1I1UnFVbDI4WWlLdkhNUHpPVm54cWJXV1hYek10WG9ZZG5VSVdnRXRISXF1OEJV?oc=5</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>クラウド・サプライチェーン</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5364,27 +5364,27 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Maximum Severity HPE OneView Flaw Exploited in the Wild</t>
+          <t>Trump probe of Fed chair stresses need for global diversification - Reuters</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/vulnerabilities-threats/maximum-severity-hpe-oneview-flaw-exploited</t>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNWUtZdWRtOC1FSkp4SEVuVktuMkNBLXAtSXZNOE5FX1doOTdvaFpuNjdaZHNsaVpOMFNFOTlYMC1KdTNKamh1azAxNVlJU2JXVzdrMGZQaXJwTDhqWE9VQXJXRkJSMWgxT3VMQkw0NGZFMTQ4YmNVZGFocHZfcEY3MVhGcXk0WlhtODZKRFRBM0s2QjlIRTBHajEzdEZFNFI4aGVtTVFR?oc=5</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5396,27 +5396,27 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>CrowdStrike to Buy SGNL to Expand Identity Security Capabilities</t>
+          <t>Pope Leo to visit Angola as part of an Africa tour, Vatican envoy says - Reuters</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/crowdsrike-buy-sgnl-expand-identity-security-capabilities</t>
+          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxNRndWQmRaMzR3ZXlFbjZQbk0zV1JYSFA1Qy1FVUJSQUVCX3ExVzZnYmFFVUtFdmdpZnl3ZGNzOUFRRWJRTEpCTnloNkFNRUNVcjdBeThPcmZqYVFUbXlfNXduRC1PZkg4WURJVEVTdkRsR24zYjd2amRQZHRhN2NSaXZLLXB3UWZ2b0RiaDNBM0hkYzFuVmNYdHl6VHA0aXNqSy00dg?oc=5</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5428,27 +5428,27 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Coolify Discloses 11 Critical Flaws Enabling Full Server Compromise on Self-Hosted Instances</t>
+          <t>Wall Street expects strong fourth-quarter earnings driven by robust US economy - Reuters</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/coolify-discloses-11-critical-flaws.html</t>
+          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxOUnc1ZC1sYk1ETFVDWUpGQkpkRnlSd0hhVXJKZmF4dlMzREhxV0NGS1VjbFpheEQtZkYyelJtT0gxbGhmb2I1eWtHYzhSaTZlUktabXNhd1N3X0ZQOTJjZXNxdVVYMlRqZVR6MHF0c1AyNEhhZ2gxc19iaTdzWWVQQkhxMFk0amw2YWZVdXUyaVFVZ19rZHp4clIyOVdIMVhxYjdRYWxsSnFDUy1wTGJwNEhYUERRZ3BJRTFzM01hYVppRmotbXpBaVZHVQ?oc=5</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5460,27 +5460,27 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Researchers Uncover NodeCordRAT Hidden in npm Bitcoin-Themed Packages</t>
+          <t>Polygon targets stablecoin payments with deals worth $250 million - Reuters</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/researchers-uncover-nodecordrat-hidden.html</t>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQTXBYdG9GYnhtWGp2MlgzSm0zTGR5QUxFdFAyR2JrZHNLQ1dUaGVBOWQxa2hucUN0VWxXdmdXT1NuYkNiWG54WmloUTJBcFoyYjlLUDJwUVNjT2tBYkFpN3BMNzVDUlMtV0tET3d2cjRMREl6bXJTSm42UTZYUGNLTVFVWlZ4V0luRGdGb1NBcjhaTFlGWnZCZkdJVjBFTDctcC1pYW1SYUVLQ0NVS3c?oc=5</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5492,27 +5492,27 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Cisco Patches ISE Security Vulnerability After Public PoC Exploit Release</t>
+          <t>EU to 'swiftly' propose further sanctions on Iran, von der Leyen says - Reuters</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/cisco-patches-ise-security.html</t>
+          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxQblFzQUFWcGxwaEtsVlBPcmdMRExLaS1BekxsaWJTSU14elNKY3ZES1o3LVNPdjJwb1dGT1lGQ3ZaMm1uNDRPc05TLUlkUTRwQ19sODRsbGhSemVoM0NRMC1TVktLandoVkNJNG9wSGJQcVUyb1FpLWpWLWdaQWhFdE5kOEo1SGJLRElnNG52M0p0cTVFeGtjVkR5dGR2OXU3b2xlTg?oc=5</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5524,27 +5524,27 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>The State of Trusted Open Source</t>
+          <t>Britain seeks 'reset' in copyright battle between AI and creators - Reuters</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/the-state-of-trusted-open-source.html</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQN1RNSkNXMDF2bXVkOVV5VnIyRW5GNk9JMzljdmd1dlB2TVFTLXI3bWMzUGJYWG9JLTFRNHFaUHlqcjlRNjFhQ2c2cDhVMVdqYU91VWYtQ01JRUE0ZTgyLXFVcEowVXYzcGd3bUtLaF9Xa1RORW1CdnBuVmMtakVqbkJFNzZab0w2OUdQaFlFMi04N0NMRU16Nzdfajc3SHRFbHd1ckt0cGNZOU9FcnpoTnEzSS1tQQ?oc=5</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5556,27 +5556,27 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ThreatsDay Bulletin: RustFS Flaw, Iranian Ops, WebUI RCE, Cloud Leaks, and 12 More Stories</t>
+          <t>Bill and Hillary Clinton refuse to testify in House Epstein probe, could be held in contempt - Reuters</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/threatsday-bulletin-rustfs-flaw-iranian.html</t>
+          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNbHhxUGFmX3kxTGFGRkxiSGJ1ZlVqZVJQZlhWc3ZyRTU0dmdhaERIYnJJS3NJTVlJYWdURHI2VVZzYWVRcldDeHpQRlhMTHBLZ3ZLZHRUMjNIazFzVUNHTGQtbVJIZGJNVWEza3I3dExvVDZLaHR1UVkyVVhsSGlCX0MtV2NmOVRDYkdpRG9PaHgzSFNLVUd0OHN3WlhJRzVfX1E0c3g5bjducThD?oc=5</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5588,22 +5588,22 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>China-Linked UAT-7290 Targets Telecoms with Linux Malware and ORB Nodes</t>
+          <t>Wall St slips on credit card proposal, rate bets boost gold - Reuters</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/china-linked-uat-7290-targets-telecoms.html</t>
+          <t>https://news.google.com/rss/articles/CBMiigFBVV95cUxPUVoxcXJ6WjA4UUcwYlJoY1FTVFUyNzJlRVFkU0pvVFIwWDJuTk9NaXVCRFV4ZlRQRUFWQXBhZ05ycHViU09UdzgzdUJ2RE9ndjlwQVVDYXVhcHBVVXZ4V3V1NXU5SC1IVDlYVmljSmFCY0Zhei1wSDJxcWRnX0lqZ0twREl4Rl9ZNHc?oc=5</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5620,27 +5620,27 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>WhatsApp Worm Spreads Astaroth Banking Trojan Across Brazil via Contact Auto-Messaging</t>
+          <t>US teachers union says it is leaving X over sexualized AI images of children - Reuters</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/whatsapp-worm-spreads-astaroth-banking.html</t>
+          <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPeFlRczdTUUd1bWdNbVhnVTV6TEw3WVVPWURSal9uU1oxYWdyTTd6Nzg4QldFdlk2U1pfVkdlVC1vaHNzYk5DWVhHSWw5MXlETUI4RTZKOGJsRmVNdmFjbmw4dkpfQUhyNENpVHdGRnQ5MHBLSU9jSjREa282Q3VSaEVoNm1ENlhvS3BzWTUyU2MyMndudTJpOVFoc2xkeG5DMklOUUNEZ2EtTnc3UTVEd2FkSnJRbGhhVVNMN1lPem1tcmV6eXY2Qjc5djhhODg?oc=5</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5652,7 +5652,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5662,17 +5662,17 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>CrowdStrike to buy identity security startup SGNL for $740 million to tackle AI threats - Reuters</t>
+          <t>Massive cyberattack on Polish power system in December failed, minister says - Reuters</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxPWlhETmluVjRhN2hIZzFjdFdKcTkwUGJXeGJKeGxnekxmR1dYaE1SNEJwWGJzWFVWanl6bkRYcWlkQzBYNVJFY0pWWDh4bE4wcGw5Vk5IWDZEcklwS1o1VkE4aDVHOG9sd1QxaUNObDJFWVVUTnJVWXpibkNTM0FmRWhTQ3hHS0lFaFlBUVdvb2Y4aTNGbTkxbFVmXzJWZlVRczloTE8xR2M3M1NfeU1fcnVCOTlzbmY5R0lVOTVYaFM?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxNcjE3N3FhUUJKU3VPbm5aTWpsUVFFQmhaQUJfR0h0OGNvQlZVN1BfckZpTTBZNjhzdmxka1lrWFVXa2RxWEwxRHl6ZlNoa2dmSG9ZQkp3X0tRZldjdVZUMkVlUkQwR2REcUdwcmN5R0k4eUx5UkxnUEEwa0s1aGlJS2NjRGVFaDdkV1I1X3gwYmNNbVQxYUc0Rmoxb2g1WnlleUVHcDdacjlXSUJYX0N6bG0wb0JscDlEbWQxRXJPTmtsWmt6a3o3QTlFVy1SZU1C?oc=5</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5684,59 +5684,59 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>CISA Adds Two Known Exploited Vulnerabilities to Catalog</t>
+          <t>US federal prosecutors open inquiry into US Fed chair Powell, NYT reports - Reuters</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2026/01/07/cisa-adds-two-known-exploited-vulnerabilities-catalog</t>
+          <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxPZnBOOG80WVFRYXN3ZkktVHc5VmpvejVYLUtMam1uemVkWDRBTnpBZ0dUUWxnVUdxeE5TVXEwOTB4SktMY3FseHQ0VzZLRTYtaW9QaHNINnRWS0ZBckN0b2ptLUp3cmtUWWY2ZnBiQmg5cGRHQ094WFVNNWVuN0tCYkgwS3N4VFhEQ3NnOXFILUVhUU9mbVZzdXZJYzIwZVBfMmdhdDVaUjBha2hSVENOZFpYSXBEaW42?oc=5</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Explore the latest Microsoft Incident Response proactive services for enhanced resilience</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2026/01/07/explore-the-latest-microsoft-incident-response-proactive-services-for-enhanced-resilience/</t>
+          <t>https://www.cisa.gov/news-events/alerts/2026/01/12/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5748,7 +5748,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5758,17 +5758,17 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Lack of MFA Is Common Thread in Vast Cloud Credential Heist</t>
+          <t>2 Separate Campaigns Probe Corporate LLMs for Secrets</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/lack-mfa-common-thread-vast-cloud-credential-heist</t>
+          <t>https://www.darkreading.com/endpoint-security/separate-campaigns-target-exposed-llm-services</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -5780,7 +5780,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5790,17 +5790,17 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>DDoSia Powers Affiliate-Driven Hacktivist Attacks</t>
+          <t>Hexnode Moves into Endpoint Security With Hexnode XDR</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/ddosia-powers-volunteer-driven-hacktivist-attacks</t>
+          <t>https://www.darkreading.com/endpoint-security/hexnode-marks-its-move-into-endpoint-security-with-hexnode-xdr</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5812,7 +5812,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5822,17 +5822,17 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Cyberattacks Likely Part of Military Operation in Venezuela</t>
+          <t>FBI Flags Quishing Attacks From North Korean APT</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cybersecurity-operations/cyberattacks-part-military-operation-venezuela</t>
+          <t>https://www.darkreading.com/mobile-security/fbi-quishing-attacks-north-korean-apt</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5844,7 +5844,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5854,12 +5854,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Phishers Exploit Office 365 Users Who Let Their Guard Down</t>
+          <t>Multipurpose GoBruteforcer Botnet Targets 50K+ Linux Servers</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/phishers-exploit-office-365-users-guard-down</t>
+          <t>https://www.darkreading.com/threat-intelligence/gobruteforcer-botnet-targets-50k-plus-linux-servers</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5876,22 +5876,22 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Attackers Exploit Zero-Day in End-of-Life D-Link Routers</t>
+          <t>GoBruteforcer Botnet Targets Crypto Project Databases by Exploiting Weak Credentials</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/attackers-exploit-zero-day-end-of-life-d-link-routers</t>
+          <t>https://thehackernews.com/2026/01/gobruteforcer-botnet-targets-crypto.html</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5908,27 +5908,27 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Columbia Weather Systems MicroServer</t>
+          <t>⚡ Weekly Recap: AI Automation Exploits, Telecom Espionage, Prompt Poaching &amp; More</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-006-01</t>
+          <t>https://thehackernews.com/2026/01/weekly-recap-ai-automation-exploits.html</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -5940,27 +5940,27 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>How CrowdStrike&amp;rsquo;s Malware Analysis Agent Detects Malware at Machine Speed</t>
+          <t>n8n Supply Chain Attack Abuses Community Nodes to Steal OAuth Tokens</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/how-crowdstrike-detects-malware-at-machine-speed/</t>
+          <t>https://thehackernews.com/2026/01/n8n-supply-chain-attack-abuses.html</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -5972,59 +5972,59 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>AP News</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Phishing actors exploit complex routing and misconfigurations to spoof domains</t>
+          <t>As protests rage, Iran pulls the plug on contact with the world - AP News</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2026/01/06/phishing-actors-exploit-complex-routing-and-misconfigurations-to-spoof-domains/</t>
+          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxOaVNuSjZ2dkhWdnhHYjFLYUt5X2ppM29ZWk1iSnpSSnMxaGl3MUp3TFFUQWVlZEtJMFBjc05vRjVxMDBKTDR5OHJCbUd5dmF3UHFlSGNoZzlKZk9xR0ZockZneG0wcVpOTTVxc3V6UkFWeFhSV1JYWEFFcDFDcjI1bFY3OXZYREhtV3N3RTFEZHd6OFg5Wmk1U0Q5U0FpalJGLWNMM29SMEdKV0FreEcw?oc=5</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>ClickFix Campaign Serves Up Fake Blue Screen of Death</t>
+          <t>MuddyWater Launches RustyWater RAT via Spear-Phishing Across Middle East Sectors</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/clickfix-campaign-fake-blue-screen-of-death</t>
+          <t>https://thehackernews.com/2026/01/muddywater-launches-rustywater-rat-via.html</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6036,22 +6036,22 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Advisor360 Gets a Handle on Shadow AI via Automation</t>
+          <t>US military says it carried out strikes across Syria targeting Islamic State - Reuters</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/advisor360-gets-handle-on-shadow-ai-via-automation</t>
+          <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxNN2E5MFN1TTREVFVMQm5ZRU8tc2hCX3hqV3hhMXNWRWFhY1ZDVVE5cEJ3cGZXajkxQmxxaUMzWmg2LTBGbmE2OENaZGU4Vm9NcHM4V0N1OERtY0RSWVA2aUdTYkdpWEhER1lSLVpSSHVHZk84VENENlh4TXJERnJ4dkJVS2RlMGxjcEFQTEdTbUZuUlgzbW15UzFoX0xHbE0zdFNmZTdzUFMyYXc0cElLcnExYmlMcTY2SlBhd2diVUxjT1dHZTdMOGln?oc=5</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6068,7 +6068,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6078,17 +6078,17 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Startup Trends Shaking Up Browsers, SOC Automation, AppSec</t>
+          <t>Russia’s Fancy Bear APT Doubles Down on Global Secrets Theft</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/startup-trends-shaking-up-browsers-soc-automation-appsec</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/russian-apt-credentials-global-targets</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6100,27 +6100,27 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>VVS Discord Stealer Using Pyarmor for Obfuscation and Detection Evasion</t>
+          <t>Illicit Crypto Economy Surges Amid Increased Nation-State Activity</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/vvs-stealer/</t>
+          <t>https://www.darkreading.com/cyber-risk/illicit-crypto-economy-surges-nation-states</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6132,27 +6132,27 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>CISA Releases Two Industrial Control Systems Advisories</t>
+          <t>Deepfake Fraud Tools Are Lagging Behind Expectations</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/30/cisa-releases-two-industrial-control-systems-advisories</t>
+          <t>https://www.darkreading.com/remote-workforce/deepfake-fraud-tools-lag-expectations</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6164,27 +6164,27 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>WHILL Model C2 Electric Wheelchairs and Model F Power Chairs</t>
+          <t>FBI Warns North Korean Hackers Using Malicious QR Codes in Spear-Phishing</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-medical-advisories/icsma-25-364-01</t>
+          <t>https://thehackernews.com/2026/01/fbi-warns-north-korean-hackers-using.html</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6196,27 +6196,27 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>CISA Retires 10 Emergency Cybersecurity Directives Issued Between 2019 and 2024</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/29/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://thehackernews.com/2026/01/cisa-retires-10-emergency-cybersecurity.html</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6228,27 +6228,27 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Streamline Security Operations with Falcon for IT&amp;rsquo;s Turnkey Automations</t>
+          <t>Trend Micro Apex Central RCE Flaw Scores 9.8 CVSS in On-Prem Windows Versions</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/streamline-security-operations-falcon-for-it-automations/</t>
+          <t>https://thehackernews.com/2026/01/trend-micro-apex-central-rce-flaw.html</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6260,27 +6260,27 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>A power outage can turn dangerous fast. Here’s how to prepare - AP News</t>
+          <t>Russian APT28 Runs Credential-Stealing Campaign Targeting Energy and Policy Organizations</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOYWEwWVN1SmpIaWxleEJ5QkZYcnNhczJ0UHo5NEgwYnlXOGZFNURlTTU2MWkyMkpiWXlPLWJtdjItekppdW9iZnVKQ05OZEtaQ0ppTUJ4LTNkc2Fta3lXYlFPY2gzVWNhQ2U4dGtCcWZ6YlFlblNXMk9jUjJ3WThXaWNVVDlGUDJ0S2hTeFBySG50ajlOOTlCUnRONlJGdnlvelZESlA3cEdEUQ?oc=5</t>
+          <t>https://thehackernews.com/2026/01/russian-apt28-runs-credential-stealing.html</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6292,27 +6292,27 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>CISA Releases One Industrial Control Systems Advisory</t>
+          <t>China-Linked Hackers Exploit VMware ESXi Zero-Days to Escape Virtual Machines</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/23/cisa-releases-one-industrial-control-systems-advisory</t>
+          <t>https://thehackernews.com/2026/01/chinese-linked-hackers-exploit-vmware.html</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6324,7 +6324,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6334,17 +6334,17 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>NIST and CISA Release Draft Interagency Report on Protecting Tokens and Assertions from Tampering Theft and Misuse for Public Comment</t>
+          <t>Hitachi Energy Asset Suite</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/nist-and-cisa-release-draft-interagency-report-protecting-tokens-and-assertions-tampering-theft-and</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-008-01</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6356,27 +6356,27 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>CrowdStrike to Acquire SGNL to Secure Every Identity in the AI Era</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-sgnl/</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6388,27 +6388,27 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Here's What Cloud Security's Future Holds for the Year Ahead</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.darkreading.com/cloud-security/heres-cloud-security-holds-year-ahead</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>クラウド・サプライチェーン</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6420,27 +6420,27 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>CISA and Partners Release Update to Malware Analysis Report BRICKSTORM Backdoor</t>
+          <t>Maximum Severity HPE OneView Flaw Exploited in the Wild</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-and-partners-release-update-malware-analysis-report-brickstorm-backdoor</t>
+          <t>https://www.darkreading.com/vulnerabilities-threats/maximum-severity-hpe-oneview-flaw-exploited</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6452,27 +6452,27 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Inside CrowdStrike&amp;rsquo;s Science-Backed Approach to Building Expert SOC Agents</t>
+          <t>CrowdStrike to Buy SGNL to Expand Identity Security Capabilities</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/inside-crowdstrikes-science-backed-approach-to-building-soc-agents/</t>
+          <t>https://www.darkreading.com/endpoint-security/crowdsrike-buy-sgnl-expand-identity-security-capabilities</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6484,27 +6484,27 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>CISA Releases Nine Industrial Control Systems Advisories</t>
+          <t>Coolify Discloses 11 Critical Flaws Enabling Full Server Compromise on Self-Hosted Instances</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/18/cisa-releases-nine-industrial-control-systems-advisories</t>
+          <t>https://thehackernews.com/2026/01/coolify-discloses-11-critical-flaws.html</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6516,27 +6516,27 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Mitsubishi Electric Iconics Digital Solutions and Mitsubishi Electrics Products</t>
+          <t>Researchers Uncover NodeCordRAT Hidden in npm Bitcoin-Themed Packages</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-04</t>
+          <t>https://thehackernews.com/2026/01/researchers-uncover-nodecordrat-hidden.html</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6548,27 +6548,27 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Axis Communications Camera Station Pro, Camera Station, and Device Manager</t>
+          <t>Cisco Patches ISE Security Vulnerability After Public PoC Exploit Release</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-08</t>
+          <t>https://thehackernews.com/2026/01/cisco-patches-ise-security.html</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6580,27 +6580,27 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Rockwell Automation Micro820, Micro850, Micro870</t>
+          <t>The State of Trusted Open Source</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-07</t>
+          <t>https://thehackernews.com/2026/01/the-state-of-trusted-open-source.html</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6612,27 +6612,27 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>National Instruments LabView</t>
+          <t>ThreatsDay Bulletin: RustFS Flaw, Iranian Ops, WebUI RCE, Cloud Leaks, and 12 More Stories</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-03</t>
+          <t>https://thehackernews.com/2026/01/threatsday-bulletin-rustfs-flaw-iranian.html</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -6644,27 +6644,27 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Advantech WebAccess/SCADA</t>
+          <t>China-Linked UAT-7290 Targets Telecoms with Linux Malware and ORB Nodes</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-06</t>
+          <t>https://thehackernews.com/2026/01/china-linked-uat-7290-targets-telecoms.html</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -6676,27 +6676,27 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Siemens Interniche IP-Stack</t>
+          <t>WhatsApp Worm Spreads Astaroth Banking Trojan Across Brazil via Contact Auto-Messaging</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-05</t>
+          <t>https://thehackernews.com/2026/01/whatsapp-worm-spreads-astaroth-banking.html</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -6708,27 +6708,27 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Inductive Automation Ignition</t>
+          <t>CrowdStrike to buy identity security startup SGNL for $740 million to tackle AI threats - Reuters</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-01</t>
+          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxPWlhETmluVjRhN2hIZzFjdFdKcTkwUGJXeGJKeGxnekxmR1dYaE1SNEJwWGJzWFVWanl6bkRYcWlkQzBYNVJFY0pWWDh4bE4wcGw5Vk5IWDZEcklwS1o1VkE4aDVHOG9sd1QxaUNObDJFWVVUTnJVWXpibkNTM0FmRWhTQ3hHS0lFaFlBUVdvb2Y4aTNGbTkxbFVmXzJWZlVRczloTE8xR2M3M1NfeU1fcnVCOTlzbmY5R0lVOTVYaFM?oc=5</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -6740,7 +6740,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6750,17 +6750,17 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Schneider Electric EcoStruxure Foxboro DCS Advisor</t>
+          <t>CISA Adds Two Known Exploited Vulnerabilities to Catalog</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-02</t>
+          <t>https://www.cisa.gov/news-events/alerts/2026/01/07/cisa-adds-two-known-exploited-vulnerabilities-catalog</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -6772,27 +6772,27 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>CISA Adds Three Known Exploited Vulnerabilities to Catalog</t>
+          <t>Explore the latest Microsoft Incident Response proactive services for enhanced resilience</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/17/cisa-adds-three-known-exploited-vulnerabilities-catalog</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/07/explore-the-latest-microsoft-incident-response-proactive-services-for-enhanced-resilience/</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -6804,22 +6804,22 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Access Fabric: A modern approach to identity and network access</t>
+          <t>Lack of MFA Is Common Thread in Vast Cloud Credential Heist</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2025/12/17/access-fabric-a-modern-approach-to-identity-and-network-access/</t>
+          <t>https://www.darkreading.com/cloud-security/lack-mfa-common-thread-vast-cloud-credential-heist</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -6836,22 +6836,22 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Mitsubishi Electric GT Designer3</t>
+          <t>DDoSia Powers Affiliate-Driven Hacktivist Attacks</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-04</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/ddosia-powers-volunteer-driven-hacktivist-attacks</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -6868,27 +6868,27 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Hitachi Energy AFS, AFR and AFF Series</t>
+          <t>Cyberattacks Likely Part of Military Operation in Venezuela</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-03</t>
+          <t>https://www.darkreading.com/cybersecurity-operations/cyberattacks-part-military-operation-venezuela</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -6900,27 +6900,27 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Johnson Controls PowerG, IQPanel and IQHub</t>
+          <t>Phishers Exploit Office 365 Users Who Let Their Guard Down</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-02</t>
+          <t>https://www.darkreading.com/cloud-security/phishers-exploit-office-365-users-guard-down</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -6932,22 +6932,22 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Attackers Exploit Zero-Day in End-of-Life D-Link Routers</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/16/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/attackers-exploit-zero-day-end-of-life-d-link-routers</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -6964,27 +6964,27 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Microsoft named an overall leader in KuppingerCole Leadership Compass for Generative AI Defense</t>
+          <t>Columbia Weather Systems MicroServer</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/blog/microsoft-security-blog/microsoft-named-an-overall-leader-in-kuppingercole-leadership-compass-for-genera/4478093</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-006-01</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -6996,27 +6996,27 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Defending against the CVE-2025-55182 (React2Shell) vulnerability in React Server Components</t>
+          <t>How CrowdStrike&amp;rsquo;s Malware Analysis Agent Detects Malware at Machine Speed</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2025/12/15/defending-against-the-cve-2025-55182-react2shell-vulnerability-in-react-server-components/</t>
+          <t>https://www.crowdstrike.com/en-us/blog/how-crowdstrike-detects-malware-at-machine-speed/</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7028,22 +7028,22 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Exploitation of Critical Vulnerability in React Server Components (Updated December 12)</t>
+          <t>Phishing actors exploit complex routing and misconfigurations to spoof domains</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/cve-2025-55182-react-and-cve-2025-66478-next/</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/06/phishing-actors-exploit-complex-routing-and-misconfigurations-to-spoof-domains/</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -7060,27 +7060,27 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Hamas-Affiliated Ashen Lepus Targets Middle Eastern Diplomatic Entities With New AshTag Malware Suite</t>
+          <t>ClickFix Campaign Serves Up Fake Blue Screen of Death</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/hamas-affiliate-ashen-lepus-uses-new-malware-suite-ashtag/</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/clickfix-campaign-fake-blue-screen-of-death</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -7092,27 +7092,27 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Imposter for hire: How fake people can gain very real access</t>
+          <t>Advisor360 Gets a Handle on Shadow AI via Automation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2025/12/11/imposter-for-hire-how-fake-people-can-gain-very-real-access/</t>
+          <t>https://www.darkreading.com/remote-workforce/advisor360-gets-handle-on-shadow-ai-via-automation</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -7124,27 +7124,27 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>01flip: Multi-Platform Ransomware Written in Rust</t>
+          <t>Startup Trends Shaking Up Browsers, SOC Automation, AppSec</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/new-ransomware-01flip-written-in-rust/</t>
+          <t>https://www.darkreading.com/endpoint-security/startup-trends-shaking-up-browsers-soc-automation-appsec</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ランサムウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -7156,27 +7156,27 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>From awareness to action: Building a security-first culture for the agentic AI era</t>
+          <t>VVS Discord Stealer Using Pyarmor for Obfuscation and Detection Evasion</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/microsoft-cloud/blog/2025/12/10/from-awareness-to-action-building-a-security-first-culture-for-the-agentic-ai-era/</t>
+          <t>https://unit42.paloaltonetworks.com/vvs-stealer/</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -7188,27 +7188,27 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Further Hardening Android GPUs</t>
+          <t>CISA Releases Two Industrial Control Systems Advisories</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/12/further-hardening-android-gpus.html</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/30/cisa-releases-two-industrial-control-systems-advisories</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -7220,27 +7220,27 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Android expands pilot for in-call scam protection for financial apps</t>
+          <t>WHILL Model C2 Electric Wheelchairs and Model F Power Chairs</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/12/android-expands-pilot-in-call-scam-protection-financial-apps.html</t>
+          <t>https://www.cisa.gov/news-events/ics-medical-advisories/icsma-25-364-01</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -7252,27 +7252,27 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>The Golden Scale: 'Tis the Season for Unwanted Gifts</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/new-shinysp1d3r-ransomware/</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/29/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -7284,27 +7284,27 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>"Shai-Hulud" Worm Compromises npm Ecosystem in Supply Chain Attack (Updated November 26)</t>
+          <t>Streamline Security Operations with Falcon for IT&amp;rsquo;s Turnkey Automations</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/npm-supply-chain-attack/</t>
+          <t>https://www.crowdstrike.com/en-us/blog/streamline-security-operations-falcon-for-it-automations/</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>クラウド・サプライチェーン</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -7316,27 +7316,27 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>AP News</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Android Quick Share Support for AirDrop: A Secure Approach to Cross-Platform File Sharing</t>
+          <t>A power outage can turn dangerous fast. Here’s how to prepare - AP News</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/11/android-quick-share-support-for-airdrop-security.html</t>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOYWEwWVN1SmpIaWxleEJ5QkZYcnNhczJ0UHo5NEgwYnlXOGZFNURlTTU2MWkyMkpiWXlPLWJtdjItekppdW9iZnVKQ05OZEtaQ0ppTUJ4LTNkc2Fta3lXYlFPY2gzVWNhQ2U4dGtCcWZ6YlFlblNXMk9jUjJ3WThXaWNVVDlGUDJ0S2hTeFBySG50ajlOOTlCUnRONlJGdnlvelZESlA3cEdEUQ?oc=5</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -7348,27 +7348,27 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Rust in Android: move fast and fix things</t>
+          <t>CISA Releases One Industrial Control Systems Advisory</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/11/rust-in-android-move-fast-fix-things.html</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/23/cisa-releases-one-industrial-control-systems-advisory</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -7380,27 +7380,27 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>How Android provides the most effective protection to keep you safe from mobile scams</t>
+          <t>NIST and CISA Release Draft Interagency Report on Protecting Tokens and Assertions from Tampering Theft and Misuse for Public Comment</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/10/how-android-protects-you-from-scams.html</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/nist-and-cisa-release-draft-interagency-report-protecting-tokens-and-assertions-tampering-theft-and</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -7412,27 +7412,27 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Microsoft: Russia, China increasingly using AI to escalate cyberattacks on the US - AP News</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxOREVSR1U5TUI4M1dZcE91Uk1FUlRPVm1YSk1tMXZqZXVTNUV0aF8yOFB3YnhiSWdiallOUndHai1BSzBqMEFzb3U4MVBvbnFsbS10MUhKQVJYQ1JZajAtODkxbzBEN2Z1a0FTUnZOekkyXy1jRjU4MzlYTkh5cFFKUndUZnN1bTJIVFpVTUxLWHZJNTZHT0ZkeGVmSElmQkI4QXBhd0JpZzJrenU3TGc?oc=5</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -7444,27 +7444,27 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Accelerating adoption of AI for cybersecurity at DEF CON 33</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/09/accelerating-adoption-of-ai-for.html</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -7476,22 +7476,22 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>How Pixel and Android are bringing a new level of trust to your images with C2PA Content Credentials</t>
+          <t>CISA and Partners Release Update to Malware Analysis Report BRICKSTORM Backdoor</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/09/pixel-android-trusted-images-c2pa-content-credentials.html</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-and-partners-release-update-malware-analysis-report-brickstorm-backdoor</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -7508,27 +7508,27 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Android’s pKVM Becomes First Globally Certified Software to Achieve Prestigious SESIP Level 5 Security Certification</t>
+          <t>Inside CrowdStrike&amp;rsquo;s Science-Backed Approach to Building Expert SOC Agents</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/08/Android-pKVM-Certified-SESIP-Level-5.html</t>
+          <t>https://www.crowdstrike.com/en-us/blog/inside-crowdstrikes-science-backed-approach-to-building-soc-agents/</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -7540,27 +7540,27 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Army secretary directs West Point to rescind appointment of Biden-era cybersecurity director - AP News</t>
+          <t>CISA Releases Nine Industrial Control Systems Advisories</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxNdVB0N2dnVF9IeEtXcFRjc0hXZEZad2pudUNuSGRacEJMSDJLOUdLNDFuODBVbUpfc1RDay04cHpPdHQ1M3JQTGRvLUo4NEdHUDFBZDRVdjdxZ0ZpNXFyNXZLOHhiZVhOX1o1VnNlRE1XbWhFc1VNWlBaem5LSUpFR2d6WURMbWhodGdfZEx1NDFQV05wRUZrWWlqTEI0czA?oc=5</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/18/cisa-releases-nine-industrial-control-systems-advisories</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -7572,27 +7572,27 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Introducing OSS Rebuild: Open Source, Rebuilt to Last</t>
+          <t>Mitsubishi Electric Iconics Digital Solutions and Mitsubishi Electrics Products</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/07/introducing-oss-rebuild-open-source.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-04</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -7604,27 +7604,27 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>The Czech Republic bans DeepSeek in state administration over cybersecurity concerns - AP News</t>
+          <t>Axis Communications Camera Station Pro, Camera Station, and Device Manager</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxPZHhUOFhYS0FhbHVLVEhLd213ODdQdU56eG0yQkw3N3lqRzMxWTNnLVdHZF9URFAzazNRUFVTeFVfanIxU2FFOFhuZEdSLW43dWZqQnBfOGZnQ0xpTThTeW84RE9wZ0UtUjZSNElZMFV6cF9PWFB0WFI0OVRmN0hUVmhMTHg2SnZKZHhCMA?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-08</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -7636,27 +7636,27 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Advancing Protection in Chrome on Android</t>
+          <t>Rockwell Automation Micro820, Micro850, Micro870</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/07/advancing-protection-in-chrome-on.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-07</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -7668,27 +7668,27 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Iranian-backed hackers go to work after US strikes - AP News</t>
+          <t>National Instruments LabView</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPX1RpNnA2Q1RHUS1RUXhINGkwTmhrZnN1QWxlREQ1WXBkblFEVnZqVVppRzhHeGxiWGFUM2ZXc2JVUW1JMkQzcFJDTGMydlRRS2Z5Vnd4YU9HY1JGWU01bVZfMjk1dzBBTG1yeGhDOHduc2lEdjBjcTNZQ3NGaDkwaVYxUHVmMmM1anNFXzlOR3YxSG0zR3hF?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-03</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -7700,27 +7700,27 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Dutch government says pro-Russian hackers target municipalities linked to this week's NATO summit - AP News</t>
+          <t>Advantech WebAccess/SCADA</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQNS1FNE9zWXZEbl9qUjBIdmhLWWFsZS1iRXQ2bnZPZlhSZUJNMm1pZ1VTcnM2Y1gycjZveTNyRk9RYVRETWd5WlVpNzA0VGJOZmN4SnlacURmNXY5WXBxejJNWmhtRHl1ZEdZTDZab2lrWDV3aVBBVkRXZ1RIV00ydVlaWWJlNnV1blgtUWJWc3NmTG1yT1I0c05tTHZtYk5kanQzX3dsVFVIYS01T0E?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-06</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -7732,27 +7732,27 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Mitigating prompt injection attacks with a layered defense strategy</t>
+          <t>Siemens Interniche IP-Stack</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/06/mitigating-prompt-injection-attacks.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-05</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -7764,27 +7764,27 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>What’s New in Android Security and Privacy in 2025</t>
+          <t>Inductive Automation Ignition</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/05/whats-new-in-android-security-privacy-2025.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-01</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -7796,27 +7796,27 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>New security requirements adopted by HTTPS certificate industry</t>
+          <t>Schneider Electric EcoStruxure Foxboro DCS Advisor</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/03/new-security-requirements-adopted-by.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-02</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -7828,27 +7828,27 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Google to buy cybersecurity firm Wiz for $32 billion in the biggest deal in company’s history - AP News</t>
+          <t>CISA Adds Three Known Exploited Vulnerabilities to Catalog</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxQVENFcGdMVURrVk9GZFVXN0NmOXZfZlZMVW9GTlRkX3dERklXeFEzcndndDAtZjN1dmRNZGZ6NFdCdTd4Ym43TS1kZ25NdkZrR21QUlpWbnlLVjRUSGNZZXJhczdWd0NtRmhMT2dXSExyaFdjeWZVOHVxSDd2V3ZPRURHS0oya1QzNmtRWU5GZ202Sktv?oc=5</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/17/cisa-adds-three-known-exploited-vulnerabilities-catalog</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -7860,27 +7860,27 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Announcing OSV-Scanner V2: Vulnerability scanner and remediation tool for open source</t>
+          <t>Access Fabric: A modern approach to identity and network access</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/03/announcing-osv-scanner-v2-vulnerability.html</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2025/12/17/access-fabric-a-modern-approach-to-identity-and-network-access/</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -7892,27 +7892,27 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Trump administration halts funding for two cybersecurity efforts, including one for elections - AP News</t>
+          <t>Mitsubishi Electric GT Designer3</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxQeXJVUGp0Y1F2U196TVZmMjJ6QlZ5MzRRVU83N19yaXR5eC1GemYyUlcxWjYtYTNoOGw5dGNkRG5BM3cwTGtTSWx3ZkFhY0lnRzZWLXdtY0FobjZOZG1tM0RUWng2MEVqY3dIOXdrRmoxNk9CeTVPX1phdkszUVNHMXNXVmdBQzZ4QURFVy01dWRtNHdLaHFEY1E2NmNtWWIwdFE?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-04</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -7924,22 +7924,22 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>US cyber agency puts election security staffers who worked with the states on leave - AP News</t>
+          <t>Hitachi Energy AFS, AFR and AFF Series</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQSjZEWnc5TmtXcVVUMVhmZTl3UjRHUmE1ZG16d0JoaEpEdEpJdGQxY2dPZ0pQQ2Zwc0dKZzAwem5SVG53eENzMHlPX0JTY0xiWVNwUWNPZ3R2ZVQ1dlM5ZzBQYVlJMmpvM3hMSU5LUXJYeXpEOFBkVllLN1RRVURkejM0My1pRjlJejhaRkd6bThUa2xMeHBOY3JQQkhwZ25VVFhWNXkxbVAtUVlE?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-03</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -7949,34 +7949,34 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-14T07:52:14Z</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>US cybersecurity agency's future role in elections remains murky under the Trump administration - AP News</t>
+          <t>Johnson Controls PowerG, IQPanel and IQHub</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPMnRHWXk2WkZpWVRaZ2h5U3h0cWR1WlF6a3RnSGdBWE5pcTRITWxhbE51anlTZm00WlBsVW9xenlQMzQyd3VqM3Jjdm04LVhrakpzLW5HSlRuTFBjV2ZNSTU0b3ZUUERFX3o1Q0lodzI4XzNjdVhKNEVIUGduZ1NFNHVwYVIyTEp1VUg5cmhEZkQ4Zk40NkN6Rmc5eUFnTmZQVWdPbnJkYTJRQQ?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-02</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -7988,27 +7988,27 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Delta sues cybersecurity firm CrowdStrike over tech outage that canceled flights - AP News</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxOWWhiMEtqTE91UDVReXk4cndIVW82MzZOb3o3ZnVqZG9fT29vSnJfeXU1cjZFMk9aSkY5b3lIcmw3LTRHZThZenE1SEtLV2F2dW9JbU5KdnBNTklQZS0yS0NyVU9lZW1YWHpiSXA3Y2NkVTB2QlZEOEJhckNJY3R4VFBUcDVSZzcwNEprbWwwS21CeVF3aHJlWkVaci1TbFRtMm5V?oc=5</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/16/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -8020,27 +8020,27 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Cybersecurity head says there's no chance a foreign adversary can change US election results - AP News</t>
+          <t>Microsoft named an overall leader in KuppingerCole Leadership Compass for Generative AI Defense</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxPdV9seHI5VHlIQ1R5TTVkdXo2OFdJZmZRcHZRZ29GQm1QYTljdGJSbmRwcDQ1RmxkSF9XZEsyaFZ5ZHNqRTJvMmRwblQxNkFLc2xiaTAtS2hLeDFLV2tpaExYVHNRSGlRRjBGTXVzbHFMS2haSTNZak9INXBqODJQd1hIUlAxLXZ4Y3dWaDJmV1JLMFpCekxkUVBWR192TUVmVVdKSGhaY0JOUHhSWnc?oc=5</t>
+          <t>https://techcommunity.microsoft.com/blog/microsoft-security-blog/microsoft-named-an-overall-leader-in-kuppingercole-leadership-compass-for-genera/4478093</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -8052,22 +8052,22 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Cisco cuts thousands of jobs, 7% of workforce, as it shifts focus to AI, cybersecurity - AP News</t>
+          <t>Defending against the CVE-2025-55182 (React2Shell) vulnerability in React Server Components</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxOcXN6clV0d2xaeDQ1aTNpdFhRaFNldVVzQ25LZHI3UGlMVUMxYmxLcklpbmFpRlRraHd3TDkwRW5YODM0SUlJOTNQM0dTTVFoZ0U3Zk90UnFESVl0dklxTWFuTEhoajZHRTVTeHhoMnNiVUx4VGlwOVBaMDR1Nm1GcW5OQUJzbk1uTkVOeG56aVpuWER4a3kzYw?oc=5</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2025/12/15/defending-against-the-cve-2025-55182-react2shell-vulnerability-in-react-server-components/</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -8084,27 +8084,27 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>How a faulty CrowdStrike update crashed computers around the world - AP News</t>
+          <t>Exploitation of Critical Vulnerability in React Server Components (Updated December 12)</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQaDY4QjM5OFlLTzk2aW82YUN6eWh6Z1hlbjB4S3RiLThsX1cxZkE4Z19ia3c2SmEyb0RZamlrU3dDaXhIeVpFYWFseF9vV0pQbkRLOWM5eDFXdE9HOWgyU2ljczI4MG5vclpsS3l4QWpCWkpqOENuWXd0cUZLTVgtaWptWUhNeVZCd3VaREZNV3diVUF0a3FpZ193ZkprTUdWUGYyZTRn?oc=5</t>
+          <t>https://unit42.paloaltonetworks.com/cve-2025-55182-react-and-cve-2025-66478-next/</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -8116,22 +8116,22 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Multiple threats to election systems prompt US cybersecurity agency to boost cooperation with states - AP News</t>
+          <t>Hamas-Affiliated Ashen Lepus Targets Middle Eastern Diplomatic Entities With New AshTag Malware Suite</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNSkk1Wm1OWDVaRFlNQ2FINkNzWGVHMkJXSW1qX0FlUTJucDJyTXQ2RWx6WHZjLXdfX1pZSmRsVXhFZFBjNm5iTHVYTVdQX2ZvbC1ZUlZTU0Fid1B2SnRQYzRJZ3JnVkUzbGJNZlBnLWtwLTNSNV92Y2pEd3VsU3dDS0dPaWZScjM5Z1c4Um9icDdrZEhfOU54ZDNtU1JJSGxjYU5VQ2ln?oc=5</t>
+          <t>https://unit42.paloaltonetworks.com/hamas-affiliate-ashen-lepus-uses-new-malware-suite-ashtag/</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -8148,27 +8148,27 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Cyberattack on Pennsylvania courts didn’t appear to compromise data, officials say - AP News</t>
+          <t>Imposter for hire: How fake people can gain very real access</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxOc2l0X3V5WFhxZUR5YWdoVUZzdThqQWhfNjRKNzlNcXhFMXRoX1VzQk9TTnBuR1lOaVBSN1g4Y1BmNHRjTVVHb3VkaWg5OWpkdnRxeW5aQ0puVndMMDdXMk41RG1sa0xvZzhuekRtZnEyTG51VzZRWi1MSlVfSDRfdENhSXNvM3ZPQS1oWlA2UDBta0xhWDJwdE5NQ04xREJnVllXdTVpLTc2NUF3dHZZYWJqbw?oc=5</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2025/12/11/imposter-for-hire-how-fake-people-can-gain-very-real-access/</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -8180,54 +8180,54 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>States and Congress wrestle with cybersecurity after Iran attacks small town water utilities - AP News</t>
+          <t>01flip: Multi-Platform Ransomware Written in Rust</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMingFBVV95cUxNaTluS0tuTW1ZZDJzWW1xUEJQTGZ6eW44em9hYVR5WFotT0NNbkRyLTVlZ0JwUklCc0FMVWtHWVktVVlGdVRDUUdDUVFIXzczMVBCVWFsZ2RPaUpOSE1QMUwxWXBNMk1VZ2VKTHVVU3I1X2hIdHNPNFh4VjM0OEZoVENnYVBoRW9LOHhkTnpTN29scmlTb3A1R1c4Y0plQQ?oc=5</t>
+          <t>https://unit42.paloaltonetworks.com/new-ransomware-01flip-written-in-rust/</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-14T07:52:14Z</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Top White House cyber aide says recent Iran hack on water system is call to tighten cybersecurity - AP News</t>
+          <t>From awareness to action: Building a security-first culture for the agentic AI era</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxOUERwUzRFam9qUXg4N29iT0xPVFNGNFQ0dE5aeXY1S01rSVE2YkdlWnZNLXl5THFtOUlXbVRVWF9ldFZqOHBBaktMTUV2QmVOck9mdkpMOEdyMGRMbUYwcmFQVHNhSkVGclpiMEZncU5zbUU1OWxFajVtXy14YmdLNms1dEViMHFTSkxfSkRkN01NejZWMXgxWk55R0dtZFB2YVN5cW5vdzRPZGJnemI0?oc=5</t>
+          <t>https://www.microsoft.com/en-us/microsoft-cloud/blog/2025/12/10/from-awareness-to-action-building-a-security-first-culture-for-the-agentic-ai-era/</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -8244,30 +8244,1118 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Further Hardening Android GPUs</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/12/further-hardening-android-gpus.html</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Android expands pilot for in-call scam protection for financial apps</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/12/android-expands-pilot-in-call-scam-protection-financial-apps.html</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Palo Alto Unit 42</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>The Golden Scale: 'Tis the Season for Unwanted Gifts</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>https://unit42.paloaltonetworks.com/new-shinysp1d3r-ransomware/</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Palo Alto Unit 42</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>"Shai-Hulud" Worm Compromises npm Ecosystem in Supply Chain Attack (Updated November 26)</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>https://unit42.paloaltonetworks.com/npm-supply-chain-attack/</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>クラウド・サプライチェーン</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Android Quick Share Support for AirDrop: A Secure Approach to Cross-Platform File Sharing</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/11/android-quick-share-support-for-airdrop-security.html</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Rust in Android: move fast and fix things</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/11/rust-in-android-move-fast-fix-things.html</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>How Android provides the most effective protection to keep you safe from mobile scams</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/10/how-android-protects-you-from-scams.html</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Microsoft: Russia, China increasingly using AI to escalate cyberattacks on the US - AP News</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxOREVSR1U5TUI4M1dZcE91Uk1FUlRPVm1YSk1tMXZqZXVTNUV0aF8yOFB3YnhiSWdiallOUndHai1BSzBqMEFzb3U4MVBvbnFsbS10MUhKQVJYQ1JZajAtODkxbzBEN2Z1a0FTUnZOekkyXy1jRjU4MzlYTkh5cFFKUndUZnN1bTJIVFpVTUxLWHZJNTZHT0ZkeGVmSElmQkI4QXBhd0JpZzJrenU3TGc?oc=5</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Accelerating adoption of AI for cybersecurity at DEF CON 33</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/09/accelerating-adoption-of-ai-for.html</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>How Pixel and Android are bringing a new level of trust to your images with C2PA Content Credentials</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/09/pixel-android-trusted-images-c2pa-content-credentials.html</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Android’s pKVM Becomes First Globally Certified Software to Achieve Prestigious SESIP Level 5 Security Certification</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/08/Android-pKVM-Certified-SESIP-Level-5.html</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>フィッシング</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Army secretary directs West Point to rescind appointment of Biden-era cybersecurity director - AP News</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxNdVB0N2dnVF9IeEtXcFRjc0hXZEZad2pudUNuSGRacEJMSDJLOUdLNDFuODBVbUpfc1RDay04cHpPdHQ1M3JQTGRvLUo4NEdHUDFBZDRVdjdxZ0ZpNXFyNXZLOHhiZVhOX1o1VnNlRE1XbWhFc1VNWlBaem5LSUpFR2d6WURMbWhodGdfZEx1NDFQV05wRUZrWWlqTEI0czA?oc=5</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Introducing OSS Rebuild: Open Source, Rebuilt to Last</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/07/introducing-oss-rebuild-open-source.html</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>脆弱性・CVE</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>The Czech Republic bans DeepSeek in state administration over cybersecurity concerns - AP News</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxPZHhUOFhYS0FhbHVLVEhLd213ODdQdU56eG0yQkw3N3lqRzMxWTNnLVdHZF9URFAzazNRUFVTeFVfanIxU2FFOFhuZEdSLW43dWZqQnBfOGZnQ0xpTThTeW84RE9wZ0UtUjZSNElZMFV6cF9PWFB0WFI0OVRmN0hUVmhMTHg2SnZKZHhCMA?oc=5</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Advancing Protection in Chrome on Android</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/07/advancing-protection-in-chrome-on.html</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Iranian-backed hackers go to work after US strikes - AP News</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPX1RpNnA2Q1RHUS1RUXhINGkwTmhrZnN1QWxlREQ1WXBkblFEVnZqVVppRzhHeGxiWGFUM2ZXc2JVUW1JMkQzcFJDTGMydlRRS2Z5Vnd4YU9HY1JGWU01bVZfMjk1dzBBTG1yeGhDOHduc2lEdjBjcTNZQ3NGaDkwaVYxUHVmMmM1anNFXzlOR3YxSG0zR3hF?oc=5</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Dutch government says pro-Russian hackers target municipalities linked to this week's NATO summit - AP News</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQNS1FNE9zWXZEbl9qUjBIdmhLWWFsZS1iRXQ2bnZPZlhSZUJNMm1pZ1VTcnM2Y1gycjZveTNyRk9RYVRETWd5WlVpNzA0VGJOZmN4SnlacURmNXY5WXBxejJNWmhtRHl1ZEdZTDZab2lrWDV3aVBBVkRXZ1RIV00ydVlaWWJlNnV1blgtUWJWc3NmTG1yT1I0c05tTHZtYk5kanQzX3dsVFVIYS01T0E?oc=5</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>APT・国家系</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Mitigating prompt injection attacks with a layered defense strategy</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/06/mitigating-prompt-injection-attacks.html</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>What’s New in Android Security and Privacy in 2025</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/05/whats-new-in-android-security-privacy-2025.html</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>New security requirements adopted by HTTPS certificate industry</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/03/new-security-requirements-adopted-by.html</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Google to buy cybersecurity firm Wiz for $32 billion in the biggest deal in company’s history - AP News</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxQVENFcGdMVURrVk9GZFVXN0NmOXZfZlZMVW9GTlRkX3dERklXeFEzcndndDAtZjN1dmRNZGZ6NFdCdTd4Ym43TS1kZ25NdkZrR21QUlpWbnlLVjRUSGNZZXJhczdWd0NtRmhMT2dXSExyaFdjeWZVOHVxSDd2V3ZPRURHS0oya1QzNmtRWU5GZ202Sktv?oc=5</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Google Security Blog</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Announcing OSV-Scanner V2: Vulnerability scanner and remediation tool for open source</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>http://security.googleblog.com/2025/03/announcing-osv-scanner-v2-vulnerability.html</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>脆弱性・CVE</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Trump administration halts funding for two cybersecurity efforts, including one for elections - AP News</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxQeXJVUGp0Y1F2U196TVZmMjJ6QlZ5MzRRVU83N19yaXR5eC1GemYyUlcxWjYtYTNoOGw5dGNkRG5BM3cwTGtTSWx3ZkFhY0lnRzZWLXdtY0FobjZOZG1tM0RUWng2MEVqY3dIOXdrRmoxNk9CeTVPX1phdkszUVNHMXNXVmdBQzZ4QURFVy01dWRtNHdLaHFEY1E2NmNtWWIwdFE?oc=5</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>US cyber agency puts election security staffers who worked with the states on leave - AP News</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQSjZEWnc5TmtXcVVUMVhmZTl3UjRHUmE1ZG16d0JoaEpEdEpJdGQxY2dPZ0pQQ2Zwc0dKZzAwem5SVG53eENzMHlPX0JTY0xiWVNwUWNPZ3R2ZVQ1dlM5ZzBQYVlJMmpvM3hMSU5LUXJYeXpEOFBkVllLN1RRVURkejM0My1pRjlJejhaRkd6bThUa2xMeHBOY3JQQkhwZ25VVFhWNXkxbVAtUVlE?oc=5</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>2026-01-15T06:44:44Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>US cybersecurity agency's future role in elections remains murky under the Trump administration - AP News</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPMnRHWXk2WkZpWVRaZ2h5U3h0cWR1WlF6a3RnSGdBWE5pcTRITWxhbE51anlTZm00WlBsVW9xenlQMzQyd3VqM3Jjdm04LVhrakpzLW5HSlRuTFBjV2ZNSTU0b3ZUUERFX3o1Q0lodzI4XzNjdVhKNEVIUGduZ1NFNHVwYVIyTEp1VUg5cmhEZkQ4Zk40NkN6Rmc5eUFnTmZQVWdPbnJkYTJRQQ?oc=5</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Delta sues cybersecurity firm CrowdStrike over tech outage that canceled flights - AP News</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxOWWhiMEtqTE91UDVReXk4cndIVW82MzZOb3o3ZnVqZG9fT29vSnJfeXU1cjZFMk9aSkY5b3lIcmw3LTRHZThZenE1SEtLV2F2dW9JbU5KdnBNTklQZS0yS0NyVU9lZW1YWHpiSXA3Y2NkVTB2QlZEOEJhckNJY3R4VFBUcDVSZzcwNEprbWwwS21CeVF3aHJlWkVaci1TbFRtMm5V?oc=5</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Cybersecurity head says there's no chance a foreign adversary can change US election results - AP News</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxPdV9seHI5VHlIQ1R5TTVkdXo2OFdJZmZRcHZRZ29GQm1QYTljdGJSbmRwcDQ1RmxkSF9XZEsyaFZ5ZHNqRTJvMmRwblQxNkFLc2xiaTAtS2hLeDFLV2tpaExYVHNRSGlRRjBGTXVzbHFMS2haSTNZak9INXBqODJQd1hIUlAxLXZ4Y3dWaDJmV1JLMFpCekxkUVBWR192TUVmVVdKSGhaY0JOUHhSWnc?oc=5</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>CrowdStrike executive apologizes to Congress for July global tech outage - AP News</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPazZac1hqU1pOQ1FUanRrRVE2cGt3T3BYZktPY3Vfblc5cERZWUhTckxuMFAxQ2NlSEphbU1XdUlFNUZvZXBMb2tjUG1ObEtSWU80MTl3MVlrb2hmT3RVa0NaRzFPeFE0MGptTzNkTVVhZ1NXSkFXQnJPaUlUcm9DVDNOX01oT0xtR0tvYXkyNlgzUFFoM08wWkcwb2MtcUVJZkJkZjhsNXM?oc=5</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>2026-01-17T06:40:07Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Cisco cuts thousands of jobs, 7% of workforce, as it shifts focus to AI, cybersecurity - AP News</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxOcXN6clV0d2xaeDQ1aTNpdFhRaFNldVVzQ25LZHI3UGlMVUMxYmxLcklpbmFpRlRraHd3TDkwRW5YODM0SUlJOTNQM0dTTVFoZ0U3Zk90UnFESVl0dklxTWFuTEhoajZHRTVTeHhoMnNiVUx4VGlwOVBaMDR1Nm1GcW5OQUJzbk1uTkVOeG56aVpuWER4a3kzYw?oc=5</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>脆弱性・CVE</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>How a faulty CrowdStrike update crashed computers around the world - AP News</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQaDY4QjM5OFlLTzk2aW82YUN6eWh6Z1hlbjB4S3RiLThsX1cxZkE4Z19ia3c2SmEyb0RZamlrU3dDaXhIeVpFYWFseF9vV0pQbkRLOWM5eDFXdE9HOWgyU2ljczI4MG5vclpsS3l4QWpCWkpqOENuWXd0cUZLTVgtaWptWUhNeVZCd3VaREZNV3diVUF0a3FpZ193ZkprTUdWUGYyZTRn?oc=5</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Multiple threats to election systems prompt US cybersecurity agency to boost cooperation with states - AP News</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNSkk1Wm1OWDVaRFlNQ2FINkNzWGVHMkJXSW1qX0FlUTJucDJyTXQ2RWx6WHZjLXdfX1pZSmRsVXhFZFBjNm5iTHVYTVdQX2ZvbC1ZUlZTU0Fid1B2SnRQYzRJZ3JnVkUzbGJNZlBnLWtwLTNSNV92Y2pEd3VsU3dDS0dPaWZScjM5Z1c4Um9icDdrZEhfOU54ZDNtU1JJSGxjYU5VQ2ln?oc=5</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Cyberattack on Pennsylvania courts didn’t appear to compromise data, officials say - AP News</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxOc2l0X3V5WFhxZUR5YWdoVUZzdThqQWhfNjRKNzlNcXhFMXRoX1VzQk9TTnBuR1lOaVBSN1g4Y1BmNHRjTVVHb3VkaWg5OWpkdnRxeW5aQ0puVndMMDdXMk41RG1sa0xvZzhuekRtZnEyTG51VzZRWi1MSlVfSDRfdENhSXNvM3ZPQS1oWlA2UDBta0xhWDJwdE5NQ04xREJnVllXdTVpLTc2NUF3dHZZYWJqbw?oc=5</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>States and Congress wrestle with cybersecurity after Iran attacks small town water utilities - AP News</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMingFBVV95cUxNaTluS0tuTW1ZZDJzWW1xUEJQTGZ6eW44em9hYVR5WFotT0NNbkRyLTVlZ0JwUklCc0FMVWtHWVktVVlGdVRDUUdDUVFIXzczMVBCVWFsZ2RPaUpOSE1QMUwxWXBNMk1VZ2VKTHVVU3I1X2hIdHNPNFh4VjM0OEZoVENnYVBoRW9LOHhkTnpTN29scmlTb3A1R1c4Y0plQQ?oc=5</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>2026-01-16T06:45:11Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Top White House cyber aide says recent Iran hack on water system is call to tighten cybersecurity - AP News</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxOUERwUzRFam9qUXg4N29iT0xPVFNGNFQ0dE5aeXY1S01rSVE2YkdlWnZNLXl5THFtOUlXbVRVWF9ldFZqOHBBaktMTUV2QmVOck9mdkpMOEdyMGRMbUYwcmFQVHNhSkVGclpiMEZncU5zbUU1OWxFajVtXy14YmdLNms1dEViMHFTSkxfSkRkN01NejZWMXgxWk55R0dtZFB2YVN5cW5vdzRPZGJnemI0?oc=5</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B279" t="inlineStr">
         <is>
           <t>AP News</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="C279" t="inlineStr">
         <is>
           <t>Here are the countries that have bans on TikTok - AP News</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr">
+      <c r="D279" t="inlineStr">
         <is>
           <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNVHY1cFpobU4wMkdQdXVMejZKbHpTUjZiekdUdnBHMVp3QXJXVG9kWUV0NTlVQXV5anBUOWtud0xNeHl1SWcxOFJrOGluakVSbDN5bDlrSFplSjFScVRHVjhUTW1DQ3FISEhpc0VyVE9MTUN6MF81NVRLeUxnYlNZMFpvbGdpeDhvcUZfbzBTNnIzUlN4QnVuM0JHR0d6YWh2U0hxdDlPRlFITmtP?oc=5</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
+      <c r="E279" t="inlineStr">
         <is>
           <t>その他</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
+      <c r="F279" t="inlineStr">
         <is>
           <t>2026-01-16T06:45:11Z</t>
         </is>

--- a/docs/exports/articles_3y.xlsx
+++ b/docs/exports/articles_3y.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F279"/>
+  <dimension ref="A1:F291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,22 +468,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Anatomy of an Attack: The Payroll Pirates and the Power of Social Engineering</t>
+          <t>Anti-ICE demonstrators chase off outnumbered far-right activists at Minneapolis rally - Reuters</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/social-engineering-payroll-pirates/</t>
+          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxPVlFXdUdwVUVLaEwzRmFwX2NmUWJRaVkxbDRPOGdNcTZZMDZnMXdtY3BiRjVHOG8tMS0tZm1Tanl3U3lFWDBxN1prLUZ1Q0s2cXkxODhVNUFOdVNsR2t1WEh4c1cwVENxdk5TQkI5akxsMndSbTh1ZGpfNk9tOFJEV254OWJkMzJOdkZhWlRyWm9vV1BNU2JIUkd1VUlfMVY0NGhj?oc=5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Judge urges US grant visa to college student deported due to 'mistake' - Reuters</t>
+          <t>Black Basta Ransomware Leader Added to EU Most Wanted and INTERPOL Red Notice</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQcXd1c2dMMndkQ3RqdzRfT2RkV0RGdC11bklpdEg2SXhTSmZ2bTNTUENUWGpWMTRuRmc2bHhGc1B6VXU2ZFBtaEpoU0VUSnlzR1hvZDhoalNjblRSaHJwcHl5cW04a2pIX3l3NE1KZ1dNTW5JcDdjNDdoMTBCYVZLaUlwWnZsODlyVGw2UWxORnM2RzhxNmRObDFHdVBzVjBCVGd5RkhBVzBqdjFEUjV1SnFYemlHdw?oc=5</t>
+          <t>https://thehackernews.com/2026/01/black-basta-ransomware-hacker-leader.html</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
@@ -542,108 +542,108 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>US Justice Department probing Minnesota Governor Walz, other officials, source says - Reuters</t>
+          <t>US kills al Qaeda affiliate leader tied to December attack in Syria, Centcom says - Reuters</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxQcWsxYlVBX1ZDVnAwOE9KSkJtLTd5c21OY19aN2JNQUFmdE45OTMxMHl6SExhOTBkSTJ0YXdLWUhCVWsyWmIyZXJfWW45T1cxdU5NNG1KRjByQzBWcnhtTXVGYVByNEN1RkxMeC02eEZ3SzYzUVZLQ3dOUjh4T2dQdjd4VTNjY2p0Z3BBMWo0aWZreHBBbzFocFhQdHBmaTFORzZiaVBJSWJxUzFrSWVlUzZxRmRtY1A1Zm84?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxORFVGbjd4V29iRGgySHFqVU5zYzBSd0RVbDc2THlhZzM3UzFtVjFZQnV6dFo0MVQxTlg2SE1TRl83NTVna0d0MmxzaFVCVTNaQ2gzQ2hETzF5cFhIUWtQcUM2WnVNYzNpSjNpRW41NjVxTlFvWHloLUZTcXpPX3R4Q05jRS1kalc3SHlYcEk4OE92LWpDQkVJS1J4Tm1SMDFGTXpIQXNJc19zVzNoaHFKWU55dmNvc01DOEZUZFdZNWdyMXpkUVpB?oc=5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Canadian investment regulator confirms hackers hit 750,000 investors</t>
+          <t>Whistles and walkie-talkies: Minneapolis keeps guard over schools amid ICE arrests - Reuters</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://therecord.media/canada-ciro-investing-regulator-confirms-data-breach</t>
+          <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxNcDVaTGFfeDNPa2tSVk1jd3NYZlFDZkVlRkR1LTlDVmdoT0RrN2x1SmRMRWtaWjRqeWdIVFhudjVab1c2T1VVeENKZXg3ZnBvQk50cDNpckd0ZFZiY1JoZ053ZFMxV0x4eHV3TU03YWowd0dnemttLV9fZ2lyZ0VjajVxdVQyTWhrXy02Nks2Q1p5RDhOY3prZVBDWVRibjhpVzYtZWxXeFpoMUNMYldDQ3Y5NlRvLU5KZ283WlFNcw?oc=5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jordanian initial access broker pleads guilty to helping target 50 companies</t>
+          <t>Supreme Court tests limits of Trump's power over the economy in fight over Fed's Lisa Cook - Reuters</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://therecord.media/guilty-plea-initial-access-broker-r1z</t>
+          <t>https://news.google.com/rss/articles/CBMi6gFBVV95cUxQNVVQUmw0NlJUYmc2T21lQWpod1E0dkUzVUlfTWM0WWxlcWs2eXdONzdVUTlnbzJnYlVjMm5BNGJlc0FfNkQ5MFRSVENtNkRNOFE0Szg1ejFjSF9MdHMwenZpTFRRMHQxcUFhc0d5d2pDb0w0VXhVSmhiaUozdVpFdEZha1ZYbzM4eGtEVGRvcFlDRVRhS1AxLU5ZbTV5bmNKTkR0ZlcyVlBQQ3RNbkdwSHd2SFZGdjZXdDkxQ1dadGlwSDZqYzB2MjV3dllGUEVSNnJ4NU03bUttRF83cGM5cnoxVTNhRDcxeFE?oc=5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ランサムウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AI System Reduces Attack Reconstruction Time From Weeks to Hours</t>
+          <t>Justice Department asks federal judge to deny special master for Epstein files - Reuters</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cybersecurity-operations/ai-system-attack-reconstruction-weeks-hours</t>
+          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxOZ19zOXZRc2xSTVZLVWZYSVdMTmcwWnFnZnQ4cXNnS19hMjdvWHJJNGtaWUlpNndCT3ljdTI4WkFkalVEaE8xMUFwaVBjd3YyaVZpZlFhU0JCLWxodVhwdXlkVEVwS0k0V3VvRzMtV00wMkM1cG55ZUpQMW90ZUIzTHlGd3daWkh1bUUzaXJqajlVcDBEZzFoNHY2UjJvTDVHc0haYnFvRXhIbnFsWXpkQ0g1WHVvR3c?oc=5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,130 +653,130 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CISOs Rise to Prominence: Security Leaders Join the Executive Suite</t>
+          <t>EU warns of downward spiral after Trump threatens tariffs over Greenland - Reuters</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cybersecurity-operations/cisos-rise-to-prominence-security-leaders-join-the-executive-suite</t>
+          <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxNcG9WRThuN3Zlb3dkY0VsR3hVMnhCc2tNQUY1RGFZQ1RqSVVQTFFyTk5ZU1ljTGdKQjV6UnNBUmp0VGVYSHdEYzBNX0s3VmRzaXJ6QUFWcjlUSGdOblJwVV9ET19HMTVCX0lVdzBDTTZMNFZWeDNvYXhNMWdTeGprM2ZIWmlmcXA4cHh0SlE3eXZoVmFRVkFOZ01scmd3ZnVSZE5mY1M3ZHRYU0FTRl9PM1VaalNKUmN1Z1E?oc=5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>More Problems for Fortinet: Critical FortiSIEM Flaw Exploited</t>
+          <t>Syrian army continues advance against Kurdish-held towns despite US calls against it - Reuters</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/vulnerabilities-threats/fortinet-critical-fortisiem-flaw-exploited</t>
+          <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxQb3ppQ09nT2xrRmxtbnRGMzBKTkktYklpX2Z6cUpUamRIcWtyV0Q2V2JyYVh3M2Q3Tk9FSEpSbDJLbndWYUtXWUh1QkpYSkdXWkJ0SzB0b1BhYmVEMWRFUlhSRUJySW9tQUdHTmNxTVI3cVdlclltS0VQdHVYbDE3cldDTjE4ZW1ZaW9HWjd1bElFR2p2QjhvNFE3ZGZBNk5tVG4xeUY3dGE2bU1iR005SkIyWjI?oc=5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Former CISA Director Jen Easterly Appointed CEO of RSAC</t>
+          <t>EU moves to force the phase-out of Chinese suppliers from key infrastructure, FT reports - Reuters</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/former-cisa-director-jen-easterly-appointed-ceo-of-rsac/</t>
+          <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxQdU5teElqVzdPcVpjQV82dnB0SXdkdTl4cjFBTWJiXzRlZFltbHBLLWg3NmxYQmI1alFkUVRtdVhGRksxR2VIWTQtNlJmYTVMZ3FjTEdpOG5PejVyWnd2X3NWZldJUlJnZjZreXpRSGlicDh1RkVLZXFHOWhva25vRWRjNy00eEhYSnVWTWpNX1VsOEdMNmloX0gzSGk4czVzSFlyUXA3M2ZsN00?oc=5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cisco Patches Vulnerability Exploited by Chinese Hackers</t>
+          <t>Anatomy of an Attack: The Payroll Pirates and the Power of Social Engineering</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/cisco-patches-vulnerability-exploited-by-chinese-hackers/</t>
+          <t>https://unit42.paloaltonetworks.com/social-engineering-payroll-pirates/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -788,27 +788,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cybersecurity Firms React to China’s Reported Software Ban</t>
+          <t>Judge urges US grant visa to college student deported due to 'mistake' - Reuters</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/cybersecurity-firms-react-to-chinas-reported-software-ban/</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQcXd1c2dMMndkQ3RqdzRfT2RkV0RGdC11bklpdEg2SXhTSmZ2bTNTUENUWGpWMTRuRmc2bHhGc1B6VXU2ZFBtaEpoU0VUSnlzR1hvZDhoalNjblRSaHJwcHl5cW04a2pIX3l3NE1KZ1dNTW5JcDdjNDdoMTBCYVZLaUlwWnZsODlyVGw2UWxORnM2RzhxNmRObDFHdVBzVjBCVGd5RkhBVzBqdjFEUjV1SnFYemlHdw?oc=5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -820,27 +820,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WhisperPair Attack Leaves Millions of Audio Accessories Open to Hijacking</t>
+          <t>US Justice Department probing Minnesota Governor Walz, other officials, source says - Reuters</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/whisperpair-attack-leaves-millions-of-bluetooth-accessories-open-to-hijacking/</t>
+          <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxQcWsxYlVBX1ZDVnAwOE9KSkJtLTd5c21OY19aN2JNQUFmdE45OTMxMHl6SExhOTBkSTJ0YXdLWUhCVWsyWmIyZXJfWW45T1cxdU5NNG1KRjByQzBWcnhtTXVGYVByNEN1RkxMeC02eEZ3SzYzUVZLQ3dOUjh4T2dQdjd4VTNjY2p0Z3BBMWo0aWZreHBBbzFocFhQdHBmaTFORzZiaVBJSWJxUzFrSWVlUzZxRmRtY1A1Zm84?oc=5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cyber Insights 2026: Social Engineering</t>
+          <t>Poker-faced Powell may have ace up sleeve to stymie Trump's Fed shakeup - Reuters</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/cyber-insights-2026-social-engineering/</t>
+          <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxNQVUxdldEREFIM0tldFBQZjI0ZW1EXzJjekxjVVppN3VEdHRVNTZhZU45MkRFc2VnRjZfNXJLcFBJdlFqT191cGtGRDR5YnM5ZTlLaWZOX1ByMFVxTDdRbmpXQUxBeFdxT1h2SmhPUmpXYWhyUmZMRG8zZGxYNXBSeUdTV29EdHJFRDZnN0lteG9fNU1SZmJSSm9zZXNabXR6ODNXOXdaNXQ2eVhFcEhMUmJn?oc=5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Monnai Raises $12 Million for Identity and Risk Data Infrastructure</t>
+          <t>Porsche reports worst sales drop since 2009 on weak China demand - Reuters</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/monnai-raises-12-million-for-identity-and-risk-data-infrastructure/</t>
+          <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxQdGJqVXk2bzNQR0JOQkFPRHhxZGxQbU03MThnSzhqMlVabTBxblJ4c2lIbGZNVVdvdWtHY2J1YTZFLWhXLUhpNDc1OENCdndhbFZ2N1FtQ09ubk1hZ2tybGtVZlVGN08xQzUtbF85YWRMN0tidVdXdW5ibG9FakMySkIybU1rM0luREt4WnkwS2ZDaFZ0SkhHa2JiOXZlcDltVTVaZ1RKM19Ha21LSEVKb2E0QkpOZGxsdVRQVUo4SGVVOTdkSjVqOF9UX1ExSmdPZTRQTA?oc=5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
@@ -921,22 +921,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>In Other News: FortiSIEM Flaw Exploited, Sean Plankey Renominated, Russia’s Polish Grid Attack</t>
+          <t>Canadian investment regulator confirms hackers hit 750,000 investors</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/in-other-news-fortisiem-flaw-exploited-sean-plankey-renominated-russias-polish-grid-attack/</t>
+          <t>https://therecord.media/canada-ciro-investing-regulator-confirms-data-breach</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -953,22 +953,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cisco finally fixes AsyncOS zero-day exploited since November</t>
+          <t>Jordanian initial access broker pleads guilty to helping target 50 companies</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/cisco-finally-fixes-asyncos-zero-day-exploited-since-november/</t>
+          <t>https://therecord.media/guilty-plea-initial-access-broker-r1z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -985,22 +985,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hackers now exploiting critical Fortinet FortiSIEM flaw in attacks</t>
+          <t>AI System Reduces Attack Reconstruction Time From Weeks to Hours</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/hackers-now-exploiting-critical-fortinet-fortisiem-vulnerability-in-attacks/</t>
+          <t>https://www.darkreading.com/cybersecurity-operations/ai-system-attack-reconstruction-weeks-hours</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1017,22 +1017,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>China-linked hackers exploited Sitecore zero-day for initial access</t>
+          <t>CISOs Rise to Prominence: Security Leaders Join the Executive Suite</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/china-linked-hackers-exploited-sitecore-zero-day-for-initial-access/</t>
+          <t>https://www.darkreading.com/cybersecurity-operations/cisos-rise-to-prominence-security-leaders-join-the-executive-suite</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1049,22 +1049,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>StealC hackers hacked as researchers hijack malware control panels</t>
+          <t>More Problems for Fortinet: Critical FortiSIEM Flaw Exploited</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/stealc-hackers-hacked-as-researchers-hijack-malware-control-panels/</t>
+          <t>https://www.darkreading.com/vulnerabilities-threats/fortinet-critical-fortisiem-flaw-exploited</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1081,22 +1081,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>China-Linked APT Exploited Sitecore Zero-Day in Critical Infrastructure Intrusions</t>
+          <t>Former CISA Director Jen Easterly Appointed CEO of RSAC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/china-linked-apt-exploits-sitecore-zero.html</t>
+          <t>https://www.securityweek.com/former-cisa-director-jen-easterly-appointed-ceo-of-rsac/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1113,22 +1113,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LOTUSLITE Backdoor Targets U.S. Policy Entities Using Venezuela-Themed Spear Phishing</t>
+          <t>Cisco Patches Vulnerability Exploited by Chinese Hackers</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/lotuslite-backdoor-targets-us-policy.html</t>
+          <t>https://www.securityweek.com/cisco-patches-vulnerability-exploited-by-chinese-hackers/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1145,22 +1145,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GootLoader Malware Uses 500–1,000 Concatenated ZIP Archives to Evade Detection</t>
+          <t>Cybersecurity Firms React to China’s Reported Software Ban</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/gootloader-malware-uses-5001000.html</t>
+          <t>https://www.securityweek.com/cybersecurity-firms-react-to-chinas-reported-software-ban/</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1177,22 +1177,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>What happens next in EU-Mercosur trade deal saga? - Reuters</t>
+          <t>WhisperPair Attack Leaves Millions of Audio Accessories Open to Hijacking</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxNVkNXYlhnUEdQdnRfaEhGTjJHQTJuUzJLX2szUVJYM2hPa0FBS2s2QmNCUDFPc2hfcEttLVZNT3pKVTlNbGw5NndYNVZCZXJCeHR6NndPM2tDaUdtaERXeG5jNDFIUXAzeWdodzdacTFGc0gwcXNVYTh2alB5SlVIMnpwaHhjS0pFWE41ZFJqSUNfNTIxOUFQNlRGZG9nV1h5dVMxMk5uS1RBTXpJbU8teg?oc=5</t>
+          <t>https://www.securityweek.com/whisperpair-attack-leaves-millions-of-bluetooth-accessories-open-to-hijacking/</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1209,22 +1209,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Oil prices settle up as US begins holiday weekend - Reuters</t>
+          <t>Cyber Insights 2026: Social Engineering</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilgFBVV95cUxOYjhteG9RcGN1dktWSmJ6WmhDeXhkVWRKUjNGV1dLanN6cFdaM3c0dFhkWmZMOHJUVFJQRmJZclpsVUtUVER0cGt3Y3ctd2w2anN3cFZuQm43WkEweXBNbGpZUElOX3o3TUJnc2NmX010LWFlcGQzR2ZlNFVpbDVMQ3F4N0JiU0w3XzJ2YnczOVJ1MDFqWVE?oc=5</t>
+          <t>https://www.securityweek.com/cyber-insights-2026-social-engineering/</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1241,22 +1241,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Israel sees spike in PTSD and suicide among troops as war persists - Reuters</t>
+          <t>Monnai Raises $12 Million for Identity and Risk Data Infrastructure</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxQcDZkR3FOUGZVQ2ZaY1htLVpBTWlTV2lyTDJ2MnVpRVUxYkcwTVhZNzh5VU85ck1RR3EtN1ZtUGM4ck5idzFxUTVGQXNNOEZiZzNPM1BBT1FFNFQtMkVrd2hGWjFZYUZTdTJPbkxzMWpiLUwtT1B5bl9iWFJLdjBqWTB4dDllQ0hpMkU5Q3BVYXRZelM5QzNJTjFqYjBaWmRLVzVEWmZoNkVwcE1lVThv?oc=5</t>
+          <t>https://www.securityweek.com/monnai-raises-12-million-for-identity-and-risk-data-infrastructure/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1273,22 +1273,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>US judge allows Dominion offshore wind project to restart, another legal setback for Trump - Reuters</t>
+          <t>In Other News: FortiSIEM Flaw Exploited, Sean Plankey Renominated, Russia’s Polish Grid Attack</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxNcnBVMHZFSjdhbHlJZEdEMzB4enhmODgxOE9vMmVoY2kwREV3c0I2ak9SUGU1MDhVNkdpQ2FBeV9yVUNVYkZXdi1tcVQ1OUZDcFNOZERaUzlYbC1vYURBNERVRDBDd1BneXZaLWdLSFpvWXpIV29DckczQTRXOUhXSF9CQnFQVVB6WHdFUWhEdm1Tbk5tVDRKWTFSLVVJMkxIaW8yOUs0dmdGUmFuTUJXME5CVzczX0dPR2l2cmNmU0F2Y2F3czRnVDc2RQ?oc=5</t>
+          <t>https://www.securityweek.com/in-other-news-fortisiem-flaw-exploited-sean-plankey-renominated-russias-polish-grid-attack/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1305,17 +1305,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Exclusive: Shell, Mitsubishi exploring sale options for their stakes in LNG Canada, sources say - Reuters</t>
+          <t>Cisco finally fixes AsyncOS zero-day exploited since November</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxQc1l2Q09jWkIzMFlWekJzb09aSUIyQkxWVW9VZy1xeWdqSWozNU5kUlI5M0w3LWtkTk55a3FubDMzbS0wYVVpWl9Ud2FWR1VTc1JJd19WNGc1cVBQdUdwY0dPb3dzQ1o4YmVzMFB1d09tR0VvbGpyRlBuTHpSeVZpSmlPNm40dlNZa0J6bEllNnBTQy1ERURhS25ad1JucEV0NTZwSE5KZTNLRjlFaXA1YVhfWDlHMmwtcEpEelg5NTRkSl9taWc?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/cisco-finally-fixes-asyncos-zero-day-exploited-since-november/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1337,22 +1337,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Munich Security Conference scraps invitation to Iranian minister - Reuters</t>
+          <t>Hackers now exploiting critical Fortinet FortiSIEM flaw in attacks</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxPQWhBUWVKRmNfUzhJdjYtUzEtckM0ZXBrRm9pR2p3ZWxjdWZZMUYwSEdfd2xxeVRQS3ViX0ttTEI3T25rTUlzaHdmOUNwbllRMXBEUWxUZ2JneVJGQUNIX0VxZC12TGF4ZW5henNTOU9SY3F5eHBvV0xIOEpLb09XR2ZzbVdCXzlsMjVDS1ZOekttOElLclJ6aHNnN2tmVW9pZ1JrNDlR?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/hackers-now-exploiting-critical-fortinet-fortisiem-vulnerability-in-attacks/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>US says Canada will regret decision to allow Chinese EVs into their market - Reuters</t>
+          <t>China-linked hackers exploited Sitecore zero-day for initial access</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxPTGxiTkRkODRwSjFnOXdjenFTRW5VMTk2QWZfTHgteHBsbGdBRi16Qy1mOTFhY2p4MGdmRVVMT3FDaEoteG5VZW9odFFKQmp2NUt2a0VFaGhzVWFwai1scjZrdC1NMjFReVo4a0ROU3JSemZBUi1iVjdUcERUaXpKUEcycm5IU2lpd1FtSEswNEFIOVhWWk5BLUJDcXBBWk5IamVLOFAxSEhuSlhxcWJtWWs1UEpvTlNxbUNrb19FUUVlRFBDOEhPRDNvV3o?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/china-linked-hackers-exploited-sitecore-zero-day-for-initial-access/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1401,22 +1401,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Amid ICE raids, some Home Depot investors want to know how law enforcement uses its surveillance data - Reuters</t>
+          <t>StealC hackers hacked as researchers hijack malware control panels</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxOYWlKSV9qWXJRV0dNckNaYlJISGN3anM5MURUdlVWd1BrRXhURDVfZ0dvX1IxTFBVc3hZTDNOSzRBZWZ6Z0xRYjF2a2FlX3pIVEVfWFhfZkxqMTQ1TW1HWk52MXFhbkE1UGdiMExYd1k1dnBhSFFXSXFyV2dQYUp6clRCWTdDMExaOEgwTl9jWER6ckhnTTBVSVZiWHhyalhpQmNRaGZUOFFQdm8tRlF4eGI0UjhFT04yTTMyMnhLVGlubUh3ZURmUlA1VUVzN3FsV3haQ2dfUHV2SVdjalAxZzc4UFdiSFE5ZWZB?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/stealc-hackers-hacked-as-researchers-hijack-malware-control-panels/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1433,22 +1433,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Indra signs $1.1 billion deal to manage London transport ticketing and control systems - Reuters</t>
+          <t>China-Linked APT Exploited Sitecore Zero-Day in Critical Infrastructure Intrusions</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxNZTEwMWtRSnllZUp0dnVwQk9qeHpNdlRiNGs0OFpaOEVqam14OHlqcTJSM2JYT1FwXzJMaG5kV3FCLU1ubXVJS0VOSG1Pei1ERzN3TDZHUGZqakpRNVM3X0xlUFg2Wi04ZEswaWE3MEVQSzNCVnBXRFpJSjAzMFFTOGlkVXI5ZWlkelo5Q3hlc0s0c1BpV3JNeDdEZHQ3ZU4tR2M4YUt5Ml9qNk5ZUktjZ2pfVUtjRVZ1TUVLbmZjVQ?oc=5</t>
+          <t>https://thehackernews.com/2026/01/china-linked-apt-exploits-sitecore-zero.html</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1470,22 +1470,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cisco Patches Zero-Day RCE Exploited by China-Linked APT in Secure Email Gateways</t>
+          <t>LOTUSLITE Backdoor Targets U.S. Policy Entities Using Venezuela-Themed Spear Phishing</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/cisco-patches-zero-day-rce-exploited-by.html</t>
+          <t>https://thehackernews.com/2026/01/lotuslite-backdoor-targets-us-policy.html</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
@@ -1497,17 +1497,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Gold slips as upbeat US data boosts dollar, dims rate-cut bets - Reuters</t>
+          <t>GootLoader Malware Uses 500–1,000 Concatenated ZIP Archives to Evade Detection</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxNX09JejJvMFRiV05vNWNHOWJmekhtM29PbHd4aTZGckVuR2F6TEh2cU5UNG9GWmtLX3J2Q3JBZkFONzlKVkMxZlVxYWRXaEFFNUs3WjhpUllvU0FDQlA4NTJBd2ZjSHB0SGt0eW0tX2VoLUVhV0tWei1xUTZQWF94LU1rWnVNV2N5Qk5OSGJCaE14U3RfUzM3blg5VnBfdmFUZGFmQzY2ZUFHQQ?oc=5</t>
+          <t>https://thehackernews.com/2026/01/gootloader-malware-uses-5001000.html</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1517,14 +1517,14 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1534,17 +1534,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Musk's xAI curbs Grok image editing after California, Europe air concerns - Reuters</t>
+          <t>What happens next in EU-Mercosur trade deal saga? - Reuters</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxPWDVMZ01tS3R3YUVNWDFNT3RGaFhsbU01TFNYQ1pyNWlwNHE2Ul9JTnRUYllDR0dlZ0tZbkhhal9iUU9Wcm5PMUhPX1RPaWh6Tnd5bW1tazBocXZHVlhVZEY4LUNpQ3lqT2EtUUxVZnVHbkhPR1ByV0tONnNqYjdhRlhRNWVQc3haLTlzS1BBM3F0WEVFQkZKR21SejNzTGR3V3V5RFA4YlNQLVZDZEdKVQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxNVkNXYlhnUEdQdnRfaEhGTjJHQTJuUzJLX2szUVJYM2hPa0FBS2s2QmNCUDFPc2hfcEttLVZNT3pKVTlNbGw5NndYNVZCZXJCeHR6NndPM2tDaUdtaERXeG5jNDFIUXAzeWdodzdacTFGc0gwcXNVYTh2alB5SlVIMnpwaHhjS0pFWE41ZFJqSUNfNTIxOUFQNlRGZG9nV1h5dVMxMk5uS1RBTXpJbU8teg?oc=5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1556,22 +1556,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AVEVA Process Optimization</t>
+          <t>Oil prices settle up as US begins holiday weekend - Reuters</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-01</t>
+          <t>https://news.google.com/rss/articles/CBMilgFBVV95cUxOYjhteG9RcGN1dktWSmJ6WmhDeXhkVWRKUjNGV1dLanN6cFdaM3c0dFhkWmZMOHJUVFJQRmJZclpsVUtUVER0cGt3Y3ctd2w2anN3cFZuQm43WkEweXBNbGpZUElOX3o3TUJnc2NmX010LWFlcGQzR2ZlNFVpbDVMQ3F4N0JiU0w3XzJ2YnczOVJ1MDFqWVE?oc=5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1581,189 +1581,189 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NSA, Cyber Command nominee defends record during Senate hearing</t>
+          <t>Israel sees spike in PTSD and suicide among troops as war persists - Reuters</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://therecord.media/nsa-cyber-command-nom-joshua-rudd-senate-hearing</t>
+          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxQcDZkR3FOUGZVQ2ZaY1htLVpBTWlTV2lyTDJ2MnVpRVUxYkcwTVhZNzh5VU85ck1RR3EtN1ZtUGM4ck5idzFxUTVGQXNNOEZiZzNPM1BBT1FFNFQtMkVrd2hGWjFZYUZTdTJPbkxzMWpiLUwtT1B5bl9iWFJLdjBqWTB4dDllQ0hpMkU5Q3BVYXRZelM5QzNJTjFqYjBaWmRLVzVEWmZoNkVwcE1lVThv?oc=5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Chinese hackers targeting ‘high value’ North American critical infrastructure, Cisco says</t>
+          <t>US judge allows Dominion offshore wind project to restart, another legal setback for Trump - Reuters</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://therecord.media/china-hackers-apt-cisco-talos</t>
+          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxNcnBVMHZFSjdhbHlJZEdEMzB4enhmODgxOE9vMmVoY2kwREV3c0I2ak9SUGU1MDhVNkdpQ2FBeV9yVUNVYkZXdi1tcVQ1OUZDcFNOZERaUzlYbC1vYURBNERVRDBDd1BneXZaLWdLSFpvWXpIV29DckczQTRXOUhXSF9CQnFQVVB6WHdFUWhEdm1Tbk5tVDRKWTFSLVVJMkxIaW8yOUs0dmdGUmFuTUJXME5CVzczX0dPR2l2cmNmU0F2Y2F3czRnVDc2RQ?oc=5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Anchorage police department takes servers offline after cyberattack on service provider</t>
+          <t>Exclusive: Shell, Mitsubishi exploring sale options for their stakes in LNG Canada, sources say - Reuters</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://therecord.media/anchorage-police-takes-servers-offline-after-third-party-attack</t>
+          <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxQc1l2Q09jWkIzMFlWekJzb09aSUIyQkxWVW9VZy1xeWdqSWozNU5kUlI5M0w3LWtkTk55a3FubDMzbS0wYVVpWl9Ud2FWR1VTc1JJd19WNGc1cVBQdUdwY0dPb3dzQ1o4YmVzMFB1d09tR0VvbGpyRlBuTHpSeVZpSmlPNm40dlNZa0J6bEllNnBTQy1ERURhS25ad1JucEV0NTZwSE5KZTNLRjlFaXA1YVhfWDlHMmwtcEpEelg5NTRkSl9taWc?oc=5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Winter Olympics Could Share Podium With Cyberattackers</t>
+          <t>Munich Security Conference scraps invitation to Iranian minister - Reuters</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/winter-olympics-podium-cyberattackers</t>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxPQWhBUWVKRmNfUzhJdjYtUzEtckM0ZXBrRm9pR2p3ZWxjdWZZMUYwSEdfd2xxeVRQS3ViX0ttTEI3T25rTUlzaHdmOUNwbllRMXBEUWxUZ2JneVJGQUNIX0VxZC12TGF4ZW5henNTOU9SY3F5eHBvV0xIOEpLb09XR2ZzbVdCXzlsMjVDS1ZOekttOElLclJ6aHNnN2tmVW9pZ1JrNDlR?oc=5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Predator Spyware Sample Indicates 'Vendor-Controlled' C2</t>
+          <t>US says Canada will regret decision to allow Chinese EVs into their market - Reuters</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/mobile-security/predator-spyware-sample-vendor-controlled-c2</t>
+          <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxPTGxiTkRkODRwSjFnOXdjenFTRW5VMTk2QWZfTHgteHBsbGdBRi16Qy1mOTFhY2p4MGdmRVVMT3FDaEoteG5VZW9odFFKQmp2NUt2a0VFaGhzVWFwai1scjZrdC1NMjFReVo4a0ROU3JSemZBUi1iVjdUcERUaXpKUEcycm5IU2lpd1FtSEswNEFIOVhWWk5BLUJDcXBBWk5IamVLOFAxSEhuSlhxcWJtWWs1UEpvTlNxbUNrb19FUUVlRFBDOEhPRDNvV3o?oc=5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ICS Patch Tuesday: Vulnerabilities Fixed by Siemens, Schneider, Aveva, Phoenix Contact</t>
+          <t>Amid ICE raids, some Home Depot investors want to know how law enforcement uses its surveillance data - Reuters</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/ics-patch-tuesday-vulnerabilities-fixed-by-siemens-schneider-aveva-phoenix-contact/</t>
+          <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxOYWlKSV9qWXJRV0dNckNaYlJISGN3anM5MURUdlVWd1BrRXhURDVfZ0dvX1IxTFBVc3hZTDNOSzRBZWZ6Z0xRYjF2a2FlX3pIVEVfWFhfZkxqMTQ1TW1HWk52MXFhbkE1UGdiMExYd1k1dnBhSFFXSXFyV2dQYUp6clRCWTdDMExaOEgwTl9jWER6ckhnTTBVSVZiWHhyalhpQmNRaGZUOFFQdm8tRlF4eGI0UjhFT04yTTMyMnhLVGlubUh3ZURmUlA1VUVzN3FsV3haQ2dfUHV2SVdjalAxZzc4UFdiSFE5ZWZB?oc=5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1773,61 +1773,61 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>VoidLink Linux Malware Framework Targets Cloud Environments</t>
+          <t>Indra signs $1.1 billion deal to manage London transport ticketing and control systems - Reuters</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/voidlink-linux-malware-framework-targets-cloud-environments/</t>
+          <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxNZTEwMWtRSnllZUp0dnVwQk9qeHpNdlRiNGs0OFpaOEVqam14OHlqcTJSM2JYT1FwXzJMaG5kV3FCLU1ubXVJS0VOSG1Pei1ERzN3TDZHUGZqakpRNVM3X0xlUFg2Wi04ZEswaWE3MEVQSzNCVnBXRFpJSjAzMFFTOGlkVXI5ZWlkelo5Q3hlc0s0c1BpV3JNeDdEZHQ3ZU4tR2M4YUt5Ml9qNk5ZUktjZ2pfVUtjRVZ1TUVLbmZjVQ?oc=5</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Depthfirst Raises $40 Million for Vulnerability Management</t>
+          <t>Cisco Patches Zero-Day RCE Exploited by China-Linked APT in Secure Email Gateways</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/depthfirst-raises-40-million-for-vulnerability-management/</t>
+          <t>https://thehackernews.com/2026/01/cisco-patches-zero-day-rce-exploited-by.html</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1844,27 +1844,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>New ‘StackWarp’ Attack Threatens Confidential VMs on AMD Processors</t>
+          <t>Gold slips as upbeat US data boosts dollar, dims rate-cut bets - Reuters</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/new-stackwarp-attack-threatens-confidential-vms-on-amd-processors/</t>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxNX09JejJvMFRiV05vNWNHOWJmekhtM29PbHd4aTZGckVuR2F6TEh2cU5UNG9GWmtLX3J2Q3JBZkFONzlKVkMxZlVxYWRXaEFFNUs3WjhpUllvU0FDQlA4NTJBd2ZjSHB0SGt0eW0tX2VoLUVhV0tWei1xUTZQWF94LU1rWnVNV2N5Qk5OSGJCaE14U3RfUzM3blg5VnBfdmFUZGFmQzY2ZUFHQQ?oc=5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1881,27 +1881,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Microsoft disrupts massive RedVDS cybercrime virtual desktop service</t>
+          <t>No. 2 US ICE official Madison Sheahan leaving agency to run for Congress - Reuters</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/microsoft-seizes-servers-disrupts-massive-redvds-cybercrime-platform/</t>
+          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQV19RaS1haHYyVGxORnVwaHR3X1ZLNmVQdHdid0lkdGwxWERYeHp5WEJlaXN5OC1yNmtvd2JLR191T05OY29MYWlCWmowRVhlMFpsbm1tVG05ZTI4N1VMZHNBTnViN2RCc2dGbndzUngwYUctTFlBSTBaNVF3WUxHdkpkMUNEZTh0TEtLNDJucjVNRG0yaHMxNllsMUpYa1g4bVA3QTd4MnZJN1RTZ0hadDRVOU0yM3M1MnlHYVJCYlA?oc=5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
@@ -1913,17 +1913,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Palo Alto Networks warns of DoS bug letting hackers disable firewalls</t>
+          <t>Musk's xAI curbs Grok image editing after California, Europe air concerns - Reuters</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/palo-alto-networks-warns-of-dos-bug-letting-hackers-disable-firewalls/</t>
+          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxPWDVMZ01tS3R3YUVNWDFNT3RGaFhsbU01TFNYQ1pyNWlwNHE2Ul9JTnRUYllDR0dlZ0tZbkhhal9iUU9Wcm5PMUhPX1RPaWh6Tnd5bW1tazBocXZHVlhVZEY4LUNpQ3lqT2EtUUxVZnVHbkhPR1ByV0tONnNqYjdhRlhRNWVQc3haLTlzS1BBM3F0WEVFQkZKR21SejNzTGR3V3V5RFA4YlNQLVZDZEdKVQ?oc=5</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
@@ -1945,22 +1945,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Critical flaw lets hackers track, eavesdrop via Bluetooth audio devices</t>
+          <t>AVEVA Process Optimization</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/critical-whisperpair-flaw-lets-hackers-track-eavesdrop-via-bluetooth-audio-devices/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-01</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1977,22 +1977,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Hackers exploit Modular DS WordPress plugin flaw for admin access</t>
+          <t>NSA, Cyber Command nominee defends record during Senate hearing</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/hackers-exploit-modular-ds-wordpress-plugin-flaw-for-admin-access/</t>
+          <t>https://therecord.media/nsa-cyber-command-nom-joshua-rudd-senate-hearing</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2009,22 +2009,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Grubhub confirms hackers stole data in recent security breach</t>
+          <t>Chinese hackers targeting ‘high value’ North American critical infrastructure, Cisco says</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/grubhub-confirms-hackers-stole-data-in-recent-security-breach/</t>
+          <t>https://therecord.media/china-hackers-apt-cisco-talos</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2041,17 +2041,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Gootloader now uses 1,000-part ZIP archives for stealthy delivery</t>
+          <t>Anchorage police department takes servers offline after cyberattack on service provider</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/gootloader-now-uses-1-000-part-zip-archives-for-stealthy-delivery/</t>
+          <t>https://therecord.media/anchorage-police-takes-servers-offline-after-third-party-attack</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2073,22 +2073,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Palo Alto Fixes GlobalProtect DoS Flaw That Can Crash Firewalls Without Login</t>
+          <t>Winter Olympics Could Share Podium With Cyberattackers</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/palo-alto-fixes-globalprotect-dos-flaw.html</t>
+          <t>https://www.darkreading.com/remote-workforce/winter-olympics-podium-cyberattackers</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2105,22 +2105,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4 Outdated Habits Destroying Your SOC's MTTR in 2026</t>
+          <t>Predator Spyware Sample Indicates 'Vendor-Controlled' C2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/4-outdated-habits-destroying-your-socs.html</t>
+          <t>https://www.darkreading.com/mobile-security/predator-spyware-sample-vendor-controlled-c2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2137,17 +2137,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ThreatsDay Bulletin: AI Voice Cloning Exploit, Wi-Fi Kill Switch, PLC Vulns, and 14 More Stories</t>
+          <t>ICS Patch Tuesday: Vulnerabilities Fixed by Siemens, Schneider, Aveva, Phoenix Contact</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/threatsday-bulletin-ai-voice-cloning.html</t>
+          <t>https://www.securityweek.com/ics-patch-tuesday-vulnerabilities-fixed-by-siemens-schneider-aveva-phoenix-contact/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2169,22 +2169,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Researchers Reveal Reprompt Attack Allowing Single-Click Data Exfiltration From Microsoft Copilot</t>
+          <t>VoidLink Linux Malware Framework Targets Cloud Environments</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/researchers-reveal-reprompt-attack.html</t>
+          <t>https://www.securityweek.com/voidlink-linux-malware-framework-targets-cloud-environments/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ランサムウェア</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2201,17 +2201,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Critical WordPress Modular DS Plugin Flaw Actively Exploited to Gain Admin Access</t>
+          <t>Depthfirst Raises $40 Million for Vulnerability Management</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/critical-wordpress-modular-ds-plugin.html</t>
+          <t>https://www.securityweek.com/depthfirst-raises-40-million-for-vulnerability-management/</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2233,22 +2233,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>AWS CodeBuild Misconfiguration Exposed GitHub Repos to Potential Supply Chain Attacks</t>
+          <t>New ‘StackWarp’ Attack Threatens Confidential VMs on AMD Processors</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/aws-codebuild-misconfiguration-exposed.html</t>
+          <t>https://www.securityweek.com/new-stackwarp-attack-threatens-confidential-vms-on-amd-processors/</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2265,22 +2265,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Publishers seek to join lawsuit against Google over AI training - Reuters</t>
+          <t>Microsoft disrupts massive RedVDS cybercrime virtual desktop service</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxQcF8xWVJraGVlSEhaY2FUZy1uYmppQ3RHQ1JUTDdQNTBfRDAxWEkxcWwzdHU3S240aXJFWDdyN0ZveTdNLWllME5Laks4S2VRWWs5c1pROHBuVzY2TmFiVUFOeG1IZV8tOWdRV1NLeUYyV0hoTDdFNmVFc2I2TTdFSmJVRC1IUkN4aE9HaFI4eDRNSTVoSm83b09NbEU2TlFta3p1ckxMbWpjdG9Fb0o0am4xRQ?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/microsoft-seizes-servers-disrupts-massive-redvds-cybercrime-platform/</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2297,22 +2297,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>China central bank to cut sector-specific rates to boost economy - Reuters</t>
+          <t>Palo Alto Networks warns of DoS bug letting hackers disable firewalls</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPUG4tdDNwMjJzTXJ5WWJzZnFsSWNNYnpuV2hESU9zYThNbVFGUkkwd25RYklpaG4wQ1RmT0x5aG5HN2VwM0VJalcyZ2N0MlRSTlVCazZaV3U2b1FxUWFyZmdKRDJVUm1sUEszRG5yMXBac2dTMVF5RW1sd0pwV3U0b3NDMHk5aDgxUWs4c3hDQ2F0RjNYcUpQY1k5OUJjOFpuZnpLV3VpOTk?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/palo-alto-networks-warns-of-dos-bug-letting-hackers-disable-firewalls/</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2329,22 +2329,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>India, EU close in on trade pact as US trade talks drag on - Reuters</t>
+          <t>Critical flaw lets hackers track, eavesdrop via Bluetooth audio devices</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxQWEtNWk5PZE9jRVh3Wmh5WE1pTEVJZFQzeUF1T3g5MGloem10OVgyVk5JNWpKWmdwUXpRVjk3RGFENWtjeXR5c1JERTgzaGpUWGRidmxKbDVhOEMwTzVEc2RCUFFNdnQ0cU5hc0JoeU1CeFlsQWhwUU1rZUdod0c4Z0FXMUhxQmZXVHQwaGtTTnlGc3QzQ2VUNWhtVm1KbkxH?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/critical-whisperpair-flaw-lets-hackers-track-eavesdrop-via-bluetooth-audio-devices/</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2361,22 +2361,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ericsson plans to shed 1,600 jobs in Sweden - Reuters</t>
+          <t>Hackers exploit Modular DS WordPress plugin flaw for admin access</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxQQnpSUWJUMUlIWHRPMVkxSDFoWXFYNEFjRGdDeml5N1laa0NfVVFTVVZhQlV0Rk9LYkp0ckRGaTZ1WUlRUTdwR0lVRm9NR1E2TTFFc216cWtZX29WUm5vOHU0NWhFbHlldEg4dlNrX3p6XzR3UjZkbFYzSXdpUXNIMXRBNmhJOXVBU09CNGU3b1dkMWs?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/hackers-exploit-modular-ds-wordpress-plugin-flaw-for-admin-access/</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2393,22 +2393,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>European corporates expected to deliver worst earnings growth in past seven quarters - Reuters</t>
+          <t>Grubhub confirms hackers stole data in recent security breach</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxNbkRoRlU4MS11OW9uV01LZGk3dTRDODNlRUcyRTNrTlZIV0ljUHFUZW5xeHFUMkFxT0xYbFNJd21FQ09MeEwxVG9HYTZYcWxSN0Z4REMtNE05bENhNVpKZC1tLUFtQWp3bnUtalJuc1BPVDZkR1o3RTBIRzNSN2VsM1lZNU52WGMycHdva1NrWHNpWEJkWFR3OS16Um11YkU1OUppa3RyNVQ1cXpLMU9ROG5JNzFfNGNFdnAwN0dDUU4?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/grubhub-confirms-hackers-stole-data-in-recent-security-breach/</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2425,22 +2425,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Prince Harry to give evidence in lawsuit against Daily Mail next week - Reuters</t>
+          <t>Gootloader now uses 1,000-part ZIP archives for stealthy delivery</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQa3FaTF9TZ3VpRWdlQTBlNEdSWHk4eEJIaVJjbXhWVVlVWFdwdEpabU04STZFZ3c4aWRfWTRkZE5yNVYzN2JnNUtsTU11RVZ5M1pMTmhIRXYxSWZPbjdESlhNQTRQYnBidE5rX1JrbFAtRmxlTzY4empPa3dPQnFmWlpUaXVuZDFVbHJmb3hGOUk1M2hhY1Q1Tk9sLWptb2V1eTN1X1Ric0ZGaGltY25BV2xjenJEU0k?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/gootloader-now-uses-1-000-part-zip-archives-for-stealthy-delivery/</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2457,22 +2457,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Reasons to believe Russia behind cyberattack on Polish power system, PM says - Reuters</t>
+          <t>Palo Alto Fixes GlobalProtect DoS Flaw That Can Crash Firewalls Without Login</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxOcW9jMzFETHlZcG0xaFdIOGF4bEt4ZG9SbzJpaUJfN09jYU92eXFZakhsQk96STVRenpycFlXTzBXbFFMdW40MXphaDV3dmpzeDVzdmQ4NTBuLVhpY3RGU19pa2M4UnhBazkwVkM2elpkNGRMN3NwWHFyV1dhRDMwcW40cG9jVndkOWFXdUNobUdsczMtMk5oOFZqTTBmZmdlLXpxTnhtNkV5Q01kZlhqdQ?oc=5</t>
+          <t>https://thehackernews.com/2026/01/palo-alto-fixes-globalprotect-dos-flaw.html</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2489,17 +2489,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Chips don't lie - Reuters</t>
+          <t>4 Outdated Habits Destroying Your SOC's MTTR in 2026</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMihgFBVV95cUxORGhodG9STUJtOWIwa3Q5R0pDOUlub0ZwcUs5bEdOWEw5b3JxakdZdDVQem92cFBORFFwNjVFS29aLTh4X2FvNTA4Mm0xNnAzY2hKeUZoMjNJN1ZnS3RGWUZUQnRldjNQUGJ1VXdmTFk1UzBwNFRDLXRIZjRuclZ4cVpmOXBadw?oc=5</t>
+          <t>https://thehackernews.com/2026/01/4-outdated-habits-destroying-your-socs.html</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2521,22 +2521,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Verizon offers $20 credit to customers affected by massive wireless outage - Reuters</t>
+          <t>ThreatsDay Bulletin: AI Voice Cloning Exploit, Wi-Fi Kill Switch, PLC Vulns, and 14 More Stories</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxQVGZZX1R6RV9hTlhHSlBfQzVHYk82VkJDM1V4SU8zRnBRT1FQMEp5dXdPcHNIbV9ZOUxkSzFjcFZlNzAxMTVra0d6V19EcktjUEpBandndEprVXZqbjV5UV9XdENXRGhsb3RIbkVOY1UtUlNZV09MVldlclZSQXcweG1aSDUwYVZGLXNzNTBtbUxEMk1sU2ZIT29tOVh6MURaSlB5VDZTT09Vc1pPQTJxdHpyOGh3aFBPbHJRZGJRVUZHcW1fajIwNQ?oc=5</t>
+          <t>https://thehackernews.com/2026/01/threatsday-bulletin-ai-voice-cloning.html</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2553,22 +2553,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Chinese-linked hackers target US entities with Venezuelan-themed malware - Reuters</t>
+          <t>Researchers Reveal Reprompt Attack Allowing Single-Click Data Exfiltration From Microsoft Copilot</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxQQjdVckxSNzFhYjI5XzUwcUVCdHROSXdoQUtDZVdlMjZfWkZLdC10WVYzeVUyQTEzb1dTZ1ZvTFptMTZydzhKWFdxd3Q1MzVwNXZjTGxfbEtneE1WLTJSRWk2SUV3bWFoOV9MT056U3N0ZzNsejFxcW9VbGpyQWlsSGU1a24tYkZ5X3lwT3p5dnV0dVY5bEdYUkZ0Z3hqZ3ZQdXo1dC1lN2hCTlJlSjhEQUtBVk50eDd4SjVOXzgxeW9KMldVRk5GbGJGQQ?oc=5</t>
+          <t>https://thehackernews.com/2026/01/researchers-reveal-reprompt-attack.html</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2585,27 +2585,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Google plans to make Chrome for Android an agentic browser with Gemini</t>
+          <t>Critical WordPress Modular DS Plugin Flaw Actively Exploited to Gain Admin Access</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/artificial-intelligence/google-plans-to-make-chrome-for-android-an-agentic-browser-with-gemini/</t>
+          <t>https://thehackernews.com/2026/01/critical-wordpress-modular-ds-plugin.html</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -2617,27 +2617,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>DHS reports non-fatal shooting of man sought in immigration enforcement stop - Reuters</t>
+          <t>AWS CodeBuild Misconfiguration Exposed GitHub Repos to Potential Supply Chain Attacks</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQRW92OFhIazVsVThxY0pzOHVYOGNnWHhvY0J3dDBIOEdhYTBMN0N1T1pZZGFDVVgwdnlDVklScndsUFpLaGY1cHNBY2JMdzJWM1ZLTmtxclRPc2VIamZBdGloV1Z2SG5RLUthYWNvckdCd2pqN2lHZXhhcEdfTnlHNkcya2RiNVhnS182X0FhN094MXVXRGxIX1R1NEhCRHRRTGxLQ282SlpQaU5DU1p5aU11MTJQak4yQTAzV0VNVlA?oc=5</t>
+          <t>https://thehackernews.com/2026/01/aws-codebuild-misconfiguration-exposed.html</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -2654,12 +2654,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Toyota Industries' shares hit record as market hopes for higher buyout offer - Reuters</t>
+          <t>Publishers seek to join lawsuit against Google over AI training - Reuters</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxOY25vZ2dfN1I1bXZLaDZyNHBXUE1BT2ZVTkFtdl92VTdNRmp6Sm1vMTdFdHZGa3lkbTQ5YXVmZmxocE1YUy1qcU42cHYzQ001QjBraHMyZTAyQVN2UVJwcmVLTF9NNXBsWDFHeS1aR0xSVndmMWVKUHN3OTI2Z3ZnQUowVElFSS1BMW1CekxhbldORnp3cXNuMm1icW1ONV96WlZxREdRMzZjZmVWd0drVGxJUVQtX3VRYWVBZDdMaWZobkhfb2pVczBSUDAtVjA2MHhaT01DTFMyckx1M0txSVAydw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxQcF8xWVJraGVlSEhaY2FUZy1uYmppQ3RHQ1JUTDdQNTBfRDAxWEkxcWwzdHU3S240aXJFWDdyN0ZveTdNLWllME5Laks4S2VRWWs5c1pROHBuVzY2TmFiVUFOeG1IZV8tOWdRV1NLeUYyV0hoTDdFNmVFc2I2TTdFSmJVRC1IUkN4aE9HaFI4eDRNSTVoSm83b09NbEU2TlFta3p1ckxMbWpjdG9Fb0o0am4xRQ?oc=5</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2669,34 +2669,34 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Festo Firmware</t>
+          <t>China central bank to cut sector-specific rates to boost economy - Reuters</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-02</t>
+          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPUG4tdDNwMjJzTXJ5WWJzZnFsSWNNYnpuV2hESU9zYThNbVFGUkkwd25RYklpaG4wQ1RmT0x5aG5HN2VwM0VJalcyZ2N0MlRSTlVCazZaV3U2b1FxUWFyZmdKRDJVUm1sUEszRG5yMXBac2dTMVF5RW1sd0pwV3U0b3NDMHk5aDgxUWs4c3hDQ2F0RjNYcUpQY1k5OUJjOFpuZnpLV3VpOTk?oc=5</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2708,22 +2708,22 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Schneider Electric EcoStruxure Power Build Rapsody</t>
+          <t>India, EU close in on trade pact as US trade talks drag on - Reuters</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-10</t>
+          <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxQWEtNWk5PZE9jRVh3Wmh5WE1pTEVJZFQzeUF1T3g5MGloem10OVgyVk5JNWpKWmdwUXpRVjk3RGFENWtjeXR5c1JERTgzaGpUWGRidmxKbDVhOEMwTzVEc2RCUFFNdnQ0cU5hc0JoeU1CeFlsQWhwUU1rZUdod0c4Z0FXMUhxQmZXVHQwaGtTTnlGc3QzQ2VUNWhtVm1KbkxH?oc=5</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2740,27 +2740,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Siemens Industrial Edge Devices</t>
+          <t>Ericsson plans to shed 1,600 jobs in Sweden - Reuters</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-08</t>
+          <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxQQnpSUWJUMUlIWHRPMVkxSDFoWXFYNEFjRGdDeml5N1laa0NfVVFTVVZhQlV0Rk9LYkp0ckRGaTZ1WUlRUTdwR0lVRm9NR1E2TTFFc216cWtZX29WUm5vOHU0NWhFbHlldEg4dlNrX3p6XzR3UjZkbFYzSXdpUXNIMXRBNmhJOXVBU09CNGU3b1dkMWs?oc=5</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2772,27 +2772,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Siemens SINEC Security Monitor</t>
+          <t>European corporates expected to deliver worst earnings growth in past seven quarters - Reuters</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-06</t>
+          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxNbkRoRlU4MS11OW9uV01LZGk3dTRDODNlRUcyRTNrTlZIV0ljUHFUZW5xeHFUMkFxT0xYbFNJd21FQ09MeEwxVG9HYTZYcWxSN0Z4REMtNE05bENhNVpKZC1tLUFtQWp3bnUtalJuc1BPVDZkR1o3RTBIRzNSN2VsM1lZNU52WGMycHdva1NrWHNpWEJkWFR3OS16Um11YkU1OUppa3RyNVQ1cXpLMU9ROG5JNzFfNGNFdnAwN0dDUU4?oc=5</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2804,27 +2804,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Siemens RUGGEDCOM APE1808 Devices</t>
+          <t>Prince Harry to give evidence in lawsuit against Daily Mail next week - Reuters</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-07</t>
+          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQa3FaTF9TZ3VpRWdlQTBlNEdSWHk4eEJIaVJjbXhWVVlVWFdwdEpabU04STZFZ3c4aWRfWTRkZE5yNVYzN2JnNUtsTU11RVZ5M1pMTmhIRXYxSWZPbjdESlhNQTRQYnBidE5rX1JrbFAtRmxlTzY4empPa3dPQnFmWlpUaXVuZDFVbHJmb3hGOUk1M2hhY1Q1Tk9sLWptb2V1eTN1X1Ric0ZGaGltY25BV2xjenJEU0k?oc=5</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2836,27 +2836,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Siemens Industrial Edge Device Kit</t>
+          <t>Reasons to believe Russia behind cyberattack on Polish power system, PM says - Reuters</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-09</t>
+          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxOcW9jMzFETHlZcG0xaFdIOGF4bEt4ZG9SbzJpaUJfN09jYU92eXFZakhsQk96STVRenpycFlXTzBXbFFMdW40MXphaDV3dmpzeDVzdmQ4NTBuLVhpY3RGU19pa2M4UnhBazkwVkM2elpkNGRMN3NwWHFyV1dhRDMwcW40cG9jVndkOWFXdUNobUdsczMtMk5oOFZqTTBmZmdlLXpxTnhtNkV5Q01kZlhqdQ?oc=5</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2868,22 +2868,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Siemens SIMATIC and SIPLUS products</t>
+          <t>Chips don't lie - Reuters</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-04</t>
+          <t>https://news.google.com/rss/articles/CBMihgFBVV95cUxORGhodG9STUJtOWIwa3Q5R0pDOUlub0ZwcUs5bEdOWEw5b3JxakdZdDVQem92cFBORFFwNjVFS29aLTh4X2FvNTA4Mm0xNnAzY2hKeUZoMjNJN1ZnS3RGWUZUQnRldjNQUGJ1VXdmTFk1UzBwNFRDLXRIZjRuclZ4cVpmOXBadw?oc=5</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2900,22 +2900,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Siemens TeleControl Server Basic</t>
+          <t>Verizon offers $20 credit to customers affected by massive wireless outage - Reuters</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-03</t>
+          <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxQVGZZX1R6RV9hTlhHSlBfQzVHYk82VkJDM1V4SU8zRnBRT1FQMEp5dXdPcHNIbV9ZOUxkSzFjcFZlNzAxMTVra0d6V19EcktjUEpBandndEprVXZqbjV5UV9XdENXRGhsb3RIbkVOY1UtUlNZV09MVldlclZSQXcweG1aSDUwYVZGLXNzNTBtbUxEMk1sU2ZIT29tOVh6MURaSlB5VDZTT09Vc1pPQTJxdHpyOGh3aFBPbHJRZGJRVUZHcW1fajIwNQ?oc=5</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2932,27 +2932,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Siemens RUGGEDCOM ROS</t>
+          <t>Chinese-linked hackers target US entities with Venezuelan-themed malware - Reuters</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-05</t>
+          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxQQjdVckxSNzFhYjI5XzUwcUVCdHROSXdoQUtDZVdlMjZfWkZLdC10WVYzeVUyQTEzb1dTZ1ZvTFptMTZydzhKWFdxd3Q1MzVwNXZjTGxfbEtneE1WLTJSRWk2SUV3bWFoOV9MT056U3N0ZzNsejFxcW9VbGpyQWlsSGU1a24tYkZ5X3lwT3p5dnV0dVY5bEdYUkZ0Z3hqZ3ZQdXo1dC1lN2hCTlJlSjhEQUtBVk50eDd4SjVOXzgxeW9KMldVRk5GbGJGQQ?oc=5</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2964,27 +2964,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Secure Connectivity Principles for Operational Technology (OT)</t>
+          <t>Google plans to make Chrome for Android an agentic browser with Gemini</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/resources-tools/resources/secure-connectivity-principles-operational-technology-ot</t>
+          <t>https://www.bleepingcomputer.com/news/artificial-intelligence/google-plans-to-make-chrome-for-android-an-agentic-browser-with-gemini/</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2996,27 +2996,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Inside RedVDS: How a single virtual desktop provider fueled worldwide cybercriminal operations</t>
+          <t>DHS reports non-fatal shooting of man sought in immigration enforcement stop - Reuters</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2026/01/14/inside-redvds-how-a-single-virtual-desktop-provider-fueled-worldwide-cybercriminal-operations/</t>
+          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQRW92OFhIazVsVThxY0pzOHVYOGNnWHhvY0J3dDBIOEdhYTBMN0N1T1pZZGFDVVgwdnlDVklScndsUFpLaGY1cHNBY2JMdzJWM1ZLTmtxclRPc2VIamZBdGloV1Z2SG5RLUthYWNvckdCd2pqN2lHZXhhcEdfTnlHNkcya2RiNVhnS182X0FhN094MXVXRGxIX1R1NEhCRHRRTGxLQ282SlpQaU5DU1p5aU11MTJQak4yQTAzV0VNVlA?oc=5</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3028,27 +3028,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Microsoft named a Leader in IDC MarketScape for Unified AI Governance Platforms</t>
+          <t>Toyota Industries' shares hit record as market hopes for higher buyout offer - Reuters</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2026/01/14/microsoft-named-a-leader-in-idc-marketscape-for-unified-ai-governance-platforms/</t>
+          <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxOY25vZ2dfN1I1bXZLaDZyNHBXUE1BT2ZVTkFtdl92VTdNRmp6Sm1vMTdFdHZGa3lkbTQ5YXVmZmxocE1YUy1qcU42cHYzQ001QjBraHMyZTAyQVN2UVJwcmVLTF9NNXBsWDFHeS1aR0xSVndmMWVKUHN3OTI2Z3ZnQUowVElFSS1BMW1CekxhbldORnp3cXNuMm1icW1ONV96WlZxREdRMzZjZmVWd0drVGxJUVQtX3VRYWVBZDdMaWZobkhfb2pVczBSUDAtVjA2MHhaT01DTFMyckx1M0txSVAydw?oc=5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3065,27 +3065,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Poland says it repelled major cyberattack on power grid, blames Russia</t>
+          <t>Festo Firmware</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://therecord.media/poland-cyberattack-grid-russia</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-02</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3097,27 +3097,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>'VoidLink' Malware Poses Advanced Threat to Linux Systems</t>
+          <t>Schneider Electric EcoStruxure Power Build Rapsody</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/voidlink-malware-advanced-threat-linux-systems</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-10</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3129,17 +3129,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Retail, Services Industries Under Fire in Oceania</t>
+          <t>Siemens Industrial Edge Devices</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cybersecurity-analytics/retail-services-industries-oceania</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-08</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3161,27 +3161,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Chrome 144, Firefox 147 Patch High-Severity Vulnerabilities</t>
+          <t>Siemens SINEC Security Monitor</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/chrome-144-firefox-147-patch-high-severity-vulnerabilities/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-06</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3193,27 +3193,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Fortinet Patches Critical Vulnerabilities in FortiFone, FortiSIEM</t>
+          <t>Siemens RUGGEDCOM APE1808 Devices</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/fortinet-patches-critical-vulnerabilities-in-fortifone-fortisiem/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-07</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3225,27 +3225,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Predator Spyware Turns Failed Attacks Into Intelligence for Future Exploits</t>
+          <t>Siemens Industrial Edge Device Kit</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/predator-spywares-granular-anti-analysis-features-exposed/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-09</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3257,27 +3257,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>RedVDS Cybercrime Service Disrupted by Microsoft and Law Enforcement</t>
+          <t>Siemens SIMATIC and SIPLUS products</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/redvds-cybercrime-service-disrupted-by-microsoft-and-law-enforcement/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-04</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3289,27 +3289,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ConsentFix debrief: Insights from the new OAuth phishing attack</t>
+          <t>Siemens TeleControl Server Basic</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/consentfix-debrief-insights-from-the-new-oauth-phishing-attack/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-03</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3321,17 +3321,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Verizon Wireless outage puts phones in SOS mode without cell service</t>
+          <t>Siemens RUGGEDCOM ROS</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/mobile/verizon-wireless-outage-puts-phones-in-sos-mode-without-cell-service/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-05</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3353,22 +3353,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Exploit code public for critical FortiSIEM command injection flaw</t>
+          <t>Secure Connectivity Principles for Operational Technology (OT)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/exploit-code-public-for-critical-fortisiem-command-injection-flaw/</t>
+          <t>https://www.cisa.gov/resources-tools/resources/secure-connectivity-principles-operational-technology-ot</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3385,22 +3385,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>South Korean giant Kyowon confirms data theft in ransomware attack</t>
+          <t>Inside RedVDS: How a single virtual desktop provider fueled worldwide cybercriminal operations</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/south-korean-giant-kyowon-confirms-data-theft-in-ransomware-attack/</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/14/inside-redvds-how-a-single-virtual-desktop-provider-fueled-worldwide-cybercriminal-operations/</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ランサムウェア</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3417,22 +3417,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Critical Node.js Vulnerability Can Cause Server Crashes via async_hooks Stack Overflow</t>
+          <t>Microsoft named a Leader in IDC MarketScape for Unified AI Governance Platforms</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/critical-nodejs-vulnerability-can-cause.html</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/14/microsoft-named-a-leader-in-idc-marketscape-for-unified-ai-governance-platforms/</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3449,22 +3449,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Microsoft Fixes 114 Windows Flaws in January 2026 Patch, One Actively Exploited</t>
+          <t>Poland says it repelled major cyberattack on power grid, blames Russia</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/microsoft-fixes-114-windows-flaws-in.html</t>
+          <t>https://therecord.media/poland-cyberattack-grid-russia</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3481,22 +3481,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Fortinet Fixes Critical FortiSIEM Flaw Allowing Unauthenticated Remote Code Execution</t>
+          <t>'VoidLink' Malware Poses Advanced Threat to Linux Systems</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/fortinet-fixes-critical-fortisiem-flaw.html</t>
+          <t>https://www.darkreading.com/cloud-security/voidlink-malware-advanced-threat-linux-systems</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3513,22 +3513,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Hackers Exploit c-ares DLL Side-Loading to Bypass Security and Deploy Malware</t>
+          <t>Retail, Services Industries Under Fire in Oceania</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/hackers-exploit-c-ares-dll-side-loading.html</t>
+          <t>https://www.darkreading.com/cybersecurity-analytics/retail-services-industries-oceania</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3545,17 +3545,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>AI Agents Are Becoming Privilege Escalation Paths</t>
+          <t>Chrome 144, Firefox 147 Patch High-Severity Vulnerabilities</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/ai-agents-are-becoming-privilege.html</t>
+          <t>https://www.securityweek.com/chrome-144-firefox-147-patch-high-severity-vulnerabilities/</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3577,22 +3577,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Researchers Null-Route Over 550 Kimwolf and Aisuru Botnet Command Servers</t>
+          <t>Fortinet Patches Critical Vulnerabilities in FortiFone, FortiSIEM</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/kimwolf-botnet-infected-over-2-million.html</t>
+          <t>https://www.securityweek.com/fortinet-patches-critical-vulnerabilities-in-fortifone-fortisiem/</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3609,22 +3609,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ukraine's new defence minister vows innovation on battlefield - Reuters</t>
+          <t>Predator Spyware Turns Failed Attacks Into Intelligence for Future Exploits</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQb2daQ3g2Z2RSZTBuTVZaUlcydWVlV2x5cmdWN3Q4UVVKdkVIaF9DSnJVN0pSUVZfbWRza050YTVOLXA1c1Y1cHZxSDQyRjFadUV1SjFpcmFpaTd3eWlQSWRPUjNOTW41c3ZVTTItcXIyNWhyWG0xMlVHUW1OdHVtU2w3bVFLQXhQTTZYeVVobjVjQ3BNQjVFRTIwWUNjaW5ONG5jekpNcFEzZ1RN?oc=5</t>
+          <t>https://www.securityweek.com/predator-spywares-granular-anti-analysis-features-exposed/</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3641,22 +3641,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>US healthcare spending soars to over $5 trillion in 2024 - Reuters</t>
+          <t>RedVDS Cybercrime Service Disrupted by Microsoft and Law Enforcement</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxOT21DRkZVNjY2R19RNGJrWnNzT0ptYjZzR3c0VVpOMEhLV1BSSDNZdk5jbzhGZmFUZzl6UVJsdmlLZmI1TDZzTV9Tb2hBSXQ1Rm5kdjBtNmU2RFB4a3hJNUpEWXRMZ3pqWE9pZWJ5TEt0eFJLZmtkcmhJWU1iYW1oTjJJNzd5VDZiVVBUX0Z6WmNKMEpiNk5Fei1sUGdLM3dfVDNuMg?oc=5</t>
+          <t>https://www.securityweek.com/redvds-cybercrime-service-disrupted-by-microsoft-and-law-enforcement/</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3673,22 +3673,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>France explores sending Eutelsat terminals to Iran amid internet blackout - Reuters</t>
+          <t>ConsentFix debrief: Insights from the new OAuth phishing attack</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOc3BHY0RmQVl0TnI4NFZEdGhEd3R2eHd1bk04dDFFYkdLNmJSYTdJNGx6LVVIcUVwVUwtQnhoVWJNek5oYWx3dFU2NmNTa2cwcmhzaXNyMTV6VmdpRTA4NHhiQ0NWS3VNUUEtdnJyTTBKeGJ2dGlBNnJYM21NQjhHY2VkVkNuNmEzMFJqX1hWYkZjeTB0bVk3ejNjbXN1MHVBWjhDQjdXSkJhN091VnV0WGRBaTQ4cWlOSWZTaWFNVjY2RF81d1hJ?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/consentfix-debrief-insights-from-the-new-oauth-phishing-attack/</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3705,17 +3705,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Tech, banks weigh on Wall Street; Trump eases Iran oil fears - Reuters</t>
+          <t>Verizon Wireless outage puts phones in SOS mode without cell service</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMie0FVX3lxTE9PNkpWSU0yUEpxb0YwdFVSSm9oTEt6M1ZqSWpndXhHM2FBWVJsTkk2SHVNaHJXQVJ4VF85OHhVWHFuN0lpX0N3cWF5Q3BralI0UWNHNm4tWml4QXAwLU1VRmVZZWtYejBpMFdEWjdvVjdWZkRoLTNxLXM1Yw?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/mobile/verizon-wireless-outage-puts-phones-in-sos-mode-without-cell-service/</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3737,22 +3737,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>German-Israel deal strengthens cyber defence, German minister says - Reuters</t>
+          <t>Exploit code public for critical FortiSIEM command injection flaw</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxPM190VDRucnBsRHkyZzlOOEJfSmU2T1lRa05BWjZVcnNsQlROaENkU252WjYxUU1Cb0JPaDNRRWZaXzhaREhiVWY0LWJ4Z3drZC1JSnpfaXZRMk5vd3VtTEhYdl8zUVo2ellZN0tkVHB1V3ppd1prME0tTGlBblotLU1HTnE3Vm5sa0VlNUxPVDdVSHhmdDgzUE5PTVdsLW1oXzRnemNUQ19lVzN0ODc3alB3SXlkeUtGazMw?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/exploit-code-public-for-critical-fortisiem-command-injection-flaw/</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3769,22 +3769,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Exclusive: Beijing tells Chinese firms to stop using US and Israeli cybersecurity software, sources say - Reuters</t>
+          <t>South Korean giant Kyowon confirms data theft in ransomware attack</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQZmNIRDZEN3d5ZXRyNnN5eHc2X0NlZkppN2dnSlpzeFQtTVhDVjJmeWx2aDg4QjQtM0wyRjkxY0ZuNnlOWlJNUmhRSWl4SzJMc1VjT0F1ZDBKMGNsZzJFc3ZodTd3S3dGRnBhRDlqZVdhZ1RwMVlQU1c1SkZQcXNjTGg1V0gxQTZGc004Y0tXeFpTRXZlQTNCdHJvb2tjRTNKTzVfMUdicjRWeHMxa2FhNlNDWGZxUjJBMWljYm9mYUEydGI1OC1z?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/south-korean-giant-kyowon-confirms-data-theft-in-ransomware-attack/</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3801,22 +3801,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Belgian cybersecurity startup Aikido hits unicorn status with new funding round - Reuters</t>
+          <t>Critical Node.js Vulnerability Can Cause Server Crashes via async_hooks Stack Overflow</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxQcjZHZjZ3NHpBajduLVg0ZU9XaWV4TGNxLVQzQmF4bktuQWwzWU9kQmltZVpRaGN6QThhYmxlOU9vckZTa2RHd3BtMkNRNkVjWmd6OUlzUjdERURJN2ZER0paa2R3Q0tIVW9qbFdQR19xcW9WbzZhMlpBd1VKQWJvVlpCdFRPeENEOTB4YzM2WFZXTHNIMkxMOXpxVjFqd2dSWklFZ3U5YlRCTVJ5VDEwdWpEN2tHdU1feFBUenpiR2drc2lq?oc=5</t>
+          <t>https://thehackernews.com/2026/01/critical-nodejs-vulnerability-can-cause.html</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3838,12 +3838,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>PLUGGYAPE Malware Uses Signal and WhatsApp to Target Ukrainian Defense Forces</t>
+          <t>Microsoft Fixes 114 Windows Flaws in January 2026 Patch, One Actively Exploited</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/pluggyape-malware-uses-signal-and.html</t>
+          <t>https://thehackernews.com/2026/01/microsoft-fixes-114-windows-flaws-in.html</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -3865,27 +3865,27 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Takaichi and Lee end first day of summit on a high note with drum session - Reuters</t>
+          <t>Fortinet Fixes Critical FortiSIEM Flaw Allowing Unauthenticated Remote Code Execution</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQUFY3eWVKSUFQYXlxQXhwQUZGaVFvN1hiLTI1LXZTd0VveHdaNTRJbnUxOEZuNzhhUHBEZUp3WWE1OU5scUdTRTFlVTdjWkQ3eGdHdW9WbTctOVFYSFd4RkNDbU12Z2RzemppelpMckRaNE53NTMxUnd2blFyXy00V3N5d0J5cUJWWnhiMzEtR0lpS0lJMnR0emxXbXo0cDlmaC1nWnhITl9qeVg0cjRRdWZGel9kWmM?oc=5</t>
+          <t>https://thehackernews.com/2026/01/fortinet-fixes-critical-fortisiem-flaw.html</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -3897,27 +3897,27 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Gold notches record high, silver cracks $90 on Fed rate cut bets - Reuters</t>
+          <t>Hackers Exploit c-ares DLL Side-Loading to Bypass Security and Deploy Malware</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPMDVHbjVCZURFTGl4X1FWMGtPSnh1NmN5NkhXdndsLWxnbWFJNTRUUUJseHV2T0VfWWhWc3pucUpUOHVRSEVWR2JKaXZwTVc5UnpZWmxOMWtXV3FqT3RIQXRzbmdORlRhMkg4UGNrUFFFdUJJaDNxTDg1UTRfSmlPNV85U0VnQ2NLNkRtTW96aUxvQjlNNEh3dkx3MW5NdGtERlRLc1Fhc3M?oc=5</t>
+          <t>https://thehackernews.com/2026/01/hackers-exploit-c-ares-dll-side-loading.html</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -3929,27 +3929,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ready, steady gold! Safety bid adds fuel to cenbank fire - Reuters</t>
+          <t>AI Agents Are Becoming Privilege Escalation Paths</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxNYURRZnRjcXc0Q1V0M0E0VUdBbWhMVm5rS2NzSXItbkR5bk5hWGx0ZXdMNV81Q0dzTkRuckJWcndEenpTZEl5SUhNc0dwS1R1TGMyUjNGWlBhM254d1FqU0NlM1NzNFRtZFhYUEY3czlxeUFVX1B1M29nVml1elViNl9odlNJTGhrN0lkd3BEWHdXLUNKeE5PZHR5dTB4Z1hjdWV5aVJReWFseUFOQTdqQ1hSYWY?oc=5</t>
+          <t>https://thehackernews.com/2026/01/ai-agents-are-becoming-privilege.html</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -3961,27 +3961,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Trump urges Iranians to keep protesting, saying 'help is on its way' - Reuters</t>
+          <t>Researchers Null-Route Over 550 Kimwolf and Aisuru Botnet Command Servers</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQNzdvSXBtajhYdGFUZ3pLMU40djlOWUdDTGJZQ3Z3UEt5aDdNZ3djam1YTEFqZFlEOHhqS2NxV2lPUzREZXdad2FQZ2Z0NWNyU3JJdGtqakd1b1F3SnZTY29RSG9oSUNIRFNtdXNYSkxLTURzTzRRdWctZ2kzaExEX2hGQ0MwdEdzQm5PVldZMEQ2VUFQSFRwSm4wWU42NWg3aUxYRzRDUkdPM2FvWXVyMnh4NGVnUWs?oc=5</t>
+          <t>https://thehackernews.com/2026/01/kimwolf-botnet-infected-over-2-million.html</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -3998,22 +3998,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>China's trade ends 2025 with record $1.2 trillion surplus despite Trump tariff jolt - Reuters</t>
+          <t>Ukraine's new defence minister vows innovation on battlefield - Reuters</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOUTJBRGwwTTYzOEZ1ZGJxeDhqbHVXOWJ3ejBrY2c3ZzVDZXhIRV9IemtkRG15MERacVJQVnZxcVVTeWVqZnlkZ3pkVWJpY2RXTGxCV3EtOFhUQ29WUDBuSVdWY0M3WlBTRG1TTWlpVjNxd3JEMGxpZkd6YzR6eGxxZkhObERkc1NXSnJwT3pHQ2ZHUXhzdDNjQmxrYzJST0lQWXBZRVpvdHFIMVNlb2RUc3RLMFI1RnYybDFlWlp3c04xaC10cFlj?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQb2daQ3g2Z2RSZTBuTVZaUlcydWVlV2x5cmdWN3Q4UVVKdkVIaF9DSnJVN0pSUVZfbWRza050YTVOLXA1c1Y1cHZxSDQyRjFadUV1SjFpcmFpaTd3eWlQSWRPUjNOTW41c3ZVTTItcXIyNWhyWG0xMlVHUW1OdHVtU2w3bVFLQXhQTTZYeVVobjVjQ3BNQjVFRTIwWUNjaW5ONG5jekpNcFEzZ1RN?oc=5</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -4030,22 +4030,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Chipmaker Nexperia and Chinese owner Wingtech fight for control in Dutch court - Reuters</t>
+          <t>US healthcare spending soars to over $5 trillion in 2024 - Reuters</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxNUjA2QmJ6NEdoSWl0bVJwRzFMbUZidDdPZldURzl5a1dSNUgwTEZvajVsLWZMdXl5WUxNTG5hSkNkcy13ZkM5RnlRLXc2Zmp2T2d3S3JWem9VVU04UHVrcm5yMmhGQjJDUFZUa19JNzdKeGdlWUlXX0FNSmRPaEd2MUE1aUlkSTFxbXFHQ1FyRDVZY2NZWE5yYXc0NzhKa0pzZDM5MkY5Z016TmZmX2RveUNjV3dRdw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxOT21DRkZVNjY2R19RNGJrWnNzT0ptYjZzR3c0VVpOMEhLV1BSSDNZdk5jbzhGZmFUZzl6UVJsdmlLZmI1TDZzTV9Tb2hBSXQ1Rm5kdjBtNmU2RFB4a3hJNUpEWXRMZ3pqWE9pZWJ5TEt0eFJLZmtkcmhJWU1iYW1oTjJJNzd5VDZiVVBUX0Z6WmNKMEpiNk5Fei1sUGdLM3dfVDNuMg?oc=5</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -4062,49 +4062,49 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Trump says he thinks China can open its markets to US goods - Reuters</t>
+          <t>France explores sending Eutelsat terminals to Iran amid internet blackout - Reuters</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxONVBCX2drb3JScmU2TTYyMi1uVC1ZVU02S0NtNFRiSHhUZm5fOG9HaFBaN3dXNWs3V0RGUEE4amVOS2RrT1BlNWM4QjhOLVM1NzNQSERYNl9lQUFEQ0NDa0VsMEN3QlBUTFE2UFZOVF8tcjNrQjlEYjQ5c2o2SVMycEZQOFhHazJySVVzaXNHNzlyZ0ttcFpYWDhCUVgwcndYS2tV?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOc3BHY0RmQVl0TnI4NFZEdGhEd3R2eHd1bk04dDFFYkdLNmJSYTdJNGx6LVVIcUVwVUwtQnhoVWJNek5oYWx3dFU2NmNTa2cwcmhzaXNyMTV6VmdpRTA4NHhiQ0NWS3VNUUEtdnJyTTBKeGJ2dGlBNnJYM21NQjhHY2VkVkNuNmEzMFJqX1hWYkZjeTB0bVk3ejNjbXN1MHVBWjhDQjdXSkJhN091VnV0WGRBaTQ4cWlOSWZTaWFNVjY2RF81d1hJ?oc=5</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CrowdStrike to Buy Seraphic Security in Bid to Boost Browser Security</t>
+          <t>Tech, banks weigh on Wall Street; Trump eases Iran oil fears - Reuters</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/crowdstrike-buy-seraphic-security-boost-browser-security</t>
+          <t>https://news.google.com/rss/articles/CBMie0FVX3lxTE9PNkpWSU0yUEpxb0YwdFVSSm9oTEt6M1ZqSWpndXhHM2FBWVJsTkk2SHVNaHJXQVJ4VF85OHhVWHFuN0lpX0N3cWF5Q3BralI0UWNHNm4tWml4QXAwLU1VRmVZZWtYejBpMFdEWjdvVjdWZkRoLTNxLXM1Yw?oc=5</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4116,7 +4116,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4126,17 +4126,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Bloomberg Index Services defers including Indian bonds in global index - Reuters</t>
+          <t>German-Israel deal strengthens cyber defence, German minister says - Reuters</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQR1lPWGVrdzBFTjRKWVh5cEFSVWI1c01ZTmdYTTFKRUpJWDJMdE5nRG1uaU16TEVTa3dnRHJNV296dlRoSF9oZy1RcUViSnhPWVFMTXkyZGc0Um54UEozM0dzYnk0emRJd2VlR3FuNWFUZ2xzUlNzeVJmN1Y2YndEUDZ5cTNRNjluM1NOWWRzbzhueGVKWG5NNGtJa2dza1djblc2SUdUbDV0N1lLWE1VdFVqMzBGdw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxPM190VDRucnBsRHkyZzlOOEJfSmU2T1lRa05BWjZVcnNsQlROaENkU252WjYxUU1Cb0JPaDNRRWZaXzhaREhiVWY0LWJ4Z3drZC1JSnpfaXZRMk5vd3VtTEhYdl8zUVo2ellZN0tkVHB1V3ppd1prME0tTGlBblotLU1HTnE3Vm5sa0VlNUxPVDdVSHhmdDgzUE5PTVdsLW1oXzRnemNUQ19lVzN0ODc3alB3SXlkeUtGazMw?oc=5</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4148,54 +4148,54 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Rockwell Automation 432ES-IG3 Series A</t>
+          <t>Exclusive: Beijing tells Chinese firms to stop using US and Israeli cybersecurity software, sources say - Reuters</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-01</t>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQZmNIRDZEN3d5ZXRyNnN5eHc2X0NlZkppN2dnSlpzeFQtTVhDVjJmeWx2aDg4QjQtM0wyRjkxY0ZuNnlOWlJNUmhRSWl4SzJMc1VjT0F1ZDBKMGNsZzJFc3ZodTd3S3dGRnBhRDlqZVdhZ1RwMVlQU1c1SkZQcXNjTGg1V0gxQTZGc004Y0tXeFpTRXZlQTNCdHJvb2tjRTNKTzVfMUdicjRWeHMxa2FhNlNDWGZxUjJBMWljYm9mYUEydGI1OC1z?oc=5</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Rockwell Automation FactoryTalk DataMosaix Private Cloud</t>
+          <t>Belgian cybersecurity startup Aikido hits unicorn status with new funding round - Reuters</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-02</t>
+          <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxQcjZHZjZ3NHpBajduLVg0ZU9XaWV4TGNxLVQzQmF4bktuQWwzWU9kQmltZVpRaGN6QThhYmxlOU9vckZTa2RHd3BtMkNRNkVjWmd6OUlzUjdERURJN2ZER0paa2R3Q0tIVW9qbFdQR19xcW9WbzZhMlpBd1VKQWJvVlpCdFRPeENEOTB4YzM2WFZXTHNIMkxMOXpxVjFqd2dSWklFZ3U5YlRCTVJ5VDEwdWpEN2tHdU1feFBUenpiR2drc2lq?oc=5</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4205,34 +4205,34 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>YoSmart YoLink Smart Hub</t>
+          <t>PLUGGYAPE Malware Uses Signal and WhatsApp to Target Ukrainian Defense Forces</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-03</t>
+          <t>https://thehackernews.com/2026/01/pluggyape-malware-uses-signal-and.html</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4244,27 +4244,27 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Takaichi and Lee end first day of summit on a high note with drum session - Reuters</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2026/01/13/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQUFY3eWVKSUFQYXlxQXhwQUZGaVFvN1hiLTI1LXZTd0VveHdaNTRJbnUxOEZuNzhhUHBEZUp3WWE1OU5scUdTRTFlVTdjWkQ3eGdHdW9WbTctOVFYSFd4RkNDbU12Z2RzemppelpMckRaNE53NTMxUnd2blFyXy00V3N5d0J5cUJWWnhiMzEtR0lpS0lJMnR0emxXbXo0cDlmaC1nWnhITl9qeVg0cjRRdWZGel9kWmM?oc=5</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4276,27 +4276,27 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>January 2026 Patch Tuesday: 114 CVEs Patched Including 3 Zero-Days</t>
+          <t>Gold notches record high, silver cracks $90 on Fed rate cut bets - Reuters</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/patch-tuesday-analysis-january-2026/</t>
+          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPMDVHbjVCZURFTGl4X1FWMGtPSnh1NmN5NkhXdndsLWxnbWFJNTRUUUJseHV2T0VfWWhWc3pucUpUOHVRSEVWR2JKaXZwTVc5UnpZWmxOMWtXV3FqT3RIQXRzbmdORlRhMkg4UGNrUFFFdUJJaDNxTDg1UTRfSmlPNV85U0VnQ2NLNkRtTW96aUxvQjlNNEh3dkx3MW5NdGtERlRLc1Fhc3M?oc=5</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4308,22 +4308,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>CrowdStrike to Acquire Seraphic to Secure Work in Any Browser</t>
+          <t>Ready, steady gold! Safety bid adds fuel to cenbank fire - Reuters</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-seraphic/</t>
+          <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxNYURRZnRjcXc0Q1V0M0E0VUdBbWhMVm5rS2NzSXItbkR5bk5hWGx0ZXdMNV81Q0dzTkRuckJWcndEenpTZEl5SUhNc0dwS1R1TGMyUjNGWlBhM254d1FqU0NlM1NzNFRtZFhYUEY3czlxeUFVX1B1M29nVml1elViNl9odlNJTGhrN0lkd3BEWHdXLUNKeE5PZHR5dTB4Z1hjdWV5aVJReWFseUFOQTdqQ1hSYWY?oc=5</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4340,27 +4340,27 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Remote Code Execution With Modern AI/ML Formats and Libraries</t>
+          <t>Trump urges Iranians to keep protesting, saying 'help is on its way' - Reuters</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/rce-vulnerabilities-in-ai-python-libraries/</t>
+          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQNzdvSXBtajhYdGFUZ3pLMU40djlOWUdDTGJZQ3Z3UEt5aDdNZ3djam1YTEFqZFlEOHhqS2NxV2lPUzREZXdad2FQZ2Z0NWNyU3JJdGtqakd1b1F3SnZTY29RSG9oSUNIRFNtdXNYSkxLTURzTzRRdWctZ2kzaExEX2hGQ0MwdEdzQm5PVldZMEQ2VUFQSFRwSm4wWU42NWg3aUxYRzRDUkdPM2FvWXVyMnh4NGVnUWs?oc=5</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4372,27 +4372,27 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Threat Brief: MongoDB Vulnerability (CVE-2025-14847)</t>
+          <t>China's trade ends 2025 with record $1.2 trillion surplus despite Trump tariff jolt - Reuters</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/mongobleed-cve-2025-14847/</t>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOUTJBRGwwTTYzOEZ1ZGJxeDhqbHVXOWJ3ejBrY2c3ZzVDZXhIRV9IemtkRG15MERacVJQVnZxcVVTeWVqZnlkZ3pkVWJpY2RXTGxCV3EtOFhUQ29WUDBuSVdWY0M3WlBTRG1TTWlpVjNxd3JEMGxpZkd6YzR6eGxxZkhObERkc1NXSnJwT3pHQ2ZHUXhzdDNjQmxrYzJST0lQWXBZRVpvdHFIMVNlb2RUc3RLMFI1RnYybDFlWlp3c04xaC10cFlj?oc=5</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4404,27 +4404,27 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Senior military cyber operator removed from Russia task force</t>
+          <t>Chipmaker Nexperia and Chinese owner Wingtech fight for control in Dutch court - Reuters</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://therecord.media/senior-military-cyber-op-removed-russia-task-force</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxNUjA2QmJ6NEdoSWl0bVJwRzFMbUZidDdPZldURzl5a1dSNUgwTEZvajVsLWZMdXl5WUxNTG5hSkNkcy13ZkM5RnlRLXc2Zmp2T2d3S3JWem9VVU04UHVrcm5yMmhGQjJDUFZUa19JNzdKeGdlWUlXX0FNSmRPaEd2MUE1aUlkSTFxbXFHQ1FyRDVZY2NZWE5yYXc0NzhKa0pzZDM5MkY5Z016TmZmX2RveUNjV3dRdw?oc=5</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4436,27 +4436,27 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ukraine parliament approves resignation of security service chief in major reshuffle</t>
+          <t>Trump says he thinks China can open its markets to US goods - Reuters</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://therecord.media/ukraine-parliament-approves-resignation-sbu-chief</t>
+          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxONVBCX2drb3JScmU2TTYyMi1uVC1ZVU02S0NtNFRiSHhUZm5fOG9HaFBaN3dXNWs3V0RGUEE4amVOS2RrT1BlNWM4QjhOLVM1NzNQSERYNl9lQUFEQ0NDa0VsMEN3QlBUTFE2UFZOVF8tcjNrQjlEYjQ5c2o2SVMycEZQOFhHazJySVVzaXNHNzlyZ0ttcFpYWDhCUVgwcndYS2tV?oc=5</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4478,22 +4478,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Attackers Abuse Python, Cloudflare to Deliver AsyncRAT</t>
+          <t>CrowdStrike to Buy Seraphic Security in Bid to Boost Browser Security</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/attackers-abuse-python-cloudflare-deliver-asyncrat</t>
+          <t>https://www.darkreading.com/remote-workforce/crowdstrike-buy-seraphic-security-boost-browser-security</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -4505,27 +4505,27 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Shadow#Reactor Uses Text Files to Deliver Remcos RAT</t>
+          <t>Bloomberg Index Services defers including Indian bonds in global index - Reuters</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/shadow-reactor-uses-text-files-to-deliver-remcos-rat</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQR1lPWGVrdzBFTjRKWVh5cEFSVWI1c01ZTmdYTTFKRUpJWDJMdE5nRG1uaU16TEVTa3dnRHJNV296dlRoSF9oZy1RcUViSnhPWVFMTXkyZGc0Um54UEozM0dzYnk0emRJd2VlR3FuNWFUZ2xzUlNzeVJmN1Y2YndEUDZ5cTNRNjluM1NOWWRzbzhueGVKWG5NNGtJa2dza1djblc2SUdUbDV0N1lLWE1VdFVqMzBGdw?oc=5</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -4537,22 +4537,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Microsoft Starts 2026 With a Bang: A Freshly Exploited Zero-Day</t>
+          <t>Rockwell Automation 432ES-IG3 Series A</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/application-security/microsofts-starts-2026-bang-zero-day</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-01</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4569,22 +4569,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>'Most Severe AI Vulnerability to Date' Hits ServiceNow</t>
+          <t>Rockwell Automation FactoryTalk DataMosaix Private Cloud</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/ai-vulnerability-servicenow</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-02</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4601,22 +4601,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SAP’s January 2026 Security Updates Patch Critical Vulnerabilities</t>
+          <t>YoSmart YoLink Smart Hub</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/saps-january-2026-security-updates-patch-critical-vulnerabilities/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-03</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4633,22 +4633,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Broadcom Wi-Fi Chipset Flaw Allows Hackers to Disrupt Networks</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/broadcom-wi-fi-chipset-flaw-allows-hackers-to-disrupt-networks/</t>
+          <t>https://www.cisa.gov/news-events/alerts/2026/01/13/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4665,22 +4665,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>After Goldman, JPMorgan Discloses Law Firm Data Breach</t>
+          <t>January 2026 Patch Tuesday: 114 CVEs Patched Including 3 Zero-Days</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/after-goldman-jpmorgan-discloses-law-firm-data-breach/</t>
+          <t>https://www.crowdstrike.com/en-us/blog/patch-tuesday-analysis-january-2026/</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4697,22 +4697,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>GoBruteforcer Botnet Targeting Crypto, Blockchain Projects</t>
+          <t>CrowdStrike to Acquire Seraphic to Secure Work in Any Browser</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/gobruteforcer-botnet-targeting-crypto-blockchain-projects/</t>
+          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-seraphic/</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4729,17 +4729,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Microsoft Patches Exploited Windows Zero-Day, 111 Other Vulnerabilities</t>
+          <t>Remote Code Execution With Modern AI/ML Formats and Libraries</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/microsoft-patches-exploited-windows-zero-day-111-other-vulnerabilities/</t>
+          <t>https://unit42.paloaltonetworks.com/rce-vulnerabilities-in-ai-python-libraries/</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4761,17 +4761,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Adobe Patches Critical Apache Tika Bug in ColdFusion</t>
+          <t>Threat Brief: MongoDB Vulnerability (CVE-2025-14847)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/adobe-patches-critical-apache-tika-bug-in-coldfusion/</t>
+          <t>https://unit42.paloaltonetworks.com/mongobleed-cve-2025-14847/</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4793,22 +4793,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>CrowdStrike to Acquire Browser Security Firm Seraphic for $420 Million</t>
+          <t>Senior military cyber operator removed from Russia task force</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/crowdstrike-to-acquire-browser-security-firm-seraphic-for-420-million/</t>
+          <t>https://therecord.media/senior-military-cyber-op-removed-russia-task-force</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4825,22 +4825,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Target employees confirm leaked source code is authentic</t>
+          <t>Ukraine parliament approves resignation of security service chief in major reshuffle</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/target-employees-confirm-leaked-source-code-is-authentic/</t>
+          <t>https://therecord.media/ukraine-parliament-approves-resignation-sbu-chief</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4857,22 +4857,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Convincing LinkedIn comment-reply tactic used in new phishing</t>
+          <t>Attackers Abuse Python, Cloudflare to Deliver AsyncRAT</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/convincing-linkedin-comment-reply-tactic-used-in-new-phishing/</t>
+          <t>https://www.darkreading.com/endpoint-security/attackers-abuse-python-cloudflare-deliver-asyncrat</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4889,22 +4889,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Betterment confirms data breach after wave of crypto scam emails</t>
+          <t>Shadow#Reactor Uses Text Files to Deliver Remcos RAT</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/betterment-confirms-data-breach-after-wave-of-crypto-scam-emails/</t>
+          <t>https://www.darkreading.com/endpoint-security/shadow-reactor-uses-text-files-to-deliver-remcos-rat</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4921,22 +4921,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Google confirms Android bug causing volume key issues</t>
+          <t>Microsoft Starts 2026 With a Bang: A Freshly Exploited Zero-Day</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/google/google-confirms-android-bug-causing-volume-key-issues/</t>
+          <t>https://www.darkreading.com/application-security/microsofts-starts-2026-bang-zero-day</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4953,17 +4953,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Microsoft January 2026 Patch Tuesday fixes 3 zero-days, 114 flaws</t>
+          <t>'Most Severe AI Vulnerability to Date' Hits ServiceNow</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/microsoft/microsoft-january-2026-patch-tuesday-fixes-3-zero-days-114-flaws/</t>
+          <t>https://www.darkreading.com/remote-workforce/ai-vulnerability-servicenow</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4985,22 +4985,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>New Windows updates replace expiring Secure Boot certificates</t>
+          <t>SAP’s January 2026 Security Updates Patch Critical Vulnerabilities</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/microsoft-rolls-out-new-secure-boot-certificates-for-windows-devices/</t>
+          <t>https://www.securityweek.com/saps-january-2026-security-updates-patch-critical-vulnerabilities/</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5017,22 +5017,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Belgian hospital AZ Monica shuts down servers after cyberattack</t>
+          <t>Broadcom Wi-Fi Chipset Flaw Allows Hackers to Disrupt Networks</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/belgian-hospital-az-monica-shuts-down-servers-after-cyberattack/</t>
+          <t>https://www.securityweek.com/broadcom-wi-fi-chipset-flaw-allows-hackers-to-disrupt-networks/</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5049,22 +5049,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>New VoidLink malware framework targets Linux cloud servers</t>
+          <t>After Goldman, JPMorgan Discloses Law Firm Data Breach</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/new-voidlink-malware-framework-targets-linux-cloud-servers/</t>
+          <t>https://www.securityweek.com/after-goldman-jpmorgan-discloses-law-firm-data-breach/</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5081,22 +5081,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Ukraine's army targeted in new charity-themed malware campaign</t>
+          <t>GoBruteforcer Botnet Targeting Crypto, Blockchain Projects</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/ukraines-army-targeted-in-new-charity-themed-malware-campaign/</t>
+          <t>https://www.securityweek.com/gobruteforcer-botnet-targeting-crypto-blockchain-projects/</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5113,17 +5113,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>CISA Warns of Active Exploitation of Gogs Vulnerability Enabling Code Execution</t>
+          <t>Microsoft Patches Exploited Windows Zero-Day, 111 Other Vulnerabilities</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/cisa-warns-of-active-exploitation-of.html</t>
+          <t>https://www.securityweek.com/microsoft-patches-exploited-windows-zero-day-111-other-vulnerabilities/</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5145,22 +5145,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>New Malware Campaign Delivers Remcos RAT Through Multi-Stage Windows Attack</t>
+          <t>Adobe Patches Critical Apache Tika Bug in ColdFusion</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/new-malware-campaign-delivers-remcos.html</t>
+          <t>https://www.securityweek.com/adobe-patches-critical-apache-tika-bug-in-coldfusion/</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5177,22 +5177,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ServiceNow Patches Critical AI Platform Flaw Allowing Unauthenticated User Impersonation</t>
+          <t>CrowdStrike to Acquire Browser Security Firm Seraphic for $420 Million</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/servicenow-patches-critical-ai-platform.html</t>
+          <t>https://www.securityweek.com/crowdstrike-to-acquire-browser-security-firm-seraphic-for-420-million/</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5209,22 +5209,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>New Advanced Linux VoidLink Malware Targets Cloud and container Environments</t>
+          <t>Target employees confirm leaked source code is authentic</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/new-advanced-linux-voidlink-malware.html</t>
+          <t>https://www.bleepingcomputer.com/news/security/target-employees-confirm-leaked-source-code-is-authentic/</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5241,22 +5241,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Senior Russian official says Greenland could vote to join Russia if Trump does not hurry - Reuters</t>
+          <t>Convincing LinkedIn comment-reply tactic used in new phishing</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxQWGRiQ1h1elVpU09iYzkzbkNXSkpqT1J0SDRhM1ZzZ3VHcnRFN0o3U3d5cjZiV0U5bGx5bmsyaEwtTnpqam0wYUk1SE9sbzVuUE1neVp5Z1FydFJFRmxia2ljVE1OdWtxV2lWeWotNTZrZl92Wno2cElMcG5zNk1sU0xyMjh6cjNmRHByTzIwTnZFcXppMXlpczJ4NVBhRVRsZW9sVldoR1hGcUxjdkVsMXB5bEcxV3RHaHpNRjZn?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/convincing-linkedin-comment-reply-tactic-used-in-new-phishing/</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5273,22 +5273,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Trump says inflation data means Fed can cut interest rates - Reuters</t>
+          <t>Betterment confirms data breach after wave of crypto scam emails</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOb1RPV1JkVVVGcXpVb3IwVXMzeHEwNmdnUU8tWktMQmVhMUc4UElTMEJmWkdoTjRrWWJzNmtJRm1vTndoRVF4SGx5R09oSXJaeDlmUEdsYnE4RU1XRHN3SWpCZEN1YTU4MGdVbWwwamoxQ1J1SzVPekdrNkZfVE5QVjR4R0pTYklPX3hDbXBMWkZYVmFwNGV2blc0RXdjT3d2UWs0aWZTaWxXZw?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/betterment-confirms-data-breach-after-wave-of-crypto-scam-emails/</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5305,17 +5305,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>China limits Nvidia chip purchases to special circumstances, Information reports - Reuters</t>
+          <t>Google confirms Android bug causing volume key issues</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxNQU5YR3BRNnBjUndkYWJqNnFnSFlDS2xYYVFycUp5UmZoeExwaUFaeThuaXZKdmlWOS12MU9iN3RwYVcwdmUtd2xQS0lNMkpxYjBCNkZpc09pMWNPSVNCcHVLMHdKYUo2VUx4c0pkajVURmFnU1Qta0tGYkRNdkpsWXIzSHFHNk5YQWZuTTFpUEZneW82aTJZaXJybG8wa0VkWGJ3c2tpNFBrVXdYVXhQY1RFcmU3MjJoTnZqX1ZWZDh4dw?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/google/google-confirms-android-bug-causing-volume-key-issues/</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5337,22 +5337,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Tomlin steps down as Steelers' coach after 19 seasons - Reuters</t>
+          <t>Microsoft January 2026 Patch Tuesday fixes 3 zero-days, 114 flaws</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxNZ3N6RXJfUG5LbjhDMVhRMkxYS2l1UkdiWUF0eU5jRFQyMVpXd3FRLVllNE53WUh6NjRBNVFZU3MtaGpFR1VhdHN6S2hIbUJOS2c2X1hHdS0xWDdnTEFQd0wtaWR6RlF1S1I1UnFVbDI4WWlLdkhNUHpPVm54cWJXV1hYek10WG9ZZG5VSVdnRXRISXF1OEJV?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/microsoft/microsoft-january-2026-patch-tuesday-fixes-3-zero-days-114-flaws/</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5369,17 +5369,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Trump probe of Fed chair stresses need for global diversification - Reuters</t>
+          <t>New Windows updates replace expiring Secure Boot certificates</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNWUtZdWRtOC1FSkp4SEVuVktuMkNBLXAtSXZNOE5FX1doOTdvaFpuNjdaZHNsaVpOMFNFOTlYMC1KdTNKamh1azAxNVlJU2JXVzdrMGZQaXJwTDhqWE9VQXJXRkJSMWgxT3VMQkw0NGZFMTQ4YmNVZGFocHZfcEY3MVhGcXk0WlhtODZKRFRBM0s2QjlIRTBHajEzdEZFNFI4aGVtTVFR?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/microsoft-rolls-out-new-secure-boot-certificates-for-windows-devices/</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5401,22 +5401,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Pope Leo to visit Angola as part of an Africa tour, Vatican envoy says - Reuters</t>
+          <t>Belgian hospital AZ Monica shuts down servers after cyberattack</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxNRndWQmRaMzR3ZXlFbjZQbk0zV1JYSFA1Qy1FVUJSQUVCX3ExVzZnYmFFVUtFdmdpZnl3ZGNzOUFRRWJRTEpCTnloNkFNRUNVcjdBeThPcmZqYVFUbXlfNXduRC1PZkg4WURJVEVTdkRsR24zYjd2amRQZHRhN2NSaXZLLXB3UWZ2b0RiaDNBM0hkYzFuVmNYdHl6VHA0aXNqSy00dg?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/belgian-hospital-az-monica-shuts-down-servers-after-cyberattack/</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5433,22 +5433,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Wall Street expects strong fourth-quarter earnings driven by robust US economy - Reuters</t>
+          <t>New VoidLink malware framework targets Linux cloud servers</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxOUnc1ZC1sYk1ETFVDWUpGQkpkRnlSd0hhVXJKZmF4dlMzREhxV0NGS1VjbFpheEQtZkYyelJtT0gxbGhmb2I1eWtHYzhSaTZlUktabXNhd1N3X0ZQOTJjZXNxdVVYMlRqZVR6MHF0c1AyNEhhZ2gxc19iaTdzWWVQQkhxMFk0amw2YWZVdXUyaVFVZ19rZHp4clIyOVdIMVhxYjdRYWxsSnFDUy1wTGJwNEhYUERRZ3BJRTFzM01hYVppRmotbXpBaVZHVQ?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/new-voidlink-malware-framework-targets-linux-cloud-servers/</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5465,22 +5465,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Polygon targets stablecoin payments with deals worth $250 million - Reuters</t>
+          <t>Ukraine's army targeted in new charity-themed malware campaign</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQTXBYdG9GYnhtWGp2MlgzSm0zTGR5QUxFdFAyR2JrZHNLQ1dUaGVBOWQxa2hucUN0VWxXdmdXT1NuYkNiWG54WmloUTJBcFoyYjlLUDJwUVNjT2tBYkFpN3BMNzVDUlMtV0tET3d2cjRMREl6bXJTSm42UTZYUGNLTVFVWlZ4V0luRGdGb1NBcjhaTFlGWnZCZkdJVjBFTDctcC1pYW1SYUVLQ0NVS3c?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/ukraines-army-targeted-in-new-charity-themed-malware-campaign/</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5497,22 +5497,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>EU to 'swiftly' propose further sanctions on Iran, von der Leyen says - Reuters</t>
+          <t>CISA Warns of Active Exploitation of Gogs Vulnerability Enabling Code Execution</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxQblFzQUFWcGxwaEtsVlBPcmdMRExLaS1BekxsaWJTSU14elNKY3ZES1o3LVNPdjJwb1dGT1lGQ3ZaMm1uNDRPc05TLUlkUTRwQ19sODRsbGhSemVoM0NRMC1TVktLandoVkNJNG9wSGJQcVUyb1FpLWpWLWdaQWhFdE5kOEo1SGJLRElnNG52M0p0cTVFeGtjVkR5dGR2OXU3b2xlTg?oc=5</t>
+          <t>https://thehackernews.com/2026/01/cisa-warns-of-active-exploitation-of.html</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5529,22 +5529,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Britain seeks 'reset' in copyright battle between AI and creators - Reuters</t>
+          <t>New Malware Campaign Delivers Remcos RAT Through Multi-Stage Windows Attack</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQN1RNSkNXMDF2bXVkOVV5VnIyRW5GNk9JMzljdmd1dlB2TVFTLXI3bWMzUGJYWG9JLTFRNHFaUHlqcjlRNjFhQ2c2cDhVMVdqYU91VWYtQ01JRUE0ZTgyLXFVcEowVXYzcGd3bUtLaF9Xa1RORW1CdnBuVmMtakVqbkJFNzZab0w2OUdQaFlFMi04N0NMRU16Nzdfajc3SHRFbHd1ckt0cGNZOU9FcnpoTnEzSS1tQQ?oc=5</t>
+          <t>https://thehackernews.com/2026/01/new-malware-campaign-delivers-remcos.html</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5561,22 +5561,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Bill and Hillary Clinton refuse to testify in House Epstein probe, could be held in contempt - Reuters</t>
+          <t>ServiceNow Patches Critical AI Platform Flaw Allowing Unauthenticated User Impersonation</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNbHhxUGFmX3kxTGFGRkxiSGJ1ZlVqZVJQZlhWc3ZyRTU0dmdhaERIYnJJS3NJTVlJYWdURHI2VVZzYWVRcldDeHpQRlhMTHBLZ3ZLZHRUMjNIazFzVUNHTGQtbVJIZGJNVWEza3I3dExvVDZLaHR1UVkyVVhsSGlCX0MtV2NmOVRDYkdpRG9PaHgzSFNLVUd0OHN3WlhJRzVfX1E0c3g5bjducThD?oc=5</t>
+          <t>https://thehackernews.com/2026/01/servicenow-patches-critical-ai-platform.html</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5593,17 +5593,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Wall St slips on credit card proposal, rate bets boost gold - Reuters</t>
+          <t>New Advanced Linux VoidLink Malware Targets Cloud and container Environments</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiigFBVV95cUxPUVoxcXJ6WjA4UUcwYlJoY1FTVFUyNzJlRVFkU0pvVFIwWDJuTk9NaXVCRFV4ZlRQRUFWQXBhZ05ycHViU09UdzgzdUJ2RE9ndjlwQVVDYXVhcHBVVXZ4V3V1NXU5SC1IVDlYVmljSmFCY0Zhei1wSDJxcWRnX0lqZ0twREl4Rl9ZNHc?oc=5</t>
+          <t>https://thehackernews.com/2026/01/new-advanced-linux-voidlink-malware.html</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5630,12 +5630,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>US teachers union says it is leaving X over sexualized AI images of children - Reuters</t>
+          <t>Senior Russian official says Greenland could vote to join Russia if Trump does not hurry - Reuters</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPeFlRczdTUUd1bWdNbVhnVTV6TEw3WVVPWURSal9uU1oxYWdyTTd6Nzg4QldFdlk2U1pfVkdlVC1vaHNzYk5DWVhHSWw5MXlETUI4RTZKOGJsRmVNdmFjbmw4dkpfQUhyNENpVHdGRnQ5MHBLSU9jSjREa282Q3VSaEVoNm1ENlhvS3BzWTUyU2MyMndudTJpOVFoc2xkeG5DMklOUUNEZ2EtTnc3UTVEd2FkSnJRbGhhVVNMN1lPem1tcmV6eXY2Qjc5djhhODg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxQWGRiQ1h1elVpU09iYzkzbkNXSkpqT1J0SDRhM1ZzZ3VHcnRFN0o3U3d5cjZiV0U5bGx5bmsyaEwtTnpqam0wYUk1SE9sbzVuUE1neVp5Z1FydFJFRmxia2ljVE1OdWtxV2lWeWotNTZrZl92Wno2cElMcG5zNk1sU0xyMjh6cjNmRHByTzIwTnZFcXppMXlpczJ4NVBhRVRsZW9sVldoR1hGcUxjdkVsMXB5bEcxV3RHaHpNRjZn?oc=5</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5662,12 +5662,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Massive cyberattack on Polish power system in December failed, minister says - Reuters</t>
+          <t>Trump says inflation data means Fed can cut interest rates - Reuters</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxNcjE3N3FhUUJKU3VPbm5aTWpsUVFFQmhaQUJfR0h0OGNvQlZVN1BfckZpTTBZNjhzdmxka1lrWFVXa2RxWEwxRHl6ZlNoa2dmSG9ZQkp3X0tRZldjdVZUMkVlUkQwR2REcUdwcmN5R0k4eUx5UkxnUEEwa0s1aGlJS2NjRGVFaDdkV1I1X3gwYmNNbVQxYUc0Rmoxb2g1WnlleUVHcDdacjlXSUJYX0N6bG0wb0JscDlEbWQxRXJPTmtsWmt6a3o3QTlFVy1SZU1C?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOb1RPV1JkVVVGcXpVb3IwVXMzeHEwNmdnUU8tWktMQmVhMUc4UElTMEJmWkdoTjRrWWJzNmtJRm1vTndoRVF4SGx5R09oSXJaeDlmUEdsYnE4RU1XRHN3SWpCZEN1YTU4MGdVbWwwamoxQ1J1SzVPekdrNkZfVE5QVjR4R0pTYklPX3hDbXBMWkZYVmFwNGV2blc0RXdjT3d2UWs0aWZTaWxXZw?oc=5</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5684,7 +5684,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5694,12 +5694,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>US federal prosecutors open inquiry into US Fed chair Powell, NYT reports - Reuters</t>
+          <t>China limits Nvidia chip purchases to special circumstances, Information reports - Reuters</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxPZnBOOG80WVFRYXN3ZkktVHc5VmpvejVYLUtMam1uemVkWDRBTnpBZ0dUUWxnVUdxeE5TVXEwOTB4SktMY3FseHQ0VzZLRTYtaW9QaHNINnRWS0ZBckN0b2ptLUp3cmtUWWY2ZnBiQmg5cGRHQ094WFVNNWVuN0tCYkgwS3N4VFhEQ3NnOXFILUVhUU9mbVZzdXZJYzIwZVBfMmdhdDVaUjBha2hSVENOZFpYSXBEaW42?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxNQU5YR3BRNnBjUndkYWJqNnFnSFlDS2xYYVFycUp5UmZoeExwaUFaeThuaXZKdmlWOS12MU9iN3RwYVcwdmUtd2xQS0lNMkpxYjBCNkZpc09pMWNPSVNCcHVLMHdKYUo2VUx4c0pkajVURmFnU1Qta0tGYkRNdkpsWXIzSHFHNk5YQWZuTTFpUEZneW82aTJZaXJybG8wa0VkWGJ3c2tpNFBrVXdYVXhQY1RFcmU3MjJoTnZqX1ZWZDh4dw?oc=5</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5709,34 +5709,34 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-14T07:52:14Z</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Tomlin steps down as Steelers' coach after 19 seasons - Reuters</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2026/01/12/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxNZ3N6RXJfUG5LbjhDMVhRMkxYS2l1UkdiWUF0eU5jRFQyMVpXd3FRLVllNE53WUh6NjRBNVFZU3MtaGpFR1VhdHN6S2hIbUJOS2c2X1hHdS0xWDdnTEFQd0wtaWR6RlF1S1I1UnFVbDI4WWlLdkhNUHpPVm54cWJXV1hYek10WG9ZZG5VSVdnRXRISXF1OEJV?oc=5</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5748,27 +5748,27 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2 Separate Campaigns Probe Corporate LLMs for Secrets</t>
+          <t>Trump probe of Fed chair stresses need for global diversification - Reuters</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/separate-campaigns-target-exposed-llm-services</t>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNWUtZdWRtOC1FSkp4SEVuVktuMkNBLXAtSXZNOE5FX1doOTdvaFpuNjdaZHNsaVpOMFNFOTlYMC1KdTNKamh1azAxNVlJU2JXVzdrMGZQaXJwTDhqWE9VQXJXRkJSMWgxT3VMQkw0NGZFMTQ4YmNVZGFocHZfcEY3MVhGcXk0WlhtODZKRFRBM0s2QjlIRTBHajEzdEZFNFI4aGVtTVFR?oc=5</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -5780,27 +5780,27 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Hexnode Moves into Endpoint Security With Hexnode XDR</t>
+          <t>Pope Leo to visit Angola as part of an Africa tour, Vatican envoy says - Reuters</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/hexnode-marks-its-move-into-endpoint-security-with-hexnode-xdr</t>
+          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxNRndWQmRaMzR3ZXlFbjZQbk0zV1JYSFA1Qy1FVUJSQUVCX3ExVzZnYmFFVUtFdmdpZnl3ZGNzOUFRRWJRTEpCTnloNkFNRUNVcjdBeThPcmZqYVFUbXlfNXduRC1PZkg4WURJVEVTdkRsR24zYjd2amRQZHRhN2NSaXZLLXB3UWZ2b0RiaDNBM0hkYzFuVmNYdHl6VHA0aXNqSy00dg?oc=5</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5812,27 +5812,27 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>FBI Flags Quishing Attacks From North Korean APT</t>
+          <t>Wall Street expects strong fourth-quarter earnings driven by robust US economy - Reuters</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/mobile-security/fbi-quishing-attacks-north-korean-apt</t>
+          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxOUnc1ZC1sYk1ETFVDWUpGQkpkRnlSd0hhVXJKZmF4dlMzREhxV0NGS1VjbFpheEQtZkYyelJtT0gxbGhmb2I1eWtHYzhSaTZlUktabXNhd1N3X0ZQOTJjZXNxdVVYMlRqZVR6MHF0c1AyNEhhZ2gxc19iaTdzWWVQQkhxMFk0amw2YWZVdXUyaVFVZ19rZHp4clIyOVdIMVhxYjdRYWxsSnFDUy1wTGJwNEhYUERRZ3BJRTFzM01hYVppRmotbXpBaVZHVQ?oc=5</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5844,27 +5844,27 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Multipurpose GoBruteforcer Botnet Targets 50K+ Linux Servers</t>
+          <t>Polygon targets stablecoin payments with deals worth $250 million - Reuters</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/threat-intelligence/gobruteforcer-botnet-targets-50k-plus-linux-servers</t>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQTXBYdG9GYnhtWGp2MlgzSm0zTGR5QUxFdFAyR2JrZHNLQ1dUaGVBOWQxa2hucUN0VWxXdmdXT1NuYkNiWG54WmloUTJBcFoyYjlLUDJwUVNjT2tBYkFpN3BMNzVDUlMtV0tET3d2cjRMREl6bXJTSm42UTZYUGNLTVFVWlZ4V0luRGdGb1NBcjhaTFlGWnZCZkdJVjBFTDctcC1pYW1SYUVLQ0NVS3c?oc=5</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -5876,27 +5876,27 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>GoBruteforcer Botnet Targets Crypto Project Databases by Exploiting Weak Credentials</t>
+          <t>EU to 'swiftly' propose further sanctions on Iran, von der Leyen says - Reuters</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/gobruteforcer-botnet-targets-crypto.html</t>
+          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxQblFzQUFWcGxwaEtsVlBPcmdMRExLaS1BekxsaWJTSU14elNKY3ZES1o3LVNPdjJwb1dGT1lGQ3ZaMm1uNDRPc05TLUlkUTRwQ19sODRsbGhSemVoM0NRMC1TVktLandoVkNJNG9wSGJQcVUyb1FpLWpWLWdaQWhFdE5kOEo1SGJLRElnNG52M0p0cTVFeGtjVkR5dGR2OXU3b2xlTg?oc=5</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -5908,27 +5908,27 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>⚡ Weekly Recap: AI Automation Exploits, Telecom Espionage, Prompt Poaching &amp; More</t>
+          <t>Britain seeks 'reset' in copyright battle between AI and creators - Reuters</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/weekly-recap-ai-automation-exploits.html</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQN1RNSkNXMDF2bXVkOVV5VnIyRW5GNk9JMzljdmd1dlB2TVFTLXI3bWMzUGJYWG9JLTFRNHFaUHlqcjlRNjFhQ2c2cDhVMVdqYU91VWYtQ01JRUE0ZTgyLXFVcEowVXYzcGd3bUtLaF9Xa1RORW1CdnBuVmMtakVqbkJFNzZab0w2OUdQaFlFMi04N0NMRU16Nzdfajc3SHRFbHd1ckt0cGNZOU9FcnpoTnEzSS1tQQ?oc=5</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -5940,27 +5940,27 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>n8n Supply Chain Attack Abuses Community Nodes to Steal OAuth Tokens</t>
+          <t>Bill and Hillary Clinton refuse to testify in House Epstein probe, could be held in contempt - Reuters</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/n8n-supply-chain-attack-abuses.html</t>
+          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNbHhxUGFmX3kxTGFGRkxiSGJ1ZlVqZVJQZlhWc3ZyRTU0dmdhaERIYnJJS3NJTVlJYWdURHI2VVZzYWVRcldDeHpQRlhMTHBLZ3ZLZHRUMjNIazFzVUNHTGQtbVJIZGJNVWEza3I3dExvVDZLaHR1UVkyVVhsSGlCX0MtV2NmOVRDYkdpRG9PaHgzSFNLVUd0OHN3WlhJRzVfX1E0c3g5bjducThD?oc=5</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -5972,59 +5972,59 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>As protests rage, Iran pulls the plug on contact with the world - AP News</t>
+          <t>Wall St slips on credit card proposal, rate bets boost gold - Reuters</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxOaVNuSjZ2dkhWdnhHYjFLYUt5X2ppM29ZWk1iSnpSSnMxaGl3MUp3TFFUQWVlZEtJMFBjc05vRjVxMDBKTDR5OHJCbUd5dmF3UHFlSGNoZzlKZk9xR0ZockZneG0wcVpOTTVxc3V6UkFWeFhSV1JYWEFFcDFDcjI1bFY3OXZYREhtV3N3RTFEZHd6OFg5Wmk1U0Q5U0FpalJGLWNMM29SMEdKV0FreEcw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiigFBVV95cUxPUVoxcXJ6WjA4UUcwYlJoY1FTVFUyNzJlRVFkU0pvVFIwWDJuTk9NaXVCRFV4ZlRQRUFWQXBhZ05ycHViU09UdzgzdUJ2RE9ndjlwQVVDYXVhcHBVVXZ4V3V1NXU5SC1IVDlYVmljSmFCY0Zhei1wSDJxcWRnX0lqZ0twREl4Rl9ZNHc?oc=5</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-14T07:52:14Z</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>MuddyWater Launches RustyWater RAT via Spear-Phishing Across Middle East Sectors</t>
+          <t>US teachers union says it is leaving X over sexualized AI images of children - Reuters</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/muddywater-launches-rustywater-rat-via.html</t>
+          <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPeFlRczdTUUd1bWdNbVhnVTV6TEw3WVVPWURSal9uU1oxYWdyTTd6Nzg4QldFdlk2U1pfVkdlVC1vaHNzYk5DWVhHSWw5MXlETUI4RTZKOGJsRmVNdmFjbmw4dkpfQUhyNENpVHdGRnQ5MHBLSU9jSjREa282Q3VSaEVoNm1ENlhvS3BzWTUyU2MyMndudTJpOVFoc2xkeG5DMklOUUNEZ2EtTnc3UTVEd2FkSnJRbGhhVVNMN1lPem1tcmV6eXY2Qjc5djhhODg?oc=5</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6036,7 +6036,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6046,17 +6046,17 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>US military says it carried out strikes across Syria targeting Islamic State - Reuters</t>
+          <t>Massive cyberattack on Polish power system in December failed, minister says - Reuters</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxNN2E5MFN1TTREVFVMQm5ZRU8tc2hCX3hqV3hhMXNWRWFhY1ZDVVE5cEJ3cGZXajkxQmxxaUMzWmg2LTBGbmE2OENaZGU4Vm9NcHM4V0N1OERtY0RSWVA2aUdTYkdpWEhER1lSLVpSSHVHZk84VENENlh4TXJERnJ4dkJVS2RlMGxjcEFQTEdTbUZuUlgzbW15UzFoX0xHbE0zdFNmZTdzUFMyYXc0cElLcnExYmlMcTY2SlBhd2diVUxjT1dHZTdMOGln?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxNcjE3N3FhUUJKU3VPbm5aTWpsUVFFQmhaQUJfR0h0OGNvQlZVN1BfckZpTTBZNjhzdmxka1lrWFVXa2RxWEwxRHl6ZlNoa2dmSG9ZQkp3X0tRZldjdVZUMkVlUkQwR2REcUdwcmN5R0k4eUx5UkxnUEEwa0s1aGlJS2NjRGVFaDdkV1I1X3gwYmNNbVQxYUc0Rmoxb2g1WnlleUVHcDdacjlXSUJYX0N6bG0wb0JscDlEbWQxRXJPTmtsWmt6a3o3QTlFVy1SZU1C?oc=5</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6068,59 +6068,59 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Russia’s Fancy Bear APT Doubles Down on Global Secrets Theft</t>
+          <t>US federal prosecutors open inquiry into US Fed chair Powell, NYT reports - Reuters</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/russian-apt-credentials-global-targets</t>
+          <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxPZnBOOG80WVFRYXN3ZkktVHc5VmpvejVYLUtMam1uemVkWDRBTnpBZ0dUUWxnVUdxeE5TVXEwOTB4SktMY3FseHQ0VzZLRTYtaW9QaHNINnRWS0ZBckN0b2ptLUp3cmtUWWY2ZnBiQmg5cGRHQ094WFVNNWVuN0tCYkgwS3N4VFhEQ3NnOXFILUVhUU9mbVZzdXZJYzIwZVBfMmdhdDVaUjBha2hSVENOZFpYSXBEaW42?oc=5</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Illicit Crypto Economy Surges Amid Increased Nation-State Activity</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyber-risk/illicit-crypto-economy-surges-nation-states</t>
+          <t>https://www.cisa.gov/news-events/alerts/2026/01/12/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6132,7 +6132,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6142,17 +6142,17 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Deepfake Fraud Tools Are Lagging Behind Expectations</t>
+          <t>2 Separate Campaigns Probe Corporate LLMs for Secrets</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/deepfake-fraud-tools-lag-expectations</t>
+          <t>https://www.darkreading.com/endpoint-security/separate-campaigns-target-exposed-llm-services</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6164,27 +6164,27 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>FBI Warns North Korean Hackers Using Malicious QR Codes in Spear-Phishing</t>
+          <t>Hexnode Moves into Endpoint Security With Hexnode XDR</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/fbi-warns-north-korean-hackers-using.html</t>
+          <t>https://www.darkreading.com/endpoint-security/hexnode-marks-its-move-into-endpoint-security-with-hexnode-xdr</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6196,27 +6196,27 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>CISA Retires 10 Emergency Cybersecurity Directives Issued Between 2019 and 2024</t>
+          <t>FBI Flags Quishing Attacks From North Korean APT</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/cisa-retires-10-emergency-cybersecurity.html</t>
+          <t>https://www.darkreading.com/mobile-security/fbi-quishing-attacks-north-korean-apt</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6228,22 +6228,22 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Trend Micro Apex Central RCE Flaw Scores 9.8 CVSS in On-Prem Windows Versions</t>
+          <t>Multipurpose GoBruteforcer Botnet Targets 50K+ Linux Servers</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/trend-micro-apex-central-rce-flaw.html</t>
+          <t>https://www.darkreading.com/threat-intelligence/gobruteforcer-botnet-targets-50k-plus-linux-servers</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6260,7 +6260,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6270,17 +6270,17 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Russian APT28 Runs Credential-Stealing Campaign Targeting Energy and Policy Organizations</t>
+          <t>GoBruteforcer Botnet Targets Crypto Project Databases by Exploiting Weak Credentials</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/russian-apt28-runs-credential-stealing.html</t>
+          <t>https://thehackernews.com/2026/01/gobruteforcer-botnet-targets-crypto.html</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6292,7 +6292,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6302,12 +6302,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>China-Linked Hackers Exploit VMware ESXi Zero-Days to Escape Virtual Machines</t>
+          <t>⚡ Weekly Recap: AI Automation Exploits, Telecom Espionage, Prompt Poaching &amp; More</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/chinese-linked-hackers-exploit-vmware.html</t>
+          <t>https://thehackernews.com/2026/01/weekly-recap-ai-automation-exploits.html</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6324,27 +6324,27 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Hitachi Energy Asset Suite</t>
+          <t>n8n Supply Chain Attack Abuses Community Nodes to Steal OAuth Tokens</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-008-01</t>
+          <t>https://thehackernews.com/2026/01/n8n-supply-chain-attack-abuses.html</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6356,59 +6356,59 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>AP News</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>CrowdStrike to Acquire SGNL to Secure Every Identity in the AI Era</t>
+          <t>As protests rage, Iran pulls the plug on contact with the world - AP News</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-sgnl/</t>
+          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxOaVNuSjZ2dkhWdnhHYjFLYUt5X2ppM29ZWk1iSnpSSnMxaGl3MUp3TFFUQWVlZEtJMFBjc05vRjVxMDBKTDR5OHJCbUd5dmF3UHFlSGNoZzlKZk9xR0ZockZneG0wcVpOTTVxc3V6UkFWeFhSV1JYWEFFcDFDcjI1bFY3OXZYREhtV3N3RTFEZHd6OFg5Wmk1U0Q5U0FpalJGLWNMM29SMEdKV0FreEcw?oc=5</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Here's What Cloud Security's Future Holds for the Year Ahead</t>
+          <t>MuddyWater Launches RustyWater RAT via Spear-Phishing Across Middle East Sectors</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/heres-cloud-security-holds-year-ahead</t>
+          <t>https://thehackernews.com/2026/01/muddywater-launches-rustywater-rat-via.html</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>クラウド・サプライチェーン</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6420,27 +6420,27 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Maximum Severity HPE OneView Flaw Exploited in the Wild</t>
+          <t>US military says it carried out strikes across Syria targeting Islamic State - Reuters</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/vulnerabilities-threats/maximum-severity-hpe-oneview-flaw-exploited</t>
+          <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxNN2E5MFN1TTREVFVMQm5ZRU8tc2hCX3hqV3hhMXNWRWFhY1ZDVVE5cEJ3cGZXajkxQmxxaUMzWmg2LTBGbmE2OENaZGU4Vm9NcHM4V0N1OERtY0RSWVA2aUdTYkdpWEhER1lSLVpSSHVHZk84VENENlh4TXJERnJ4dkJVS2RlMGxjcEFQTEdTbUZuUlgzbW15UzFoX0xHbE0zdFNmZTdzUFMyYXc0cElLcnExYmlMcTY2SlBhd2diVUxjT1dHZTdMOGln?oc=5</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6452,7 +6452,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6462,17 +6462,17 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>CrowdStrike to Buy SGNL to Expand Identity Security Capabilities</t>
+          <t>Russia’s Fancy Bear APT Doubles Down on Global Secrets Theft</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/crowdsrike-buy-sgnl-expand-identity-security-capabilities</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/russian-apt-credentials-global-targets</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6484,27 +6484,27 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Coolify Discloses 11 Critical Flaws Enabling Full Server Compromise on Self-Hosted Instances</t>
+          <t>Illicit Crypto Economy Surges Amid Increased Nation-State Activity</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/coolify-discloses-11-critical-flaws.html</t>
+          <t>https://www.darkreading.com/cyber-risk/illicit-crypto-economy-surges-nation-states</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6516,27 +6516,27 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Researchers Uncover NodeCordRAT Hidden in npm Bitcoin-Themed Packages</t>
+          <t>Deepfake Fraud Tools Are Lagging Behind Expectations</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/researchers-uncover-nodecordrat-hidden.html</t>
+          <t>https://www.darkreading.com/remote-workforce/deepfake-fraud-tools-lag-expectations</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6548,7 +6548,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6558,17 +6558,17 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Cisco Patches ISE Security Vulnerability After Public PoC Exploit Release</t>
+          <t>FBI Warns North Korean Hackers Using Malicious QR Codes in Spear-Phishing</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/cisco-patches-ise-security.html</t>
+          <t>https://thehackernews.com/2026/01/fbi-warns-north-korean-hackers-using.html</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6580,7 +6580,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6590,17 +6590,17 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>The State of Trusted Open Source</t>
+          <t>CISA Retires 10 Emergency Cybersecurity Directives Issued Between 2019 and 2024</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/the-state-of-trusted-open-source.html</t>
+          <t>https://thehackernews.com/2026/01/cisa-retires-10-emergency-cybersecurity.html</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6612,7 +6612,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6622,12 +6622,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>ThreatsDay Bulletin: RustFS Flaw, Iranian Ops, WebUI RCE, Cloud Leaks, and 12 More Stories</t>
+          <t>Trend Micro Apex Central RCE Flaw Scores 9.8 CVSS in On-Prem Windows Versions</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/threatsday-bulletin-rustfs-flaw-iranian.html</t>
+          <t>https://thehackernews.com/2026/01/trend-micro-apex-central-rce-flaw.html</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6644,7 +6644,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6654,17 +6654,17 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>China-Linked UAT-7290 Targets Telecoms with Linux Malware and ORB Nodes</t>
+          <t>Russian APT28 Runs Credential-Stealing Campaign Targeting Energy and Policy Organizations</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/china-linked-uat-7290-targets-telecoms.html</t>
+          <t>https://thehackernews.com/2026/01/russian-apt28-runs-credential-stealing.html</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -6676,7 +6676,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6686,17 +6686,17 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>WhatsApp Worm Spreads Astaroth Banking Trojan Across Brazil via Contact Auto-Messaging</t>
+          <t>China-Linked Hackers Exploit VMware ESXi Zero-Days to Escape Virtual Machines</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/whatsapp-worm-spreads-astaroth-banking.html</t>
+          <t>https://thehackernews.com/2026/01/chinese-linked-hackers-exploit-vmware.html</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -6713,22 +6713,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>CrowdStrike to buy identity security startup SGNL for $740 million to tackle AI threats - Reuters</t>
+          <t>Hitachi Energy Asset Suite</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxPWlhETmluVjRhN2hIZzFjdFdKcTkwUGJXeGJKeGxnekxmR1dYaE1SNEJwWGJzWFVWanl6bkRYcWlkQzBYNVJFY0pWWDh4bE4wcGw5Vk5IWDZEcklwS1o1VkE4aDVHOG9sd1QxaUNObDJFWVVUTnJVWXpibkNTM0FmRWhTQ3hHS0lFaFlBUVdvb2Y4aTNGbTkxbFVmXzJWZlVRczloTE8xR2M3M1NfeU1fcnVCOTlzbmY5R0lVOTVYaFM?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-008-01</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -6740,27 +6740,27 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>CISA Adds Two Known Exploited Vulnerabilities to Catalog</t>
+          <t>CrowdStrike to Acquire SGNL to Secure Every Identity in the AI Era</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2026/01/07/cisa-adds-two-known-exploited-vulnerabilities-catalog</t>
+          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-sgnl/</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -6772,27 +6772,27 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Explore the latest Microsoft Incident Response proactive services for enhanced resilience</t>
+          <t>Here's What Cloud Security's Future Holds for the Year Ahead</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2026/01/07/explore-the-latest-microsoft-incident-response-proactive-services-for-enhanced-resilience/</t>
+          <t>https://www.darkreading.com/cloud-security/heres-cloud-security-holds-year-ahead</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>クラウド・サプライチェーン</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -6804,7 +6804,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6814,17 +6814,17 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Lack of MFA Is Common Thread in Vast Cloud Credential Heist</t>
+          <t>Maximum Severity HPE OneView Flaw Exploited in the Wild</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/lack-mfa-common-thread-vast-cloud-credential-heist</t>
+          <t>https://www.darkreading.com/vulnerabilities-threats/maximum-severity-hpe-oneview-flaw-exploited</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -6836,7 +6836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6846,17 +6846,17 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>DDoSia Powers Affiliate-Driven Hacktivist Attacks</t>
+          <t>CrowdStrike to Buy SGNL to Expand Identity Security Capabilities</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/ddosia-powers-volunteer-driven-hacktivist-attacks</t>
+          <t>https://www.darkreading.com/endpoint-security/crowdsrike-buy-sgnl-expand-identity-security-capabilities</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -6868,27 +6868,27 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Cyberattacks Likely Part of Military Operation in Venezuela</t>
+          <t>Coolify Discloses 11 Critical Flaws Enabling Full Server Compromise on Self-Hosted Instances</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cybersecurity-operations/cyberattacks-part-military-operation-venezuela</t>
+          <t>https://thehackernews.com/2026/01/coolify-discloses-11-critical-flaws.html</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -6900,27 +6900,27 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Phishers Exploit Office 365 Users Who Let Their Guard Down</t>
+          <t>Researchers Uncover NodeCordRAT Hidden in npm Bitcoin-Themed Packages</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/phishers-exploit-office-365-users-guard-down</t>
+          <t>https://thehackernews.com/2026/01/researchers-uncover-nodecordrat-hidden.html</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -6932,22 +6932,22 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Attackers Exploit Zero-Day in End-of-Life D-Link Routers</t>
+          <t>Cisco Patches ISE Security Vulnerability After Public PoC Exploit Release</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/attackers-exploit-zero-day-end-of-life-d-link-routers</t>
+          <t>https://thehackernews.com/2026/01/cisco-patches-ise-security.html</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -6964,27 +6964,27 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Columbia Weather Systems MicroServer</t>
+          <t>The State of Trusted Open Source</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-006-01</t>
+          <t>https://thehackernews.com/2026/01/the-state-of-trusted-open-source.html</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -6996,27 +6996,27 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>How CrowdStrike&amp;rsquo;s Malware Analysis Agent Detects Malware at Machine Speed</t>
+          <t>ThreatsDay Bulletin: RustFS Flaw, Iranian Ops, WebUI RCE, Cloud Leaks, and 12 More Stories</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/how-crowdstrike-detects-malware-at-machine-speed/</t>
+          <t>https://thehackernews.com/2026/01/threatsday-bulletin-rustfs-flaw-iranian.html</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7028,27 +7028,27 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Phishing actors exploit complex routing and misconfigurations to spoof domains</t>
+          <t>China-Linked UAT-7290 Targets Telecoms with Linux Malware and ORB Nodes</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2026/01/06/phishing-actors-exploit-complex-routing-and-misconfigurations-to-spoof-domains/</t>
+          <t>https://thehackernews.com/2026/01/china-linked-uat-7290-targets-telecoms.html</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -7060,27 +7060,27 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ClickFix Campaign Serves Up Fake Blue Screen of Death</t>
+          <t>WhatsApp Worm Spreads Astaroth Banking Trojan Across Brazil via Contact Auto-Messaging</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/clickfix-campaign-fake-blue-screen-of-death</t>
+          <t>https://thehackernews.com/2026/01/whatsapp-worm-spreads-astaroth-banking.html</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -7092,27 +7092,27 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Advisor360 Gets a Handle on Shadow AI via Automation</t>
+          <t>CrowdStrike to buy identity security startup SGNL for $740 million to tackle AI threats - Reuters</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/advisor360-gets-handle-on-shadow-ai-via-automation</t>
+          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxPWlhETmluVjRhN2hIZzFjdFdKcTkwUGJXeGJKeGxnekxmR1dYaE1SNEJwWGJzWFVWanl6bkRYcWlkQzBYNVJFY0pWWDh4bE4wcGw5Vk5IWDZEcklwS1o1VkE4aDVHOG9sd1QxaUNObDJFWVVUTnJVWXpibkNTM0FmRWhTQ3hHS0lFaFlBUVdvb2Y4aTNGbTkxbFVmXzJWZlVRczloTE8xR2M3M1NfeU1fcnVCOTlzbmY5R0lVOTVYaFM?oc=5</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -7124,27 +7124,27 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Startup Trends Shaking Up Browsers, SOC Automation, AppSec</t>
+          <t>CISA Adds Two Known Exploited Vulnerabilities to Catalog</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/startup-trends-shaking-up-browsers-soc-automation-appsec</t>
+          <t>https://www.cisa.gov/news-events/alerts/2026/01/07/cisa-adds-two-known-exploited-vulnerabilities-catalog</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -7156,27 +7156,27 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>VVS Discord Stealer Using Pyarmor for Obfuscation and Detection Evasion</t>
+          <t>Explore the latest Microsoft Incident Response proactive services for enhanced resilience</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/vvs-stealer/</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/07/explore-the-latest-microsoft-incident-response-proactive-services-for-enhanced-resilience/</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -7188,27 +7188,27 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>CISA Releases Two Industrial Control Systems Advisories</t>
+          <t>Lack of MFA Is Common Thread in Vast Cloud Credential Heist</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/30/cisa-releases-two-industrial-control-systems-advisories</t>
+          <t>https://www.darkreading.com/cloud-security/lack-mfa-common-thread-vast-cloud-credential-heist</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -7220,27 +7220,27 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>WHILL Model C2 Electric Wheelchairs and Model F Power Chairs</t>
+          <t>DDoSia Powers Affiliate-Driven Hacktivist Attacks</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-medical-advisories/icsma-25-364-01</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/ddosia-powers-volunteer-driven-hacktivist-attacks</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -7252,27 +7252,27 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Cyberattacks Likely Part of Military Operation in Venezuela</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/29/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.darkreading.com/cybersecurity-operations/cyberattacks-part-military-operation-venezuela</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -7284,27 +7284,27 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Streamline Security Operations with Falcon for IT&amp;rsquo;s Turnkey Automations</t>
+          <t>Phishers Exploit Office 365 Users Who Let Their Guard Down</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/streamline-security-operations-falcon-for-it-automations/</t>
+          <t>https://www.darkreading.com/cloud-security/phishers-exploit-office-365-users-guard-down</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -7316,27 +7316,27 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>A power outage can turn dangerous fast. Here’s how to prepare - AP News</t>
+          <t>Attackers Exploit Zero-Day in End-of-Life D-Link Routers</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOYWEwWVN1SmpIaWxleEJ5QkZYcnNhczJ0UHo5NEgwYnlXOGZFNURlTTU2MWkyMkpiWXlPLWJtdjItekppdW9iZnVKQ05OZEtaQ0ppTUJ4LTNkc2Fta3lXYlFPY2gzVWNhQ2U4dGtCcWZ6YlFlblNXMk9jUjJ3WThXaWNVVDlGUDJ0S2hTeFBySG50ajlOOTlCUnRONlJGdnlvelZESlA3cEdEUQ?oc=5</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/attackers-exploit-zero-day-end-of-life-d-link-routers</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -7348,7 +7348,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -7358,17 +7358,17 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>CISA Releases One Industrial Control Systems Advisory</t>
+          <t>Columbia Weather Systems MicroServer</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/23/cisa-releases-one-industrial-control-systems-advisory</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-006-01</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -7380,27 +7380,27 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>NIST and CISA Release Draft Interagency Report on Protecting Tokens and Assertions from Tampering Theft and Misuse for Public Comment</t>
+          <t>How CrowdStrike&amp;rsquo;s Malware Analysis Agent Detects Malware at Machine Speed</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/nist-and-cisa-release-draft-interagency-report-protecting-tokens-and-assertions-tampering-theft-and</t>
+          <t>https://www.crowdstrike.com/en-us/blog/how-crowdstrike-detects-malware-at-machine-speed/</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -7412,22 +7412,22 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Phishing actors exploit complex routing and misconfigurations to spoof domains</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/06/phishing-actors-exploit-complex-routing-and-misconfigurations-to-spoof-domains/</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -7444,27 +7444,27 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>ClickFix Campaign Serves Up Fake Blue Screen of Death</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/clickfix-campaign-fake-blue-screen-of-death</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -7476,27 +7476,27 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>CISA and Partners Release Update to Malware Analysis Report BRICKSTORM Backdoor</t>
+          <t>Advisor360 Gets a Handle on Shadow AI via Automation</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-and-partners-release-update-malware-analysis-report-brickstorm-backdoor</t>
+          <t>https://www.darkreading.com/remote-workforce/advisor360-gets-handle-on-shadow-ai-via-automation</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -7508,22 +7508,22 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Inside CrowdStrike&amp;rsquo;s Science-Backed Approach to Building Expert SOC Agents</t>
+          <t>Startup Trends Shaking Up Browsers, SOC Automation, AppSec</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/inside-crowdstrikes-science-backed-approach-to-building-soc-agents/</t>
+          <t>https://www.darkreading.com/endpoint-security/startup-trends-shaking-up-browsers-soc-automation-appsec</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -7540,27 +7540,27 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>CISA Releases Nine Industrial Control Systems Advisories</t>
+          <t>VVS Discord Stealer Using Pyarmor for Obfuscation and Detection Evasion</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/18/cisa-releases-nine-industrial-control-systems-advisories</t>
+          <t>https://unit42.paloaltonetworks.com/vvs-stealer/</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -7572,7 +7572,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -7582,17 +7582,17 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Mitsubishi Electric Iconics Digital Solutions and Mitsubishi Electrics Products</t>
+          <t>CISA Releases Two Industrial Control Systems Advisories</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-04</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/30/cisa-releases-two-industrial-control-systems-advisories</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -7604,7 +7604,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -7614,17 +7614,17 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Axis Communications Camera Station Pro, Camera Station, and Device Manager</t>
+          <t>WHILL Model C2 Electric Wheelchairs and Model F Power Chairs</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-08</t>
+          <t>https://www.cisa.gov/news-events/ics-medical-advisories/icsma-25-364-01</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -7636,7 +7636,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -7646,17 +7646,17 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Rockwell Automation Micro820, Micro850, Micro870</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-07</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/29/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -7668,27 +7668,27 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>National Instruments LabView</t>
+          <t>Streamline Security Operations with Falcon for IT&amp;rsquo;s Turnkey Automations</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-03</t>
+          <t>https://www.crowdstrike.com/en-us/blog/streamline-security-operations-falcon-for-it-automations/</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -7700,22 +7700,22 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>AP News</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Advantech WebAccess/SCADA</t>
+          <t>A power outage can turn dangerous fast. Here’s how to prepare - AP News</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-06</t>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOYWEwWVN1SmpIaWxleEJ5QkZYcnNhczJ0UHo5NEgwYnlXOGZFNURlTTU2MWkyMkpiWXlPLWJtdjItekppdW9iZnVKQ05OZEtaQ0ppTUJ4LTNkc2Fta3lXYlFPY2gzVWNhQ2U4dGtCcWZ6YlFlblNXMk9jUjJ3WThXaWNVVDlGUDJ0S2hTeFBySG50ajlOOTlCUnRONlJGdnlvelZESlA3cEdEUQ?oc=5</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7732,7 +7732,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -7742,17 +7742,17 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Siemens Interniche IP-Stack</t>
+          <t>CISA Releases One Industrial Control Systems Advisory</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-05</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/23/cisa-releases-one-industrial-control-systems-advisory</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -7764,7 +7764,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -7774,17 +7774,17 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Inductive Automation Ignition</t>
+          <t>NIST and CISA Release Draft Interagency Report on Protecting Tokens and Assertions from Tampering Theft and Misuse for Public Comment</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-01</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/nist-and-cisa-release-draft-interagency-report-protecting-tokens-and-assertions-tampering-theft-and</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -7796,7 +7796,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -7806,17 +7806,17 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Schneider Electric EcoStruxure Foxboro DCS Advisor</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-02</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -7828,7 +7828,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -7838,12 +7838,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>CISA Adds Three Known Exploited Vulnerabilities to Catalog</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/17/cisa-adds-three-known-exploited-vulnerabilities-catalog</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -7860,27 +7860,27 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Access Fabric: A modern approach to identity and network access</t>
+          <t>CISA and Partners Release Update to Malware Analysis Report BRICKSTORM Backdoor</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2025/12/17/access-fabric-a-modern-approach-to-identity-and-network-access/</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-and-partners-release-update-malware-analysis-report-brickstorm-backdoor</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -7892,27 +7892,27 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Mitsubishi Electric GT Designer3</t>
+          <t>Inside CrowdStrike&amp;rsquo;s Science-Backed Approach to Building Expert SOC Agents</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-04</t>
+          <t>https://www.crowdstrike.com/en-us/blog/inside-crowdstrikes-science-backed-approach-to-building-soc-agents/</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -7924,7 +7924,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7934,17 +7934,17 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Hitachi Energy AFS, AFR and AFF Series</t>
+          <t>CISA Releases Nine Industrial Control Systems Advisories</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-03</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/18/cisa-releases-nine-industrial-control-systems-advisories</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -7956,7 +7956,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -7966,12 +7966,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Johnson Controls PowerG, IQPanel and IQHub</t>
+          <t>Mitsubishi Electric Iconics Digital Solutions and Mitsubishi Electrics Products</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-02</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-04</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -7988,7 +7988,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -7998,17 +7998,17 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Axis Communications Camera Station Pro, Camera Station, and Device Manager</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/16/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-08</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -8020,27 +8020,27 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Microsoft named an overall leader in KuppingerCole Leadership Compass for Generative AI Defense</t>
+          <t>Rockwell Automation Micro820, Micro850, Micro870</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/blog/microsoft-security-blog/microsoft-named-an-overall-leader-in-kuppingercole-leadership-compass-for-genera/4478093</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-07</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -8052,27 +8052,27 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Defending against the CVE-2025-55182 (React2Shell) vulnerability in React Server Components</t>
+          <t>National Instruments LabView</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2025/12/15/defending-against-the-cve-2025-55182-react2shell-vulnerability-in-react-server-components/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-03</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -8084,27 +8084,27 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Exploitation of Critical Vulnerability in React Server Components (Updated December 12)</t>
+          <t>Advantech WebAccess/SCADA</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/cve-2025-55182-react-and-cve-2025-66478-next/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-06</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -8116,27 +8116,27 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Hamas-Affiliated Ashen Lepus Targets Middle Eastern Diplomatic Entities With New AshTag Malware Suite</t>
+          <t>Siemens Interniche IP-Stack</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/hamas-affiliate-ashen-lepus-uses-new-malware-suite-ashtag/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-05</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -8148,27 +8148,27 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Imposter for hire: How fake people can gain very real access</t>
+          <t>Inductive Automation Ignition</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2025/12/11/imposter-for-hire-how-fake-people-can-gain-very-real-access/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-01</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -8180,27 +8180,27 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>01flip: Multi-Platform Ransomware Written in Rust</t>
+          <t>Schneider Electric EcoStruxure Foxboro DCS Advisor</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/new-ransomware-01flip-written-in-rust/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-02</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>ランサムウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -8212,27 +8212,27 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>From awareness to action: Building a security-first culture for the agentic AI era</t>
+          <t>CISA Adds Three Known Exploited Vulnerabilities to Catalog</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/microsoft-cloud/blog/2025/12/10/from-awareness-to-action-building-a-security-first-culture-for-the-agentic-ai-era/</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/17/cisa-adds-three-known-exploited-vulnerabilities-catalog</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -8244,27 +8244,27 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Further Hardening Android GPUs</t>
+          <t>Access Fabric: A modern approach to identity and network access</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/12/further-hardening-android-gpus.html</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2025/12/17/access-fabric-a-modern-approach-to-identity-and-network-access/</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -8276,27 +8276,27 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Android expands pilot for in-call scam protection for financial apps</t>
+          <t>Mitsubishi Electric GT Designer3</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/12/android-expands-pilot-in-call-scam-protection-financial-apps.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-04</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -8308,22 +8308,22 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>The Golden Scale: 'Tis the Season for Unwanted Gifts</t>
+          <t>Hitachi Energy AFS, AFR and AFF Series</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/new-shinysp1d3r-ransomware/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-03</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -8340,27 +8340,27 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>"Shai-Hulud" Worm Compromises npm Ecosystem in Supply Chain Attack (Updated November 26)</t>
+          <t>Johnson Controls PowerG, IQPanel and IQHub</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/npm-supply-chain-attack/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-02</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>クラウド・サプライチェーン</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -8372,27 +8372,27 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Android Quick Share Support for AirDrop: A Secure Approach to Cross-Platform File Sharing</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/11/android-quick-share-support-for-airdrop-security.html</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/16/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -8404,27 +8404,27 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Rust in Android: move fast and fix things</t>
+          <t>Microsoft named an overall leader in KuppingerCole Leadership Compass for Generative AI Defense</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/11/rust-in-android-move-fast-fix-things.html</t>
+          <t>https://techcommunity.microsoft.com/blog/microsoft-security-blog/microsoft-named-an-overall-leader-in-kuppingercole-leadership-compass-for-genera/4478093</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -8436,27 +8436,27 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>How Android provides the most effective protection to keep you safe from mobile scams</t>
+          <t>Defending against the CVE-2025-55182 (React2Shell) vulnerability in React Server Components</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/10/how-android-protects-you-from-scams.html</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2025/12/15/defending-against-the-cve-2025-55182-react2shell-vulnerability-in-react-server-components/</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -8468,27 +8468,27 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Microsoft: Russia, China increasingly using AI to escalate cyberattacks on the US - AP News</t>
+          <t>Exploitation of Critical Vulnerability in React Server Components (Updated December 12)</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxOREVSR1U5TUI4M1dZcE91Uk1FUlRPVm1YSk1tMXZqZXVTNUV0aF8yOFB3YnhiSWdiallOUndHai1BSzBqMEFzb3U4MVBvbnFsbS10MUhKQVJYQ1JZajAtODkxbzBEN2Z1a0FTUnZOekkyXy1jRjU4MzlYTkh5cFFKUndUZnN1bTJIVFpVTUxLWHZJNTZHT0ZkeGVmSElmQkI4QXBhd0JpZzJrenU3TGc?oc=5</t>
+          <t>https://unit42.paloaltonetworks.com/cve-2025-55182-react-and-cve-2025-66478-next/</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -8500,22 +8500,22 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Accelerating adoption of AI for cybersecurity at DEF CON 33</t>
+          <t>Hamas-Affiliated Ashen Lepus Targets Middle Eastern Diplomatic Entities With New AshTag Malware Suite</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/09/accelerating-adoption-of-ai-for.html</t>
+          <t>https://unit42.paloaltonetworks.com/hamas-affiliate-ashen-lepus-uses-new-malware-suite-ashtag/</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -8532,27 +8532,27 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>How Pixel and Android are bringing a new level of trust to your images with C2PA Content Credentials</t>
+          <t>Imposter for hire: How fake people can gain very real access</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/09/pixel-android-trusted-images-c2pa-content-credentials.html</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2025/12/11/imposter-for-hire-how-fake-people-can-gain-very-real-access/</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -8564,27 +8564,27 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Android’s pKVM Becomes First Globally Certified Software to Achieve Prestigious SESIP Level 5 Security Certification</t>
+          <t>01flip: Multi-Platform Ransomware Written in Rust</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/08/Android-pKVM-Certified-SESIP-Level-5.html</t>
+          <t>https://unit42.paloaltonetworks.com/new-ransomware-01flip-written-in-rust/</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -8596,22 +8596,22 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Army secretary directs West Point to rescind appointment of Biden-era cybersecurity director - AP News</t>
+          <t>From awareness to action: Building a security-first culture for the agentic AI era</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxNdVB0N2dnVF9IeEtXcFRjc0hXZEZad2pudUNuSGRacEJMSDJLOUdLNDFuODBVbUpfc1RDay04cHpPdHQ1M3JQTGRvLUo4NEdHUDFBZDRVdjdxZ0ZpNXFyNXZLOHhiZVhOX1o1VnNlRE1XbWhFc1VNWlBaem5LSUpFR2d6WURMbWhodGdfZEx1NDFQV05wRUZrWWlqTEI0czA?oc=5</t>
+          <t>https://www.microsoft.com/en-us/microsoft-cloud/blog/2025/12/10/from-awareness-to-action-building-a-security-first-culture-for-the-agentic-ai-era/</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -8628,7 +8628,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -8638,17 +8638,17 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Introducing OSS Rebuild: Open Source, Rebuilt to Last</t>
+          <t>Further Hardening Android GPUs</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/07/introducing-oss-rebuild-open-source.html</t>
+          <t>http://security.googleblog.com/2025/12/further-hardening-android-gpus.html</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -8660,27 +8660,27 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>The Czech Republic bans DeepSeek in state administration over cybersecurity concerns - AP News</t>
+          <t>Android expands pilot for in-call scam protection for financial apps</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxPZHhUOFhYS0FhbHVLVEhLd213ODdQdU56eG0yQkw3N3lqRzMxWTNnLVdHZF9URFAzazNRUFVTeFVfanIxU2FFOFhuZEdSLW43dWZqQnBfOGZnQ0xpTThTeW84RE9wZ0UtUjZSNElZMFV6cF9PWFB0WFI0OVRmN0hUVmhMTHg2SnZKZHhCMA?oc=5</t>
+          <t>http://security.googleblog.com/2025/12/android-expands-pilot-in-call-scam-protection-financial-apps.html</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -8692,27 +8692,27 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Advancing Protection in Chrome on Android</t>
+          <t>The Golden Scale: 'Tis the Season for Unwanted Gifts</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/07/advancing-protection-in-chrome-on.html</t>
+          <t>https://unit42.paloaltonetworks.com/new-shinysp1d3r-ransomware/</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -8724,27 +8724,27 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Iranian-backed hackers go to work after US strikes - AP News</t>
+          <t>"Shai-Hulud" Worm Compromises npm Ecosystem in Supply Chain Attack (Updated November 26)</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPX1RpNnA2Q1RHUS1RUXhINGkwTmhrZnN1QWxlREQ1WXBkblFEVnZqVVppRzhHeGxiWGFUM2ZXc2JVUW1JMkQzcFJDTGMydlRRS2Z5Vnd4YU9HY1JGWU01bVZfMjk1dzBBTG1yeGhDOHduc2lEdjBjcTNZQ3NGaDkwaVYxUHVmMmM1anNFXzlOR3YxSG0zR3hF?oc=5</t>
+          <t>https://unit42.paloaltonetworks.com/npm-supply-chain-attack/</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>クラウド・サプライチェーン</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -8756,27 +8756,27 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Dutch government says pro-Russian hackers target municipalities linked to this week's NATO summit - AP News</t>
+          <t>Android Quick Share Support for AirDrop: A Secure Approach to Cross-Platform File Sharing</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQNS1FNE9zWXZEbl9qUjBIdmhLWWFsZS1iRXQ2bnZPZlhSZUJNMm1pZ1VTcnM2Y1gycjZveTNyRk9RYVRETWd5WlVpNzA0VGJOZmN4SnlacURmNXY5WXBxejJNWmhtRHl1ZEdZTDZab2lrWDV3aVBBVkRXZ1RIV00ydVlaWWJlNnV1blgtUWJWc3NmTG1yT1I0c05tTHZtYk5kanQzX3dsVFVIYS01T0E?oc=5</t>
+          <t>http://security.googleblog.com/2025/11/android-quick-share-support-for-airdrop-security.html</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -8788,7 +8788,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -8798,17 +8798,17 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Mitigating prompt injection attacks with a layered defense strategy</t>
+          <t>Rust in Android: move fast and fix things</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/06/mitigating-prompt-injection-attacks.html</t>
+          <t>http://security.googleblog.com/2025/11/rust-in-android-move-fast-fix-things.html</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -8820,7 +8820,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -8830,12 +8830,12 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>What’s New in Android Security and Privacy in 2025</t>
+          <t>How Android provides the most effective protection to keep you safe from mobile scams</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/05/whats-new-in-android-security-privacy-2025.html</t>
+          <t>http://security.googleblog.com/2025/10/how-android-protects-you-from-scams.html</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -8852,27 +8852,27 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>AP News</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>New security requirements adopted by HTTPS certificate industry</t>
+          <t>Microsoft: Russia, China increasingly using AI to escalate cyberattacks on the US - AP News</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/03/new-security-requirements-adopted-by.html</t>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxOREVSR1U5TUI4M1dZcE91Uk1FUlRPVm1YSk1tMXZqZXVTNUV0aF8yOFB3YnhiSWdiallOUndHai1BSzBqMEFzb3U4MVBvbnFsbS10MUhKQVJYQ1JZajAtODkxbzBEN2Z1a0FTUnZOekkyXy1jRjU4MzlYTkh5cFFKUndUZnN1bTJIVFpVTUxLWHZJNTZHT0ZkeGVmSElmQkI4QXBhd0JpZzJrenU3TGc?oc=5</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -8884,27 +8884,27 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Google to buy cybersecurity firm Wiz for $32 billion in the biggest deal in company’s history - AP News</t>
+          <t>Accelerating adoption of AI for cybersecurity at DEF CON 33</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxQVENFcGdMVURrVk9GZFVXN0NmOXZfZlZMVW9GTlRkX3dERklXeFEzcndndDAtZjN1dmRNZGZ6NFdCdTd4Ym43TS1kZ25NdkZrR21QUlpWbnlLVjRUSGNZZXJhczdWd0NtRmhMT2dXSExyaFdjeWZVOHVxSDd2V3ZPRURHS0oya1QzNmtRWU5GZ202Sktv?oc=5</t>
+          <t>http://security.googleblog.com/2025/09/accelerating-adoption-of-ai-for.html</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -8916,7 +8916,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -8926,17 +8926,17 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Announcing OSV-Scanner V2: Vulnerability scanner and remediation tool for open source</t>
+          <t>How Pixel and Android are bringing a new level of trust to your images with C2PA Content Credentials</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/03/announcing-osv-scanner-v2-vulnerability.html</t>
+          <t>http://security.googleblog.com/2025/09/pixel-android-trusted-images-c2pa-content-credentials.html</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -8948,27 +8948,27 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Trump administration halts funding for two cybersecurity efforts, including one for elections - AP News</t>
+          <t>Android’s pKVM Becomes First Globally Certified Software to Achieve Prestigious SESIP Level 5 Security Certification</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxQeXJVUGp0Y1F2U196TVZmMjJ6QlZ5MzRRVU83N19yaXR5eC1GemYyUlcxWjYtYTNoOGw5dGNkRG5BM3cwTGtTSWx3ZkFhY0lnRzZWLXdtY0FobjZOZG1tM0RUWng2MEVqY3dIOXdrRmoxNk9CeTVPX1phdkszUVNHMXNXVmdBQzZ4QURFVy01dWRtNHdLaHFEY1E2NmNtWWIwdFE?oc=5</t>
+          <t>http://security.googleblog.com/2025/08/Android-pKVM-Certified-SESIP-Level-5.html</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -8980,7 +8980,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -8990,49 +8990,49 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>US cyber agency puts election security staffers who worked with the states on leave - AP News</t>
+          <t>Army secretary directs West Point to rescind appointment of Biden-era cybersecurity director - AP News</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQSjZEWnc5TmtXcVVUMVhmZTl3UjRHUmE1ZG16d0JoaEpEdEpJdGQxY2dPZ0pQQ2Zwc0dKZzAwem5SVG53eENzMHlPX0JTY0xiWVNwUWNPZ3R2ZVQ1dlM5ZzBQYVlJMmpvM3hMSU5LUXJYeXpEOFBkVllLN1RRVURkejM0My1pRjlJejhaRkd6bThUa2xMeHBOY3JQQkhwZ25VVFhWNXkxbVAtUVlE?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxNdVB0N2dnVF9IeEtXcFRjc0hXZEZad2pudUNuSGRacEJMSDJLOUdLNDFuODBVbUpfc1RDay04cHpPdHQ1M3JQTGRvLUo4NEdHUDFBZDRVdjdxZ0ZpNXFyNXZLOHhiZVhOX1o1VnNlRE1XbWhFc1VNWlBaem5LSUpFR2d6WURMbWhodGdfZEx1NDFQV05wRUZrWWlqTEI0czA?oc=5</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-14T07:52:14Z</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>US cybersecurity agency's future role in elections remains murky under the Trump administration - AP News</t>
+          <t>Introducing OSS Rebuild: Open Source, Rebuilt to Last</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPMnRHWXk2WkZpWVRaZ2h5U3h0cWR1WlF6a3RnSGdBWE5pcTRITWxhbE51anlTZm00WlBsVW9xenlQMzQyd3VqM3Jjdm04LVhrakpzLW5HSlRuTFBjV2ZNSTU0b3ZUUERFX3o1Q0lodzI4XzNjdVhKNEVIUGduZ1NFNHVwYVIyTEp1VUg5cmhEZkQ4Zk40NkN6Rmc5eUFnTmZQVWdPbnJkYTJRQQ?oc=5</t>
+          <t>http://security.googleblog.com/2025/07/introducing-oss-rebuild-open-source.html</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -9044,7 +9044,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -9054,17 +9054,17 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Delta sues cybersecurity firm CrowdStrike over tech outage that canceled flights - AP News</t>
+          <t>The Czech Republic bans DeepSeek in state administration over cybersecurity concerns - AP News</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxOWWhiMEtqTE91UDVReXk4cndIVW82MzZOb3o3ZnVqZG9fT29vSnJfeXU1cjZFMk9aSkY5b3lIcmw3LTRHZThZenE1SEtLV2F2dW9JbU5KdnBNTklQZS0yS0NyVU9lZW1YWHpiSXA3Y2NkVTB2QlZEOEJhckNJY3R4VFBUcDVSZzcwNEprbWwwS21CeVF3aHJlWkVaci1TbFRtMm5V?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxPZHhUOFhYS0FhbHVLVEhLd213ODdQdU56eG0yQkw3N3lqRzMxWTNnLVdHZF9URFAzazNRUFVTeFVfanIxU2FFOFhuZEdSLW43dWZqQnBfOGZnQ0xpTThTeW84RE9wZ0UtUjZSNElZMFV6cF9PWFB0WFI0OVRmN0hUVmhMTHg2SnZKZHhCMA?oc=5</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -9076,27 +9076,27 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Cybersecurity head says there's no chance a foreign adversary can change US election results - AP News</t>
+          <t>Advancing Protection in Chrome on Android</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxPdV9seHI5VHlIQ1R5TTVkdXo2OFdJZmZRcHZRZ29GQm1QYTljdGJSbmRwcDQ1RmxkSF9XZEsyaFZ5ZHNqRTJvMmRwblQxNkFLc2xiaTAtS2hLeDFLV2tpaExYVHNRSGlRRjBGTXVzbHFMS2haSTNZak9INXBqODJQd1hIUlAxLXZ4Y3dWaDJmV1JLMFpCekxkUVBWR192TUVmVVdKSGhaY0JOUHhSWnc?oc=5</t>
+          <t>http://security.googleblog.com/2025/07/advancing-protection-in-chrome-on.html</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -9108,7 +9108,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -9118,29 +9118,29 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>CrowdStrike executive apologizes to Congress for July global tech outage - AP News</t>
+          <t>Iranian-backed hackers go to work after US strikes - AP News</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPazZac1hqU1pOQ1FUanRrRVE2cGt3T3BYZktPY3Vfblc5cERZWUhTckxuMFAxQ2NlSEphbU1XdUlFNUZvZXBMb2tjUG1ObEtSWU80MTl3MVlrb2hmT3RVa0NaRzFPeFE0MGptTzNkTVVhZ1NXSkFXQnJPaUlUcm9DVDNOX01oT0xtR0tvYXkyNlgzUFFoM08wWkcwb2MtcUVJZkJkZjhsNXM?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPX1RpNnA2Q1RHUS1RUXhINGkwTmhrZnN1QWxlREQ1WXBkblFEVnZqVVppRzhHeGxiWGFUM2ZXc2JVUW1JMkQzcFJDTGMydlRRS2Z5Vnd4YU9HY1JGWU01bVZfMjk1dzBBTG1yeGhDOHduc2lEdjBjcTNZQ3NGaDkwaVYxUHVmMmM1anNFXzlOR3YxSG0zR3hF?oc=5</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-14T07:52:14Z</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -9150,17 +9150,17 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Cisco cuts thousands of jobs, 7% of workforce, as it shifts focus to AI, cybersecurity - AP News</t>
+          <t>Dutch government says pro-Russian hackers target municipalities linked to this week's NATO summit - AP News</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxOcXN6clV0d2xaeDQ1aTNpdFhRaFNldVVzQ25LZHI3UGlMVUMxYmxLcklpbmFpRlRraHd3TDkwRW5YODM0SUlJOTNQM0dTTVFoZ0U3Zk90UnFESVl0dklxTWFuTEhoajZHRTVTeHhoMnNiVUx4VGlwOVBaMDR1Nm1GcW5OQUJzbk1uTkVOeG56aVpuWER4a3kzYw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQNS1FNE9zWXZEbl9qUjBIdmhLWWFsZS1iRXQ2bnZPZlhSZUJNMm1pZ1VTcnM2Y1gycjZveTNyRk9RYVRETWd5WlVpNzA0VGJOZmN4SnlacURmNXY5WXBxejJNWmhtRHl1ZEdZTDZab2lrWDV3aVBBVkRXZ1RIV00ydVlaWWJlNnV1blgtUWJWc3NmTG1yT1I0c05tTHZtYk5kanQzX3dsVFVIYS01T0E?oc=5</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -9172,27 +9172,27 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>How a faulty CrowdStrike update crashed computers around the world - AP News</t>
+          <t>Mitigating prompt injection attacks with a layered defense strategy</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQaDY4QjM5OFlLTzk2aW82YUN6eWh6Z1hlbjB4S3RiLThsX1cxZkE4Z19ia3c2SmEyb0RZamlrU3dDaXhIeVpFYWFseF9vV0pQbkRLOWM5eDFXdE9HOWgyU2ljczI4MG5vclpsS3l4QWpCWkpqOENuWXd0cUZLTVgtaWptWUhNeVZCd3VaREZNV3diVUF0a3FpZ193ZkprTUdWUGYyZTRn?oc=5</t>
+          <t>http://security.googleblog.com/2025/06/mitigating-prompt-injection-attacks.html</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -9204,27 +9204,27 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Multiple threats to election systems prompt US cybersecurity agency to boost cooperation with states - AP News</t>
+          <t>What’s New in Android Security and Privacy in 2025</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNSkk1Wm1OWDVaRFlNQ2FINkNzWGVHMkJXSW1qX0FlUTJucDJyTXQ2RWx6WHZjLXdfX1pZSmRsVXhFZFBjNm5iTHVYTVdQX2ZvbC1ZUlZTU0Fid1B2SnRQYzRJZ3JnVkUzbGJNZlBnLWtwLTNSNV92Y2pEd3VsU3dDS0dPaWZScjM5Z1c4Um9icDdrZEhfOU54ZDNtU1JJSGxjYU5VQ2ln?oc=5</t>
+          <t>http://security.googleblog.com/2025/05/whats-new-in-android-security-privacy-2025.html</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -9236,27 +9236,27 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Cyberattack on Pennsylvania courts didn’t appear to compromise data, officials say - AP News</t>
+          <t>New security requirements adopted by HTTPS certificate industry</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxOc2l0X3V5WFhxZUR5YWdoVUZzdThqQWhfNjRKNzlNcXhFMXRoX1VzQk9TTnBuR1lOaVBSN1g4Y1BmNHRjTVVHb3VkaWg5OWpkdnRxeW5aQ0puVndMMDdXMk41RG1sa0xvZzhuekRtZnEyTG51VzZRWi1MSlVfSDRfdENhSXNvM3ZPQS1oWlA2UDBta0xhWDJwdE5NQ04xREJnVllXdTVpLTc2NUF3dHZZYWJqbw?oc=5</t>
+          <t>http://security.googleblog.com/2025/03/new-security-requirements-adopted-by.html</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -9268,7 +9268,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -9278,12 +9278,12 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>States and Congress wrestle with cybersecurity after Iran attacks small town water utilities - AP News</t>
+          <t>Google to buy cybersecurity firm Wiz for $32 billion in the biggest deal in company’s history - AP News</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMingFBVV95cUxNaTluS0tuTW1ZZDJzWW1xUEJQTGZ6eW44em9hYVR5WFotT0NNbkRyLTVlZ0JwUklCc0FMVWtHWVktVVlGdVRDUUdDUVFIXzczMVBCVWFsZ2RPaUpOSE1QMUwxWXBNMk1VZ2VKTHVVU3I1X2hIdHNPNFh4VjM0OEZoVENnYVBoRW9LOHhkTnpTN29scmlTb3A1R1c4Y0plQQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxQVENFcGdMVURrVk9GZFVXN0NmOXZfZlZMVW9GTlRkX3dERklXeFEzcndndDAtZjN1dmRNZGZ6NFdCdTd4Ym43TS1kZ25NdkZrR21QUlpWbnlLVjRUSGNZZXJhczdWd0NtRmhMT2dXSExyaFdjeWZVOHVxSDd2V3ZPRURHS0oya1QzNmtRWU5GZ202Sktv?oc=5</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -9293,34 +9293,34 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-14T07:52:14Z</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Top White House cyber aide says recent Iran hack on water system is call to tighten cybersecurity - AP News</t>
+          <t>Announcing OSV-Scanner V2: Vulnerability scanner and remediation tool for open source</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxOUERwUzRFam9qUXg4N29iT0xPVFNGNFQ0dE5aeXY1S01rSVE2YkdlWnZNLXl5THFtOUlXbVRVWF9ldFZqOHBBaktMTUV2QmVOck9mdkpMOEdyMGRMbUYwcmFQVHNhSkVGclpiMEZncU5zbUU1OWxFajVtXy14YmdLNms1dEViMHFTSkxfSkRkN01NejZWMXgxWk55R0dtZFB2YVN5cW5vdzRPZGJnemI0?oc=5</t>
+          <t>http://security.googleblog.com/2025/03/announcing-osv-scanner-v2-vulnerability.html</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -9332,30 +9332,414 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Trump administration halts funding for two cybersecurity efforts, including one for elections - AP News</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxQeXJVUGp0Y1F2U196TVZmMjJ6QlZ5MzRRVU83N19yaXR5eC1GemYyUlcxWjYtYTNoOGw5dGNkRG5BM3cwTGtTSWx3ZkFhY0lnRzZWLXdtY0FobjZOZG1tM0RUWng2MEVqY3dIOXdrRmoxNk9CeTVPX1phdkszUVNHMXNXVmdBQzZ4QURFVy01dWRtNHdLaHFEY1E2NmNtWWIwdFE?oc=5</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>US cyber agency puts election security staffers who worked with the states on leave - AP News</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQSjZEWnc5TmtXcVVUMVhmZTl3UjRHUmE1ZG16d0JoaEpEdEpJdGQxY2dPZ0pQQ2Zwc0dKZzAwem5SVG53eENzMHlPX0JTY0xiWVNwUWNPZ3R2ZVQ1dlM5ZzBQYVlJMmpvM3hMSU5LUXJYeXpEOFBkVllLN1RRVURkejM0My1pRjlJejhaRkd6bThUa2xMeHBOY3JQQkhwZ25VVFhWNXkxbVAtUVlE?oc=5</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>2026-01-15T06:44:44Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>US cybersecurity agency's future role in elections remains murky under the Trump administration - AP News</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPMnRHWXk2WkZpWVRaZ2h5U3h0cWR1WlF6a3RnSGdBWE5pcTRITWxhbE51anlTZm00WlBsVW9xenlQMzQyd3VqM3Jjdm04LVhrakpzLW5HSlRuTFBjV2ZNSTU0b3ZUUERFX3o1Q0lodzI4XzNjdVhKNEVIUGduZ1NFNHVwYVIyTEp1VUg5cmhEZkQ4Zk40NkN6Rmc5eUFnTmZQVWdPbnJkYTJRQQ?oc=5</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Delta sues cybersecurity firm CrowdStrike over tech outage that canceled flights - AP News</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxOWWhiMEtqTE91UDVReXk4cndIVW82MzZOb3o3ZnVqZG9fT29vSnJfeXU1cjZFMk9aSkY5b3lIcmw3LTRHZThZenE1SEtLV2F2dW9JbU5KdnBNTklQZS0yS0NyVU9lZW1YWHpiSXA3Y2NkVTB2QlZEOEJhckNJY3R4VFBUcDVSZzcwNEprbWwwS21CeVF3aHJlWkVaci1TbFRtMm5V?oc=5</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Cybersecurity head says there's no chance a foreign adversary can change US election results - AP News</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxPdV9seHI5VHlIQ1R5TTVkdXo2OFdJZmZRcHZRZ29GQm1QYTljdGJSbmRwcDQ1RmxkSF9XZEsyaFZ5ZHNqRTJvMmRwblQxNkFLc2xiaTAtS2hLeDFLV2tpaExYVHNRSGlRRjBGTXVzbHFMS2haSTNZak9INXBqODJQd1hIUlAxLXZ4Y3dWaDJmV1JLMFpCekxkUVBWR192TUVmVVdKSGhaY0JOUHhSWnc?oc=5</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>CrowdStrike executive apologizes to Congress for July global tech outage - AP News</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPazZac1hqU1pOQ1FUanRrRVE2cGt3T3BYZktPY3Vfblc5cERZWUhTckxuMFAxQ2NlSEphbU1XdUlFNUZvZXBMb2tjUG1ObEtSWU80MTl3MVlrb2hmT3RVa0NaRzFPeFE0MGptTzNkTVVhZ1NXSkFXQnJPaUlUcm9DVDNOX01oT0xtR0tvYXkyNlgzUFFoM08wWkcwb2MtcUVJZkJkZjhsNXM?oc=5</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>2026-01-17T06:40:07Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Cisco cuts thousands of jobs, 7% of workforce, as it shifts focus to AI, cybersecurity - AP News</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxOcXN6clV0d2xaeDQ1aTNpdFhRaFNldVVzQ25LZHI3UGlMVUMxYmxLcklpbmFpRlRraHd3TDkwRW5YODM0SUlJOTNQM0dTTVFoZ0U3Zk90UnFESVl0dklxTWFuTEhoajZHRTVTeHhoMnNiVUx4VGlwOVBaMDR1Nm1GcW5OQUJzbk1uTkVOeG56aVpuWER4a3kzYw?oc=5</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>脆弱性・CVE</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>How a faulty CrowdStrike update crashed computers around the world - AP News</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQaDY4QjM5OFlLTzk2aW82YUN6eWh6Z1hlbjB4S3RiLThsX1cxZkE4Z19ia3c2SmEyb0RZamlrU3dDaXhIeVpFYWFseF9vV0pQbkRLOWM5eDFXdE9HOWgyU2ljczI4MG5vclpsS3l4QWpCWkpqOENuWXd0cUZLTVgtaWptWUhNeVZCd3VaREZNV3diVUF0a3FpZ193ZkprTUdWUGYyZTRn?oc=5</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Multiple threats to election systems prompt US cybersecurity agency to boost cooperation with states - AP News</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNSkk1Wm1OWDVaRFlNQ2FINkNzWGVHMkJXSW1qX0FlUTJucDJyTXQ2RWx6WHZjLXdfX1pZSmRsVXhFZFBjNm5iTHVYTVdQX2ZvbC1ZUlZTU0Fid1B2SnRQYzRJZ3JnVkUzbGJNZlBnLWtwLTNSNV92Y2pEd3VsU3dDS0dPaWZScjM5Z1c4Um9icDdrZEhfOU54ZDNtU1JJSGxjYU5VQ2ln?oc=5</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Cyberattack on Pennsylvania courts didn’t appear to compromise data, officials say - AP News</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxOc2l0X3V5WFhxZUR5YWdoVUZzdThqQWhfNjRKNzlNcXhFMXRoX1VzQk9TTnBuR1lOaVBSN1g4Y1BmNHRjTVVHb3VkaWg5OWpkdnRxeW5aQ0puVndMMDdXMk41RG1sa0xvZzhuekRtZnEyTG51VzZRWi1MSlVfSDRfdENhSXNvM3ZPQS1oWlA2UDBta0xhWDJwdE5NQ04xREJnVllXdTVpLTc2NUF3dHZZYWJqbw?oc=5</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>States and Congress wrestle with cybersecurity after Iran attacks small town water utilities - AP News</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMingFBVV95cUxNaTluS0tuTW1ZZDJzWW1xUEJQTGZ6eW44em9hYVR5WFotT0NNbkRyLTVlZ0JwUklCc0FMVWtHWVktVVlGdVRDUUdDUVFIXzczMVBCVWFsZ2RPaUpOSE1QMUwxWXBNMk1VZ2VKTHVVU3I1X2hIdHNPNFh4VjM0OEZoVENnYVBoRW9LOHhkTnpTN29scmlTb3A1R1c4Y0plQQ?oc=5</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>2026-01-16T06:45:11Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Top White House cyber aide says recent Iran hack on water system is call to tighten cybersecurity - AP News</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxOUERwUzRFam9qUXg4N29iT0xPVFNGNFQ0dE5aeXY1S01rSVE2YkdlWnZNLXl5THFtOUlXbVRVWF9ldFZqOHBBaktMTUV2QmVOck9mdkpMOEdyMGRMbUYwcmFQVHNhSkVGclpiMEZncU5zbUU1OWxFajVtXy14YmdLNms1dEViMHFTSkxfSkRkN01NejZWMXgxWk55R0dtZFB2YVN5cW5vdzRPZGJnemI0?oc=5</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="B291" t="inlineStr">
         <is>
           <t>AP News</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
+      <c r="C291" t="inlineStr">
         <is>
           <t>Here are the countries that have bans on TikTok - AP News</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr">
+      <c r="D291" t="inlineStr">
         <is>
           <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNVHY1cFpobU4wMkdQdXVMejZKbHpTUjZiekdUdnBHMVp3QXJXVG9kWUV0NTlVQXV5anBUOWtud0xNeHl1SWcxOFJrOGluakVSbDN5bDlrSFplSjFScVRHVjhUTW1DQ3FISEhpc0VyVE9MTUN6MF81NVRLeUxnYlNZMFpvbGdpeDhvcUZfbzBTNnIzUlN4QnVuM0JHR0d6YWh2U0hxdDlPRlFITmtP?oc=5</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr">
+      <c r="E291" t="inlineStr">
         <is>
           <t>その他</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
+      <c r="F291" t="inlineStr">
         <is>
           <t>2026-01-16T06:45:11Z</t>
         </is>

--- a/docs/exports/articles_3y.xlsx
+++ b/docs/exports/articles_3y.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F291"/>
+  <dimension ref="A1:F302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,93 +478,93 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Anti-ICE demonstrators chase off outnumbered far-right activists at Minneapolis rally - Reuters</t>
+          <t>Top Ukrainian negotiator says talks with US to continue in Davos - Reuters</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxPVlFXdUdwVUVLaEwzRmFwX2NmUWJRaVkxbDRPOGdNcTZZMDZnMXdtY3BiRjVHOG8tMS0tZm1Tanl3U3lFWDBxN1prLUZ1Q0s2cXkxODhVNUFOdVNsR2t1WEh4c1cwVENxdk5TQkI5akxsMndSbTh1ZGpfNk9tOFJEV254OWJkMzJOdkZhWlRyWm9vV1BNU2JIUkd1VUlfMVY0NGhj?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxNR0QtWXRvRE1ndVZMOUNYaGNQSHhPWExEQmJoNUdBQWp0RUR2RWpVNjNyeGtuZGhWWmxBdUpjRXpJQ0xhNEV3QlBNT0hBcUd4a0thWGhhVDBUbDR3T1ZVY0R4MzViR25wZjdlZlNfTDB1TENpZ2NaTW5vOUxLU0ExbGRZRnZCSG5qR0lFdU9WWEN4NnVucEtrOE9XRkZfb1MzanMwU2VER2hyWUE?oc=5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-01-18T06:41:06Z</t>
+          <t>2026-01-19T06:51:00Z</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Black Basta Ransomware Leader Added to EU Most Wanted and INTERPOL Red Notice</t>
+          <t>Clashes in Colombia between guerrilla groups leave 27 dead, sources say - Reuters</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/black-basta-ransomware-hacker-leader.html</t>
+          <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxPZThtZUF1aHhhWkxMX0ljaFFKcWNrUlJaUThtLUh5RDFEMDNNWEZYaGVvQ1FMTUpBNFd2aDdhb1dKX2plcTY3ajR3Sl84Q19ic3NyTTNCeEFjbjJfWWJkbU9fNS1uZ3FGSXV6aHAxVDlMTHR5aGVSTm1KQ0twd09qNEhGLTFIel9nZ2w2SHVhNktfUUVPUjhpb25jREtDOHlXTEpRc2lpbHpJcjVvM3BISF9MYTI3dGNjR2c?oc=5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ランサムウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-01-18T06:41:06Z</t>
+          <t>2026-01-19T06:51:00Z</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>US kills al Qaeda affiliate leader tied to December attack in Syria, Centcom says - Reuters</t>
+          <t>CIRO confirms data breach exposed info on 750,000 Canadian investors</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxORFVGbjd4V29iRGgySHFqVU5zYzBSd0RVbDc2THlhZzM3UzFtVjFZQnV6dFo0MVQxTlg2SE1TRl83NTVna0d0MmxzaFVCVTNaQ2gzQ2hETzF5cFhIUWtQcUM2WnVNYzNpSjNpRW41NjVxTlFvWHloLUZTcXpPX3R4Q05jRS1kalc3SHlYcEk4OE92LWpDQkVJS1J4Tm1SMDFGTXpIQXNJc19zVzNoaHFKWU55dmNvc01DOEZUZFdZNWdyMXpkUVpB?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/ciro-data-breach-last-year-exposed-info-on-750-000-canadian-investors/</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-01-18T06:41:06Z</t>
+          <t>2026-01-19T06:51:00Z</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -574,29 +574,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Whistles and walkie-talkies: Minneapolis keeps guard over schools amid ICE arrests - Reuters</t>
+          <t>Syrian forces seize major oil, gas fields in eastern Syria, security sources say - Reuters</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxNcDVaTGFfeDNPa2tSVk1jd3NYZlFDZkVlRkR1LTlDVmdoT0RrN2x1SmRMRWtaWjRqeWdIVFhudjVab1c2T1VVeENKZXg3ZnBvQk50cDNpckd0ZFZiY1JoZ053ZFMxV0x4eHV3TU03YWowd0dnemttLV9fZ2lyZ0VjajVxdVQyTWhrXy02Nks2Q1p5RDhOY3prZVBDWVRibjhpVzYtZWxXeFpoMUNMYldDQ3Y5NlRvLU5KZ283WlFNcw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxOblNrWWtyQmVRYkpndTJJZVExSmNReDNaeTM4VjdDSlp0TmkzRXl6YkdwTTBlZW1QdGlTYi1PSlBMTTNSR1p1OFRXdzNJeFdZMUlBNFRUY1dCNHdFZFo1TUpYbk81RGs5UG1IRXZtLWRMcEUwdkY0c3A0dzRXY2xHUmN2QmZvMlJoa1g5U24yZFR6d1FqY1Z0UEJTQ042dV9tMmp0RklHeWdBeEhKMlZ5cE55UFUwZTU4di10clZrX0ExejJway0zYg?oc=5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2026-01-18T06:41:06Z</t>
+          <t>2026-01-19T06:51:00Z</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -606,29 +606,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Supreme Court tests limits of Trump's power over the economy in fight over Fed's Lisa Cook - Reuters</t>
+          <t>US needs Greenland because of European 'weakness,' Bessent says - Reuters</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMi6gFBVV95cUxQNVVQUmw0NlJUYmc2T21lQWpod1E0dkUzVUlfTWM0WWxlcWs2eXdONzdVUTlnbzJnYlVjMm5BNGJlc0FfNkQ5MFRSVENtNkRNOFE0Szg1ejFjSF9MdHMwenZpTFRRMHQxcUFhc0d5d2pDb0w0VXhVSmhiaUozdVpFdEZha1ZYbzM4eGtEVGRvcFlDRVRhS1AxLU5ZbTV5bmNKTkR0ZlcyVlBQQ3RNbkdwSHd2SFZGdjZXdDkxQ1dadGlwSDZqYzB2MjV3dllGUEVSNnJ4NU03bUttRF83cGM5cnoxVTNhRDcxeFE?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOeHFHVUpyaTJURVpha1RvQVdnMXhaQUNpUWxBVTVUU2ZkSUh1cTJPWi1QLWZad1VSV2FsaTUwdE5DS2EwVXVTaUc2WGV4eUE5Wl9GYzFvdkNsVE10eHpfZUhqRkxJQnFJR3hGYjdkdjFCS2xBa2pfVzRTd2V5dy1aZjJ6UXZxb0RnN0NSTTN2VVE3bVUweFpNSkthWF8tTGJMSEtyYzBqM0ZpUQ?oc=5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2026-01-18T06:41:06Z</t>
+          <t>2026-01-19T06:51:00Z</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -638,29 +638,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Justice Department asks federal judge to deny special master for Epstein files - Reuters</t>
+          <t>Scottish first minister says a May majority means new independence push - Reuters</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxOZ19zOXZRc2xSTVZLVWZYSVdMTmcwWnFnZnQ4cXNnS19hMjdvWHJJNGtaWUlpNndCT3ljdTI4WkFkalVEaE8xMUFwaVBjd3YyaVZpZlFhU0JCLWxodVhwdXlkVEVwS0k0V3VvRzMtV00wMkM1cG55ZUpQMW90ZUIzTHlGd3daWkh1bUUzaXJqajlVcDBEZzFoNHY2UjJvTDVHc0haYnFvRXhIbnFsWXpkQ0g1WHVvR3c?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxQUUdRWFRlcXpZOU5vTEs5eFFnbHR2NTVsVWVRMmJBcW9mMV83VThmVk1QbUo5RHhPSFFvcWtBb2VsYVNRQUNlNExyM3BvVDdNakhOdGNKbTRkQUdlcTZQTXVoUUwwUFp3UDNxUHRQVktwVU41YWVLNmxEdWQ2LUlDU2lqLUNEZHB3emRvTXZQelR6RzNaenR5dE92NTZKT21mV0tqWkdPZko2Z1BzOEVPMjhDR05ZZ09IcEE?oc=5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2026-01-18T06:41:06Z</t>
+          <t>2026-01-19T06:51:00Z</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -670,29 +670,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EU warns of downward spiral after Trump threatens tariffs over Greenland - Reuters</t>
+          <t>Kurdish commander calls on US to 'intervene forcefully' in Syria clashes - Reuters</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxNcG9WRThuN3Zlb3dkY0VsR3hVMnhCc2tNQUY1RGFZQ1RqSVVQTFFyTk5ZU1ljTGdKQjV6UnNBUmp0VGVYSHdEYzBNX0s3VmRzaXJ6QUFWcjlUSGdOblJwVV9ET19HMTVCX0lVdzBDTTZMNFZWeDNvYXhNMWdTeGprM2ZIWmlmcXA4cHh0SlE3eXZoVmFRVkFOZ01scmd3ZnVSZE5mY1M3ZHRYU0FTRl9PM1VaalNKUmN1Z1E?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxOdTlObXlCaGZDOUNCenJDYWxpdHFfeVB3d18wZ3NkM3lkYmp5b1M2a3BCNEc2LTBtVDN4UnJJX3hKa1QyZ2NlYkhlWmVjbFViWFZQNy1iMF9ZdkpNQWFuUEIxUHlURVQzQ2VnYnNaR0tGcUoxWFRHQVBrZXRaTC0tQjZvcFg4UmNZMkwwZkRaNEpUeGxTQmdQanI1YjFaOS00dXNRemtITFNwTVJtdWt5a0ZUT1BYUQ?oc=5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2026-01-18T06:41:06Z</t>
+          <t>2026-01-19T06:51:00Z</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -702,29 +702,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Syrian army continues advance against Kurdish-held towns despite US calls against it - Reuters</t>
+          <t>'Be in no doubt' EU will retaliate to any new US tariffs, Ireland says - Reuters</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxQb3ppQ09nT2xrRmxtbnRGMzBKTkktYklpX2Z6cUpUamRIcWtyV0Q2V2JyYVh3M2Q3Tk9FSEpSbDJLbndWYUtXWUh1QkpYSkdXWkJ0SzB0b1BhYmVEMWRFUlhSRUJySW9tQUdHTmNxTVI3cVdlclltS0VQdHVYbDE3cldDTjE4ZW1ZaW9HWjd1bElFR2p2QjhvNFE3ZGZBNk5tVG4xeUY3dGE2bU1iR005SkIyWjI?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxQUm5veE9NaVJjZHhYTDNnTjZrdWtXR3hNTkdBWFZER21aZTZ3dTZBM3Q2WFUyT0g4TXFNMzItdHplYTExcGZ5SGdGUzhsVkRMN2JlYnRyYVMzMmY3cHg1NzdaTDJLY2phejE5Q09selhCRmN1ZDFMY1dWd3oxSGJ3ZWl3STViMTlrcGpOSE84TEFfTmpGcEt2cHFhd1ZFYjNicXNKMXZDQk45bVFJOVdZ?oc=5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ランサムウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2026-01-18T06:41:06Z</t>
+          <t>2026-01-19T06:51:00Z</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -734,61 +734,61 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EU moves to force the phase-out of Chinese suppliers from key infrastructure, FT reports - Reuters</t>
+          <t>Syrian government, SDF agree on immediate ceasefire on all fronts, state media say - Reuters</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxQdU5teElqVzdPcVpjQV82dnB0SXdkdTl4cjFBTWJiXzRlZFltbHBLLWg3NmxYQmI1alFkUVRtdVhGRksxR2VIWTQtNlJmYTVMZ3FjTEdpOG5PejVyWnd2X3NWZldJUlJnZjZreXpRSGlicDh1RkVLZXFHOWhva25vRWRjNy00eEhYSnVWTWpNX1VsOEdMNmloX0gzSGk4czVzSFlyUXA3M2ZsN00?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQZHU3bXpXcUdudW0wd0ZrUzdLSkN5ekJWcGxhaE0yM3d0NEJDeTBITF9sMnp4SFo4TzJzdHhNZXU5akVmallGcWFmRl9peU5PaTVzU1Qzc2ZuZjRTc3FtS0J3NDRMcFlNWGw1REhqOFpuc0hNcmZkS01yMGJaMDRybDdtNmJDNU5FVUxZaUJHbll2SG04SW9jZi01M2FsbE9GQmRsNU5mdUlpdmxvUGlBMTVqQnY5cGNDR1FWQTU0RFdPWm5fUy1F?oc=5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2026-01-18T06:41:06Z</t>
+          <t>2026-01-19T06:51:00Z</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Anatomy of an Attack: The Payroll Pirates and the Power of Social Engineering</t>
+          <t>Iran warns against any US strike as judiciary hints at unrest-linked executions - Reuters</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/social-engineering-payroll-pirates/</t>
+          <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxQZ3FkYmFWaWRqX0pFQzByZGE0SmtSenhQU3VZOHNtbzNGOEotNDVjcFRoeG9NbmhtMmthM1hhdm94YnVianJsbV8zVXlMMjgwNEI3Q2tZU0ZhU0U4cGNiV3RmZjRYUzB6ZHBTdHZ6SmpoTVZVdURaUFAxZ0tuWXJHNFBQVlBCZVplOWx3ODJMRndneHdTeDlkeDdiSWdMUWJxNHBmbU15UW9NMWRPUHRMZWlFZWp0UXkwOTNMOHcxRjRuQnkyaGUyVw?oc=5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-19T06:51:00Z</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -798,29 +798,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Judge urges US grant visa to college student deported due to 'mistake' - Reuters</t>
+          <t>Syria government, Kurdish forces agree sweeping integration to end clashes - Reuters</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQcXd1c2dMMndkQ3RqdzRfT2RkV0RGdC11bklpdEg2SXhTSmZ2bTNTUENUWGpWMTRuRmc2bHhGc1B6VXU2ZFBtaEpoU0VUSnlzR1hvZDhoalNjblRSaHJwcHl5cW04a2pIX3l3NE1KZ1dNTW5JcDdjNDdoMTBCYVZLaUlwWnZsODlyVGw2UWxORnM2RzhxNmRObDFHdVBzVjBCVGd5RkhBVzBqdjFEUjV1SnFYemlHdw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxPaDVoNHF5WkdQT294UXQ3TkM3c2ZYRU8tYWIyLVV4VzZoTnR2czFtUmZ5d3l4S0tFZFdUcmxuc1BKeXJBZ1pKaHdFRFBVcXNYZFdLNWFOeE5qUWU3Wk1PZFR4WU96ZEdTVlVyZHdrMmR1aVE4Z2laeVRJS0k3SnBReGlSRFZsUmcxU29TN0QtRzltOGlrS3poajdlRE5EZWtWenZQVHpfZG9DNjdiRnBzQnRhVlQ3dEZ3d09v?oc=5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-19T06:51:00Z</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -830,49 +830,49 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>US Justice Department probing Minnesota Governor Walz, other officials, source says - Reuters</t>
+          <t>Anti-ICE demonstrators chase off outnumbered far-right activists at Minneapolis rally - Reuters</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxQcWsxYlVBX1ZDVnAwOE9KSkJtLTd5c21OY19aN2JNQUFmdE45OTMxMHl6SExhOTBkSTJ0YXdLWUhCVWsyWmIyZXJfWW45T1cxdU5NNG1KRjByQzBWcnhtTXVGYVByNEN1RkxMeC02eEZ3SzYzUVZLQ3dOUjh4T2dQdjd4VTNjY2p0Z3BBMWo0aWZreHBBbzFocFhQdHBmaTFORzZiaVBJSWJxUzFrSWVlUzZxRmRtY1A1Zm84?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxPVlFXdUdwVUVLaEwzRmFwX2NmUWJRaVkxbDRPOGdNcTZZMDZnMXdtY3BiRjVHOG8tMS0tZm1Tanl3U3lFWDBxN1prLUZ1Q0s2cXkxODhVNUFOdVNsR2t1WEh4c1cwVENxdk5TQkI5akxsMndSbTh1ZGpfNk9tOFJEV254OWJkMzJOdkZhWlRyWm9vV1BNU2JIUkd1VUlfMVY0NGhj?oc=5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Poker-faced Powell may have ace up sleeve to stymie Trump's Fed shakeup - Reuters</t>
+          <t>Black Basta Ransomware Leader Added to EU Most Wanted and INTERPOL Red Notice</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxNQVUxdldEREFIM0tldFBQZjI0ZW1EXzJjekxjVVppN3VEdHRVNTZhZU45MkRFc2VnRjZfNXJLcFBJdlFqT191cGtGRDR5YnM5ZTlLaWZOX1ByMFVxTDdRbmpXQUxBeFdxT1h2SmhPUmpXYWhyUmZMRG8zZGxYNXBSeUdTV29EdHJFRDZnN0lteG9fNU1SZmJSSm9zZXNabXR6ODNXOXdaNXQ2eVhFcEhMUmJn?oc=5</t>
+          <t>https://thehackernews.com/2026/01/black-basta-ransomware-hacker-leader.html</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -884,7 +884,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Porsche reports worst sales drop since 2009 on weak China demand - Reuters</t>
+          <t>US kills al Qaeda affiliate leader tied to December attack in Syria, Centcom says - Reuters</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxQdGJqVXk2bzNQR0JOQkFPRHhxZGxQbU03MThnSzhqMlVabTBxblJ4c2lIbGZNVVdvdWtHY2J1YTZFLWhXLUhpNDc1OENCdndhbFZ2N1FtQ09ubk1hZ2tybGtVZlVGN08xQzUtbF85YWRMN0tidVdXdW5ibG9FakMySkIybU1rM0luREt4WnkwS2ZDaFZ0SkhHa2JiOXZlcDltVTVaZ1RKM19Ha21LSEVKb2E0QkpOZGxsdVRQVUo4SGVVOTdkSjVqOF9UX1ExSmdPZTRQTA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxORFVGbjd4V29iRGgySHFqVU5zYzBSd0RVbDc2THlhZzM3UzFtVjFZQnV6dFo0MVQxTlg2SE1TRl83NTVna0d0MmxzaFVCVTNaQ2gzQ2hETzF5cFhIUWtQcUM2WnVNYzNpSjNpRW41NjVxTlFvWHloLUZTcXpPX3R4Q05jRS1kalc3SHlYcEk4OE92LWpDQkVJS1J4Tm1SMDFGTXpIQXNJc19zVzNoaHFKWU55dmNvc01DOEZUZFdZNWdyMXpkUVpB?oc=5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -916,86 +916,86 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Canadian investment regulator confirms hackers hit 750,000 investors</t>
+          <t>Whistles and walkie-talkies: Minneapolis keeps guard over schools amid ICE arrests - Reuters</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://therecord.media/canada-ciro-investing-regulator-confirms-data-breach</t>
+          <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxNcDVaTGFfeDNPa2tSVk1jd3NYZlFDZkVlRkR1LTlDVmdoT0RrN2x1SmRMRWtaWjRqeWdIVFhudjVab1c2T1VVeENKZXg3ZnBvQk50cDNpckd0ZFZiY1JoZ053ZFMxV0x4eHV3TU03YWowd0dnemttLV9fZ2lyZ0VjajVxdVQyTWhrXy02Nks2Q1p5RDhOY3prZVBDWVRibjhpVzYtZWxXeFpoMUNMYldDQ3Y5NlRvLU5KZ283WlFNcw?oc=5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Jordanian initial access broker pleads guilty to helping target 50 companies</t>
+          <t>Supreme Court tests limits of Trump's power over the economy in fight over Fed's Lisa Cook - Reuters</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://therecord.media/guilty-plea-initial-access-broker-r1z</t>
+          <t>https://news.google.com/rss/articles/CBMi6gFBVV95cUxQNVVQUmw0NlJUYmc2T21lQWpod1E0dkUzVUlfTWM0WWxlcWs2eXdONzdVUTlnbzJnYlVjMm5BNGJlc0FfNkQ5MFRSVENtNkRNOFE0Szg1ejFjSF9MdHMwenZpTFRRMHQxcUFhc0d5d2pDb0w0VXhVSmhiaUozdVpFdEZha1ZYbzM4eGtEVGRvcFlDRVRhS1AxLU5ZbTV5bmNKTkR0ZlcyVlBQQ3RNbkdwSHd2SFZGdjZXdDkxQ1dadGlwSDZqYzB2MjV3dllGUEVSNnJ4NU03bUttRF83cGM5cnoxVTNhRDcxeFE?oc=5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ランサムウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AI System Reduces Attack Reconstruction Time From Weeks to Hours</t>
+          <t>Justice Department asks federal judge to deny special master for Epstein files - Reuters</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cybersecurity-operations/ai-system-attack-reconstruction-weeks-hours</t>
+          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxOZ19zOXZRc2xSTVZLVWZYSVdMTmcwWnFnZnQ4cXNnS19hMjdvWHJJNGtaWUlpNndCT3ljdTI4WkFkalVEaE8xMUFwaVBjd3YyaVZpZlFhU0JCLWxodVhwdXlkVEVwS0k0V3VvRzMtV00wMkM1cG55ZUpQMW90ZUIzTHlGd3daWkh1bUUzaXJqajlVcDBEZzFoNHY2UjJvTDVHc0haYnFvRXhIbnFsWXpkQ0g1WHVvR3c?oc=5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1005,130 +1005,130 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CISOs Rise to Prominence: Security Leaders Join the Executive Suite</t>
+          <t>EU warns of downward spiral after Trump threatens tariffs over Greenland - Reuters</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cybersecurity-operations/cisos-rise-to-prominence-security-leaders-join-the-executive-suite</t>
+          <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxNcG9WRThuN3Zlb3dkY0VsR3hVMnhCc2tNQUY1RGFZQ1RqSVVQTFFyTk5ZU1ljTGdKQjV6UnNBUmp0VGVYSHdEYzBNX0s3VmRzaXJ6QUFWcjlUSGdOblJwVV9ET19HMTVCX0lVdzBDTTZMNFZWeDNvYXhNMWdTeGprM2ZIWmlmcXA4cHh0SlE3eXZoVmFRVkFOZ01scmd3ZnVSZE5mY1M3ZHRYU0FTRl9PM1VaalNKUmN1Z1E?oc=5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>More Problems for Fortinet: Critical FortiSIEM Flaw Exploited</t>
+          <t>Syrian army continues advance against Kurdish-held towns despite US calls against it - Reuters</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/vulnerabilities-threats/fortinet-critical-fortisiem-flaw-exploited</t>
+          <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxQb3ppQ09nT2xrRmxtbnRGMzBKTkktYklpX2Z6cUpUamRIcWtyV0Q2V2JyYVh3M2Q3Tk9FSEpSbDJLbndWYUtXWUh1QkpYSkdXWkJ0SzB0b1BhYmVEMWRFUlhSRUJySW9tQUdHTmNxTVI3cVdlclltS0VQdHVYbDE3cldDTjE4ZW1ZaW9HWjd1bElFR2p2QjhvNFE3ZGZBNk5tVG4xeUY3dGE2bU1iR005SkIyWjI?oc=5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Former CISA Director Jen Easterly Appointed CEO of RSAC</t>
+          <t>EU moves to force the phase-out of Chinese suppliers from key infrastructure, FT reports - Reuters</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/former-cisa-director-jen-easterly-appointed-ceo-of-rsac/</t>
+          <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxQdU5teElqVzdPcVpjQV82dnB0SXdkdTl4cjFBTWJiXzRlZFltbHBLLWg3NmxYQmI1alFkUVRtdVhGRksxR2VIWTQtNlJmYTVMZ3FjTEdpOG5PejVyWnd2X3NWZldJUlJnZjZreXpRSGlicDh1RkVLZXFHOWhva25vRWRjNy00eEhYSnVWTWpNX1VsOEdMNmloX0gzSGk4czVzSFlyUXA3M2ZsN00?oc=5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cisco Patches Vulnerability Exploited by Chinese Hackers</t>
+          <t>Anatomy of an Attack: The Payroll Pirates and the Power of Social Engineering</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/cisco-patches-vulnerability-exploited-by-chinese-hackers/</t>
+          <t>https://unit42.paloaltonetworks.com/social-engineering-payroll-pirates/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1140,27 +1140,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cybersecurity Firms React to China’s Reported Software Ban</t>
+          <t>Judge urges US grant visa to college student deported due to 'mistake' - Reuters</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/cybersecurity-firms-react-to-chinas-reported-software-ban/</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQcXd1c2dMMndkQ3RqdzRfT2RkV0RGdC11bklpdEg2SXhTSmZ2bTNTUENUWGpWMTRuRmc2bHhGc1B6VXU2ZFBtaEpoU0VUSnlzR1hvZDhoalNjblRSaHJwcHl5cW04a2pIX3l3NE1KZ1dNTW5JcDdjNDdoMTBCYVZLaUlwWnZsODlyVGw2UWxORnM2RzhxNmRObDFHdVBzVjBCVGd5RkhBVzBqdjFEUjV1SnFYemlHdw?oc=5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1172,27 +1172,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>WhisperPair Attack Leaves Millions of Audio Accessories Open to Hijacking</t>
+          <t>US Justice Department probing Minnesota Governor Walz, other officials, source says - Reuters</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/whisperpair-attack-leaves-millions-of-bluetooth-accessories-open-to-hijacking/</t>
+          <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxQcWsxYlVBX1ZDVnAwOE9KSkJtLTd5c21OY19aN2JNQUFmdE45OTMxMHl6SExhOTBkSTJ0YXdLWUhCVWsyWmIyZXJfWW45T1cxdU5NNG1KRjByQzBWcnhtTXVGYVByNEN1RkxMeC02eEZ3SzYzUVZLQ3dOUjh4T2dQdjd4VTNjY2p0Z3BBMWo0aWZreHBBbzFocFhQdHBmaTFORzZiaVBJSWJxUzFrSWVlUzZxRmRtY1A1Zm84?oc=5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1209,27 +1209,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cyber Insights 2026: Social Engineering</t>
+          <t>Poker-faced Powell may have ace up sleeve to stymie Trump's Fed shakeup - Reuters</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/cyber-insights-2026-social-engineering/</t>
+          <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxNQVUxdldEREFIM0tldFBQZjI0ZW1EXzJjekxjVVppN3VEdHRVNTZhZU45MkRFc2VnRjZfNXJLcFBJdlFqT191cGtGRDR5YnM5ZTlLaWZOX1ByMFVxTDdRbmpXQUxBeFdxT1h2SmhPUmpXYWhyUmZMRG8zZGxYNXBSeUdTV29EdHJFRDZnN0lteG9fNU1SZmJSSm9zZXNabXR6ODNXOXdaNXQ2eVhFcEhMUmJn?oc=5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
@@ -1241,27 +1241,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Monnai Raises $12 Million for Identity and Risk Data Infrastructure</t>
+          <t>Porsche reports worst sales drop since 2009 on weak China demand - Reuters</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/monnai-raises-12-million-for-identity-and-risk-data-infrastructure/</t>
+          <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxQdGJqVXk2bzNQR0JOQkFPRHhxZGxQbU03MThnSzhqMlVabTBxblJ4c2lIbGZNVVdvdWtHY2J1YTZFLWhXLUhpNDc1OENCdndhbFZ2N1FtQ09ubk1hZ2tybGtVZlVGN08xQzUtbF85YWRMN0tidVdXdW5ibG9FakMySkIybU1rM0luREt4WnkwS2ZDaFZ0SkhHa2JiOXZlcDltVTVaZ1RKM19Ha21LSEVKb2E0QkpOZGxsdVRQVUo4SGVVOTdkSjVqOF9UX1ExSmdPZTRQTA?oc=5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>In Other News: FortiSIEM Flaw Exploited, Sean Plankey Renominated, Russia’s Polish Grid Attack</t>
+          <t>Canadian investment regulator confirms hackers hit 750,000 investors</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/in-other-news-fortisiem-flaw-exploited-sean-plankey-renominated-russias-polish-grid-attack/</t>
+          <t>https://therecord.media/canada-ciro-investing-regulator-confirms-data-breach</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1305,22 +1305,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cisco finally fixes AsyncOS zero-day exploited since November</t>
+          <t>Jordanian initial access broker pleads guilty to helping target 50 companies</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/cisco-finally-fixes-asyncos-zero-day-exploited-since-november/</t>
+          <t>https://therecord.media/guilty-plea-initial-access-broker-r1z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1337,22 +1337,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Hackers now exploiting critical Fortinet FortiSIEM flaw in attacks</t>
+          <t>AI System Reduces Attack Reconstruction Time From Weeks to Hours</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/hackers-now-exploiting-critical-fortinet-fortisiem-vulnerability-in-attacks/</t>
+          <t>https://www.darkreading.com/cybersecurity-operations/ai-system-attack-reconstruction-weeks-hours</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>China-linked hackers exploited Sitecore zero-day for initial access</t>
+          <t>CISOs Rise to Prominence: Security Leaders Join the Executive Suite</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/china-linked-hackers-exploited-sitecore-zero-day-for-initial-access/</t>
+          <t>https://www.darkreading.com/cybersecurity-operations/cisos-rise-to-prominence-security-leaders-join-the-executive-suite</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1401,22 +1401,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>StealC hackers hacked as researchers hijack malware control panels</t>
+          <t>More Problems for Fortinet: Critical FortiSIEM Flaw Exploited</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/stealc-hackers-hacked-as-researchers-hijack-malware-control-panels/</t>
+          <t>https://www.darkreading.com/vulnerabilities-threats/fortinet-critical-fortisiem-flaw-exploited</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1433,22 +1433,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>China-Linked APT Exploited Sitecore Zero-Day in Critical Infrastructure Intrusions</t>
+          <t>Former CISA Director Jen Easterly Appointed CEO of RSAC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/china-linked-apt-exploits-sitecore-zero.html</t>
+          <t>https://www.securityweek.com/former-cisa-director-jen-easterly-appointed-ceo-of-rsac/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1465,22 +1465,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LOTUSLITE Backdoor Targets U.S. Policy Entities Using Venezuela-Themed Spear Phishing</t>
+          <t>Cisco Patches Vulnerability Exploited by Chinese Hackers</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/lotuslite-backdoor-targets-us-policy.html</t>
+          <t>https://www.securityweek.com/cisco-patches-vulnerability-exploited-by-chinese-hackers/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1497,22 +1497,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GootLoader Malware Uses 500–1,000 Concatenated ZIP Archives to Evade Detection</t>
+          <t>Cybersecurity Firms React to China’s Reported Software Ban</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/gootloader-malware-uses-5001000.html</t>
+          <t>https://www.securityweek.com/cybersecurity-firms-react-to-chinas-reported-software-ban/</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1529,22 +1529,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>What happens next in EU-Mercosur trade deal saga? - Reuters</t>
+          <t>WhisperPair Attack Leaves Millions of Audio Accessories Open to Hijacking</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxNVkNXYlhnUEdQdnRfaEhGTjJHQTJuUzJLX2szUVJYM2hPa0FBS2s2QmNCUDFPc2hfcEttLVZNT3pKVTlNbGw5NndYNVZCZXJCeHR6NndPM2tDaUdtaERXeG5jNDFIUXAzeWdodzdacTFGc0gwcXNVYTh2alB5SlVIMnpwaHhjS0pFWE41ZFJqSUNfNTIxOUFQNlRGZG9nV1h5dVMxMk5uS1RBTXpJbU8teg?oc=5</t>
+          <t>https://www.securityweek.com/whisperpair-attack-leaves-millions-of-bluetooth-accessories-open-to-hijacking/</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1561,22 +1561,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Oil prices settle up as US begins holiday weekend - Reuters</t>
+          <t>Cyber Insights 2026: Social Engineering</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilgFBVV95cUxOYjhteG9RcGN1dktWSmJ6WmhDeXhkVWRKUjNGV1dLanN6cFdaM3c0dFhkWmZMOHJUVFJQRmJZclpsVUtUVER0cGt3Y3ctd2w2anN3cFZuQm43WkEweXBNbGpZUElOX3o3TUJnc2NmX010LWFlcGQzR2ZlNFVpbDVMQ3F4N0JiU0w3XzJ2YnczOVJ1MDFqWVE?oc=5</t>
+          <t>https://www.securityweek.com/cyber-insights-2026-social-engineering/</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1593,22 +1593,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Israel sees spike in PTSD and suicide among troops as war persists - Reuters</t>
+          <t>Monnai Raises $12 Million for Identity and Risk Data Infrastructure</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxQcDZkR3FOUGZVQ2ZaY1htLVpBTWlTV2lyTDJ2MnVpRVUxYkcwTVhZNzh5VU85ck1RR3EtN1ZtUGM4ck5idzFxUTVGQXNNOEZiZzNPM1BBT1FFNFQtMkVrd2hGWjFZYUZTdTJPbkxzMWpiLUwtT1B5bl9iWFJLdjBqWTB4dDllQ0hpMkU5Q3BVYXRZelM5QzNJTjFqYjBaWmRLVzVEWmZoNkVwcE1lVThv?oc=5</t>
+          <t>https://www.securityweek.com/monnai-raises-12-million-for-identity-and-risk-data-infrastructure/</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1625,22 +1625,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>US judge allows Dominion offshore wind project to restart, another legal setback for Trump - Reuters</t>
+          <t>In Other News: FortiSIEM Flaw Exploited, Sean Plankey Renominated, Russia’s Polish Grid Attack</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxNcnBVMHZFSjdhbHlJZEdEMzB4enhmODgxOE9vMmVoY2kwREV3c0I2ak9SUGU1MDhVNkdpQ2FBeV9yVUNVYkZXdi1tcVQ1OUZDcFNOZERaUzlYbC1vYURBNERVRDBDd1BneXZaLWdLSFpvWXpIV29DckczQTRXOUhXSF9CQnFQVVB6WHdFUWhEdm1Tbk5tVDRKWTFSLVVJMkxIaW8yOUs0dmdGUmFuTUJXME5CVzczX0dPR2l2cmNmU0F2Y2F3czRnVDc2RQ?oc=5</t>
+          <t>https://www.securityweek.com/in-other-news-fortisiem-flaw-exploited-sean-plankey-renominated-russias-polish-grid-attack/</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1657,17 +1657,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Exclusive: Shell, Mitsubishi exploring sale options for their stakes in LNG Canada, sources say - Reuters</t>
+          <t>Cisco finally fixes AsyncOS zero-day exploited since November</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxQc1l2Q09jWkIzMFlWekJzb09aSUIyQkxWVW9VZy1xeWdqSWozNU5kUlI5M0w3LWtkTk55a3FubDMzbS0wYVVpWl9Ud2FWR1VTc1JJd19WNGc1cVBQdUdwY0dPb3dzQ1o4YmVzMFB1d09tR0VvbGpyRlBuTHpSeVZpSmlPNm40dlNZa0J6bEllNnBTQy1ERURhS25ad1JucEV0NTZwSE5KZTNLRjlFaXA1YVhfWDlHMmwtcEpEelg5NTRkSl9taWc?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/cisco-finally-fixes-asyncos-zero-day-exploited-since-november/</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1689,22 +1689,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Munich Security Conference scraps invitation to Iranian minister - Reuters</t>
+          <t>Hackers now exploiting critical Fortinet FortiSIEM flaw in attacks</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxPQWhBUWVKRmNfUzhJdjYtUzEtckM0ZXBrRm9pR2p3ZWxjdWZZMUYwSEdfd2xxeVRQS3ViX0ttTEI3T25rTUlzaHdmOUNwbllRMXBEUWxUZ2JneVJGQUNIX0VxZC12TGF4ZW5henNTOU9SY3F5eHBvV0xIOEpLb09XR2ZzbVdCXzlsMjVDS1ZOekttOElLclJ6aHNnN2tmVW9pZ1JrNDlR?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/hackers-now-exploiting-critical-fortinet-fortisiem-vulnerability-in-attacks/</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1721,22 +1721,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>US says Canada will regret decision to allow Chinese EVs into their market - Reuters</t>
+          <t>China-linked hackers exploited Sitecore zero-day for initial access</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxPTGxiTkRkODRwSjFnOXdjenFTRW5VMTk2QWZfTHgteHBsbGdBRi16Qy1mOTFhY2p4MGdmRVVMT3FDaEoteG5VZW9odFFKQmp2NUt2a0VFaGhzVWFwai1scjZrdC1NMjFReVo4a0ROU3JSemZBUi1iVjdUcERUaXpKUEcycm5IU2lpd1FtSEswNEFIOVhWWk5BLUJDcXBBWk5IamVLOFAxSEhuSlhxcWJtWWs1UEpvTlNxbUNrb19FUUVlRFBDOEhPRDNvV3o?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/china-linked-hackers-exploited-sitecore-zero-day-for-initial-access/</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1753,22 +1753,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Amid ICE raids, some Home Depot investors want to know how law enforcement uses its surveillance data - Reuters</t>
+          <t>StealC hackers hacked as researchers hijack malware control panels</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxOYWlKSV9qWXJRV0dNckNaYlJISGN3anM5MURUdlVWd1BrRXhURDVfZ0dvX1IxTFBVc3hZTDNOSzRBZWZ6Z0xRYjF2a2FlX3pIVEVfWFhfZkxqMTQ1TW1HWk52MXFhbkE1UGdiMExYd1k1dnBhSFFXSXFyV2dQYUp6clRCWTdDMExaOEgwTl9jWER6ckhnTTBVSVZiWHhyalhpQmNRaGZUOFFQdm8tRlF4eGI0UjhFT04yTTMyMnhLVGlubUh3ZURmUlA1VUVzN3FsV3haQ2dfUHV2SVdjalAxZzc4UFdiSFE5ZWZB?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/stealc-hackers-hacked-as-researchers-hijack-malware-control-panels/</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1785,22 +1785,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Indra signs $1.1 billion deal to manage London transport ticketing and control systems - Reuters</t>
+          <t>China-Linked APT Exploited Sitecore Zero-Day in Critical Infrastructure Intrusions</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxNZTEwMWtRSnllZUp0dnVwQk9qeHpNdlRiNGs0OFpaOEVqam14OHlqcTJSM2JYT1FwXzJMaG5kV3FCLU1ubXVJS0VOSG1Pei1ERzN3TDZHUGZqakpRNVM3X0xlUFg2Wi04ZEswaWE3MEVQSzNCVnBXRFpJSjAzMFFTOGlkVXI5ZWlkelo5Q3hlc0s0c1BpV3JNeDdEZHQ3ZU4tR2M4YUt5Ml9qNk5ZUktjZ2pfVUtjRVZ1TUVLbmZjVQ?oc=5</t>
+          <t>https://thehackernews.com/2026/01/china-linked-apt-exploits-sitecore-zero.html</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1822,22 +1822,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cisco Patches Zero-Day RCE Exploited by China-Linked APT in Secure Email Gateways</t>
+          <t>LOTUSLITE Backdoor Targets U.S. Policy Entities Using Venezuela-Themed Spear Phishing</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/cisco-patches-zero-day-rce-exploited-by.html</t>
+          <t>https://thehackernews.com/2026/01/lotuslite-backdoor-targets-us-policy.html</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
@@ -1849,17 +1849,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Gold slips as upbeat US data boosts dollar, dims rate-cut bets - Reuters</t>
+          <t>GootLoader Malware Uses 500–1,000 Concatenated ZIP Archives to Evade Detection</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxNX09JejJvMFRiV05vNWNHOWJmekhtM29PbHd4aTZGckVuR2F6TEh2cU5UNG9GWmtLX3J2Q3JBZkFONzlKVkMxZlVxYWRXaEFFNUs3WjhpUllvU0FDQlA4NTJBd2ZjSHB0SGt0eW0tX2VoLUVhV0tWei1xUTZQWF94LU1rWnVNV2N5Qk5OSGJCaE14U3RfUzM3blg5VnBfdmFUZGFmQzY2ZUFHQQ?oc=5</t>
+          <t>https://thehackernews.com/2026/01/gootloader-malware-uses-5001000.html</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>No. 2 US ICE official Madison Sheahan leaving agency to run for Congress - Reuters</t>
+          <t>What happens next in EU-Mercosur trade deal saga? - Reuters</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQV19RaS1haHYyVGxORnVwaHR3X1ZLNmVQdHdid0lkdGwxWERYeHp5WEJlaXN5OC1yNmtvd2JLR191T05OY29MYWlCWmowRVhlMFpsbm1tVG05ZTI4N1VMZHNBTnViN2RCc2dGbndzUngwYUctTFlBSTBaNVF3WUxHdkpkMUNEZTh0TEtLNDJucjVNRG0yaHMxNllsMUpYa1g4bVA3QTd4MnZJN1RTZ0hadDRVOU0yM3M1MnlHYVJCYlA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxNVkNXYlhnUEdQdnRfaEhGTjJHQTJuUzJLX2szUVJYM2hPa0FBS2s2QmNCUDFPc2hfcEttLVZNT3pKVTlNbGw5NndYNVZCZXJCeHR6NndPM2tDaUdtaERXeG5jNDFIUXAzeWdodzdacTFGc0gwcXNVYTh2alB5SlVIMnpwaHhjS0pFWE41ZFJqSUNfNTIxOUFQNlRGZG9nV1h5dVMxMk5uS1RBTXpJbU8teg?oc=5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1901,14 +1901,14 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2026-01-18T06:41:06Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1918,17 +1918,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Musk's xAI curbs Grok image editing after California, Europe air concerns - Reuters</t>
+          <t>Oil prices settle up as US begins holiday weekend - Reuters</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxPWDVMZ01tS3R3YUVNWDFNT3RGaFhsbU01TFNYQ1pyNWlwNHE2Ul9JTnRUYllDR0dlZ0tZbkhhal9iUU9Wcm5PMUhPX1RPaWh6Tnd5bW1tazBocXZHVlhVZEY4LUNpQ3lqT2EtUUxVZnVHbkhPR1ByV0tONnNqYjdhRlhRNWVQc3haLTlzS1BBM3F0WEVFQkZKR21SejNzTGR3V3V5RFA4YlNQLVZDZEdKVQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMilgFBVV95cUxOYjhteG9RcGN1dktWSmJ6WmhDeXhkVWRKUjNGV1dLanN6cFdaM3c0dFhkWmZMOHJUVFJQRmJZclpsVUtUVER0cGt3Y3ctd2w2anN3cFZuQm43WkEweXBNbGpZUElOX3o3TUJnc2NmX010LWFlcGQzR2ZlNFVpbDVMQ3F4N0JiU0w3XzJ2YnczOVJ1MDFqWVE?oc=5</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1940,22 +1940,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AVEVA Process Optimization</t>
+          <t>Israel sees spike in PTSD and suicide among troops as war persists - Reuters</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-01</t>
+          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxQcDZkR3FOUGZVQ2ZaY1htLVpBTWlTV2lyTDJ2MnVpRVUxYkcwTVhZNzh5VU85ck1RR3EtN1ZtUGM4ck5idzFxUTVGQXNNOEZiZzNPM1BBT1FFNFQtMkVrd2hGWjFZYUZTdTJPbkxzMWpiLUwtT1B5bl9iWFJLdjBqWTB4dDllQ0hpMkU5Q3BVYXRZelM5QzNJTjFqYjBaWmRLVzVEWmZoNkVwcE1lVThv?oc=5</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1965,226 +1965,226 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NSA, Cyber Command nominee defends record during Senate hearing</t>
+          <t>US judge allows Dominion offshore wind project to restart, another legal setback for Trump - Reuters</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://therecord.media/nsa-cyber-command-nom-joshua-rudd-senate-hearing</t>
+          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxNcnBVMHZFSjdhbHlJZEdEMzB4enhmODgxOE9vMmVoY2kwREV3c0I2ak9SUGU1MDhVNkdpQ2FBeV9yVUNVYkZXdi1tcVQ1OUZDcFNOZERaUzlYbC1vYURBNERVRDBDd1BneXZaLWdLSFpvWXpIV29DckczQTRXOUhXSF9CQnFQVVB6WHdFUWhEdm1Tbk5tVDRKWTFSLVVJMkxIaW8yOUs0dmdGUmFuTUJXME5CVzczX0dPR2l2cmNmU0F2Y2F3czRnVDc2RQ?oc=5</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Chinese hackers targeting ‘high value’ North American critical infrastructure, Cisco says</t>
+          <t>Exclusive: Shell, Mitsubishi exploring sale options for their stakes in LNG Canada, sources say - Reuters</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://therecord.media/china-hackers-apt-cisco-talos</t>
+          <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxQc1l2Q09jWkIzMFlWekJzb09aSUIyQkxWVW9VZy1xeWdqSWozNU5kUlI5M0w3LWtkTk55a3FubDMzbS0wYVVpWl9Ud2FWR1VTc1JJd19WNGc1cVBQdUdwY0dPb3dzQ1o4YmVzMFB1d09tR0VvbGpyRlBuTHpSeVZpSmlPNm40dlNZa0J6bEllNnBTQy1ERURhS25ad1JucEV0NTZwSE5KZTNLRjlFaXA1YVhfWDlHMmwtcEpEelg5NTRkSl9taWc?oc=5</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Anchorage police department takes servers offline after cyberattack on service provider</t>
+          <t>Munich Security Conference scraps invitation to Iranian minister - Reuters</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://therecord.media/anchorage-police-takes-servers-offline-after-third-party-attack</t>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxPQWhBUWVKRmNfUzhJdjYtUzEtckM0ZXBrRm9pR2p3ZWxjdWZZMUYwSEdfd2xxeVRQS3ViX0ttTEI3T25rTUlzaHdmOUNwbllRMXBEUWxUZ2JneVJGQUNIX0VxZC12TGF4ZW5henNTOU9SY3F5eHBvV0xIOEpLb09XR2ZzbVdCXzlsMjVDS1ZOekttOElLclJ6aHNnN2tmVW9pZ1JrNDlR?oc=5</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Winter Olympics Could Share Podium With Cyberattackers</t>
+          <t>US says Canada will regret decision to allow Chinese EVs into their market - Reuters</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/winter-olympics-podium-cyberattackers</t>
+          <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxPTGxiTkRkODRwSjFnOXdjenFTRW5VMTk2QWZfTHgteHBsbGdBRi16Qy1mOTFhY2p4MGdmRVVMT3FDaEoteG5VZW9odFFKQmp2NUt2a0VFaGhzVWFwai1scjZrdC1NMjFReVo4a0ROU3JSemZBUi1iVjdUcERUaXpKUEcycm5IU2lpd1FtSEswNEFIOVhWWk5BLUJDcXBBWk5IamVLOFAxSEhuSlhxcWJtWWs1UEpvTlNxbUNrb19FUUVlRFBDOEhPRDNvV3o?oc=5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Predator Spyware Sample Indicates 'Vendor-Controlled' C2</t>
+          <t>Amid ICE raids, some Home Depot investors want to know how law enforcement uses its surveillance data - Reuters</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/mobile-security/predator-spyware-sample-vendor-controlled-c2</t>
+          <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxOYWlKSV9qWXJRV0dNckNaYlJISGN3anM5MURUdlVWd1BrRXhURDVfZ0dvX1IxTFBVc3hZTDNOSzRBZWZ6Z0xRYjF2a2FlX3pIVEVfWFhfZkxqMTQ1TW1HWk52MXFhbkE1UGdiMExYd1k1dnBhSFFXSXFyV2dQYUp6clRCWTdDMExaOEgwTl9jWER6ckhnTTBVSVZiWHhyalhpQmNRaGZUOFFQdm8tRlF4eGI0UjhFT04yTTMyMnhLVGlubUh3ZURmUlA1VUVzN3FsV3haQ2dfUHV2SVdjalAxZzc4UFdiSFE5ZWZB?oc=5</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ICS Patch Tuesday: Vulnerabilities Fixed by Siemens, Schneider, Aveva, Phoenix Contact</t>
+          <t>Indra signs $1.1 billion deal to manage London transport ticketing and control systems - Reuters</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/ics-patch-tuesday-vulnerabilities-fixed-by-siemens-schneider-aveva-phoenix-contact/</t>
+          <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxNZTEwMWtRSnllZUp0dnVwQk9qeHpNdlRiNGs0OFpaOEVqam14OHlqcTJSM2JYT1FwXzJMaG5kV3FCLU1ubXVJS0VOSG1Pei1ERzN3TDZHUGZqakpRNVM3X0xlUFg2Wi04ZEswaWE3MEVQSzNCVnBXRFpJSjAzMFFTOGlkVXI5ZWlkelo5Q3hlc0s0c1BpV3JNeDdEZHQ3ZU4tR2M4YUt5Ml9qNk5ZUktjZ2pfVUtjRVZ1TUVLbmZjVQ?oc=5</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>VoidLink Linux Malware Framework Targets Cloud Environments</t>
+          <t>Cisco Patches Zero-Day RCE Exploited by China-Linked APT in Secure Email Gateways</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/voidlink-linux-malware-framework-targets-cloud-environments/</t>
+          <t>https://thehackernews.com/2026/01/cisco-patches-zero-day-rce-exploited-by.html</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2196,27 +2196,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Depthfirst Raises $40 Million for Vulnerability Management</t>
+          <t>Gold slips as upbeat US data boosts dollar, dims rate-cut bets - Reuters</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/depthfirst-raises-40-million-for-vulnerability-management/</t>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxNX09JejJvMFRiV05vNWNHOWJmekhtM29PbHd4aTZGckVuR2F6TEh2cU5UNG9GWmtLX3J2Q3JBZkFONzlKVkMxZlVxYWRXaEFFNUs3WjhpUllvU0FDQlA4NTJBd2ZjSHB0SGt0eW0tX2VoLUVhV0tWei1xUTZQWF94LU1rWnVNV2N5Qk5OSGJCaE14U3RfUzM3blg5VnBfdmFUZGFmQzY2ZUFHQQ?oc=5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2233,27 +2233,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>New ‘StackWarp’ Attack Threatens Confidential VMs on AMD Processors</t>
+          <t>No. 2 US ICE official Madison Sheahan leaving agency to run for Congress - Reuters</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/new-stackwarp-attack-threatens-confidential-vms-on-amd-processors/</t>
+          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQV19RaS1haHYyVGxORnVwaHR3X1ZLNmVQdHdid0lkdGwxWERYeHp5WEJlaXN5OC1yNmtvd2JLR191T05OY29MYWlCWmowRVhlMFpsbm1tVG05ZTI4N1VMZHNBTnViN2RCc2dGbndzUngwYUctTFlBSTBaNVF3WUxHdkpkMUNEZTh0TEtLNDJucjVNRG0yaHMxNllsMUpYa1g4bVA3QTd4MnZJN1RTZ0hadDRVOU0yM3M1MnlHYVJCYlA?oc=5</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-18T06:41:06Z</t>
         </is>
       </c>
     </row>
@@ -2265,17 +2265,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Microsoft disrupts massive RedVDS cybercrime virtual desktop service</t>
+          <t>Musk's xAI curbs Grok image editing after California, Europe air concerns - Reuters</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/microsoft-seizes-servers-disrupts-massive-redvds-cybercrime-platform/</t>
+          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxPWDVMZ01tS3R3YUVNWDFNT3RGaFhsbU01TFNYQ1pyNWlwNHE2Ul9JTnRUYllDR0dlZ0tZbkhhal9iUU9Wcm5PMUhPX1RPaWh6Tnd5bW1tazBocXZHVlhVZEY4LUNpQ3lqT2EtUUxVZnVHbkhPR1ByV0tONnNqYjdhRlhRNWVQc3haLTlzS1BBM3F0WEVFQkZKR21SejNzTGR3V3V5RFA4YlNQLVZDZEdKVQ?oc=5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
@@ -2297,22 +2297,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Palo Alto Networks warns of DoS bug letting hackers disable firewalls</t>
+          <t>AVEVA Process Optimization</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/palo-alto-networks-warns-of-dos-bug-letting-hackers-disable-firewalls/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-01</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2329,22 +2329,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Critical flaw lets hackers track, eavesdrop via Bluetooth audio devices</t>
+          <t>NSA, Cyber Command nominee defends record during Senate hearing</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/critical-whisperpair-flaw-lets-hackers-track-eavesdrop-via-bluetooth-audio-devices/</t>
+          <t>https://therecord.media/nsa-cyber-command-nom-joshua-rudd-senate-hearing</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2361,22 +2361,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Hackers exploit Modular DS WordPress plugin flaw for admin access</t>
+          <t>Chinese hackers targeting ‘high value’ North American critical infrastructure, Cisco says</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/hackers-exploit-modular-ds-wordpress-plugin-flaw-for-admin-access/</t>
+          <t>https://therecord.media/china-hackers-apt-cisco-talos</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2393,22 +2393,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Grubhub confirms hackers stole data in recent security breach</t>
+          <t>Anchorage police department takes servers offline after cyberattack on service provider</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/grubhub-confirms-hackers-stole-data-in-recent-security-breach/</t>
+          <t>https://therecord.media/anchorage-police-takes-servers-offline-after-third-party-attack</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2425,17 +2425,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Gootloader now uses 1,000-part ZIP archives for stealthy delivery</t>
+          <t>Winter Olympics Could Share Podium With Cyberattackers</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/gootloader-now-uses-1-000-part-zip-archives-for-stealthy-delivery/</t>
+          <t>https://www.darkreading.com/remote-workforce/winter-olympics-podium-cyberattackers</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2457,22 +2457,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Palo Alto Fixes GlobalProtect DoS Flaw That Can Crash Firewalls Without Login</t>
+          <t>Predator Spyware Sample Indicates 'Vendor-Controlled' C2</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/palo-alto-fixes-globalprotect-dos-flaw.html</t>
+          <t>https://www.darkreading.com/mobile-security/predator-spyware-sample-vendor-controlled-c2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2489,22 +2489,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>4 Outdated Habits Destroying Your SOC's MTTR in 2026</t>
+          <t>ICS Patch Tuesday: Vulnerabilities Fixed by Siemens, Schneider, Aveva, Phoenix Contact</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/4-outdated-habits-destroying-your-socs.html</t>
+          <t>https://www.securityweek.com/ics-patch-tuesday-vulnerabilities-fixed-by-siemens-schneider-aveva-phoenix-contact/</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2521,22 +2521,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ThreatsDay Bulletin: AI Voice Cloning Exploit, Wi-Fi Kill Switch, PLC Vulns, and 14 More Stories</t>
+          <t>VoidLink Linux Malware Framework Targets Cloud Environments</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/threatsday-bulletin-ai-voice-cloning.html</t>
+          <t>https://www.securityweek.com/voidlink-linux-malware-framework-targets-cloud-environments/</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2553,22 +2553,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Researchers Reveal Reprompt Attack Allowing Single-Click Data Exfiltration From Microsoft Copilot</t>
+          <t>Depthfirst Raises $40 Million for Vulnerability Management</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/researchers-reveal-reprompt-attack.html</t>
+          <t>https://www.securityweek.com/depthfirst-raises-40-million-for-vulnerability-management/</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ランサムウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2585,22 +2585,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Critical WordPress Modular DS Plugin Flaw Actively Exploited to Gain Admin Access</t>
+          <t>New ‘StackWarp’ Attack Threatens Confidential VMs on AMD Processors</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/critical-wordpress-modular-ds-plugin.html</t>
+          <t>https://www.securityweek.com/new-stackwarp-attack-threatens-confidential-vms-on-amd-processors/</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2617,22 +2617,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>AWS CodeBuild Misconfiguration Exposed GitHub Repos to Potential Supply Chain Attacks</t>
+          <t>Microsoft disrupts massive RedVDS cybercrime virtual desktop service</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/aws-codebuild-misconfiguration-exposed.html</t>
+          <t>https://www.bleepingcomputer.com/news/security/microsoft-seizes-servers-disrupts-massive-redvds-cybercrime-platform/</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2649,22 +2649,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Publishers seek to join lawsuit against Google over AI training - Reuters</t>
+          <t>Palo Alto Networks warns of DoS bug letting hackers disable firewalls</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxQcF8xWVJraGVlSEhaY2FUZy1uYmppQ3RHQ1JUTDdQNTBfRDAxWEkxcWwzdHU3S240aXJFWDdyN0ZveTdNLWllME5Laks4S2VRWWs5c1pROHBuVzY2TmFiVUFOeG1IZV8tOWdRV1NLeUYyV0hoTDdFNmVFc2I2TTdFSmJVRC1IUkN4aE9HaFI4eDRNSTVoSm83b09NbEU2TlFta3p1ckxMbWpjdG9Fb0o0am4xRQ?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/palo-alto-networks-warns-of-dos-bug-letting-hackers-disable-firewalls/</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2681,22 +2681,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>China central bank to cut sector-specific rates to boost economy - Reuters</t>
+          <t>Critical flaw lets hackers track, eavesdrop via Bluetooth audio devices</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPUG4tdDNwMjJzTXJ5WWJzZnFsSWNNYnpuV2hESU9zYThNbVFGUkkwd25RYklpaG4wQ1RmT0x5aG5HN2VwM0VJalcyZ2N0MlRSTlVCazZaV3U2b1FxUWFyZmdKRDJVUm1sUEszRG5yMXBac2dTMVF5RW1sd0pwV3U0b3NDMHk5aDgxUWs4c3hDQ2F0RjNYcUpQY1k5OUJjOFpuZnpLV3VpOTk?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/critical-whisperpair-flaw-lets-hackers-track-eavesdrop-via-bluetooth-audio-devices/</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2713,22 +2713,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>India, EU close in on trade pact as US trade talks drag on - Reuters</t>
+          <t>Hackers exploit Modular DS WordPress plugin flaw for admin access</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxQWEtNWk5PZE9jRVh3Wmh5WE1pTEVJZFQzeUF1T3g5MGloem10OVgyVk5JNWpKWmdwUXpRVjk3RGFENWtjeXR5c1JERTgzaGpUWGRidmxKbDVhOEMwTzVEc2RCUFFNdnQ0cU5hc0JoeU1CeFlsQWhwUU1rZUdod0c4Z0FXMUhxQmZXVHQwaGtTTnlGc3QzQ2VUNWhtVm1KbkxH?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/hackers-exploit-modular-ds-wordpress-plugin-flaw-for-admin-access/</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2745,22 +2745,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Ericsson plans to shed 1,600 jobs in Sweden - Reuters</t>
+          <t>Grubhub confirms hackers stole data in recent security breach</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxQQnpSUWJUMUlIWHRPMVkxSDFoWXFYNEFjRGdDeml5N1laa0NfVVFTVVZhQlV0Rk9LYkp0ckRGaTZ1WUlRUTdwR0lVRm9NR1E2TTFFc216cWtZX29WUm5vOHU0NWhFbHlldEg4dlNrX3p6XzR3UjZkbFYzSXdpUXNIMXRBNmhJOXVBU09CNGU3b1dkMWs?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/grubhub-confirms-hackers-stole-data-in-recent-security-breach/</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2777,17 +2777,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>European corporates expected to deliver worst earnings growth in past seven quarters - Reuters</t>
+          <t>Gootloader now uses 1,000-part ZIP archives for stealthy delivery</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxNbkRoRlU4MS11OW9uV01LZGk3dTRDODNlRUcyRTNrTlZIV0ljUHFUZW5xeHFUMkFxT0xYbFNJd21FQ09MeEwxVG9HYTZYcWxSN0Z4REMtNE05bENhNVpKZC1tLUFtQWp3bnUtalJuc1BPVDZkR1o3RTBIRzNSN2VsM1lZNU52WGMycHdva1NrWHNpWEJkWFR3OS16Um11YkU1OUppa3RyNVQ1cXpLMU9ROG5JNzFfNGNFdnAwN0dDUU4?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/gootloader-now-uses-1-000-part-zip-archives-for-stealthy-delivery/</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2809,22 +2809,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Prince Harry to give evidence in lawsuit against Daily Mail next week - Reuters</t>
+          <t>Palo Alto Fixes GlobalProtect DoS Flaw That Can Crash Firewalls Without Login</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQa3FaTF9TZ3VpRWdlQTBlNEdSWHk4eEJIaVJjbXhWVVlVWFdwdEpabU04STZFZ3c4aWRfWTRkZE5yNVYzN2JnNUtsTU11RVZ5M1pMTmhIRXYxSWZPbjdESlhNQTRQYnBidE5rX1JrbFAtRmxlTzY4empPa3dPQnFmWlpUaXVuZDFVbHJmb3hGOUk1M2hhY1Q1Tk9sLWptb2V1eTN1X1Ric0ZGaGltY25BV2xjenJEU0k?oc=5</t>
+          <t>https://thehackernews.com/2026/01/palo-alto-fixes-globalprotect-dos-flaw.html</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2841,22 +2841,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Reasons to believe Russia behind cyberattack on Polish power system, PM says - Reuters</t>
+          <t>4 Outdated Habits Destroying Your SOC's MTTR in 2026</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxOcW9jMzFETHlZcG0xaFdIOGF4bEt4ZG9SbzJpaUJfN09jYU92eXFZakhsQk96STVRenpycFlXTzBXbFFMdW40MXphaDV3dmpzeDVzdmQ4NTBuLVhpY3RGU19pa2M4UnhBazkwVkM2elpkNGRMN3NwWHFyV1dhRDMwcW40cG9jVndkOWFXdUNobUdsczMtMk5oOFZqTTBmZmdlLXpxTnhtNkV5Q01kZlhqdQ?oc=5</t>
+          <t>https://thehackernews.com/2026/01/4-outdated-habits-destroying-your-socs.html</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2873,22 +2873,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Chips don't lie - Reuters</t>
+          <t>ThreatsDay Bulletin: AI Voice Cloning Exploit, Wi-Fi Kill Switch, PLC Vulns, and 14 More Stories</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMihgFBVV95cUxORGhodG9STUJtOWIwa3Q5R0pDOUlub0ZwcUs5bEdOWEw5b3JxakdZdDVQem92cFBORFFwNjVFS29aLTh4X2FvNTA4Mm0xNnAzY2hKeUZoMjNJN1ZnS3RGWUZUQnRldjNQUGJ1VXdmTFk1UzBwNFRDLXRIZjRuclZ4cVpmOXBadw?oc=5</t>
+          <t>https://thehackernews.com/2026/01/threatsday-bulletin-ai-voice-cloning.html</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2905,22 +2905,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Verizon offers $20 credit to customers affected by massive wireless outage - Reuters</t>
+          <t>Researchers Reveal Reprompt Attack Allowing Single-Click Data Exfiltration From Microsoft Copilot</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxQVGZZX1R6RV9hTlhHSlBfQzVHYk82VkJDM1V4SU8zRnBRT1FQMEp5dXdPcHNIbV9ZOUxkSzFjcFZlNzAxMTVra0d6V19EcktjUEpBandndEprVXZqbjV5UV9XdENXRGhsb3RIbkVOY1UtUlNZV09MVldlclZSQXcweG1aSDUwYVZGLXNzNTBtbUxEMk1sU2ZIT29tOVh6MURaSlB5VDZTT09Vc1pPQTJxdHpyOGh3aFBPbHJRZGJRVUZHcW1fajIwNQ?oc=5</t>
+          <t>https://thehackernews.com/2026/01/researchers-reveal-reprompt-attack.html</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2937,22 +2937,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Chinese-linked hackers target US entities with Venezuelan-themed malware - Reuters</t>
+          <t>Critical WordPress Modular DS Plugin Flaw Actively Exploited to Gain Admin Access</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxQQjdVckxSNzFhYjI5XzUwcUVCdHROSXdoQUtDZVdlMjZfWkZLdC10WVYzeVUyQTEzb1dTZ1ZvTFptMTZydzhKWFdxd3Q1MzVwNXZjTGxfbEtneE1WLTJSRWk2SUV3bWFoOV9MT056U3N0ZzNsejFxcW9VbGpyQWlsSGU1a24tYkZ5X3lwT3p5dnV0dVY5bEdYUkZ0Z3hqZ3ZQdXo1dC1lN2hCTlJlSjhEQUtBVk50eDd4SjVOXzgxeW9KMldVRk5GbGJGQQ?oc=5</t>
+          <t>https://thehackernews.com/2026/01/critical-wordpress-modular-ds-plugin.html</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2969,27 +2969,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Google plans to make Chrome for Android an agentic browser with Gemini</t>
+          <t>AWS CodeBuild Misconfiguration Exposed GitHub Repos to Potential Supply Chain Attacks</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/artificial-intelligence/google-plans-to-make-chrome-for-android-an-agentic-browser-with-gemini/</t>
+          <t>https://thehackernews.com/2026/01/aws-codebuild-misconfiguration-exposed.html</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3006,22 +3006,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>DHS reports non-fatal shooting of man sought in immigration enforcement stop - Reuters</t>
+          <t>Publishers seek to join lawsuit against Google over AI training - Reuters</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQRW92OFhIazVsVThxY0pzOHVYOGNnWHhvY0J3dDBIOEdhYTBMN0N1T1pZZGFDVVgwdnlDVklScndsUFpLaGY1cHNBY2JMdzJWM1ZLTmtxclRPc2VIamZBdGloV1Z2SG5RLUthYWNvckdCd2pqN2lHZXhhcEdfTnlHNkcya2RiNVhnS182X0FhN094MXVXRGxIX1R1NEhCRHRRTGxLQ282SlpQaU5DU1p5aU11MTJQak4yQTAzV0VNVlA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxQcF8xWVJraGVlSEhaY2FUZy1uYmppQ3RHQ1JUTDdQNTBfRDAxWEkxcWwzdHU3S240aXJFWDdyN0ZveTdNLWllME5Laks4S2VRWWs5c1pROHBuVzY2TmFiVUFOeG1IZV8tOWdRV1NLeUYyV0hoTDdFNmVFc2I2TTdFSmJVRC1IUkN4aE9HaFI4eDRNSTVoSm83b09NbEU2TlFta3p1ckxMbWpjdG9Fb0o0am4xRQ?oc=5</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3038,49 +3038,49 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Toyota Industries' shares hit record as market hopes for higher buyout offer - Reuters</t>
+          <t>China central bank to cut sector-specific rates to boost economy - Reuters</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxOY25vZ2dfN1I1bXZLaDZyNHBXUE1BT2ZVTkFtdl92VTdNRmp6Sm1vMTdFdHZGa3lkbTQ5YXVmZmxocE1YUy1qcU42cHYzQ001QjBraHMyZTAyQVN2UVJwcmVLTF9NNXBsWDFHeS1aR0xSVndmMWVKUHN3OTI2Z3ZnQUowVElFSS1BMW1CekxhbldORnp3cXNuMm1icW1ONV96WlZxREdRMzZjZmVWd0drVGxJUVQtX3VRYWVBZDdMaWZobkhfb2pVczBSUDAtVjA2MHhaT01DTFMyckx1M0txSVAydw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPUG4tdDNwMjJzTXJ5WWJzZnFsSWNNYnpuV2hESU9zYThNbVFGUkkwd25RYklpaG4wQ1RmT0x5aG5HN2VwM0VJalcyZ2N0MlRSTlVCazZaV3U2b1FxUWFyZmdKRDJVUm1sUEszRG5yMXBac2dTMVF5RW1sd0pwV3U0b3NDMHk5aDgxUWs4c3hDQ2F0RjNYcUpQY1k5OUJjOFpuZnpLV3VpOTk?oc=5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Festo Firmware</t>
+          <t>India, EU close in on trade pact as US trade talks drag on - Reuters</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-02</t>
+          <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxQWEtNWk5PZE9jRVh3Wmh5WE1pTEVJZFQzeUF1T3g5MGloem10OVgyVk5JNWpKWmdwUXpRVjk3RGFENWtjeXR5c1JERTgzaGpUWGRidmxKbDVhOEMwTzVEc2RCUFFNdnQ0cU5hc0JoeU1CeFlsQWhwUU1rZUdod0c4Z0FXMUhxQmZXVHQwaGtTTnlGc3QzQ2VUNWhtVm1KbkxH?oc=5</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3092,27 +3092,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Schneider Electric EcoStruxure Power Build Rapsody</t>
+          <t>Ericsson plans to shed 1,600 jobs in Sweden - Reuters</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-10</t>
+          <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxQQnpSUWJUMUlIWHRPMVkxSDFoWXFYNEFjRGdDeml5N1laa0NfVVFTVVZhQlV0Rk9LYkp0ckRGaTZ1WUlRUTdwR0lVRm9NR1E2TTFFc216cWtZX29WUm5vOHU0NWhFbHlldEg4dlNrX3p6XzR3UjZkbFYzSXdpUXNIMXRBNmhJOXVBU09CNGU3b1dkMWs?oc=5</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3124,27 +3124,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Siemens Industrial Edge Devices</t>
+          <t>European corporates expected to deliver worst earnings growth in past seven quarters - Reuters</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-08</t>
+          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxNbkRoRlU4MS11OW9uV01LZGk3dTRDODNlRUcyRTNrTlZIV0ljUHFUZW5xeHFUMkFxT0xYbFNJd21FQ09MeEwxVG9HYTZYcWxSN0Z4REMtNE05bENhNVpKZC1tLUFtQWp3bnUtalJuc1BPVDZkR1o3RTBIRzNSN2VsM1lZNU52WGMycHdva1NrWHNpWEJkWFR3OS16Um11YkU1OUppa3RyNVQ1cXpLMU9ROG5JNzFfNGNFdnAwN0dDUU4?oc=5</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3156,27 +3156,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Siemens SINEC Security Monitor</t>
+          <t>Prince Harry to give evidence in lawsuit against Daily Mail next week - Reuters</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-06</t>
+          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQa3FaTF9TZ3VpRWdlQTBlNEdSWHk4eEJIaVJjbXhWVVlVWFdwdEpabU04STZFZ3c4aWRfWTRkZE5yNVYzN2JnNUtsTU11RVZ5M1pMTmhIRXYxSWZPbjdESlhNQTRQYnBidE5rX1JrbFAtRmxlTzY4empPa3dPQnFmWlpUaXVuZDFVbHJmb3hGOUk1M2hhY1Q1Tk9sLWptb2V1eTN1X1Ric0ZGaGltY25BV2xjenJEU0k?oc=5</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3188,27 +3188,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Siemens RUGGEDCOM APE1808 Devices</t>
+          <t>Reasons to believe Russia behind cyberattack on Polish power system, PM says - Reuters</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-07</t>
+          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxOcW9jMzFETHlZcG0xaFdIOGF4bEt4ZG9SbzJpaUJfN09jYU92eXFZakhsQk96STVRenpycFlXTzBXbFFMdW40MXphaDV3dmpzeDVzdmQ4NTBuLVhpY3RGU19pa2M4UnhBazkwVkM2elpkNGRMN3NwWHFyV1dhRDMwcW40cG9jVndkOWFXdUNobUdsczMtMk5oOFZqTTBmZmdlLXpxTnhtNkV5Q01kZlhqdQ?oc=5</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3220,22 +3220,22 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Siemens Industrial Edge Device Kit</t>
+          <t>Chips don't lie - Reuters</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-09</t>
+          <t>https://news.google.com/rss/articles/CBMihgFBVV95cUxORGhodG9STUJtOWIwa3Q5R0pDOUlub0ZwcUs5bEdOWEw5b3JxakdZdDVQem92cFBORFFwNjVFS29aLTh4X2FvNTA4Mm0xNnAzY2hKeUZoMjNJN1ZnS3RGWUZUQnRldjNQUGJ1VXdmTFk1UzBwNFRDLXRIZjRuclZ4cVpmOXBadw?oc=5</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3252,22 +3252,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Siemens SIMATIC and SIPLUS products</t>
+          <t>Verizon offers $20 credit to customers affected by massive wireless outage - Reuters</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-04</t>
+          <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxQVGZZX1R6RV9hTlhHSlBfQzVHYk82VkJDM1V4SU8zRnBRT1FQMEp5dXdPcHNIbV9ZOUxkSzFjcFZlNzAxMTVra0d6V19EcktjUEpBandndEprVXZqbjV5UV9XdENXRGhsb3RIbkVOY1UtUlNZV09MVldlclZSQXcweG1aSDUwYVZGLXNzNTBtbUxEMk1sU2ZIT29tOVh6MURaSlB5VDZTT09Vc1pPQTJxdHpyOGh3aFBPbHJRZGJRVUZHcW1fajIwNQ?oc=5</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3284,27 +3284,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Siemens TeleControl Server Basic</t>
+          <t>Chinese-linked hackers target US entities with Venezuelan-themed malware - Reuters</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-03</t>
+          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxQQjdVckxSNzFhYjI5XzUwcUVCdHROSXdoQUtDZVdlMjZfWkZLdC10WVYzeVUyQTEzb1dTZ1ZvTFptMTZydzhKWFdxd3Q1MzVwNXZjTGxfbEtneE1WLTJSRWk2SUV3bWFoOV9MT056U3N0ZzNsejFxcW9VbGpyQWlsSGU1a24tYkZ5X3lwT3p5dnV0dVY5bEdYUkZ0Z3hqZ3ZQdXo1dC1lN2hCTlJlSjhEQUtBVk50eDd4SjVOXzgxeW9KMldVRk5GbGJGQQ?oc=5</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3316,22 +3316,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Siemens RUGGEDCOM ROS</t>
+          <t>Google plans to make Chrome for Android an agentic browser with Gemini</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-05</t>
+          <t>https://www.bleepingcomputer.com/news/artificial-intelligence/google-plans-to-make-chrome-for-android-an-agentic-browser-with-gemini/</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3341,34 +3341,34 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Secure Connectivity Principles for Operational Technology (OT)</t>
+          <t>DHS reports non-fatal shooting of man sought in immigration enforcement stop - Reuters</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/resources-tools/resources/secure-connectivity-principles-operational-technology-ot</t>
+          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQRW92OFhIazVsVThxY0pzOHVYOGNnWHhvY0J3dDBIOEdhYTBMN0N1T1pZZGFDVVgwdnlDVklScndsUFpLaGY1cHNBY2JMdzJWM1ZLTmtxclRPc2VIamZBdGloV1Z2SG5RLUthYWNvckdCd2pqN2lHZXhhcEdfTnlHNkcya2RiNVhnS182X0FhN094MXVXRGxIX1R1NEhCRHRRTGxLQ282SlpQaU5DU1p5aU11MTJQak4yQTAzV0VNVlA?oc=5</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3380,27 +3380,27 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Inside RedVDS: How a single virtual desktop provider fueled worldwide cybercriminal operations</t>
+          <t>Toyota Industries' shares hit record as market hopes for higher buyout offer - Reuters</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2026/01/14/inside-redvds-how-a-single-virtual-desktop-provider-fueled-worldwide-cybercriminal-operations/</t>
+          <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxOY25vZ2dfN1I1bXZLaDZyNHBXUE1BT2ZVTkFtdl92VTdNRmp6Sm1vMTdFdHZGa3lkbTQ5YXVmZmxocE1YUy1qcU42cHYzQ001QjBraHMyZTAyQVN2UVJwcmVLTF9NNXBsWDFHeS1aR0xSVndmMWVKUHN3OTI2Z3ZnQUowVElFSS1BMW1CekxhbldORnp3cXNuMm1icW1ONV96WlZxREdRMzZjZmVWd0drVGxJUVQtX3VRYWVBZDdMaWZobkhfb2pVczBSUDAtVjA2MHhaT01DTFMyckx1M0txSVAydw?oc=5</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3417,27 +3417,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Microsoft named a Leader in IDC MarketScape for Unified AI Governance Platforms</t>
+          <t>Festo Firmware</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2026/01/14/microsoft-named-a-leader-in-idc-marketscape-for-unified-ai-governance-platforms/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-02</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3449,27 +3449,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Poland says it repelled major cyberattack on power grid, blames Russia</t>
+          <t>Schneider Electric EcoStruxure Power Build Rapsody</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://therecord.media/poland-cyberattack-grid-russia</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-10</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3481,27 +3481,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>'VoidLink' Malware Poses Advanced Threat to Linux Systems</t>
+          <t>Siemens Industrial Edge Devices</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/voidlink-malware-advanced-threat-linux-systems</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-08</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3513,17 +3513,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Retail, Services Industries Under Fire in Oceania</t>
+          <t>Siemens SINEC Security Monitor</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cybersecurity-analytics/retail-services-industries-oceania</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-06</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3545,27 +3545,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Chrome 144, Firefox 147 Patch High-Severity Vulnerabilities</t>
+          <t>Siemens RUGGEDCOM APE1808 Devices</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/chrome-144-firefox-147-patch-high-severity-vulnerabilities/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-07</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3577,27 +3577,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Fortinet Patches Critical Vulnerabilities in FortiFone, FortiSIEM</t>
+          <t>Siemens Industrial Edge Device Kit</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/fortinet-patches-critical-vulnerabilities-in-fortifone-fortisiem/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-09</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3609,27 +3609,27 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Predator Spyware Turns Failed Attacks Into Intelligence for Future Exploits</t>
+          <t>Siemens SIMATIC and SIPLUS products</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/predator-spywares-granular-anti-analysis-features-exposed/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-04</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3641,27 +3641,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>RedVDS Cybercrime Service Disrupted by Microsoft and Law Enforcement</t>
+          <t>Siemens TeleControl Server Basic</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/redvds-cybercrime-service-disrupted-by-microsoft-and-law-enforcement/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-03</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3673,27 +3673,27 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ConsentFix debrief: Insights from the new OAuth phishing attack</t>
+          <t>Siemens RUGGEDCOM ROS</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/consentfix-debrief-insights-from-the-new-oauth-phishing-attack/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-015-05</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-16T06:45:11Z</t>
         </is>
       </c>
     </row>
@@ -3705,22 +3705,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Verizon Wireless outage puts phones in SOS mode without cell service</t>
+          <t>Secure Connectivity Principles for Operational Technology (OT)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/mobile/verizon-wireless-outage-puts-phones-in-sos-mode-without-cell-service/</t>
+          <t>https://www.cisa.gov/resources-tools/resources/secure-connectivity-principles-operational-technology-ot</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3737,22 +3737,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Exploit code public for critical FortiSIEM command injection flaw</t>
+          <t>Inside RedVDS: How a single virtual desktop provider fueled worldwide cybercriminal operations</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/exploit-code-public-for-critical-fortisiem-command-injection-flaw/</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/14/inside-redvds-how-a-single-virtual-desktop-provider-fueled-worldwide-cybercriminal-operations/</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3769,22 +3769,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>South Korean giant Kyowon confirms data theft in ransomware attack</t>
+          <t>Microsoft named a Leader in IDC MarketScape for Unified AI Governance Platforms</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/south-korean-giant-kyowon-confirms-data-theft-in-ransomware-attack/</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/14/microsoft-named-a-leader-in-idc-marketscape-for-unified-ai-governance-platforms/</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ランサムウェア</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3801,22 +3801,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Critical Node.js Vulnerability Can Cause Server Crashes via async_hooks Stack Overflow</t>
+          <t>Poland says it repelled major cyberattack on power grid, blames Russia</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/critical-nodejs-vulnerability-can-cause.html</t>
+          <t>https://therecord.media/poland-cyberattack-grid-russia</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3833,22 +3833,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Microsoft Fixes 114 Windows Flaws in January 2026 Patch, One Actively Exploited</t>
+          <t>'VoidLink' Malware Poses Advanced Threat to Linux Systems</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/microsoft-fixes-114-windows-flaws-in.html</t>
+          <t>https://www.darkreading.com/cloud-security/voidlink-malware-advanced-threat-linux-systems</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3865,22 +3865,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Fortinet Fixes Critical FortiSIEM Flaw Allowing Unauthenticated Remote Code Execution</t>
+          <t>Retail, Services Industries Under Fire in Oceania</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/fortinet-fixes-critical-fortisiem-flaw.html</t>
+          <t>https://www.darkreading.com/cybersecurity-analytics/retail-services-industries-oceania</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3897,17 +3897,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Hackers Exploit c-ares DLL Side-Loading to Bypass Security and Deploy Malware</t>
+          <t>Chrome 144, Firefox 147 Patch High-Severity Vulnerabilities</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/hackers-exploit-c-ares-dll-side-loading.html</t>
+          <t>https://www.securityweek.com/chrome-144-firefox-147-patch-high-severity-vulnerabilities/</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3929,17 +3929,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>AI Agents Are Becoming Privilege Escalation Paths</t>
+          <t>Fortinet Patches Critical Vulnerabilities in FortiFone, FortiSIEM</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/ai-agents-are-becoming-privilege.html</t>
+          <t>https://www.securityweek.com/fortinet-patches-critical-vulnerabilities-in-fortifone-fortisiem/</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3961,22 +3961,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Researchers Null-Route Over 550 Kimwolf and Aisuru Botnet Command Servers</t>
+          <t>Predator Spyware Turns Failed Attacks Into Intelligence for Future Exploits</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/kimwolf-botnet-infected-over-2-million.html</t>
+          <t>https://www.securityweek.com/predator-spywares-granular-anti-analysis-features-exposed/</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3993,22 +3993,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ukraine's new defence minister vows innovation on battlefield - Reuters</t>
+          <t>RedVDS Cybercrime Service Disrupted by Microsoft and Law Enforcement</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQb2daQ3g2Z2RSZTBuTVZaUlcydWVlV2x5cmdWN3Q4UVVKdkVIaF9DSnJVN0pSUVZfbWRza050YTVOLXA1c1Y1cHZxSDQyRjFadUV1SjFpcmFpaTd3eWlQSWRPUjNOTW41c3ZVTTItcXIyNWhyWG0xMlVHUW1OdHVtU2w3bVFLQXhQTTZYeVVobjVjQ3BNQjVFRTIwWUNjaW5ONG5jekpNcFEzZ1RN?oc=5</t>
+          <t>https://www.securityweek.com/redvds-cybercrime-service-disrupted-by-microsoft-and-law-enforcement/</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4025,22 +4025,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>US healthcare spending soars to over $5 trillion in 2024 - Reuters</t>
+          <t>ConsentFix debrief: Insights from the new OAuth phishing attack</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxOT21DRkZVNjY2R19RNGJrWnNzT0ptYjZzR3c0VVpOMEhLV1BSSDNZdk5jbzhGZmFUZzl6UVJsdmlLZmI1TDZzTV9Tb2hBSXQ1Rm5kdjBtNmU2RFB4a3hJNUpEWXRMZ3pqWE9pZWJ5TEt0eFJLZmtkcmhJWU1iYW1oTjJJNzd5VDZiVVBUX0Z6WmNKMEpiNk5Fei1sUGdLM3dfVDNuMg?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/consentfix-debrief-insights-from-the-new-oauth-phishing-attack/</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4057,17 +4057,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>France explores sending Eutelsat terminals to Iran amid internet blackout - Reuters</t>
+          <t>Verizon Wireless outage puts phones in SOS mode without cell service</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOc3BHY0RmQVl0TnI4NFZEdGhEd3R2eHd1bk04dDFFYkdLNmJSYTdJNGx6LVVIcUVwVUwtQnhoVWJNek5oYWx3dFU2NmNTa2cwcmhzaXNyMTV6VmdpRTA4NHhiQ0NWS3VNUUEtdnJyTTBKeGJ2dGlBNnJYM21NQjhHY2VkVkNuNmEzMFJqX1hWYkZjeTB0bVk3ejNjbXN1MHVBWjhDQjdXSkJhN091VnV0WGRBaTQ4cWlOSWZTaWFNVjY2RF81d1hJ?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/mobile/verizon-wireless-outage-puts-phones-in-sos-mode-without-cell-service/</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4089,22 +4089,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Tech, banks weigh on Wall Street; Trump eases Iran oil fears - Reuters</t>
+          <t>Exploit code public for critical FortiSIEM command injection flaw</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMie0FVX3lxTE9PNkpWSU0yUEpxb0YwdFVSSm9oTEt6M1ZqSWpndXhHM2FBWVJsTkk2SHVNaHJXQVJ4VF85OHhVWHFuN0lpX0N3cWF5Q3BralI0UWNHNm4tWml4QXAwLU1VRmVZZWtYejBpMFdEWjdvVjdWZkRoLTNxLXM1Yw?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/exploit-code-public-for-critical-fortisiem-command-injection-flaw/</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4121,22 +4121,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>German-Israel deal strengthens cyber defence, German minister says - Reuters</t>
+          <t>South Korean giant Kyowon confirms data theft in ransomware attack</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxPM190VDRucnBsRHkyZzlOOEJfSmU2T1lRa05BWjZVcnNsQlROaENkU252WjYxUU1Cb0JPaDNRRWZaXzhaREhiVWY0LWJ4Z3drZC1JSnpfaXZRMk5vd3VtTEhYdl8zUVo2ellZN0tkVHB1V3ppd1prME0tTGlBblotLU1HTnE3Vm5sa0VlNUxPVDdVSHhmdDgzUE5PTVdsLW1oXzRnemNUQ19lVzN0ODc3alB3SXlkeUtGazMw?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/south-korean-giant-kyowon-confirms-data-theft-in-ransomware-attack/</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4153,17 +4153,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Exclusive: Beijing tells Chinese firms to stop using US and Israeli cybersecurity software, sources say - Reuters</t>
+          <t>Critical Node.js Vulnerability Can Cause Server Crashes via async_hooks Stack Overflow</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQZmNIRDZEN3d5ZXRyNnN5eHc2X0NlZkppN2dnSlpzeFQtTVhDVjJmeWx2aDg4QjQtM0wyRjkxY0ZuNnlOWlJNUmhRSWl4SzJMc1VjT0F1ZDBKMGNsZzJFc3ZodTd3S3dGRnBhRDlqZVdhZ1RwMVlQU1c1SkZQcXNjTGg1V0gxQTZGc004Y0tXeFpTRXZlQTNCdHJvb2tjRTNKTzVfMUdicjRWeHMxa2FhNlNDWGZxUjJBMWljYm9mYUEydGI1OC1z?oc=5</t>
+          <t>https://thehackernews.com/2026/01/critical-nodejs-vulnerability-can-cause.html</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4185,22 +4185,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Belgian cybersecurity startup Aikido hits unicorn status with new funding round - Reuters</t>
+          <t>Microsoft Fixes 114 Windows Flaws in January 2026 Patch, One Actively Exploited</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxQcjZHZjZ3NHpBajduLVg0ZU9XaWV4TGNxLVQzQmF4bktuQWwzWU9kQmltZVpRaGN6QThhYmxlOU9vckZTa2RHd3BtMkNRNkVjWmd6OUlzUjdERURJN2ZER0paa2R3Q0tIVW9qbFdQR19xcW9WbzZhMlpBd1VKQWJvVlpCdFRPeENEOTB4YzM2WFZXTHNIMkxMOXpxVjFqd2dSWklFZ3U5YlRCTVJ5VDEwdWpEN2tHdU1feFBUenpiR2drc2lq?oc=5</t>
+          <t>https://thehackernews.com/2026/01/microsoft-fixes-114-windows-flaws-in.html</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4222,12 +4222,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>PLUGGYAPE Malware Uses Signal and WhatsApp to Target Ukrainian Defense Forces</t>
+          <t>Fortinet Fixes Critical FortiSIEM Flaw Allowing Unauthenticated Remote Code Execution</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/pluggyape-malware-uses-signal-and.html</t>
+          <t>https://thehackernews.com/2026/01/fortinet-fixes-critical-fortisiem-flaw.html</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -4249,27 +4249,27 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Takaichi and Lee end first day of summit on a high note with drum session - Reuters</t>
+          <t>Hackers Exploit c-ares DLL Side-Loading to Bypass Security and Deploy Malware</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQUFY3eWVKSUFQYXlxQXhwQUZGaVFvN1hiLTI1LXZTd0VveHdaNTRJbnUxOEZuNzhhUHBEZUp3WWE1OU5scUdTRTFlVTdjWkQ3eGdHdW9WbTctOVFYSFd4RkNDbU12Z2RzemppelpMckRaNE53NTMxUnd2blFyXy00V3N5d0J5cUJWWnhiMzEtR0lpS0lJMnR0emxXbXo0cDlmaC1nWnhITl9qeVg0cjRRdWZGel9kWmM?oc=5</t>
+          <t>https://thehackernews.com/2026/01/hackers-exploit-c-ares-dll-side-loading.html</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -4281,27 +4281,27 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Gold notches record high, silver cracks $90 on Fed rate cut bets - Reuters</t>
+          <t>AI Agents Are Becoming Privilege Escalation Paths</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPMDVHbjVCZURFTGl4X1FWMGtPSnh1NmN5NkhXdndsLWxnbWFJNTRUUUJseHV2T0VfWWhWc3pucUpUOHVRSEVWR2JKaXZwTVc5UnpZWmxOMWtXV3FqT3RIQXRzbmdORlRhMkg4UGNrUFFFdUJJaDNxTDg1UTRfSmlPNV85U0VnQ2NLNkRtTW96aUxvQjlNNEh3dkx3MW5NdGtERlRLc1Fhc3M?oc=5</t>
+          <t>https://thehackernews.com/2026/01/ai-agents-are-becoming-privilege.html</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -4313,27 +4313,27 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Ready, steady gold! Safety bid adds fuel to cenbank fire - Reuters</t>
+          <t>Researchers Null-Route Over 550 Kimwolf and Aisuru Botnet Command Servers</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxNYURRZnRjcXc0Q1V0M0E0VUdBbWhMVm5rS2NzSXItbkR5bk5hWGx0ZXdMNV81Q0dzTkRuckJWcndEenpTZEl5SUhNc0dwS1R1TGMyUjNGWlBhM254d1FqU0NlM1NzNFRtZFhYUEY3czlxeUFVX1B1M29nVml1elViNl9odlNJTGhrN0lkd3BEWHdXLUNKeE5PZHR5dTB4Z1hjdWV5aVJReWFseUFOQTdqQ1hSYWY?oc=5</t>
+          <t>https://thehackernews.com/2026/01/kimwolf-botnet-infected-over-2-million.html</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -4350,22 +4350,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Trump urges Iranians to keep protesting, saying 'help is on its way' - Reuters</t>
+          <t>Ukraine's new defence minister vows innovation on battlefield - Reuters</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQNzdvSXBtajhYdGFUZ3pLMU40djlOWUdDTGJZQ3Z3UEt5aDdNZ3djam1YTEFqZFlEOHhqS2NxV2lPUzREZXdad2FQZ2Z0NWNyU3JJdGtqakd1b1F3SnZTY29RSG9oSUNIRFNtdXNYSkxLTURzTzRRdWctZ2kzaExEX2hGQ0MwdEdzQm5PVldZMEQ2VUFQSFRwSm4wWU42NWg3aUxYRzRDUkdPM2FvWXVyMnh4NGVnUWs?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQb2daQ3g2Z2RSZTBuTVZaUlcydWVlV2x5cmdWN3Q4UVVKdkVIaF9DSnJVN0pSUVZfbWRza050YTVOLXA1c1Y1cHZxSDQyRjFadUV1SjFpcmFpaTd3eWlQSWRPUjNOTW41c3ZVTTItcXIyNWhyWG0xMlVHUW1OdHVtU2w3bVFLQXhQTTZYeVVobjVjQ3BNQjVFRTIwWUNjaW5ONG5jekpNcFEzZ1RN?oc=5</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -4382,22 +4382,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>China's trade ends 2025 with record $1.2 trillion surplus despite Trump tariff jolt - Reuters</t>
+          <t>US healthcare spending soars to over $5 trillion in 2024 - Reuters</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOUTJBRGwwTTYzOEZ1ZGJxeDhqbHVXOWJ3ejBrY2c3ZzVDZXhIRV9IemtkRG15MERacVJQVnZxcVVTeWVqZnlkZ3pkVWJpY2RXTGxCV3EtOFhUQ29WUDBuSVdWY0M3WlBTRG1TTWlpVjNxd3JEMGxpZkd6YzR6eGxxZkhObERkc1NXSnJwT3pHQ2ZHUXhzdDNjQmxrYzJST0lQWXBZRVpvdHFIMVNlb2RUc3RLMFI1RnYybDFlWlp3c04xaC10cFlj?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxOT21DRkZVNjY2R19RNGJrWnNzT0ptYjZzR3c0VVpOMEhLV1BSSDNZdk5jbzhGZmFUZzl6UVJsdmlLZmI1TDZzTV9Tb2hBSXQ1Rm5kdjBtNmU2RFB4a3hJNUpEWXRMZ3pqWE9pZWJ5TEt0eFJLZmtkcmhJWU1iYW1oTjJJNzd5VDZiVVBUX0Z6WmNKMEpiNk5Fei1sUGdLM3dfVDNuMg?oc=5</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -4414,22 +4414,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Chipmaker Nexperia and Chinese owner Wingtech fight for control in Dutch court - Reuters</t>
+          <t>France explores sending Eutelsat terminals to Iran amid internet blackout - Reuters</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxNUjA2QmJ6NEdoSWl0bVJwRzFMbUZidDdPZldURzl5a1dSNUgwTEZvajVsLWZMdXl5WUxNTG5hSkNkcy13ZkM5RnlRLXc2Zmp2T2d3S3JWem9VVU04UHVrcm5yMmhGQjJDUFZUa19JNzdKeGdlWUlXX0FNSmRPaEd2MUE1aUlkSTFxbXFHQ1FyRDVZY2NZWE5yYXc0NzhKa0pzZDM5MkY5Z016TmZmX2RveUNjV3dRdw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOc3BHY0RmQVl0TnI4NFZEdGhEd3R2eHd1bk04dDFFYkdLNmJSYTdJNGx6LVVIcUVwVUwtQnhoVWJNek5oYWx3dFU2NmNTa2cwcmhzaXNyMTV6VmdpRTA4NHhiQ0NWS3VNUUEtdnJyTTBKeGJ2dGlBNnJYM21NQjhHY2VkVkNuNmEzMFJqX1hWYkZjeTB0bVk3ejNjbXN1MHVBWjhDQjdXSkJhN091VnV0WGRBaTQ4cWlOSWZTaWFNVjY2RF81d1hJ?oc=5</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -4446,49 +4446,49 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Trump says he thinks China can open its markets to US goods - Reuters</t>
+          <t>Tech, banks weigh on Wall Street; Trump eases Iran oil fears - Reuters</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxONVBCX2drb3JScmU2TTYyMi1uVC1ZVU02S0NtNFRiSHhUZm5fOG9HaFBaN3dXNWs3V0RGUEE4amVOS2RrT1BlNWM4QjhOLVM1NzNQSERYNl9lQUFEQ0NDa0VsMEN3QlBUTFE2UFZOVF8tcjNrQjlEYjQ5c2o2SVMycEZQOFhHazJySVVzaXNHNzlyZ0ttcFpYWDhCUVgwcndYS2tV?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMie0FVX3lxTE9PNkpWSU0yUEpxb0YwdFVSSm9oTEt6M1ZqSWpndXhHM2FBWVJsTkk2SHVNaHJXQVJ4VF85OHhVWHFuN0lpX0N3cWF5Q3BralI0UWNHNm4tWml4QXAwLU1VRmVZZWtYejBpMFdEWjdvVjdWZkRoLTNxLXM1Yw?oc=5</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>CrowdStrike to Buy Seraphic Security in Bid to Boost Browser Security</t>
+          <t>German-Israel deal strengthens cyber defence, German minister says - Reuters</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/crowdstrike-buy-seraphic-security-boost-browser-security</t>
+          <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxPM190VDRucnBsRHkyZzlOOEJfSmU2T1lRa05BWjZVcnNsQlROaENkU252WjYxUU1Cb0JPaDNRRWZaXzhaREhiVWY0LWJ4Z3drZC1JSnpfaXZRMk5vd3VtTEhYdl8zUVo2ellZN0tkVHB1V3ppd1prME0tTGlBblotLU1HTnE3Vm5sa0VlNUxPVDdVSHhmdDgzUE5PTVdsLW1oXzRnemNUQ19lVzN0ODc3alB3SXlkeUtGazMw?oc=5</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4500,7 +4500,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4510,17 +4510,17 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Bloomberg Index Services defers including Indian bonds in global index - Reuters</t>
+          <t>Exclusive: Beijing tells Chinese firms to stop using US and Israeli cybersecurity software, sources say - Reuters</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQR1lPWGVrdzBFTjRKWVh5cEFSVWI1c01ZTmdYTTFKRUpJWDJMdE5nRG1uaU16TEVTa3dnRHJNV296dlRoSF9oZy1RcUViSnhPWVFMTXkyZGc0Um54UEozM0dzYnk0emRJd2VlR3FuNWFUZ2xzUlNzeVJmN1Y2YndEUDZ5cTNRNjluM1NOWWRzbzhueGVKWG5NNGtJa2dza1djblc2SUdUbDV0N1lLWE1VdFVqMzBGdw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQZmNIRDZEN3d5ZXRyNnN5eHc2X0NlZkppN2dnSlpzeFQtTVhDVjJmeWx2aDg4QjQtM0wyRjkxY0ZuNnlOWlJNUmhRSWl4SzJMc1VjT0F1ZDBKMGNsZzJFc3ZodTd3S3dGRnBhRDlqZVdhZ1RwMVlQU1c1SkZQcXNjTGg1V0gxQTZGc004Y0tXeFpTRXZlQTNCdHJvb2tjRTNKTzVfMUdicjRWeHMxa2FhNlNDWGZxUjJBMWljYm9mYUEydGI1OC1z?oc=5</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4532,22 +4532,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Rockwell Automation 432ES-IG3 Series A</t>
+          <t>Belgian cybersecurity startup Aikido hits unicorn status with new funding round - Reuters</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-01</t>
+          <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxQcjZHZjZ3NHpBajduLVg0ZU9XaWV4TGNxLVQzQmF4bktuQWwzWU9kQmltZVpRaGN6QThhYmxlOU9vckZTa2RHd3BtMkNRNkVjWmd6OUlzUjdERURJN2ZER0paa2R3Q0tIVW9qbFdQR19xcW9WbzZhMlpBd1VKQWJvVlpCdFRPeENEOTB4YzM2WFZXTHNIMkxMOXpxVjFqd2dSWklFZ3U5YlRCTVJ5VDEwdWpEN2tHdU1feFBUenpiR2drc2lq?oc=5</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4557,34 +4557,34 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Rockwell Automation FactoryTalk DataMosaix Private Cloud</t>
+          <t>PLUGGYAPE Malware Uses Signal and WhatsApp to Target Ukrainian Defense Forces</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-02</t>
+          <t>https://thehackernews.com/2026/01/pluggyape-malware-uses-signal-and.html</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4596,27 +4596,27 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>YoSmart YoLink Smart Hub</t>
+          <t>Takaichi and Lee end first day of summit on a high note with drum session - Reuters</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-03</t>
+          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQUFY3eWVKSUFQYXlxQXhwQUZGaVFvN1hiLTI1LXZTd0VveHdaNTRJbnUxOEZuNzhhUHBEZUp3WWE1OU5scUdTRTFlVTdjWkQ3eGdHdW9WbTctOVFYSFd4RkNDbU12Z2RzemppelpMckRaNE53NTMxUnd2blFyXy00V3N5d0J5cUJWWnhiMzEtR0lpS0lJMnR0emxXbXo0cDlmaC1nWnhITl9qeVg0cjRRdWZGel9kWmM?oc=5</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4628,27 +4628,27 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Gold notches record high, silver cracks $90 on Fed rate cut bets - Reuters</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2026/01/13/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPMDVHbjVCZURFTGl4X1FWMGtPSnh1NmN5NkhXdndsLWxnbWFJNTRUUUJseHV2T0VfWWhWc3pucUpUOHVRSEVWR2JKaXZwTVc5UnpZWmxOMWtXV3FqT3RIQXRzbmdORlRhMkg4UGNrUFFFdUJJaDNxTDg1UTRfSmlPNV85U0VnQ2NLNkRtTW96aUxvQjlNNEh3dkx3MW5NdGtERlRLc1Fhc3M?oc=5</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4660,27 +4660,27 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>January 2026 Patch Tuesday: 114 CVEs Patched Including 3 Zero-Days</t>
+          <t>Ready, steady gold! Safety bid adds fuel to cenbank fire - Reuters</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/patch-tuesday-analysis-january-2026/</t>
+          <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxNYURRZnRjcXc0Q1V0M0E0VUdBbWhMVm5rS2NzSXItbkR5bk5hWGx0ZXdMNV81Q0dzTkRuckJWcndEenpTZEl5SUhNc0dwS1R1TGMyUjNGWlBhM254d1FqU0NlM1NzNFRtZFhYUEY3czlxeUFVX1B1M29nVml1elViNl9odlNJTGhrN0lkd3BEWHdXLUNKeE5PZHR5dTB4Z1hjdWV5aVJReWFseUFOQTdqQ1hSYWY?oc=5</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4692,22 +4692,22 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>CrowdStrike to Acquire Seraphic to Secure Work in Any Browser</t>
+          <t>Trump urges Iranians to keep protesting, saying 'help is on its way' - Reuters</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-seraphic/</t>
+          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQNzdvSXBtajhYdGFUZ3pLMU40djlOWUdDTGJZQ3Z3UEt5aDdNZ3djam1YTEFqZFlEOHhqS2NxV2lPUzREZXdad2FQZ2Z0NWNyU3JJdGtqakd1b1F3SnZTY29RSG9oSUNIRFNtdXNYSkxLTURzTzRRdWctZ2kzaExEX2hGQ0MwdEdzQm5PVldZMEQ2VUFQSFRwSm4wWU42NWg3aUxYRzRDUkdPM2FvWXVyMnh4NGVnUWs?oc=5</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4724,27 +4724,27 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Remote Code Execution With Modern AI/ML Formats and Libraries</t>
+          <t>China's trade ends 2025 with record $1.2 trillion surplus despite Trump tariff jolt - Reuters</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/rce-vulnerabilities-in-ai-python-libraries/</t>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOUTJBRGwwTTYzOEZ1ZGJxeDhqbHVXOWJ3ejBrY2c3ZzVDZXhIRV9IemtkRG15MERacVJQVnZxcVVTeWVqZnlkZ3pkVWJpY2RXTGxCV3EtOFhUQ29WUDBuSVdWY0M3WlBTRG1TTWlpVjNxd3JEMGxpZkd6YzR6eGxxZkhObERkc1NXSnJwT3pHQ2ZHUXhzdDNjQmxrYzJST0lQWXBZRVpvdHFIMVNlb2RUc3RLMFI1RnYybDFlWlp3c04xaC10cFlj?oc=5</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4756,27 +4756,27 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Threat Brief: MongoDB Vulnerability (CVE-2025-14847)</t>
+          <t>Chipmaker Nexperia and Chinese owner Wingtech fight for control in Dutch court - Reuters</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/mongobleed-cve-2025-14847/</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxNUjA2QmJ6NEdoSWl0bVJwRzFMbUZidDdPZldURzl5a1dSNUgwTEZvajVsLWZMdXl5WUxNTG5hSkNkcy13ZkM5RnlRLXc2Zmp2T2d3S3JWem9VVU04UHVrcm5yMmhGQjJDUFZUa19JNzdKeGdlWUlXX0FNSmRPaEd2MUE1aUlkSTFxbXFHQ1FyRDVZY2NZWE5yYXc0NzhKa0pzZDM5MkY5Z016TmZmX2RveUNjV3dRdw?oc=5</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4788,27 +4788,27 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Senior military cyber operator removed from Russia task force</t>
+          <t>Trump says he thinks China can open its markets to US goods - Reuters</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://therecord.media/senior-military-cyber-op-removed-russia-task-force</t>
+          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxONVBCX2drb3JScmU2TTYyMi1uVC1ZVU02S0NtNFRiSHhUZm5fOG9HaFBaN3dXNWs3V0RGUEE4amVOS2RrT1BlNWM4QjhOLVM1NzNQSERYNl9lQUFEQ0NDa0VsMEN3QlBUTFE2UFZOVF8tcjNrQjlEYjQ5c2o2SVMycEZQOFhHazJySVVzaXNHNzlyZ0ttcFpYWDhCUVgwcndYS2tV?oc=5</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4825,27 +4825,27 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>The Record</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Ukraine parliament approves resignation of security service chief in major reshuffle</t>
+          <t>CrowdStrike to Buy Seraphic Security in Bid to Boost Browser Security</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://therecord.media/ukraine-parliament-approves-resignation-sbu-chief</t>
+          <t>https://www.darkreading.com/remote-workforce/crowdstrike-buy-seraphic-security-boost-browser-security</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -4857,27 +4857,27 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Attackers Abuse Python, Cloudflare to Deliver AsyncRAT</t>
+          <t>Bloomberg Index Services defers including Indian bonds in global index - Reuters</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/attackers-abuse-python-cloudflare-deliver-asyncrat</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQR1lPWGVrdzBFTjRKWVh5cEFSVWI1c01ZTmdYTTFKRUpJWDJMdE5nRG1uaU16TEVTa3dnRHJNV296dlRoSF9oZy1RcUViSnhPWVFMTXkyZGc0Um54UEozM0dzYnk0emRJd2VlR3FuNWFUZ2xzUlNzeVJmN1Y2YndEUDZ5cTNRNjluM1NOWWRzbzhueGVKWG5NNGtJa2dza1djblc2SUdUbDV0N1lLWE1VdFVqMzBGdw?oc=5</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
@@ -4889,22 +4889,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Shadow#Reactor Uses Text Files to Deliver Remcos RAT</t>
+          <t>Rockwell Automation 432ES-IG3 Series A</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/shadow-reactor-uses-text-files-to-deliver-remcos-rat</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-01</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4921,22 +4921,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Microsoft Starts 2026 With a Bang: A Freshly Exploited Zero-Day</t>
+          <t>Rockwell Automation FactoryTalk DataMosaix Private Cloud</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/application-security/microsofts-starts-2026-bang-zero-day</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-02</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4953,22 +4953,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>'Most Severe AI Vulnerability to Date' Hits ServiceNow</t>
+          <t>YoSmart YoLink Smart Hub</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/ai-vulnerability-servicenow</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-013-03</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4985,17 +4985,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>SAP’s January 2026 Security Updates Patch Critical Vulnerabilities</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/saps-january-2026-security-updates-patch-critical-vulnerabilities/</t>
+          <t>https://www.cisa.gov/news-events/alerts/2026/01/13/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5017,22 +5017,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Broadcom Wi-Fi Chipset Flaw Allows Hackers to Disrupt Networks</t>
+          <t>January 2026 Patch Tuesday: 114 CVEs Patched Including 3 Zero-Days</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/broadcom-wi-fi-chipset-flaw-allows-hackers-to-disrupt-networks/</t>
+          <t>https://www.crowdstrike.com/en-us/blog/patch-tuesday-analysis-january-2026/</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5049,17 +5049,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>After Goldman, JPMorgan Discloses Law Firm Data Breach</t>
+          <t>CrowdStrike to Acquire Seraphic to Secure Work in Any Browser</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/after-goldman-jpmorgan-discloses-law-firm-data-breach/</t>
+          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-seraphic/</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5081,17 +5081,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>GoBruteforcer Botnet Targeting Crypto, Blockchain Projects</t>
+          <t>Remote Code Execution With Modern AI/ML Formats and Libraries</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/gobruteforcer-botnet-targeting-crypto-blockchain-projects/</t>
+          <t>https://unit42.paloaltonetworks.com/rce-vulnerabilities-in-ai-python-libraries/</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5113,17 +5113,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Microsoft Patches Exploited Windows Zero-Day, 111 Other Vulnerabilities</t>
+          <t>Threat Brief: MongoDB Vulnerability (CVE-2025-14847)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/microsoft-patches-exploited-windows-zero-day-111-other-vulnerabilities/</t>
+          <t>https://unit42.paloaltonetworks.com/mongobleed-cve-2025-14847/</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5145,17 +5145,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Adobe Patches Critical Apache Tika Bug in ColdFusion</t>
+          <t>Senior military cyber operator removed from Russia task force</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/adobe-patches-critical-apache-tika-bug-in-coldfusion/</t>
+          <t>https://therecord.media/senior-military-cyber-op-removed-russia-task-force</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5177,22 +5177,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SecurityWeek</t>
+          <t>The Record</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CrowdStrike to Acquire Browser Security Firm Seraphic for $420 Million</t>
+          <t>Ukraine parliament approves resignation of security service chief in major reshuffle</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://www.securityweek.com/crowdstrike-to-acquire-browser-security-firm-seraphic-for-420-million/</t>
+          <t>https://therecord.media/ukraine-parliament-approves-resignation-sbu-chief</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5209,22 +5209,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Target employees confirm leaked source code is authentic</t>
+          <t>Attackers Abuse Python, Cloudflare to Deliver AsyncRAT</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/target-employees-confirm-leaked-source-code-is-authentic/</t>
+          <t>https://www.darkreading.com/endpoint-security/attackers-abuse-python-cloudflare-deliver-asyncrat</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5241,22 +5241,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Convincing LinkedIn comment-reply tactic used in new phishing</t>
+          <t>Shadow#Reactor Uses Text Files to Deliver Remcos RAT</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/convincing-linkedin-comment-reply-tactic-used-in-new-phishing/</t>
+          <t>https://www.darkreading.com/endpoint-security/shadow-reactor-uses-text-files-to-deliver-remcos-rat</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5273,22 +5273,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Betterment confirms data breach after wave of crypto scam emails</t>
+          <t>Microsoft Starts 2026 With a Bang: A Freshly Exploited Zero-Day</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/betterment-confirms-data-breach-after-wave-of-crypto-scam-emails/</t>
+          <t>https://www.darkreading.com/application-security/microsofts-starts-2026-bang-zero-day</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5305,22 +5305,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Google confirms Android bug causing volume key issues</t>
+          <t>'Most Severe AI Vulnerability to Date' Hits ServiceNow</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/google/google-confirms-android-bug-causing-volume-key-issues/</t>
+          <t>https://www.darkreading.com/remote-workforce/ai-vulnerability-servicenow</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5337,17 +5337,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Microsoft January 2026 Patch Tuesday fixes 3 zero-days, 114 flaws</t>
+          <t>SAP’s January 2026 Security Updates Patch Critical Vulnerabilities</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/microsoft/microsoft-january-2026-patch-tuesday-fixes-3-zero-days-114-flaws/</t>
+          <t>https://www.securityweek.com/saps-january-2026-security-updates-patch-critical-vulnerabilities/</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5369,17 +5369,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>New Windows updates replace expiring Secure Boot certificates</t>
+          <t>Broadcom Wi-Fi Chipset Flaw Allows Hackers to Disrupt Networks</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/microsoft-rolls-out-new-secure-boot-certificates-for-windows-devices/</t>
+          <t>https://www.securityweek.com/broadcom-wi-fi-chipset-flaw-allows-hackers-to-disrupt-networks/</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5401,22 +5401,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Belgian hospital AZ Monica shuts down servers after cyberattack</t>
+          <t>After Goldman, JPMorgan Discloses Law Firm Data Breach</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/belgian-hospital-az-monica-shuts-down-servers-after-cyberattack/</t>
+          <t>https://www.securityweek.com/after-goldman-jpmorgan-discloses-law-firm-data-breach/</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5433,22 +5433,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>New VoidLink malware framework targets Linux cloud servers</t>
+          <t>GoBruteforcer Botnet Targeting Crypto, Blockchain Projects</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/new-voidlink-malware-framework-targets-linux-cloud-servers/</t>
+          <t>https://www.securityweek.com/gobruteforcer-botnet-targeting-crypto-blockchain-projects/</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5465,22 +5465,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BleepingComputer</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Ukraine's army targeted in new charity-themed malware campaign</t>
+          <t>Microsoft Patches Exploited Windows Zero-Day, 111 Other Vulnerabilities</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://www.bleepingcomputer.com/news/security/ukraines-army-targeted-in-new-charity-themed-malware-campaign/</t>
+          <t>https://www.securityweek.com/microsoft-patches-exploited-windows-zero-day-111-other-vulnerabilities/</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5497,17 +5497,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>CISA Warns of Active Exploitation of Gogs Vulnerability Enabling Code Execution</t>
+          <t>Adobe Patches Critical Apache Tika Bug in ColdFusion</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/cisa-warns-of-active-exploitation-of.html</t>
+          <t>https://www.securityweek.com/adobe-patches-critical-apache-tika-bug-in-coldfusion/</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5529,22 +5529,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>New Malware Campaign Delivers Remcos RAT Through Multi-Stage Windows Attack</t>
+          <t>CrowdStrike to Acquire Browser Security Firm Seraphic for $420 Million</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/new-malware-campaign-delivers-remcos.html</t>
+          <t>https://www.securityweek.com/crowdstrike-to-acquire-browser-security-firm-seraphic-for-420-million/</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5561,17 +5561,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ServiceNow Patches Critical AI Platform Flaw Allowing Unauthenticated User Impersonation</t>
+          <t>Target employees confirm leaked source code is authentic</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/servicenow-patches-critical-ai-platform.html</t>
+          <t>https://www.bleepingcomputer.com/news/security/target-employees-confirm-leaked-source-code-is-authentic/</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5593,22 +5593,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>New Advanced Linux VoidLink Malware Targets Cloud and container Environments</t>
+          <t>Convincing LinkedIn comment-reply tactic used in new phishing</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/new-advanced-linux-voidlink-malware.html</t>
+          <t>https://www.bleepingcomputer.com/news/security/convincing-linkedin-comment-reply-tactic-used-in-new-phishing/</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5625,22 +5625,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Senior Russian official says Greenland could vote to join Russia if Trump does not hurry - Reuters</t>
+          <t>Betterment confirms data breach after wave of crypto scam emails</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxQWGRiQ1h1elVpU09iYzkzbkNXSkpqT1J0SDRhM1ZzZ3VHcnRFN0o3U3d5cjZiV0U5bGx5bmsyaEwtTnpqam0wYUk1SE9sbzVuUE1neVp5Z1FydFJFRmxia2ljVE1OdWtxV2lWeWotNTZrZl92Wno2cElMcG5zNk1sU0xyMjh6cjNmRHByTzIwTnZFcXppMXlpczJ4NVBhRVRsZW9sVldoR1hGcUxjdkVsMXB5bEcxV3RHaHpNRjZn?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/betterment-confirms-data-breach-after-wave-of-crypto-scam-emails/</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5657,22 +5657,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Trump says inflation data means Fed can cut interest rates - Reuters</t>
+          <t>Google confirms Android bug causing volume key issues</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOb1RPV1JkVVVGcXpVb3IwVXMzeHEwNmdnUU8tWktMQmVhMUc4UElTMEJmWkdoTjRrWWJzNmtJRm1vTndoRVF4SGx5R09oSXJaeDlmUEdsYnE4RU1XRHN3SWpCZEN1YTU4MGdVbWwwamoxQ1J1SzVPekdrNkZfVE5QVjR4R0pTYklPX3hDbXBMWkZYVmFwNGV2blc0RXdjT3d2UWs0aWZTaWxXZw?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/google/google-confirms-android-bug-causing-volume-key-issues/</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5689,22 +5689,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>China limits Nvidia chip purchases to special circumstances, Information reports - Reuters</t>
+          <t>Microsoft January 2026 Patch Tuesday fixes 3 zero-days, 114 flaws</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxNQU5YR3BRNnBjUndkYWJqNnFnSFlDS2xYYVFycUp5UmZoeExwaUFaeThuaXZKdmlWOS12MU9iN3RwYVcwdmUtd2xQS0lNMkpxYjBCNkZpc09pMWNPSVNCcHVLMHdKYUo2VUx4c0pkajVURmFnU1Qta0tGYkRNdkpsWXIzSHFHNk5YQWZuTTFpUEZneW82aTJZaXJybG8wa0VkWGJ3c2tpNFBrVXdYVXhQY1RFcmU3MjJoTnZqX1ZWZDh4dw?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/microsoft/microsoft-january-2026-patch-tuesday-fixes-3-zero-days-114-flaws/</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5721,22 +5721,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Tomlin steps down as Steelers' coach after 19 seasons - Reuters</t>
+          <t>New Windows updates replace expiring Secure Boot certificates</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxNZ3N6RXJfUG5LbjhDMVhRMkxYS2l1UkdiWUF0eU5jRFQyMVpXd3FRLVllNE53WUh6NjRBNVFZU3MtaGpFR1VhdHN6S2hIbUJOS2c2X1hHdS0xWDdnTEFQd0wtaWR6RlF1S1I1UnFVbDI4WWlLdkhNUHpPVm54cWJXV1hYek10WG9ZZG5VSVdnRXRISXF1OEJV?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/microsoft-rolls-out-new-secure-boot-certificates-for-windows-devices/</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5753,22 +5753,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Trump probe of Fed chair stresses need for global diversification - Reuters</t>
+          <t>Belgian hospital AZ Monica shuts down servers after cyberattack</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNWUtZdWRtOC1FSkp4SEVuVktuMkNBLXAtSXZNOE5FX1doOTdvaFpuNjdaZHNsaVpOMFNFOTlYMC1KdTNKamh1azAxNVlJU2JXVzdrMGZQaXJwTDhqWE9VQXJXRkJSMWgxT3VMQkw0NGZFMTQ4YmNVZGFocHZfcEY3MVhGcXk0WlhtODZKRFRBM0s2QjlIRTBHajEzdEZFNFI4aGVtTVFR?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/belgian-hospital-az-monica-shuts-down-servers-after-cyberattack/</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -5785,22 +5785,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Pope Leo to visit Angola as part of an Africa tour, Vatican envoy says - Reuters</t>
+          <t>New VoidLink malware framework targets Linux cloud servers</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxNRndWQmRaMzR3ZXlFbjZQbk0zV1JYSFA1Qy1FVUJSQUVCX3ExVzZnYmFFVUtFdmdpZnl3ZGNzOUFRRWJRTEpCTnloNkFNRUNVcjdBeThPcmZqYVFUbXlfNXduRC1PZkg4WURJVEVTdkRsR24zYjd2amRQZHRhN2NSaXZLLXB3UWZ2b0RiaDNBM0hkYzFuVmNYdHl6VHA0aXNqSy00dg?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/new-voidlink-malware-framework-targets-linux-cloud-servers/</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5817,22 +5817,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>BleepingComputer</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Wall Street expects strong fourth-quarter earnings driven by robust US economy - Reuters</t>
+          <t>Ukraine's army targeted in new charity-themed malware campaign</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxOUnc1ZC1sYk1ETFVDWUpGQkpkRnlSd0hhVXJKZmF4dlMzREhxV0NGS1VjbFpheEQtZkYyelJtT0gxbGhmb2I1eWtHYzhSaTZlUktabXNhd1N3X0ZQOTJjZXNxdVVYMlRqZVR6MHF0c1AyNEhhZ2gxc19iaTdzWWVQQkhxMFk0amw2YWZVdXUyaVFVZ19rZHp4clIyOVdIMVhxYjdRYWxsSnFDUy1wTGJwNEhYUERRZ3BJRTFzM01hYVppRmotbXpBaVZHVQ?oc=5</t>
+          <t>https://www.bleepingcomputer.com/news/security/ukraines-army-targeted-in-new-charity-themed-malware-campaign/</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5849,22 +5849,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Polygon targets stablecoin payments with deals worth $250 million - Reuters</t>
+          <t>CISA Warns of Active Exploitation of Gogs Vulnerability Enabling Code Execution</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQTXBYdG9GYnhtWGp2MlgzSm0zTGR5QUxFdFAyR2JrZHNLQ1dUaGVBOWQxa2hucUN0VWxXdmdXT1NuYkNiWG54WmloUTJBcFoyYjlLUDJwUVNjT2tBYkFpN3BMNzVDUlMtV0tET3d2cjRMREl6bXJTSm42UTZYUGNLTVFVWlZ4V0luRGdGb1NBcjhaTFlGWnZCZkdJVjBFTDctcC1pYW1SYUVLQ0NVS3c?oc=5</t>
+          <t>https://thehackernews.com/2026/01/cisa-warns-of-active-exploitation-of.html</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -5881,22 +5881,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>EU to 'swiftly' propose further sanctions on Iran, von der Leyen says - Reuters</t>
+          <t>New Malware Campaign Delivers Remcos RAT Through Multi-Stage Windows Attack</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxQblFzQUFWcGxwaEtsVlBPcmdMRExLaS1BekxsaWJTSU14elNKY3ZES1o3LVNPdjJwb1dGT1lGQ3ZaMm1uNDRPc05TLUlkUTRwQ19sODRsbGhSemVoM0NRMC1TVktLandoVkNJNG9wSGJQcVUyb1FpLWpWLWdaQWhFdE5kOEo1SGJLRElnNG52M0p0cTVFeGtjVkR5dGR2OXU3b2xlTg?oc=5</t>
+          <t>https://thehackernews.com/2026/01/new-malware-campaign-delivers-remcos.html</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -5913,22 +5913,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Britain seeks 'reset' in copyright battle between AI and creators - Reuters</t>
+          <t>ServiceNow Patches Critical AI Platform Flaw Allowing Unauthenticated User Impersonation</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQN1RNSkNXMDF2bXVkOVV5VnIyRW5GNk9JMzljdmd1dlB2TVFTLXI3bWMzUGJYWG9JLTFRNHFaUHlqcjlRNjFhQ2c2cDhVMVdqYU91VWYtQ01JRUE0ZTgyLXFVcEowVXYzcGd3bUtLaF9Xa1RORW1CdnBuVmMtakVqbkJFNzZab0w2OUdQaFlFMi04N0NMRU16Nzdfajc3SHRFbHd1ckt0cGNZOU9FcnpoTnEzSS1tQQ?oc=5</t>
+          <t>https://thehackernews.com/2026/01/servicenow-patches-critical-ai-platform.html</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -5945,22 +5945,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Bill and Hillary Clinton refuse to testify in House Epstein probe, could be held in contempt - Reuters</t>
+          <t>New Advanced Linux VoidLink Malware Targets Cloud and container Environments</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNbHhxUGFmX3kxTGFGRkxiSGJ1ZlVqZVJQZlhWc3ZyRTU0dmdhaERIYnJJS3NJTVlJYWdURHI2VVZzYWVRcldDeHpQRlhMTHBLZ3ZLZHRUMjNIazFzVUNHTGQtbVJIZGJNVWEza3I3dExvVDZLaHR1UVkyVVhsSGlCX0MtV2NmOVRDYkdpRG9PaHgzSFNLVUd0OHN3WlhJRzVfX1E0c3g5bjducThD?oc=5</t>
+          <t>https://thehackernews.com/2026/01/new-advanced-linux-voidlink-malware.html</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -5982,17 +5982,17 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Wall St slips on credit card proposal, rate bets boost gold - Reuters</t>
+          <t>Senior Russian official says Greenland could vote to join Russia if Trump does not hurry - Reuters</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiigFBVV95cUxPUVoxcXJ6WjA4UUcwYlJoY1FTVFUyNzJlRVFkU0pvVFIwWDJuTk9NaXVCRFV4ZlRQRUFWQXBhZ05ycHViU09UdzgzdUJ2RE9ndjlwQVVDYXVhcHBVVXZ4V3V1NXU5SC1IVDlYVmljSmFCY0Zhei1wSDJxcWRnX0lqZ0twREl4Rl9ZNHc?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxQWGRiQ1h1elVpU09iYzkzbkNXSkpqT1J0SDRhM1ZzZ3VHcnRFN0o3U3d5cjZiV0U5bGx5bmsyaEwtTnpqam0wYUk1SE9sbzVuUE1neVp5Z1FydFJFRmxia2ljVE1OdWtxV2lWeWotNTZrZl92Wno2cElMcG5zNk1sU0xyMjh6cjNmRHByTzIwTnZFcXppMXlpczJ4NVBhRVRsZW9sVldoR1hGcUxjdkVsMXB5bEcxV3RHaHpNRjZn?oc=5</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6014,17 +6014,17 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>US teachers union says it is leaving X over sexualized AI images of children - Reuters</t>
+          <t>Trump says inflation data means Fed can cut interest rates - Reuters</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPeFlRczdTUUd1bWdNbVhnVTV6TEw3WVVPWURSal9uU1oxYWdyTTd6Nzg4QldFdlk2U1pfVkdlVC1vaHNzYk5DWVhHSWw5MXlETUI4RTZKOGJsRmVNdmFjbmw4dkpfQUhyNENpVHdGRnQ5MHBLSU9jSjREa282Q3VSaEVoNm1ENlhvS3BzWTUyU2MyMndudTJpOVFoc2xkeG5DMklOUUNEZ2EtTnc3UTVEd2FkSnJRbGhhVVNMN1lPem1tcmV6eXY2Qjc5djhhODg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOb1RPV1JkVVVGcXpVb3IwVXMzeHEwNmdnUU8tWktMQmVhMUc4UElTMEJmWkdoTjRrWWJzNmtJRm1vTndoRVF4SGx5R09oSXJaeDlmUEdsYnE4RU1XRHN3SWpCZEN1YTU4MGdVbWwwamoxQ1J1SzVPekdrNkZfVE5QVjR4R0pTYklPX3hDbXBMWkZYVmFwNGV2blc0RXdjT3d2UWs0aWZTaWxXZw?oc=5</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6046,17 +6046,17 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Massive cyberattack on Polish power system in December failed, minister says - Reuters</t>
+          <t>China limits Nvidia chip purchases to special circumstances, Information reports - Reuters</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxNcjE3N3FhUUJKU3VPbm5aTWpsUVFFQmhaQUJfR0h0OGNvQlZVN1BfckZpTTBZNjhzdmxka1lrWFVXa2RxWEwxRHl6ZlNoa2dmSG9ZQkp3X0tRZldjdVZUMkVlUkQwR2REcUdwcmN5R0k4eUx5UkxnUEEwa0s1aGlJS2NjRGVFaDdkV1I1X3gwYmNNbVQxYUc0Rmoxb2g1WnlleUVHcDdacjlXSUJYX0N6bG0wb0JscDlEbWQxRXJPTmtsWmt6a3o3QTlFVy1SZU1C?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxNQU5YR3BRNnBjUndkYWJqNnFnSFlDS2xYYVFycUp5UmZoeExwaUFaeThuaXZKdmlWOS12MU9iN3RwYVcwdmUtd2xQS0lNMkpxYjBCNkZpc09pMWNPSVNCcHVLMHdKYUo2VUx4c0pkajVURmFnU1Qta0tGYkRNdkpsWXIzSHFHNk5YQWZuTTFpUEZneW82aTJZaXJybG8wa0VkWGJ3c2tpNFBrVXdYVXhQY1RFcmU3MjJoTnZqX1ZWZDh4dw?oc=5</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6068,7 +6068,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6078,49 +6078,49 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>US federal prosecutors open inquiry into US Fed chair Powell, NYT reports - Reuters</t>
+          <t>Tomlin steps down as Steelers' coach after 19 seasons - Reuters</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxPZnBOOG80WVFRYXN3ZkktVHc5VmpvejVYLUtMam1uemVkWDRBTnpBZ0dUUWxnVUdxeE5TVXEwOTB4SktMY3FseHQ0VzZLRTYtaW9QaHNINnRWS0ZBckN0b2ptLUp3cmtUWWY2ZnBiQmg5cGRHQ094WFVNNWVuN0tCYkgwS3N4VFhEQ3NnOXFILUVhUU9mbVZzdXZJYzIwZVBfMmdhdDVaUjBha2hSVENOZFpYSXBEaW42?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxNZ3N6RXJfUG5LbjhDMVhRMkxYS2l1UkdiWUF0eU5jRFQyMVpXd3FRLVllNE53WUh6NjRBNVFZU3MtaGpFR1VhdHN6S2hIbUJOS2c2X1hHdS0xWDdnTEFQd0wtaWR6RlF1S1I1UnFVbDI4WWlLdkhNUHpPVm54cWJXV1hYek10WG9ZZG5VSVdnRXRISXF1OEJV?oc=5</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-14T07:52:14Z</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Trump probe of Fed chair stresses need for global diversification - Reuters</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2026/01/12/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNWUtZdWRtOC1FSkp4SEVuVktuMkNBLXAtSXZNOE5FX1doOTdvaFpuNjdaZHNsaVpOMFNFOTlYMC1KdTNKamh1azAxNVlJU2JXVzdrMGZQaXJwTDhqWE9VQXJXRkJSMWgxT3VMQkw0NGZFMTQ4YmNVZGFocHZfcEY3MVhGcXk0WlhtODZKRFRBM0s2QjlIRTBHajEzdEZFNFI4aGVtTVFR?oc=5</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6132,27 +6132,27 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2 Separate Campaigns Probe Corporate LLMs for Secrets</t>
+          <t>Pope Leo to visit Angola as part of an Africa tour, Vatican envoy says - Reuters</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/separate-campaigns-target-exposed-llm-services</t>
+          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxNRndWQmRaMzR3ZXlFbjZQbk0zV1JYSFA1Qy1FVUJSQUVCX3ExVzZnYmFFVUtFdmdpZnl3ZGNzOUFRRWJRTEpCTnloNkFNRUNVcjdBeThPcmZqYVFUbXlfNXduRC1PZkg4WURJVEVTdkRsR24zYjd2amRQZHRhN2NSaXZLLXB3UWZ2b0RiaDNBM0hkYzFuVmNYdHl6VHA0aXNqSy00dg?oc=5</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6164,27 +6164,27 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Hexnode Moves into Endpoint Security With Hexnode XDR</t>
+          <t>Wall Street expects strong fourth-quarter earnings driven by robust US economy - Reuters</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/hexnode-marks-its-move-into-endpoint-security-with-hexnode-xdr</t>
+          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxOUnc1ZC1sYk1ETFVDWUpGQkpkRnlSd0hhVXJKZmF4dlMzREhxV0NGS1VjbFpheEQtZkYyelJtT0gxbGhmb2I1eWtHYzhSaTZlUktabXNhd1N3X0ZQOTJjZXNxdVVYMlRqZVR6MHF0c1AyNEhhZ2gxc19iaTdzWWVQQkhxMFk0amw2YWZVdXUyaVFVZ19rZHp4clIyOVdIMVhxYjdRYWxsSnFDUy1wTGJwNEhYUERRZ3BJRTFzM01hYVppRmotbXpBaVZHVQ?oc=5</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6196,27 +6196,27 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>FBI Flags Quishing Attacks From North Korean APT</t>
+          <t>Polygon targets stablecoin payments with deals worth $250 million - Reuters</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/mobile-security/fbi-quishing-attacks-north-korean-apt</t>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQTXBYdG9GYnhtWGp2MlgzSm0zTGR5QUxFdFAyR2JrZHNLQ1dUaGVBOWQxa2hucUN0VWxXdmdXT1NuYkNiWG54WmloUTJBcFoyYjlLUDJwUVNjT2tBYkFpN3BMNzVDUlMtV0tET3d2cjRMREl6bXJTSm42UTZYUGNLTVFVWlZ4V0luRGdGb1NBcjhaTFlGWnZCZkdJVjBFTDctcC1pYW1SYUVLQ0NVS3c?oc=5</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6228,27 +6228,27 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Multipurpose GoBruteforcer Botnet Targets 50K+ Linux Servers</t>
+          <t>EU to 'swiftly' propose further sanctions on Iran, von der Leyen says - Reuters</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/threat-intelligence/gobruteforcer-botnet-targets-50k-plus-linux-servers</t>
+          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxQblFzQUFWcGxwaEtsVlBPcmdMRExLaS1BekxsaWJTSU14elNKY3ZES1o3LVNPdjJwb1dGT1lGQ3ZaMm1uNDRPc05TLUlkUTRwQ19sODRsbGhSemVoM0NRMC1TVktLandoVkNJNG9wSGJQcVUyb1FpLWpWLWdaQWhFdE5kOEo1SGJLRElnNG52M0p0cTVFeGtjVkR5dGR2OXU3b2xlTg?oc=5</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6260,27 +6260,27 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>GoBruteforcer Botnet Targets Crypto Project Databases by Exploiting Weak Credentials</t>
+          <t>Britain seeks 'reset' in copyright battle between AI and creators - Reuters</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/gobruteforcer-botnet-targets-crypto.html</t>
+          <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQN1RNSkNXMDF2bXVkOVV5VnIyRW5GNk9JMzljdmd1dlB2TVFTLXI3bWMzUGJYWG9JLTFRNHFaUHlqcjlRNjFhQ2c2cDhVMVdqYU91VWYtQ01JRUE0ZTgyLXFVcEowVXYzcGd3bUtLaF9Xa1RORW1CdnBuVmMtakVqbkJFNzZab0w2OUdQaFlFMi04N0NMRU16Nzdfajc3SHRFbHd1ckt0cGNZOU9FcnpoTnEzSS1tQQ?oc=5</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6292,27 +6292,27 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>⚡ Weekly Recap: AI Automation Exploits, Telecom Espionage, Prompt Poaching &amp; More</t>
+          <t>Bill and Hillary Clinton refuse to testify in House Epstein probe, could be held in contempt - Reuters</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/weekly-recap-ai-automation-exploits.html</t>
+          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNbHhxUGFmX3kxTGFGRkxiSGJ1ZlVqZVJQZlhWc3ZyRTU0dmdhaERIYnJJS3NJTVlJYWdURHI2VVZzYWVRcldDeHpQRlhMTHBLZ3ZLZHRUMjNIazFzVUNHTGQtbVJIZGJNVWEza3I3dExvVDZLaHR1UVkyVVhsSGlCX0MtV2NmOVRDYkdpRG9PaHgzSFNLVUd0OHN3WlhJRzVfX1E0c3g5bjducThD?oc=5</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6324,27 +6324,27 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>n8n Supply Chain Attack Abuses Community Nodes to Steal OAuth Tokens</t>
+          <t>Wall St slips on credit card proposal, rate bets boost gold - Reuters</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/n8n-supply-chain-attack-abuses.html</t>
+          <t>https://news.google.com/rss/articles/CBMiigFBVV95cUxPUVoxcXJ6WjA4UUcwYlJoY1FTVFUyNzJlRVFkU0pvVFIwWDJuTk9NaXVCRFV4ZlRQRUFWQXBhZ05ycHViU09UdzgzdUJ2RE9ndjlwQVVDYXVhcHBVVXZ4V3V1NXU5SC1IVDlYVmljSmFCY0Zhei1wSDJxcWRnX0lqZ0twREl4Rl9ZNHc?oc=5</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6356,54 +6356,54 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>As protests rage, Iran pulls the plug on contact with the world - AP News</t>
+          <t>US teachers union says it is leaving X over sexualized AI images of children - Reuters</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxOaVNuSjZ2dkhWdnhHYjFLYUt5X2ppM29ZWk1iSnpSSnMxaGl3MUp3TFFUQWVlZEtJMFBjc05vRjVxMDBKTDR5OHJCbUd5dmF3UHFlSGNoZzlKZk9xR0ZockZneG0wcVpOTTVxc3V6UkFWeFhSV1JYWEFFcDFDcjI1bFY3OXZYREhtV3N3RTFEZHd6OFg5Wmk1U0Q5U0FpalJGLWNMM29SMEdKV0FreEcw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPeFlRczdTUUd1bWdNbVhnVTV6TEw3WVVPWURSal9uU1oxYWdyTTd6Nzg4QldFdlk2U1pfVkdlVC1vaHNzYk5DWVhHSWw5MXlETUI4RTZKOGJsRmVNdmFjbmw4dkpfQUhyNENpVHdGRnQ5MHBLSU9jSjREa282Q3VSaEVoNm1ENlhvS3BzWTUyU2MyMndudTJpOVFoc2xkeG5DMklOUUNEZ2EtTnc3UTVEd2FkSnJRbGhhVVNMN1lPem1tcmV6eXY2Qjc5djhhODg?oc=5</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-14T07:52:14Z</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>MuddyWater Launches RustyWater RAT via Spear-Phishing Across Middle East Sectors</t>
+          <t>Massive cyberattack on Polish power system in December failed, minister says - Reuters</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/muddywater-launches-rustywater-rat-via.html</t>
+          <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxNcjE3N3FhUUJKU3VPbm5aTWpsUVFFQmhaQUJfR0h0OGNvQlZVN1BfckZpTTBZNjhzdmxka1lrWFVXa2RxWEwxRHl6ZlNoa2dmSG9ZQkp3X0tRZldjdVZUMkVlUkQwR2REcUdwcmN5R0k4eUx5UkxnUEEwa0s1aGlJS2NjRGVFaDdkV1I1X3gwYmNNbVQxYUc0Rmoxb2g1WnlleUVHcDdacjlXSUJYX0N6bG0wb0JscDlEbWQxRXJPTmtsWmt6a3o3QTlFVy1SZU1C?oc=5</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6420,7 +6420,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6430,49 +6430,49 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>US military says it carried out strikes across Syria targeting Islamic State - Reuters</t>
+          <t>US federal prosecutors open inquiry into US Fed chair Powell, NYT reports - Reuters</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxNN2E5MFN1TTREVFVMQm5ZRU8tc2hCX3hqV3hhMXNWRWFhY1ZDVVE5cEJ3cGZXajkxQmxxaUMzWmg2LTBGbmE2OENaZGU4Vm9NcHM4V0N1OERtY0RSWVA2aUdTYkdpWEhER1lSLVpSSHVHZk84VENENlh4TXJERnJ4dkJVS2RlMGxjcEFQTEdTbUZuUlgzbW15UzFoX0xHbE0zdFNmZTdzUFMyYXc0cElLcnExYmlMcTY2SlBhd2diVUxjT1dHZTdMOGln?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxPZnBOOG80WVFRYXN3ZkktVHc5VmpvejVYLUtMam1uemVkWDRBTnpBZ0dUUWxnVUdxeE5TVXEwOTB4SktMY3FseHQ0VzZLRTYtaW9QaHNINnRWS0ZBckN0b2ptLUp3cmtUWWY2ZnBiQmg5cGRHQ094WFVNNWVuN0tCYkgwS3N4VFhEQ3NnOXFILUVhUU9mbVZzdXZJYzIwZVBfMmdhdDVaUjBha2hSVENOZFpYSXBEaW42?oc=5</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-15T06:44:44Z</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Russia’s Fancy Bear APT Doubles Down on Global Secrets Theft</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/russian-apt-credentials-global-targets</t>
+          <t>https://www.cisa.gov/news-events/alerts/2026/01/12/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6484,7 +6484,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6494,17 +6494,17 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Illicit Crypto Economy Surges Amid Increased Nation-State Activity</t>
+          <t>2 Separate Campaigns Probe Corporate LLMs for Secrets</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyber-risk/illicit-crypto-economy-surges-nation-states</t>
+          <t>https://www.darkreading.com/endpoint-security/separate-campaigns-target-exposed-llm-services</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6516,7 +6516,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6526,17 +6526,17 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Deepfake Fraud Tools Are Lagging Behind Expectations</t>
+          <t>Hexnode Moves into Endpoint Security With Hexnode XDR</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/deepfake-fraud-tools-lag-expectations</t>
+          <t>https://www.darkreading.com/endpoint-security/hexnode-marks-its-move-into-endpoint-security-with-hexnode-xdr</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6548,27 +6548,27 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>FBI Warns North Korean Hackers Using Malicious QR Codes in Spear-Phishing</t>
+          <t>FBI Flags Quishing Attacks From North Korean APT</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/fbi-warns-north-korean-hackers-using.html</t>
+          <t>https://www.darkreading.com/mobile-security/fbi-quishing-attacks-north-korean-apt</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6580,27 +6580,27 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>CISA Retires 10 Emergency Cybersecurity Directives Issued Between 2019 and 2024</t>
+          <t>Multipurpose GoBruteforcer Botnet Targets 50K+ Linux Servers</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/cisa-retires-10-emergency-cybersecurity.html</t>
+          <t>https://www.darkreading.com/threat-intelligence/gobruteforcer-botnet-targets-50k-plus-linux-servers</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6612,7 +6612,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6622,12 +6622,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Trend Micro Apex Central RCE Flaw Scores 9.8 CVSS in On-Prem Windows Versions</t>
+          <t>GoBruteforcer Botnet Targets Crypto Project Databases by Exploiting Weak Credentials</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/trend-micro-apex-central-rce-flaw.html</t>
+          <t>https://thehackernews.com/2026/01/gobruteforcer-botnet-targets-crypto.html</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6644,7 +6644,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6654,17 +6654,17 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Russian APT28 Runs Credential-Stealing Campaign Targeting Energy and Policy Organizations</t>
+          <t>⚡ Weekly Recap: AI Automation Exploits, Telecom Espionage, Prompt Poaching &amp; More</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/russian-apt28-runs-credential-stealing.html</t>
+          <t>https://thehackernews.com/2026/01/weekly-recap-ai-automation-exploits.html</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -6676,7 +6676,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6686,17 +6686,17 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>China-Linked Hackers Exploit VMware ESXi Zero-Days to Escape Virtual Machines</t>
+          <t>n8n Supply Chain Attack Abuses Community Nodes to Steal OAuth Tokens</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/chinese-linked-hackers-exploit-vmware.html</t>
+          <t>https://thehackernews.com/2026/01/n8n-supply-chain-attack-abuses.html</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -6708,59 +6708,59 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>AP News</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Hitachi Energy Asset Suite</t>
+          <t>As protests rage, Iran pulls the plug on contact with the world - AP News</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-008-01</t>
+          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxOaVNuSjZ2dkhWdnhHYjFLYUt5X2ppM29ZWk1iSnpSSnMxaGl3MUp3TFFUQWVlZEtJMFBjc05vRjVxMDBKTDR5OHJCbUd5dmF3UHFlSGNoZzlKZk9xR0ZockZneG0wcVpOTTVxc3V6UkFWeFhSV1JYWEFFcDFDcjI1bFY3OXZYREhtV3N3RTFEZHd6OFg5Wmk1U0Q5U0FpalJGLWNMM29SMEdKV0FreEcw?oc=5</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2026-01-14T07:52:14Z</t>
+          <t>2026-01-17T06:40:07Z</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>CrowdStrike to Acquire SGNL to Secure Every Identity in the AI Era</t>
+          <t>MuddyWater Launches RustyWater RAT via Spear-Phishing Across Middle East Sectors</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-sgnl/</t>
+          <t>https://thehackernews.com/2026/01/muddywater-launches-rustywater-rat-via.html</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -6772,27 +6772,27 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Here's What Cloud Security's Future Holds for the Year Ahead</t>
+          <t>US military says it carried out strikes across Syria targeting Islamic State - Reuters</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/heres-cloud-security-holds-year-ahead</t>
+          <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxNN2E5MFN1TTREVFVMQm5ZRU8tc2hCX3hqV3hhMXNWRWFhY1ZDVVE5cEJ3cGZXajkxQmxxaUMzWmg2LTBGbmE2OENaZGU4Vm9NcHM4V0N1OERtY0RSWVA2aUdTYkdpWEhER1lSLVpSSHVHZk84VENENlh4TXJERnJ4dkJVS2RlMGxjcEFQTEdTbUZuUlgzbW15UzFoX0xHbE0zdFNmZTdzUFMyYXc0cElLcnExYmlMcTY2SlBhd2diVUxjT1dHZTdMOGln?oc=5</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>クラウド・サプライチェーン</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -6804,7 +6804,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6814,17 +6814,17 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Maximum Severity HPE OneView Flaw Exploited in the Wild</t>
+          <t>Russia’s Fancy Bear APT Doubles Down on Global Secrets Theft</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/vulnerabilities-threats/maximum-severity-hpe-oneview-flaw-exploited</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/russian-apt-credentials-global-targets</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -6836,7 +6836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6846,17 +6846,17 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>CrowdStrike to Buy SGNL to Expand Identity Security Capabilities</t>
+          <t>Illicit Crypto Economy Surges Amid Increased Nation-State Activity</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/crowdsrike-buy-sgnl-expand-identity-security-capabilities</t>
+          <t>https://www.darkreading.com/cyber-risk/illicit-crypto-economy-surges-nation-states</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -6868,27 +6868,27 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Coolify Discloses 11 Critical Flaws Enabling Full Server Compromise on Self-Hosted Instances</t>
+          <t>Deepfake Fraud Tools Are Lagging Behind Expectations</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/coolify-discloses-11-critical-flaws.html</t>
+          <t>https://www.darkreading.com/remote-workforce/deepfake-fraud-tools-lag-expectations</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -6900,7 +6900,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -6910,17 +6910,17 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Researchers Uncover NodeCordRAT Hidden in npm Bitcoin-Themed Packages</t>
+          <t>FBI Warns North Korean Hackers Using Malicious QR Codes in Spear-Phishing</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/researchers-uncover-nodecordrat-hidden.html</t>
+          <t>https://thehackernews.com/2026/01/fbi-warns-north-korean-hackers-using.html</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -6932,7 +6932,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6942,17 +6942,17 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Cisco Patches ISE Security Vulnerability After Public PoC Exploit Release</t>
+          <t>CISA Retires 10 Emergency Cybersecurity Directives Issued Between 2019 and 2024</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/cisco-patches-ise-security.html</t>
+          <t>https://thehackernews.com/2026/01/cisa-retires-10-emergency-cybersecurity.html</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -6964,7 +6964,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -6974,12 +6974,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>The State of Trusted Open Source</t>
+          <t>Trend Micro Apex Central RCE Flaw Scores 9.8 CVSS in On-Prem Windows Versions</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/the-state-of-trusted-open-source.html</t>
+          <t>https://thehackernews.com/2026/01/trend-micro-apex-central-rce-flaw.html</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -6996,7 +6996,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -7006,17 +7006,17 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>ThreatsDay Bulletin: RustFS Flaw, Iranian Ops, WebUI RCE, Cloud Leaks, and 12 More Stories</t>
+          <t>Russian APT28 Runs Credential-Stealing Campaign Targeting Energy and Policy Organizations</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/threatsday-bulletin-rustfs-flaw-iranian.html</t>
+          <t>https://thehackernews.com/2026/01/russian-apt28-runs-credential-stealing.html</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7028,7 +7028,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -7038,17 +7038,17 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>China-Linked UAT-7290 Targets Telecoms with Linux Malware and ORB Nodes</t>
+          <t>China-Linked Hackers Exploit VMware ESXi Zero-Days to Escape Virtual Machines</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/china-linked-uat-7290-targets-telecoms.html</t>
+          <t>https://thehackernews.com/2026/01/chinese-linked-hackers-exploit-vmware.html</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -7065,22 +7065,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>The Hacker News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>WhatsApp Worm Spreads Astaroth Banking Trojan Across Brazil via Contact Auto-Messaging</t>
+          <t>Hitachi Energy Asset Suite</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2026/01/whatsapp-worm-spreads-astaroth-banking.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-008-01</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -7097,17 +7097,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>CrowdStrike to buy identity security startup SGNL for $740 million to tackle AI threats - Reuters</t>
+          <t>CrowdStrike to Acquire SGNL to Secure Every Identity in the AI Era</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxPWlhETmluVjRhN2hIZzFjdFdKcTkwUGJXeGJKeGxnekxmR1dYaE1SNEJwWGJzWFVWanl6bkRYcWlkQzBYNVJFY0pWWDh4bE4wcGw5Vk5IWDZEcklwS1o1VkE4aDVHOG9sd1QxaUNObDJFWVVUTnJVWXpibkNTM0FmRWhTQ3hHS0lFaFlBUVdvb2Y4aTNGbTkxbFVmXzJWZlVRczloTE8xR2M3M1NfeU1fcnVCOTlzbmY5R0lVOTVYaFM?oc=5</t>
+          <t>https://www.crowdstrike.com/en-us/blog/crowdstrike-to-acquire-sgnl/</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -7124,27 +7124,27 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>CISA Adds Two Known Exploited Vulnerabilities to Catalog</t>
+          <t>Here's What Cloud Security's Future Holds for the Year Ahead</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2026/01/07/cisa-adds-two-known-exploited-vulnerabilities-catalog</t>
+          <t>https://www.darkreading.com/cloud-security/heres-cloud-security-holds-year-ahead</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>クラウド・サプライチェーン</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -7156,27 +7156,27 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Explore the latest Microsoft Incident Response proactive services for enhanced resilience</t>
+          <t>Maximum Severity HPE OneView Flaw Exploited in the Wild</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2026/01/07/explore-the-latest-microsoft-incident-response-proactive-services-for-enhanced-resilience/</t>
+          <t>https://www.darkreading.com/vulnerabilities-threats/maximum-severity-hpe-oneview-flaw-exploited</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -7188,7 +7188,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -7198,12 +7198,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Lack of MFA Is Common Thread in Vast Cloud Credential Heist</t>
+          <t>CrowdStrike to Buy SGNL to Expand Identity Security Capabilities</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/lack-mfa-common-thread-vast-cloud-credential-heist</t>
+          <t>https://www.darkreading.com/endpoint-security/crowdsrike-buy-sgnl-expand-identity-security-capabilities</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -7220,27 +7220,27 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>DDoSia Powers Affiliate-Driven Hacktivist Attacks</t>
+          <t>Coolify Discloses 11 Critical Flaws Enabling Full Server Compromise on Self-Hosted Instances</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/ddosia-powers-volunteer-driven-hacktivist-attacks</t>
+          <t>https://thehackernews.com/2026/01/coolify-discloses-11-critical-flaws.html</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -7252,22 +7252,22 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Cyberattacks Likely Part of Military Operation in Venezuela</t>
+          <t>Researchers Uncover NodeCordRAT Hidden in npm Bitcoin-Themed Packages</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cybersecurity-operations/cyberattacks-part-military-operation-venezuela</t>
+          <t>https://thehackernews.com/2026/01/researchers-uncover-nodecordrat-hidden.html</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -7284,22 +7284,22 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Phishers Exploit Office 365 Users Who Let Their Guard Down</t>
+          <t>Cisco Patches ISE Security Vulnerability After Public PoC Exploit Release</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cloud-security/phishers-exploit-office-365-users-guard-down</t>
+          <t>https://thehackernews.com/2026/01/cisco-patches-ise-security.html</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -7316,22 +7316,22 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Attackers Exploit Zero-Day in End-of-Life D-Link Routers</t>
+          <t>The State of Trusted Open Source</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/attackers-exploit-zero-day-end-of-life-d-link-routers</t>
+          <t>https://thehackernews.com/2026/01/the-state-of-trusted-open-source.html</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -7348,27 +7348,27 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Columbia Weather Systems MicroServer</t>
+          <t>ThreatsDay Bulletin: RustFS Flaw, Iranian Ops, WebUI RCE, Cloud Leaks, and 12 More Stories</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-006-01</t>
+          <t>https://thehackernews.com/2026/01/threatsday-bulletin-rustfs-flaw-iranian.html</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -7380,22 +7380,22 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>How CrowdStrike&amp;rsquo;s Malware Analysis Agent Detects Malware at Machine Speed</t>
+          <t>China-Linked UAT-7290 Targets Telecoms with Linux Malware and ORB Nodes</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/how-crowdstrike-detects-malware-at-machine-speed/</t>
+          <t>https://thehackernews.com/2026/01/china-linked-uat-7290-targets-telecoms.html</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -7412,27 +7412,27 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>The Hacker News</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Phishing actors exploit complex routing and misconfigurations to spoof domains</t>
+          <t>WhatsApp Worm Spreads Astaroth Banking Trojan Across Brazil via Contact Auto-Messaging</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2026/01/06/phishing-actors-exploit-complex-routing-and-misconfigurations-to-spoof-domains/</t>
+          <t>https://thehackernews.com/2026/01/whatsapp-worm-spreads-astaroth-banking.html</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -7444,27 +7444,27 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>ClickFix Campaign Serves Up Fake Blue Screen of Death</t>
+          <t>CrowdStrike to buy identity security startup SGNL for $740 million to tackle AI threats - Reuters</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/cyberattacks-data-breaches/clickfix-campaign-fake-blue-screen-of-death</t>
+          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxPWlhETmluVjRhN2hIZzFjdFdKcTkwUGJXeGJKeGxnekxmR1dYaE1SNEJwWGJzWFVWanl6bkRYcWlkQzBYNVJFY0pWWDh4bE4wcGw5Vk5IWDZEcklwS1o1VkE4aDVHOG9sd1QxaUNObDJFWVVUTnJVWXpibkNTM0FmRWhTQ3hHS0lFaFlBUVdvb2Y4aTNGbTkxbFVmXzJWZlVRczloTE8xR2M3M1NfeU1fcnVCOTlzbmY5R0lVOTVYaFM?oc=5</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -7476,27 +7476,27 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Advisor360 Gets a Handle on Shadow AI via Automation</t>
+          <t>CISA Adds Two Known Exploited Vulnerabilities to Catalog</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/remote-workforce/advisor360-gets-handle-on-shadow-ai-via-automation</t>
+          <t>https://www.cisa.gov/news-events/alerts/2026/01/07/cisa-adds-two-known-exploited-vulnerabilities-catalog</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -7508,22 +7508,22 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Startup Trends Shaking Up Browsers, SOC Automation, AppSec</t>
+          <t>Explore the latest Microsoft Incident Response proactive services for enhanced resilience</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>https://www.darkreading.com/endpoint-security/startup-trends-shaking-up-browsers-soc-automation-appsec</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/07/explore-the-latest-microsoft-incident-response-proactive-services-for-enhanced-resilience/</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -7540,27 +7540,27 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>VVS Discord Stealer Using Pyarmor for Obfuscation and Detection Evasion</t>
+          <t>Lack of MFA Is Common Thread in Vast Cloud Credential Heist</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/vvs-stealer/</t>
+          <t>https://www.darkreading.com/cloud-security/lack-mfa-common-thread-vast-cloud-credential-heist</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -7572,27 +7572,27 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>CISA Releases Two Industrial Control Systems Advisories</t>
+          <t>DDoSia Powers Affiliate-Driven Hacktivist Attacks</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/30/cisa-releases-two-industrial-control-systems-advisories</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/ddosia-powers-volunteer-driven-hacktivist-attacks</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -7604,22 +7604,22 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>WHILL Model C2 Electric Wheelchairs and Model F Power Chairs</t>
+          <t>Cyberattacks Likely Part of Military Operation in Venezuela</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-medical-advisories/icsma-25-364-01</t>
+          <t>https://www.darkreading.com/cybersecurity-operations/cyberattacks-part-military-operation-venezuela</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -7636,22 +7636,22 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Phishers Exploit Office 365 Users Who Let Their Guard Down</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/29/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.darkreading.com/cloud-security/phishers-exploit-office-365-users-guard-down</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -7668,27 +7668,27 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Streamline Security Operations with Falcon for IT&amp;rsquo;s Turnkey Automations</t>
+          <t>Attackers Exploit Zero-Day in End-of-Life D-Link Routers</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/streamline-security-operations-falcon-for-it-automations/</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/attackers-exploit-zero-day-end-of-life-d-link-routers</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -7700,22 +7700,22 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>A power outage can turn dangerous fast. Here’s how to prepare - AP News</t>
+          <t>Columbia Weather Systems MicroServer</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOYWEwWVN1SmpIaWxleEJ5QkZYcnNhczJ0UHo5NEgwYnlXOGZFNURlTTU2MWkyMkpiWXlPLWJtdjItekppdW9iZnVKQ05OZEtaQ0ppTUJ4LTNkc2Fta3lXYlFPY2gzVWNhQ2U4dGtCcWZ6YlFlblNXMk9jUjJ3WThXaWNVVDlGUDJ0S2hTeFBySG50ajlOOTlCUnRONlJGdnlvelZESlA3cEdEUQ?oc=5</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-26-006-01</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7732,27 +7732,27 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>CISA Releases One Industrial Control Systems Advisory</t>
+          <t>How CrowdStrike&amp;rsquo;s Malware Analysis Agent Detects Malware at Machine Speed</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/23/cisa-releases-one-industrial-control-systems-advisory</t>
+          <t>https://www.crowdstrike.com/en-us/blog/how-crowdstrike-detects-malware-at-machine-speed/</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>規制・ガバナンス</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -7764,27 +7764,27 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>NIST and CISA Release Draft Interagency Report on Protecting Tokens and Assertions from Tampering Theft and Misuse for Public Comment</t>
+          <t>Phishing actors exploit complex routing and misconfigurations to spoof domains</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/nist-and-cisa-release-draft-interagency-report-protecting-tokens-and-assertions-tampering-theft-and</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2026/01/06/phishing-actors-exploit-complex-routing-and-misconfigurations-to-spoof-domains/</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -7796,27 +7796,27 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>ClickFix Campaign Serves Up Fake Blue Screen of Death</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.darkreading.com/cyberattacks-data-breaches/clickfix-campaign-fake-blue-screen-of-death</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -7828,27 +7828,27 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Advisor360 Gets a Handle on Shadow AI via Automation</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.darkreading.com/remote-workforce/advisor360-gets-handle-on-shadow-ai-via-automation</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -7860,27 +7860,27 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>Dark Reading</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>CISA and Partners Release Update to Malware Analysis Report BRICKSTORM Backdoor</t>
+          <t>Startup Trends Shaking Up Browsers, SOC Automation, AppSec</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-and-partners-release-update-malware-analysis-report-brickstorm-backdoor</t>
+          <t>https://www.darkreading.com/endpoint-security/startup-trends-shaking-up-browsers-soc-automation-appsec</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -7892,27 +7892,27 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Inside CrowdStrike&amp;rsquo;s Science-Backed Approach to Building Expert SOC Agents</t>
+          <t>VVS Discord Stealer Using Pyarmor for Obfuscation and Detection Evasion</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>https://www.crowdstrike.com/en-us/blog/inside-crowdstrikes-science-backed-approach-to-building-soc-agents/</t>
+          <t>https://unit42.paloaltonetworks.com/vvs-stealer/</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -7924,7 +7924,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7934,12 +7934,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>CISA Releases Nine Industrial Control Systems Advisories</t>
+          <t>CISA Releases Two Industrial Control Systems Advisories</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/18/cisa-releases-nine-industrial-control-systems-advisories</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/30/cisa-releases-two-industrial-control-systems-advisories</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -7956,7 +7956,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -7966,17 +7966,17 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Mitsubishi Electric Iconics Digital Solutions and Mitsubishi Electrics Products</t>
+          <t>WHILL Model C2 Electric Wheelchairs and Model F Power Chairs</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-04</t>
+          <t>https://www.cisa.gov/news-events/ics-medical-advisories/icsma-25-364-01</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -7988,7 +7988,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -7998,17 +7998,17 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Axis Communications Camera Station Pro, Camera Station, and Device Manager</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-08</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/29/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -8020,27 +8020,27 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Rockwell Automation Micro820, Micro850, Micro870</t>
+          <t>Streamline Security Operations with Falcon for IT&amp;rsquo;s Turnkey Automations</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-07</t>
+          <t>https://www.crowdstrike.com/en-us/blog/streamline-security-operations-falcon-for-it-automations/</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -8052,22 +8052,22 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>CISA</t>
+          <t>AP News</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>National Instruments LabView</t>
+          <t>A power outage can turn dangerous fast. Here’s how to prepare - AP News</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-03</t>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxOYWEwWVN1SmpIaWxleEJ5QkZYcnNhczJ0UHo5NEgwYnlXOGZFNURlTTU2MWkyMkpiWXlPLWJtdjItekppdW9iZnVKQ05OZEtaQ0ppTUJ4LTNkc2Fta3lXYlFPY2gzVWNhQ2U4dGtCcWZ6YlFlblNXMk9jUjJ3WThXaWNVVDlGUDJ0S2hTeFBySG50ajlOOTlCUnRONlJGdnlvelZESlA3cEdEUQ?oc=5</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -8084,7 +8084,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -8094,17 +8094,17 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Advantech WebAccess/SCADA</t>
+          <t>CISA Releases One Industrial Control Systems Advisory</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-06</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/23/cisa-releases-one-industrial-control-systems-advisory</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -8116,7 +8116,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -8126,17 +8126,17 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Siemens Interniche IP-Stack</t>
+          <t>NIST and CISA Release Draft Interagency Report on Protecting Tokens and Assertions from Tampering Theft and Misuse for Public Comment</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-05</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/nist-and-cisa-release-draft-interagency-report-protecting-tokens-and-assertions-tampering-theft-and</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -8148,7 +8148,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -8158,17 +8158,17 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Inductive Automation Ignition</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-01</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/22/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -8180,7 +8180,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -8190,17 +8190,17 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Schneider Electric EcoStruxure Foxboro DCS Advisor</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-02</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -8212,7 +8212,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -8222,17 +8222,17 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>CISA Adds Three Known Exploited Vulnerabilities to Catalog</t>
+          <t>CISA and Partners Release Update to Malware Analysis Report BRICKSTORM Backdoor</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/17/cisa-adds-three-known-exploited-vulnerabilities-catalog</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/19/cisa-and-partners-release-update-malware-analysis-report-brickstorm-backdoor</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -8244,27 +8244,27 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Access Fabric: A modern approach to identity and network access</t>
+          <t>Inside CrowdStrike&amp;rsquo;s Science-Backed Approach to Building Expert SOC Agents</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2025/12/17/access-fabric-a-modern-approach-to-identity-and-network-access/</t>
+          <t>https://www.crowdstrike.com/en-us/blog/inside-crowdstrikes-science-backed-approach-to-building-soc-agents/</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>ID・認証</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -8276,7 +8276,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -8286,17 +8286,17 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Mitsubishi Electric GT Designer3</t>
+          <t>CISA Releases Nine Industrial Control Systems Advisories</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-04</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/18/cisa-releases-nine-industrial-control-systems-advisories</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>規制・ガバナンス</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -8308,7 +8308,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -8318,12 +8318,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Hitachi Energy AFS, AFR and AFF Series</t>
+          <t>Mitsubishi Electric Iconics Digital Solutions and Mitsubishi Electrics Products</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-03</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-04</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -8340,7 +8340,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -8350,12 +8350,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Johnson Controls PowerG, IQPanel and IQHub</t>
+          <t>Axis Communications Camera Station Pro, Camera Station, and Device Manager</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-02</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-08</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -8372,7 +8372,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -8382,17 +8382,17 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
+          <t>Rockwell Automation Micro820, Micro850, Micro870</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>https://www.cisa.gov/news-events/alerts/2025/12/16/cisa-adds-one-known-exploited-vulnerability-catalog</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-07</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -8404,27 +8404,27 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Microsoft named an overall leader in KuppingerCole Leadership Compass for Generative AI Defense</t>
+          <t>National Instruments LabView</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/blog/microsoft-security-blog/microsoft-named-an-overall-leader-in-kuppingercole-leadership-compass-for-genera/4478093</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-03</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -8436,27 +8436,27 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Defending against the CVE-2025-55182 (React2Shell) vulnerability in React Server Components</t>
+          <t>Advantech WebAccess/SCADA</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2025/12/15/defending-against-the-cve-2025-55182-react2shell-vulnerability-in-react-server-components/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-06</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -8468,27 +8468,27 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Exploitation of Critical Vulnerability in React Server Components (Updated December 12)</t>
+          <t>Siemens Interniche IP-Stack</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/cve-2025-55182-react-and-cve-2025-66478-next/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-05</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -8500,27 +8500,27 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Hamas-Affiliated Ashen Lepus Targets Middle Eastern Diplomatic Entities With New AshTag Malware Suite</t>
+          <t>Inductive Automation Ignition</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/hamas-affiliate-ashen-lepus-uses-new-malware-suite-ashtag/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-01</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -8532,27 +8532,27 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Microsoft Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Imposter for hire: How fake people can gain very real access</t>
+          <t>Schneider Electric EcoStruxure Foxboro DCS Advisor</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/security/blog/2025/12/11/imposter-for-hire-how-fake-people-can-gain-very-real-access/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-352-02</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -8564,27 +8564,27 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>01flip: Multi-Platform Ransomware Written in Rust</t>
+          <t>CISA Adds Three Known Exploited Vulnerabilities to Catalog</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/new-ransomware-01flip-written-in-rust/</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/17/cisa-adds-three-known-exploited-vulnerabilities-catalog</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>ランサムウェア</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -8596,7 +8596,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -8606,17 +8606,17 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>From awareness to action: Building a security-first culture for the agentic AI era</t>
+          <t>Access Fabric: A modern approach to identity and network access</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-us/microsoft-cloud/blog/2025/12/10/from-awareness-to-action-building-a-security-first-culture-for-the-agentic-ai-era/</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2025/12/17/access-fabric-a-modern-approach-to-identity-and-network-access/</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>ID・認証</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -8628,27 +8628,27 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Further Hardening Android GPUs</t>
+          <t>Mitsubishi Electric GT Designer3</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/12/further-hardening-android-gpus.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-04</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -8660,27 +8660,27 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Android expands pilot for in-call scam protection for financial apps</t>
+          <t>Hitachi Energy AFS, AFR and AFF Series</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/12/android-expands-pilot-in-call-scam-protection-financial-apps.html</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-03</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -8692,22 +8692,22 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>The Golden Scale: 'Tis the Season for Unwanted Gifts</t>
+          <t>Johnson Controls PowerG, IQPanel and IQHub</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/new-shinysp1d3r-ransomware/</t>
+          <t>https://www.cisa.gov/news-events/ics-advisories/icsa-25-350-02</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -8724,27 +8724,27 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Palo Alto Unit 42</t>
+          <t>CISA</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>"Shai-Hulud" Worm Compromises npm Ecosystem in Supply Chain Attack (Updated November 26)</t>
+          <t>CISA Adds One Known Exploited Vulnerability to Catalog</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>https://unit42.paloaltonetworks.com/npm-supply-chain-attack/</t>
+          <t>https://www.cisa.gov/news-events/alerts/2025/12/16/cisa-adds-one-known-exploited-vulnerability-catalog</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>クラウド・サプライチェーン</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -8756,27 +8756,27 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Android Quick Share Support for AirDrop: A Secure Approach to Cross-Platform File Sharing</t>
+          <t>Microsoft named an overall leader in KuppingerCole Leadership Compass for Generative AI Defense</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/11/android-quick-share-support-for-airdrop-security.html</t>
+          <t>https://techcommunity.microsoft.com/blog/microsoft-security-blog/microsoft-named-an-overall-leader-in-kuppingercole-leadership-compass-for-genera/4478093</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -8788,27 +8788,27 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Rust in Android: move fast and fix things</t>
+          <t>Defending against the CVE-2025-55182 (React2Shell) vulnerability in React Server Components</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/11/rust-in-android-move-fast-fix-things.html</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2025/12/15/defending-against-the-cve-2025-55182-react2shell-vulnerability-in-react-server-components/</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -8820,27 +8820,27 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>How Android provides the most effective protection to keep you safe from mobile scams</t>
+          <t>Exploitation of Critical Vulnerability in React Server Components (Updated December 12)</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/10/how-android-protects-you-from-scams.html</t>
+          <t>https://unit42.paloaltonetworks.com/cve-2025-55182-react-and-cve-2025-66478-next/</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -8852,22 +8852,22 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Microsoft: Russia, China increasingly using AI to escalate cyberattacks on the US - AP News</t>
+          <t>Hamas-Affiliated Ashen Lepus Targets Middle Eastern Diplomatic Entities With New AshTag Malware Suite</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxOREVSR1U5TUI4M1dZcE91Uk1FUlRPVm1YSk1tMXZqZXVTNUV0aF8yOFB3YnhiSWdiallOUndHai1BSzBqMEFzb3U4MVBvbnFsbS10MUhKQVJYQ1JZajAtODkxbzBEN2Z1a0FTUnZOekkyXy1jRjU4MzlYTkh5cFFKUndUZnN1bTJIVFpVTUxLWHZJNTZHT0ZkeGVmSElmQkI4QXBhd0JpZzJrenU3TGc?oc=5</t>
+          <t>https://unit42.paloaltonetworks.com/hamas-affiliate-ashen-lepus-uses-new-malware-suite-ashtag/</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -8884,27 +8884,27 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Accelerating adoption of AI for cybersecurity at DEF CON 33</t>
+          <t>Imposter for hire: How fake people can gain very real access</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/09/accelerating-adoption-of-ai-for.html</t>
+          <t>https://www.microsoft.com/en-us/security/blog/2025/12/11/imposter-for-hire-how-fake-people-can-gain-very-real-access/</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -8916,27 +8916,27 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>How Pixel and Android are bringing a new level of trust to your images with C2PA Content Credentials</t>
+          <t>01flip: Multi-Platform Ransomware Written in Rust</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/09/pixel-android-trusted-images-c2pa-content-credentials.html</t>
+          <t>https://unit42.paloaltonetworks.com/new-ransomware-01flip-written-in-rust/</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>ランサムウェア</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -8948,27 +8948,27 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Microsoft Security Blog</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Android’s pKVM Becomes First Globally Certified Software to Achieve Prestigious SESIP Level 5 Security Certification</t>
+          <t>From awareness to action: Building a security-first culture for the agentic AI era</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/08/Android-pKVM-Certified-SESIP-Level-5.html</t>
+          <t>https://www.microsoft.com/en-us/microsoft-cloud/blog/2025/12/10/from-awareness-to-action-building-a-security-first-culture-for-the-agentic-ai-era/</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>フィッシング</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -8980,22 +8980,22 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Army secretary directs West Point to rescind appointment of Biden-era cybersecurity director - AP News</t>
+          <t>Further Hardening Android GPUs</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxNdVB0N2dnVF9IeEtXcFRjc0hXZEZad2pudUNuSGRacEJMSDJLOUdLNDFuODBVbUpfc1RDay04cHpPdHQ1M3JQTGRvLUo4NEdHUDFBZDRVdjdxZ0ZpNXFyNXZLOHhiZVhOX1o1VnNlRE1XbWhFc1VNWlBaem5LSUpFR2d6WURMbWhodGdfZEx1NDFQV05wRUZrWWlqTEI0czA?oc=5</t>
+          <t>http://security.googleblog.com/2025/12/further-hardening-android-gpus.html</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -9012,7 +9012,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -9022,17 +9022,17 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Introducing OSS Rebuild: Open Source, Rebuilt to Last</t>
+          <t>Android expands pilot for in-call scam protection for financial apps</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/07/introducing-oss-rebuild-open-source.html</t>
+          <t>http://security.googleblog.com/2025/12/android-expands-pilot-in-call-scam-protection-financial-apps.html</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -9044,27 +9044,27 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>The Czech Republic bans DeepSeek in state administration over cybersecurity concerns - AP News</t>
+          <t>The Golden Scale: 'Tis the Season for Unwanted Gifts</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxPZHhUOFhYS0FhbHVLVEhLd213ODdQdU56eG0yQkw3N3lqRzMxWTNnLVdHZF9URFAzazNRUFVTeFVfanIxU2FFOFhuZEdSLW43dWZqQnBfOGZnQ0xpTThTeW84RE9wZ0UtUjZSNElZMFV6cF9PWFB0WFI0OVRmN0hUVmhMTHg2SnZKZHhCMA?oc=5</t>
+          <t>https://unit42.paloaltonetworks.com/new-shinysp1d3r-ransomware/</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>その他</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -9076,27 +9076,27 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>Palo Alto Unit 42</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Advancing Protection in Chrome on Android</t>
+          <t>"Shai-Hulud" Worm Compromises npm Ecosystem in Supply Chain Attack (Updated November 26)</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/07/advancing-protection-in-chrome-on.html</t>
+          <t>https://unit42.paloaltonetworks.com/npm-supply-chain-attack/</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>クラウド・サプライチェーン</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -9108,22 +9108,22 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Iranian-backed hackers go to work after US strikes - AP News</t>
+          <t>Android Quick Share Support for AirDrop: A Secure Approach to Cross-Platform File Sharing</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPX1RpNnA2Q1RHUS1RUXhINGkwTmhrZnN1QWxlREQ1WXBkblFEVnZqVVppRzhHeGxiWGFUM2ZXc2JVUW1JMkQzcFJDTGMydlRRS2Z5Vnd4YU9HY1JGWU01bVZfMjk1dzBBTG1yeGhDOHduc2lEdjBjcTNZQ3NGaDkwaVYxUHVmMmM1anNFXzlOR3YxSG0zR3hF?oc=5</t>
+          <t>http://security.googleblog.com/2025/11/android-quick-share-support-for-airdrop-security.html</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -9140,27 +9140,27 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Dutch government says pro-Russian hackers target municipalities linked to this week's NATO summit - AP News</t>
+          <t>Rust in Android: move fast and fix things</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQNS1FNE9zWXZEbl9qUjBIdmhLWWFsZS1iRXQ2bnZPZlhSZUJNMm1pZ1VTcnM2Y1gycjZveTNyRk9RYVRETWd5WlVpNzA0VGJOZmN4SnlacURmNXY5WXBxejJNWmhtRHl1ZEdZTDZab2lrWDV3aVBBVkRXZ1RIV00ydVlaWWJlNnV1blgtUWJWc3NmTG1yT1I0c05tTHZtYk5kanQzX3dsVFVIYS01T0E?oc=5</t>
+          <t>http://security.googleblog.com/2025/11/rust-in-android-move-fast-fix-things.html</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>APT・国家系</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -9172,7 +9172,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -9182,17 +9182,17 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Mitigating prompt injection attacks with a layered defense strategy</t>
+          <t>How Android provides the most effective protection to keep you safe from mobile scams</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/06/mitigating-prompt-injection-attacks.html</t>
+          <t>http://security.googleblog.com/2025/10/how-android-protects-you-from-scams.html</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -9204,27 +9204,27 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Google Security Blog</t>
+          <t>AP News</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>What’s New in Android Security and Privacy in 2025</t>
+          <t>Microsoft: Russia, China increasingly using AI to escalate cyberattacks on the US - AP News</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/05/whats-new-in-android-security-privacy-2025.html</t>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxOREVSR1U5TUI4M1dZcE91Uk1FUlRPVm1YSk1tMXZqZXVTNUV0aF8yOFB3YnhiSWdiallOUndHai1BSzBqMEFzb3U4MVBvbnFsbS10MUhKQVJYQ1JZajAtODkxbzBEN2Z1a0FTUnZOekkyXy1jRjU4MzlYTkh5cFFKUndUZnN1bTJIVFpVTUxLWHZJNTZHT0ZkeGVmSElmQkI4QXBhd0JpZzJrenU3TGc?oc=5</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -9236,7 +9236,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -9246,17 +9246,17 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>New security requirements adopted by HTTPS certificate industry</t>
+          <t>Accelerating adoption of AI for cybersecurity at DEF CON 33</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/03/new-security-requirements-adopted-by.html</t>
+          <t>http://security.googleblog.com/2025/09/accelerating-adoption-of-ai-for.html</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -9268,27 +9268,27 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Google to buy cybersecurity firm Wiz for $32 billion in the biggest deal in company’s history - AP News</t>
+          <t>How Pixel and Android are bringing a new level of trust to your images with C2PA Content Credentials</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxQVENFcGdMVURrVk9GZFVXN0NmOXZfZlZMVW9GTlRkX3dERklXeFEzcndndDAtZjN1dmRNZGZ6NFdCdTd4Ym43TS1kZ25NdkZrR21QUlpWbnlLVjRUSGNZZXJhczdWd0NtRmhMT2dXSExyaFdjeWZVOHVxSDd2V3ZPRURHS0oya1QzNmtRWU5GZ202Sktv?oc=5</t>
+          <t>http://security.googleblog.com/2025/09/pixel-android-trusted-images-c2pa-content-credentials.html</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -9300,7 +9300,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -9310,17 +9310,17 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Announcing OSV-Scanner V2: Vulnerability scanner and remediation tool for open source</t>
+          <t>Android’s pKVM Becomes First Globally Certified Software to Achieve Prestigious SESIP Level 5 Security Certification</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>http://security.googleblog.com/2025/03/announcing-osv-scanner-v2-vulnerability.html</t>
+          <t>http://security.googleblog.com/2025/08/Android-pKVM-Certified-SESIP-Level-5.html</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>フィッシング</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -9332,7 +9332,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -9342,17 +9342,17 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Trump administration halts funding for two cybersecurity efforts, including one for elections - AP News</t>
+          <t>Army secretary directs West Point to rescind appointment of Biden-era cybersecurity director - AP News</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxQeXJVUGp0Y1F2U196TVZmMjJ6QlZ5MzRRVU83N19yaXR5eC1GemYyUlcxWjYtYTNoOGw5dGNkRG5BM3cwTGtTSWx3ZkFhY0lnRzZWLXdtY0FobjZOZG1tM0RUWng2MEVqY3dIOXdrRmoxNk9CeTVPX1phdkszUVNHMXNXVmdBQzZ4QURFVy01dWRtNHdLaHFEY1E2NmNtWWIwdFE?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxNdVB0N2dnVF9IeEtXcFRjc0hXZEZad2pudUNuSGRacEJMSDJLOUdLNDFuODBVbUpfc1RDay04cHpPdHQ1M3JQTGRvLUo4NEdHUDFBZDRVdjdxZ0ZpNXFyNXZLOHhiZVhOX1o1VnNlRE1XbWhFc1VNWlBaem5LSUpFR2d6WURMbWhodGdfZEx1NDFQV05wRUZrWWlqTEI0czA?oc=5</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -9364,39 +9364,39 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>US cyber agency puts election security staffers who worked with the states on leave - AP News</t>
+          <t>Introducing OSS Rebuild: Open Source, Rebuilt to Last</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQSjZEWnc5TmtXcVVUMVhmZTl3UjRHUmE1ZG16d0JoaEpEdEpJdGQxY2dPZ0pQQ2Zwc0dKZzAwem5SVG53eENzMHlPX0JTY0xiWVNwUWNPZ3R2ZVQ1dlM5ZzBQYVlJMmpvM3hMSU5LUXJYeXpEOFBkVllLN1RRVURkejM0My1pRjlJejhaRkd6bThUa2xMeHBOY3JQQkhwZ25VVFhWNXkxbVAtUVlE?oc=5</t>
+          <t>http://security.googleblog.com/2025/07/introducing-oss-rebuild-open-source.html</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2026-01-15T06:44:44Z</t>
+          <t>2026-01-14T07:52:14Z</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -9406,12 +9406,12 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>US cybersecurity agency's future role in elections remains murky under the Trump administration - AP News</t>
+          <t>The Czech Republic bans DeepSeek in state administration over cybersecurity concerns - AP News</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPMnRHWXk2WkZpWVRaZ2h5U3h0cWR1WlF6a3RnSGdBWE5pcTRITWxhbE51anlTZm00WlBsVW9xenlQMzQyd3VqM3Jjdm04LVhrakpzLW5HSlRuTFBjV2ZNSTU0b3ZUUERFX3o1Q0lodzI4XzNjdVhKNEVIUGduZ1NFNHVwYVIyTEp1VUg5cmhEZkQ4Zk40NkN6Rmc5eUFnTmZQVWdPbnJkYTJRQQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxPZHhUOFhYS0FhbHVLVEhLd213ODdQdU56eG0yQkw3N3lqRzMxWTNnLVdHZF9URFAzazNRUFVTeFVfanIxU2FFOFhuZEdSLW43dWZqQnBfOGZnQ0xpTThTeW84RE9wZ0UtUjZSNElZMFV6cF9PWFB0WFI0OVRmN0hUVmhMTHg2SnZKZHhCMA?oc=5</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -9428,22 +9428,22 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Delta sues cybersecurity firm CrowdStrike over tech outage that canceled flights - AP News</t>
+          <t>Advancing Protection in Chrome on Android</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxOWWhiMEtqTE91UDVReXk4cndIVW82MzZOb3o3ZnVqZG9fT29vSnJfeXU1cjZFMk9aSkY5b3lIcmw3LTRHZThZenE1SEtLV2F2dW9JbU5KdnBNTklQZS0yS0NyVU9lZW1YWHpiSXA3Y2NkVTB2QlZEOEJhckNJY3R4VFBUcDVSZzcwNEprbWwwS21CeVF3aHJlWkVaci1TbFRtMm5V?oc=5</t>
+          <t>http://security.googleblog.com/2025/07/advancing-protection-in-chrome-on.html</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -9460,7 +9460,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -9470,17 +9470,17 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Cybersecurity head says there's no chance a foreign adversary can change US election results - AP News</t>
+          <t>Iranian-backed hackers go to work after US strikes - AP News</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxPdV9seHI5VHlIQ1R5TTVkdXo2OFdJZmZRcHZRZ29GQm1QYTljdGJSbmRwcDQ1RmxkSF9XZEsyaFZ5ZHNqRTJvMmRwblQxNkFLc2xiaTAtS2hLeDFLV2tpaExYVHNRSGlRRjBGTXVzbHFMS2haSTNZak9INXBqODJQd1hIUlAxLXZ4Y3dWaDJmV1JLMFpCekxkUVBWR192TUVmVVdKSGhaY0JOUHhSWnc?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPX1RpNnA2Q1RHUS1RUXhINGkwTmhrZnN1QWxlREQ1WXBkblFEVnZqVVppRzhHeGxiWGFUM2ZXc2JVUW1JMkQzcFJDTGMydlRRS2Z5Vnd4YU9HY1JGWU01bVZfMjk1dzBBTG1yeGhDOHduc2lEdjBjcTNZQ3NGaDkwaVYxUHVmMmM1anNFXzlOR3YxSG0zR3hF?oc=5</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -9492,7 +9492,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -9502,49 +9502,49 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>CrowdStrike executive apologizes to Congress for July global tech outage - AP News</t>
+          <t>Dutch government says pro-Russian hackers target municipalities linked to this week's NATO summit - AP News</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPazZac1hqU1pOQ1FUanRrRVE2cGt3T3BYZktPY3Vfblc5cERZWUhTckxuMFAxQ2NlSEphbU1XdUlFNUZvZXBMb2tjUG1ObEtSWU80MTl3MVlrb2hmT3RVa0NaRzFPeFE0MGptTzNkTVVhZ1NXSkFXQnJPaUlUcm9DVDNOX01oT0xtR0tvYXkyNlgzUFFoM08wWkcwb2MtcUVJZkJkZjhsNXM?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQNS1FNE9zWXZEbl9qUjBIdmhLWWFsZS1iRXQ2bnZPZlhSZUJNMm1pZ1VTcnM2Y1gycjZveTNyRk9RYVRETWd5WlVpNzA0VGJOZmN4SnlacURmNXY5WXBxejJNWmhtRHl1ZEdZTDZab2lrWDV3aVBBVkRXZ1RIV00ydVlaWWJlNnV1blgtUWJWc3NmTG1yT1I0c05tTHZtYk5kanQzX3dsVFVIYS01T0E?oc=5</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>APT・国家系</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2026-01-17T06:40:07Z</t>
+          <t>2026-01-14T07:52:14Z</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Cisco cuts thousands of jobs, 7% of workforce, as it shifts focus to AI, cybersecurity - AP News</t>
+          <t>Mitigating prompt injection attacks with a layered defense strategy</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxOcXN6clV0d2xaeDQ1aTNpdFhRaFNldVVzQ25LZHI3UGlMVUMxYmxLcklpbmFpRlRraHd3TDkwRW5YODM0SUlJOTNQM0dTTVFoZ0U3Zk90UnFESVl0dklxTWFuTEhoajZHRTVTeHhoMnNiVUx4VGlwOVBaMDR1Nm1GcW5OQUJzbk1uTkVOeG56aVpuWER4a3kzYw?oc=5</t>
+          <t>http://security.googleblog.com/2025/06/mitigating-prompt-injection-attacks.html</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>脆弱性・CVE</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -9556,27 +9556,27 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>How a faulty CrowdStrike update crashed computers around the world - AP News</t>
+          <t>What’s New in Android Security and Privacy in 2025</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQaDY4QjM5OFlLTzk2aW82YUN6eWh6Z1hlbjB4S3RiLThsX1cxZkE4Z19ia3c2SmEyb0RZamlrU3dDaXhIeVpFYWFseF9vV0pQbkRLOWM5eDFXdE9HOWgyU2ljczI4MG5vclpsS3l4QWpCWkpqOENuWXd0cUZLTVgtaWptWUhNeVZCd3VaREZNV3diVUF0a3FpZ193ZkprTUdWUGYyZTRn?oc=5</t>
+          <t>http://security.googleblog.com/2025/05/whats-new-in-android-security-privacy-2025.html</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>その他</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -9588,27 +9588,27 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Multiple threats to election systems prompt US cybersecurity agency to boost cooperation with states - AP News</t>
+          <t>New security requirements adopted by HTTPS certificate industry</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNSkk1Wm1OWDVaRFlNQ2FINkNzWGVHMkJXSW1qX0FlUTJucDJyTXQ2RWx6WHZjLXdfX1pZSmRsVXhFZFBjNm5iTHVYTVdQX2ZvbC1ZUlZTU0Fid1B2SnRQYzRJZ3JnVkUzbGJNZlBnLWtwLTNSNV92Y2pEd3VsU3dDS0dPaWZScjM5Z1c4Um9icDdrZEhfOU54ZDNtU1JJSGxjYU5VQ2ln?oc=5</t>
+          <t>http://security.googleblog.com/2025/03/new-security-requirements-adopted-by.html</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -9620,7 +9620,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -9630,17 +9630,17 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Cyberattack on Pennsylvania courts didn’t appear to compromise data, officials say - AP News</t>
+          <t>Google to buy cybersecurity firm Wiz for $32 billion in the biggest deal in company’s history - AP News</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxOc2l0X3V5WFhxZUR5YWdoVUZzdThqQWhfNjRKNzlNcXhFMXRoX1VzQk9TTnBuR1lOaVBSN1g4Y1BmNHRjTVVHb3VkaWg5OWpkdnRxeW5aQ0puVndMMDdXMk41RG1sa0xvZzhuekRtZnEyTG51VzZRWi1MSlVfSDRfdENhSXNvM3ZPQS1oWlA2UDBta0xhWDJwdE5NQ04xREJnVllXdTVpLTc2NUF3dHZZYWJqbw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxQVENFcGdMVURrVk9GZFVXN0NmOXZfZlZMVW9GTlRkX3dERklXeFEzcndndDAtZjN1dmRNZGZ6NFdCdTd4Ym43TS1kZ25NdkZrR21QUlpWbnlLVjRUSGNZZXJhczdWd0NtRmhMT2dXSExyaFdjeWZVOHVxSDd2V3ZPRURHS0oya1QzNmtRWU5GZ202Sktv?oc=5</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>マルウェア</t>
+          <t>防御・検知・対応</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -9652,39 +9652,39 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>AP News</t>
+          <t>Google Security Blog</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>States and Congress wrestle with cybersecurity after Iran attacks small town water utilities - AP News</t>
+          <t>Announcing OSV-Scanner V2: Vulnerability scanner and remediation tool for open source</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMingFBVV95cUxNaTluS0tuTW1ZZDJzWW1xUEJQTGZ6eW44em9hYVR5WFotT0NNbkRyLTVlZ0JwUklCc0FMVWtHWVktVVlGdVRDUUdDUVFIXzczMVBCVWFsZ2RPaUpOSE1QMUwxWXBNMk1VZ2VKTHVVU3I1X2hIdHNPNFh4VjM0OEZoVENnYVBoRW9LOHhkTnpTN29scmlTb3A1R1c4Y0plQQ?oc=5</t>
+          <t>http://security.googleblog.com/2025/03/announcing-osv-scanner-v2-vulnerability.html</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>脆弱性・CVE</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2026-01-16T06:45:11Z</t>
+          <t>2026-01-14T07:52:14Z</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -9694,17 +9694,17 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Top White House cyber aide says recent Iran hack on water system is call to tighten cybersecurity - AP News</t>
+          <t>Trump administration halts funding for two cybersecurity efforts, including one for elections - AP News</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxOUERwUzRFam9qUXg4N29iT0xPVFNGNFQ0dE5aeXY1S01rSVE2YkdlWnZNLXl5THFtOUlXbVRVWF9ldFZqOHBBaktMTUV2QmVOck9mdkpMOEdyMGRMbUYwcmFQVHNhSkVGclpiMEZncU5zbUU1OWxFajVtXy14YmdLNms1dEViMHFTSkxfSkRkN01NejZWMXgxWk55R0dtZFB2YVN5cW5vdzRPZGJnemI0?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxQeXJVUGp0Y1F2U196TVZmMjJ6QlZ5MzRRVU83N19yaXR5eC1GemYyUlcxWjYtYTNoOGw5dGNkRG5BM3cwTGtTSWx3ZkFhY0lnRzZWLXdtY0FobjZOZG1tM0RUWng2MEVqY3dIOXdrRmoxNk9CeTVPX1phdkszUVNHMXNXVmdBQzZ4QURFVy01dWRtNHdLaHFEY1E2NmNtWWIwdFE?oc=5</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>防御・検知・対応</t>
+          <t>マルウェア</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -9716,30 +9716,382 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>US cyber agency puts election security staffers who worked with the states on leave - AP News</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQSjZEWnc5TmtXcVVUMVhmZTl3UjRHUmE1ZG16d0JoaEpEdEpJdGQxY2dPZ0pQQ2Zwc0dKZzAwem5SVG53eENzMHlPX0JTY0xiWVNwUWNPZ3R2ZVQ1dlM5ZzBQYVlJMmpvM3hMSU5LUXJYeXpEOFBkVllLN1RRVURkejM0My1pRjlJejhaRkd6bThUa2xMeHBOY3JQQkhwZ25VVFhWNXkxbVAtUVlE?oc=5</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>2026-01-15T06:44:44Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>US cybersecurity agency's future role in elections remains murky under the Trump administration - AP News</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPMnRHWXk2WkZpWVRaZ2h5U3h0cWR1WlF6a3RnSGdBWE5pcTRITWxhbE51anlTZm00WlBsVW9xenlQMzQyd3VqM3Jjdm04LVhrakpzLW5HSlRuTFBjV2ZNSTU0b3ZUUERFX3o1Q0lodzI4XzNjdVhKNEVIUGduZ1NFNHVwYVIyTEp1VUg5cmhEZkQ4Zk40NkN6Rmc5eUFnTmZQVWdPbnJkYTJRQQ?oc=5</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Delta sues cybersecurity firm CrowdStrike over tech outage that canceled flights - AP News</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxOWWhiMEtqTE91UDVReXk4cndIVW82MzZOb3o3ZnVqZG9fT29vSnJfeXU1cjZFMk9aSkY5b3lIcmw3LTRHZThZenE1SEtLV2F2dW9JbU5KdnBNTklQZS0yS0NyVU9lZW1YWHpiSXA3Y2NkVTB2QlZEOEJhckNJY3R4VFBUcDVSZzcwNEprbWwwS21CeVF3aHJlWkVaci1TbFRtMm5V?oc=5</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Cybersecurity head says there's no chance a foreign adversary can change US election results - AP News</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxPdV9seHI5VHlIQ1R5TTVkdXo2OFdJZmZRcHZRZ29GQm1QYTljdGJSbmRwcDQ1RmxkSF9XZEsyaFZ5ZHNqRTJvMmRwblQxNkFLc2xiaTAtS2hLeDFLV2tpaExYVHNRSGlRRjBGTXVzbHFMS2haSTNZak9INXBqODJQd1hIUlAxLXZ4Y3dWaDJmV1JLMFpCekxkUVBWR192TUVmVVdKSGhaY0JOUHhSWnc?oc=5</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>CrowdStrike executive apologizes to Congress for July global tech outage - AP News</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPazZac1hqU1pOQ1FUanRrRVE2cGt3T3BYZktPY3Vfblc5cERZWUhTckxuMFAxQ2NlSEphbU1XdUlFNUZvZXBMb2tjUG1ObEtSWU80MTl3MVlrb2hmT3RVa0NaRzFPeFE0MGptTzNkTVVhZ1NXSkFXQnJPaUlUcm9DVDNOX01oT0xtR0tvYXkyNlgzUFFoM08wWkcwb2MtcUVJZkJkZjhsNXM?oc=5</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>2026-01-17T06:40:07Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Cisco cuts thousands of jobs, 7% of workforce, as it shifts focus to AI, cybersecurity - AP News</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxOcXN6clV0d2xaeDQ1aTNpdFhRaFNldVVzQ25LZHI3UGlMVUMxYmxLcklpbmFpRlRraHd3TDkwRW5YODM0SUlJOTNQM0dTTVFoZ0U3Zk90UnFESVl0dklxTWFuTEhoajZHRTVTeHhoMnNiVUx4VGlwOVBaMDR1Nm1GcW5OQUJzbk1uTkVOeG56aVpuWER4a3kzYw?oc=5</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>脆弱性・CVE</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>How a faulty CrowdStrike update crashed computers around the world - AP News</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQaDY4QjM5OFlLTzk2aW82YUN6eWh6Z1hlbjB4S3RiLThsX1cxZkE4Z19ia3c2SmEyb0RZamlrU3dDaXhIeVpFYWFseF9vV0pQbkRLOWM5eDFXdE9HOWgyU2ljczI4MG5vclpsS3l4QWpCWkpqOENuWXd0cUZLTVgtaWptWUhNeVZCd3VaREZNV3diVUF0a3FpZ193ZkprTUdWUGYyZTRn?oc=5</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Multiple threats to election systems prompt US cybersecurity agency to boost cooperation with states - AP News</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNSkk1Wm1OWDVaRFlNQ2FINkNzWGVHMkJXSW1qX0FlUTJucDJyTXQ2RWx6WHZjLXdfX1pZSmRsVXhFZFBjNm5iTHVYTVdQX2ZvbC1ZUlZTU0Fid1B2SnRQYzRJZ3JnVkUzbGJNZlBnLWtwLTNSNV92Y2pEd3VsU3dDS0dPaWZScjM5Z1c4Um9icDdrZEhfOU54ZDNtU1JJSGxjYU5VQ2ln?oc=5</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Cyberattack on Pennsylvania courts didn’t appear to compromise data, officials say - AP News</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxOc2l0X3V5WFhxZUR5YWdoVUZzdThqQWhfNjRKNzlNcXhFMXRoX1VzQk9TTnBuR1lOaVBSN1g4Y1BmNHRjTVVHb3VkaWg5OWpkdnRxeW5aQ0puVndMMDdXMk41RG1sa0xvZzhuekRtZnEyTG51VzZRWi1MSlVfSDRfdENhSXNvM3ZPQS1oWlA2UDBta0xhWDJwdE5NQ04xREJnVllXdTVpLTc2NUF3dHZZYWJqbw?oc=5</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>マルウェア</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>States and Congress wrestle with cybersecurity after Iran attacks small town water utilities - AP News</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMingFBVV95cUxNaTluS0tuTW1ZZDJzWW1xUEJQTGZ6eW44em9hYVR5WFotT0NNbkRyLTVlZ0JwUklCc0FMVWtHWVktVVlGdVRDUUdDUVFIXzczMVBCVWFsZ2RPaUpOSE1QMUwxWXBNMk1VZ2VKTHVVU3I1X2hIdHNPNFh4VjM0OEZoVENnYVBoRW9LOHhkTnpTN29scmlTb3A1R1c4Y0plQQ?oc=5</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>2026-01-16T06:45:11Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>AP News</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Top White House cyber aide says recent Iran hack on water system is call to tighten cybersecurity - AP News</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxOUERwUzRFam9qUXg4N29iT0xPVFNGNFQ0dE5aeXY1S01rSVE2YkdlWnZNLXl5THFtOUlXbVRVWF9ldFZqOHBBaktMTUV2QmVOck9mdkpMOEdyMGRMbUYwcmFQVHNhSkVGclpiMEZncU5zbUU1OWxFajVtXy14YmdLNms1dEViMHFTSkxfSkRkN01NejZWMXgxWk55R0dtZFB2YVN5cW5vdzRPZGJnemI0?oc=5</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>防御・検知・対応</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>2026-01-14T07:52:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="B291" t="inlineStr">
+      <c r="B302" t="inlineStr">
         <is>
           <t>AP News</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr">
+      <c r="C302" t="inlineStr">
         <is>
           <t>Here are the countries that have bans on TikTok - AP News</t>
         </is>
       </c>
-      <c r="D291" t="inlineStr">
+      <c r="D302" t="inlineStr">
         <is>
           <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNVHY1cFpobU4wMkdQdXVMejZKbHpTUjZiekdUdnBHMVp3QXJXVG9kWUV0NTlVQXV5anBUOWtud0xNeHl1SWcxOFJrOGluakVSbDN5bDlrSFplSjFScVRHVjhUTW1DQ3FISEhpc0VyVE9MTUN6MF81NVRLeUxnYlNZMFpvbGdpeDhvcUZfbzBTNnIzUlN4QnVuM0JHR0d6YWh2U0hxdDlPRlFITmtP?oc=5</t>
         </is>
       </c>
-      <c r="E291" t="inlineStr">
+      <c r="E302" t="inlineStr">
         <is>
           <t>その他</t>
         </is>
       </c>
-      <c r="F291" t="inlineStr">
+      <c r="F302" t="inlineStr">
         <is>
           <t>2026-01-16T06:45:11Z</t>
         </is>
